--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="237">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -530,12 +530,18 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
     <t>유투바이오</t>
   </si>
   <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
+    <t>컨텍</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
@@ -584,7 +590,7 @@
     <t>유안타스팩11호</t>
   </si>
   <si>
-    <t>대신밸런스스팩15호</t>
+    <t>2023.10.19~10.25</t>
   </si>
   <si>
     <t>2023.10.18~10.19</t>
@@ -632,10 +638,7 @@
     <t>2023.08.16~08.17</t>
   </si>
   <si>
-    <t>2023.08.14~08.16</t>
-  </si>
-  <si>
-    <t>2023.08.08~08.09</t>
+    <t>9,100~11,000</t>
   </si>
   <si>
     <t>3,300~3,900</t>
@@ -644,6 +647,9 @@
     <t>13,000~15,000</t>
   </si>
   <si>
+    <t>20,300~22,500</t>
+  </si>
+  <si>
     <t>22,000~25,000</t>
   </si>
   <si>
@@ -674,13 +680,10 @@
     <t>10,500~12,000</t>
   </si>
   <si>
-    <t>9,200~10,600</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>12000</t>
+    <t>IBK투자증권</t>
   </si>
   <si>
     <t>신한투자증권</t>
@@ -689,6 +692,9 @@
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>대신증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
@@ -717,9 +723,6 @@
   </si>
   <si>
     <t>한화투자증권</t>
-  </si>
-  <si>
-    <t>대신증권</t>
   </si>
   <si>
     <t>유안타증권</t>
@@ -3049,7 +3052,7 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>207</v>
@@ -3058,7 +3061,7 @@
         <v>130</v>
       </c>
       <c r="E2">
-        <v>3724</v>
+        <v>10920</v>
       </c>
       <c r="F2" t="s">
         <v>222</v>
@@ -3069,7 +3072,7 @@
         <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
         <v>208</v>
@@ -3078,7 +3081,7 @@
         <v>130</v>
       </c>
       <c r="E3">
-        <v>23400</v>
+        <v>3724</v>
       </c>
       <c r="F3" t="s">
         <v>223</v>
@@ -3089,7 +3092,7 @@
         <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>209</v>
@@ -3098,7 +3101,7 @@
         <v>130</v>
       </c>
       <c r="E4">
-        <v>44000</v>
+        <v>23400</v>
       </c>
       <c r="F4" t="s">
         <v>224</v>
@@ -3118,10 +3121,10 @@
         <v>130</v>
       </c>
       <c r="E5">
-        <v>36405</v>
+        <v>41818</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3138,10 +3141,10 @@
         <v>130</v>
       </c>
       <c r="E6">
-        <v>8000</v>
+        <v>44000</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3158,7 +3161,7 @@
         <v>130</v>
       </c>
       <c r="E7">
-        <v>6314</v>
+        <v>36405</v>
       </c>
       <c r="F7" t="s">
         <v>226</v>
@@ -3172,16 +3175,16 @@
         <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
         <v>130</v>
       </c>
       <c r="E8">
-        <v>36000</v>
+        <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3192,16 +3195,16 @@
         <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
         <v>130</v>
       </c>
       <c r="E9">
-        <v>25760</v>
+        <v>6314</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3209,19 +3212,19 @@
         <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
         <v>130</v>
       </c>
       <c r="E10">
-        <v>340200</v>
+        <v>36000</v>
       </c>
       <c r="F10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3229,7 +3232,7 @@
         <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>215</v>
@@ -3238,7 +3241,7 @@
         <v>130</v>
       </c>
       <c r="E11">
-        <v>13350</v>
+        <v>25760</v>
       </c>
       <c r="F11" t="s">
         <v>229</v>
@@ -3258,10 +3261,10 @@
         <v>130</v>
       </c>
       <c r="E12">
-        <v>30000</v>
+        <v>340200</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3278,10 +3281,10 @@
         <v>130</v>
       </c>
       <c r="E13">
-        <v>22000</v>
+        <v>13350</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3289,7 +3292,7 @@
         <v>183</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
         <v>218</v>
@@ -3298,10 +3301,10 @@
         <v>130</v>
       </c>
       <c r="E14">
-        <v>16590</v>
+        <v>30000</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3309,16 +3312,16 @@
         <v>184</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="E15">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="F15" t="s">
         <v>232</v>
@@ -3332,13 +3335,13 @@
         <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="E16">
-        <v>9500</v>
+        <v>16590</v>
       </c>
       <c r="F16" t="s">
         <v>233</v>
@@ -3352,13 +3355,13 @@
         <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E17">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="F17" t="s">
         <v>234</v>
@@ -3372,16 +3375,16 @@
         <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E18">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="F18" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3389,19 +3392,19 @@
         <v>188</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E19">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3409,39 +3412,39 @@
         <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E20">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
         <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
         <v>221</v>
       </c>
       <c r="E21">
-        <v>10671</v>
+        <v>10000</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="243">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -536,12 +536,21 @@
     <t>유투바이오</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>서울보증보험</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
     <t>컨텍</t>
   </si>
   <si>
+    <t>워트</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
@@ -581,24 +590,24 @@
     <t>한화플러스스팩4호</t>
   </si>
   <si>
-    <t>대신밸런스스팩16호</t>
-  </si>
-  <si>
-    <t>한국스팩12호</t>
-  </si>
-  <si>
-    <t>유안타스팩11호</t>
-  </si>
-  <si>
     <t>2023.10.19~10.25</t>
   </si>
   <si>
     <t>2023.10.18~10.19</t>
   </si>
   <si>
+    <t>2023.10.18~10.24</t>
+  </si>
+  <si>
+    <t>2023.10.13~10.19</t>
+  </si>
+  <si>
     <t>2023.10.06~10.13</t>
   </si>
   <si>
+    <t>2023.10.05~10.12</t>
+  </si>
+  <si>
     <t>2023.09.22~10.04</t>
   </si>
   <si>
@@ -632,24 +641,27 @@
     <t>2023.08.24~08.25</t>
   </si>
   <si>
-    <t>2023.08.17~08.18</t>
-  </si>
-  <si>
-    <t>2023.08.16~08.17</t>
-  </si>
-  <si>
     <t>9,100~11,000</t>
   </si>
   <si>
     <t>3,300~3,900</t>
   </si>
   <si>
+    <t>29,800~33,500</t>
+  </si>
+  <si>
+    <t>39,500~51,800</t>
+  </si>
+  <si>
     <t>13,000~15,000</t>
   </si>
   <si>
     <t>20,300~22,500</t>
   </si>
   <si>
+    <t>5,000~5,600</t>
+  </si>
+  <si>
     <t>22,000~25,000</t>
   </si>
   <si>
@@ -680,6 +692,9 @@
     <t>10,500~12,000</t>
   </si>
   <si>
+    <t>24000</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
@@ -689,12 +704,18 @@
     <t>신한투자증권</t>
   </si>
   <si>
+    <t>미래에셋증권,삼성증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
     <t>대신증권</t>
   </si>
   <si>
+    <t>키움증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
@@ -723,9 +744,6 @@
   </si>
   <si>
     <t>한화투자증권</t>
-  </si>
-  <si>
-    <t>유안타증권</t>
   </si>
 </sst>
 </file>
@@ -3055,7 +3073,7 @@
         <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
         <v>130</v>
@@ -3064,7 +3082,7 @@
         <v>10920</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3075,7 +3093,7 @@
         <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
         <v>130</v>
@@ -3084,7 +3102,7 @@
         <v>3724</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3095,16 +3113,16 @@
         <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>23400</v>
+        <v>47680</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3112,19 +3130,19 @@
         <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>41818</v>
+        <v>275795</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3132,19 +3150,19 @@
         <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>44000</v>
+        <v>23400</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3155,16 +3173,16 @@
         <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
         <v>130</v>
       </c>
       <c r="E7">
-        <v>36405</v>
+        <v>41818</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3175,16 +3193,16 @@
         <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
         <v>130</v>
       </c>
       <c r="E8">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="F8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3195,16 +3213,16 @@
         <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
         <v>130</v>
       </c>
       <c r="E9">
-        <v>6314</v>
+        <v>44000</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3215,16 +3233,16 @@
         <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
         <v>130</v>
       </c>
       <c r="E10">
-        <v>36000</v>
+        <v>36405</v>
       </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3235,16 +3253,16 @@
         <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
         <v>130</v>
       </c>
       <c r="E11">
-        <v>25760</v>
+        <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3252,19 +3270,19 @@
         <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
         <v>130</v>
       </c>
       <c r="E12">
-        <v>340200</v>
+        <v>6314</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3272,7 +3290,7 @@
         <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>217</v>
@@ -3281,10 +3299,10 @@
         <v>130</v>
       </c>
       <c r="E13">
-        <v>13350</v>
+        <v>36000</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3292,19 +3310,19 @@
         <v>183</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
         <v>130</v>
       </c>
       <c r="E14">
-        <v>30000</v>
+        <v>25760</v>
       </c>
       <c r="F14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3315,16 +3333,16 @@
         <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
         <v>130</v>
       </c>
       <c r="E15">
-        <v>22000</v>
+        <v>340200</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3332,19 +3350,19 @@
         <v>185</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
         <v>130</v>
       </c>
       <c r="E16">
-        <v>16590</v>
+        <v>13350</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3352,19 +3370,19 @@
         <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="E17">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3372,19 +3390,19 @@
         <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E18">
-        <v>9500</v>
+        <v>22000</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3395,16 +3413,16 @@
         <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>13000</v>
+        <v>16590</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3415,16 +3433,16 @@
         <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E20">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F20" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3432,19 +3450,19 @@
         <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E21">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="247">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
     <t>2023-08-24</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
     <t>2023-07-03</t>
   </si>
   <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
     <t>2023-08-25</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
     <t>2023-07-04</t>
   </si>
   <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
     <t>2023-09-07</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
     <t>2023-08-11</t>
   </si>
   <si>
+    <t>상상인</t>
+  </si>
+  <si>
     <t>한화</t>
   </si>
   <si>
@@ -233,7 +245,7 @@
     <t>DB</t>
   </si>
   <si>
-    <t>삼성</t>
+    <t>상상인제4호스팩</t>
   </si>
   <si>
     <t>한화플러스제4호스팩</t>
@@ -305,7 +317,7 @@
     <t>와이랩</t>
   </si>
   <si>
-    <t>센서뷰</t>
+    <t>655.64:1</t>
   </si>
   <si>
     <t>739.65:1</t>
@@ -377,7 +389,7 @@
     <t>1821.64:1</t>
   </si>
   <si>
-    <t>1,673.33:1</t>
+    <t>-</t>
   </si>
   <si>
     <t>0.13%</t>
@@ -407,9 +419,6 @@
     <t>2.63%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0.66%</t>
   </si>
   <si>
@@ -449,7 +458,7 @@
     <t>14.72%</t>
   </si>
   <si>
-    <t>7.41%</t>
+    <t>합병</t>
   </si>
   <si>
     <t>기타 금융서비스업</t>
@@ -509,9 +518,6 @@
     <t>만화출판물의 제작 및 영상물 제작</t>
   </si>
   <si>
-    <t>T&amp;M 케이블, 초소형 전송선로</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -530,6 +536,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
     <t>비아이매트릭스</t>
   </si>
   <si>
@@ -542,6 +551,9 @@
     <t>서울보증보험</t>
   </si>
   <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
@@ -584,10 +596,7 @@
     <t>아이엠티</t>
   </si>
   <si>
-    <t>상상인스팩4호</t>
-  </si>
-  <si>
-    <t>한화플러스스팩4호</t>
+    <t>2023.10.23~10.27</t>
   </si>
   <si>
     <t>2023.10.19~10.25</t>
@@ -602,6 +611,9 @@
     <t>2023.10.13~10.19</t>
   </si>
   <si>
+    <t>2023.10.11~10.17</t>
+  </si>
+  <si>
     <t>2023.10.06~10.13</t>
   </si>
   <si>
@@ -635,10 +647,7 @@
     <t>2023.09.06~09.12</t>
   </si>
   <si>
-    <t>2023.08.28~08.29</t>
-  </si>
-  <si>
-    <t>2023.08.24~08.25</t>
+    <t>19,100~21,400</t>
   </si>
   <si>
     <t>9,100~11,000</t>
@@ -653,6 +662,9 @@
     <t>39,500~51,800</t>
   </si>
   <si>
+    <t>12,800~14,500</t>
+  </si>
+  <si>
     <t>13,000~15,000</t>
   </si>
   <si>
@@ -692,10 +704,16 @@
     <t>10,500~12,000</t>
   </si>
   <si>
+    <t>23000</t>
+  </si>
+  <si>
     <t>24000</t>
   </si>
   <si>
-    <t>2000</t>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
   </si>
   <si>
     <t>IBK투자증권</t>
@@ -707,6 +725,9 @@
     <t>미래에셋증권,삼성증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -725,9 +746,6 @@
     <t>하나증권</t>
   </si>
   <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
     <t>한국투자증권,미래에셋증권,NH투자증권,KB증권,크레디트스위스증권</t>
   </si>
   <si>
@@ -738,12 +756,6 @@
   </si>
   <si>
     <t>유안타증권,유진투자증권</t>
-  </si>
-  <si>
-    <t>상상인증권</t>
-  </si>
-  <si>
-    <t>한화투자증권</t>
   </si>
 </sst>
 </file>
@@ -1189,22 +1201,22 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F2">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="G2">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1216,7 +1228,7 @@
         <v>2000</v>
       </c>
       <c r="K2">
-        <v>5060000</v>
+        <v>5220000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1225,10 +1237,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1258,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1266,22 +1278,22 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="G3">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1293,7 +1305,7 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <v>7310000</v>
+        <v>5060000</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1302,10 +1314,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1335,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1343,22 +1355,22 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F4">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1370,7 +1382,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>5240000</v>
+        <v>7310000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1379,28 +1391,28 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-13847740</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>-27857800</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>-26031573</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>-26619749</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1412,30 +1424,30 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1447,7 +1459,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>4230000</v>
+        <v>5240000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1456,28 +1468,28 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-13847740</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-27857800</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-26031573</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-26619749</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1489,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1500,19 +1512,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="G6">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1524,7 +1536,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>7035000</v>
+        <v>4230000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1533,10 +1545,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1554,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>-12707400</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1563,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-25255133</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1574,76 +1586,76 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="G7">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>7911521</v>
+        <v>7035000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P7">
-        <v>1188142585</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1918848238</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2770382559</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>-1725238656</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>-3229064780</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>-5537591447</v>
+        <v>-12707400</v>
       </c>
       <c r="V7">
-        <v>-6204320195</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-4650355117</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-5441928110</v>
+        <v>-25255133</v>
       </c>
       <c r="Y7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1651,76 +1663,76 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F8">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="G8">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J8">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K8">
-        <v>14836340</v>
+        <v>7911521</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P8">
-        <v>4679062361</v>
+        <v>1188142585</v>
       </c>
       <c r="Q8">
-        <v>3485357820</v>
+        <v>1918848238</v>
       </c>
       <c r="R8">
-        <v>4024884536</v>
+        <v>2770382559</v>
       </c>
       <c r="S8">
-        <v>-2507179686</v>
+        <v>-1725238656</v>
       </c>
       <c r="T8">
-        <v>-4556221312</v>
+        <v>-3229064780</v>
       </c>
       <c r="U8">
-        <v>-5515471027</v>
+        <v>-5537591447</v>
       </c>
       <c r="V8">
-        <v>-6337199541</v>
+        <v>-6204320195</v>
       </c>
       <c r="W8">
-        <v>-5219381024</v>
+        <v>-4650355117</v>
       </c>
       <c r="X8">
-        <v>-7737792622</v>
+        <v>-5441928110</v>
       </c>
       <c r="Y8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1728,76 +1740,76 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9">
-        <v>7000000</v>
+        <v>2220000</v>
       </c>
       <c r="G9">
-        <v>3650000</v>
+        <v>2220000</v>
       </c>
       <c r="H9">
-        <v>3350000</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="J9">
-        <v>12500</v>
+        <v>6800</v>
       </c>
       <c r="K9">
-        <v>26002000</v>
+        <v>14836340</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P9">
-        <v>214793831184</v>
+        <v>4679062361</v>
       </c>
       <c r="Q9">
-        <v>424718548060</v>
+        <v>3485357820</v>
       </c>
       <c r="R9">
-        <v>668403649813</v>
+        <v>4024884536</v>
       </c>
       <c r="S9">
-        <v>1549962921</v>
+        <v>-2507179686</v>
       </c>
       <c r="T9">
-        <v>16977488102</v>
+        <v>-4556221312</v>
       </c>
       <c r="U9">
-        <v>181300504021</v>
+        <v>-5515471027</v>
       </c>
       <c r="V9">
-        <v>-6243008019</v>
+        <v>-6337199541</v>
       </c>
       <c r="W9">
-        <v>-1128019547</v>
+        <v>-5219381024</v>
       </c>
       <c r="X9">
-        <v>144193113559</v>
+        <v>-7737792622</v>
       </c>
       <c r="Y9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1805,76 +1817,76 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F10">
-        <v>1400000</v>
+        <v>7000000</v>
       </c>
       <c r="G10">
-        <v>1400000</v>
+        <v>3650000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3350000</v>
       </c>
       <c r="I10">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="J10">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="K10">
-        <v>8010968</v>
+        <v>26002000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P10">
-        <v>5523</v>
+        <v>214793831184</v>
       </c>
       <c r="Q10">
-        <v>7237</v>
+        <v>424718548060</v>
       </c>
       <c r="R10">
-        <v>2152</v>
+        <v>668403649813</v>
       </c>
       <c r="S10">
-        <v>-8337</v>
+        <v>1549962921</v>
       </c>
       <c r="T10">
-        <v>-11421</v>
+        <v>16977488102</v>
       </c>
       <c r="U10">
-        <v>-2426</v>
+        <v>181300504021</v>
       </c>
       <c r="V10">
-        <v>-14525</v>
+        <v>-6243008019</v>
       </c>
       <c r="W10">
-        <v>-11498</v>
+        <v>-1128019547</v>
       </c>
       <c r="X10">
-        <v>-2030</v>
+        <v>144193113559</v>
       </c>
       <c r="Y10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1882,76 +1894,76 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F11">
-        <v>6500000</v>
+        <v>1400000</v>
       </c>
       <c r="G11">
-        <v>6500000</v>
+        <v>1400000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K11">
-        <v>7202000</v>
+        <v>8010968</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>5523</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>7237</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-8337</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-11421</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-2426</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-14525</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-11498</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-2030</v>
       </c>
       <c r="Y11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1959,22 +1971,22 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F12">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="G12">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1986,7 +1998,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>3310000</v>
+        <v>7202000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1995,10 +2007,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2028,84 +2040,84 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F13">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="G13">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>5081792</v>
+        <v>3310000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P13">
-        <v>24739844508</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>31898973540</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>41835502370</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1308447665</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>2690844081</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>2785574622</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1394814802</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>2272182540</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>2296576120</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2116,150 +2128,150 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="G14">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K14">
-        <v>5505000</v>
+        <v>5081792</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>24739844508</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>31898973540</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>41835502370</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1308447665</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2690844081</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2785574622</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1394814802</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2272182540</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>2296576120</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F15">
-        <v>6250000</v>
+        <v>5000000</v>
       </c>
       <c r="G15">
-        <v>6250000</v>
+        <v>5000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>48052977</v>
+        <v>5505000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P15">
-        <v>5156816449</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>56401518172</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>17663847173</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>33674192798</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1507325359</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>-4313488564</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>-43340650215</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>-227459980077</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-4104436260</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2267,76 +2279,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>1210000</v>
+        <v>6250000</v>
       </c>
       <c r="G16">
-        <v>1210000</v>
+        <v>6250000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8500</v>
+        <v>26000</v>
       </c>
       <c r="J16">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K16">
-        <v>4831300</v>
+        <v>48052977</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P16">
-        <v>17039669000</v>
+        <v>5156816449</v>
       </c>
       <c r="Q16">
-        <v>22295174000</v>
+        <v>56401518172</v>
       </c>
       <c r="R16">
-        <v>5651391000</v>
+        <v>17663847173</v>
       </c>
       <c r="S16">
-        <v>379731000</v>
+        <v>33674192798</v>
       </c>
       <c r="T16">
-        <v>2826779000</v>
+        <v>1507325359</v>
       </c>
       <c r="U16">
-        <v>308790000</v>
+        <v>-4313488564</v>
       </c>
       <c r="V16">
-        <v>498978000</v>
+        <v>-43340650215</v>
       </c>
       <c r="W16">
-        <v>2789878000</v>
+        <v>-227459980077</v>
       </c>
       <c r="X16">
-        <v>404342000</v>
+        <v>-4104436260</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2344,76 +2356,76 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F17">
-        <v>900000</v>
+        <v>1210000</v>
       </c>
       <c r="G17">
-        <v>900000</v>
+        <v>1210000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K17">
-        <v>4506250</v>
+        <v>4831300</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P17">
-        <v>15494673490</v>
+        <v>17039669000</v>
       </c>
       <c r="Q17">
-        <v>14521214328</v>
+        <v>22295174000</v>
       </c>
       <c r="R17">
-        <v>3594864137</v>
+        <v>5651391000</v>
       </c>
       <c r="S17">
-        <v>-4233553078</v>
+        <v>379731000</v>
       </c>
       <c r="T17">
-        <v>-4846781071</v>
+        <v>2826779000</v>
       </c>
       <c r="U17">
-        <v>-1326574819</v>
+        <v>308790000</v>
       </c>
       <c r="V17">
-        <v>-5644511370</v>
+        <v>498978000</v>
       </c>
       <c r="W17">
-        <v>-4369020361</v>
+        <v>2789878000</v>
       </c>
       <c r="X17">
-        <v>-1357947720</v>
+        <v>404342000</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2421,76 +2433,76 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18">
-        <v>1400000</v>
+        <v>900000</v>
       </c>
       <c r="G18">
-        <v>1400000</v>
+        <v>900000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="J18">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="K18">
-        <v>12918962</v>
+        <v>4506250</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>15494673490</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>14521214328</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>3594864137</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>-4233553078</v>
       </c>
       <c r="T18">
-        <v>-2245693698</v>
+        <v>-4846781071</v>
       </c>
       <c r="U18">
-        <v>-2229761675</v>
+        <v>-1326574819</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>-5644511370</v>
       </c>
       <c r="W18">
-        <v>-3942537108</v>
+        <v>-4369020361</v>
       </c>
       <c r="X18">
-        <v>-2032976451</v>
+        <v>-1357947720</v>
       </c>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2498,46 +2510,46 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F19">
-        <v>4000000</v>
+        <v>1400000</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>1400000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K19">
-        <v>4540000</v>
+        <v>12918962</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2552,22 +2564,22 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>-2245693698</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>-2229761675</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-3942537108</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-2032976451</v>
       </c>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2575,218 +2587,218 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F20">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="G20">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16700</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>20500</v>
+        <v>2000</v>
       </c>
       <c r="K20">
-        <v>8489671</v>
+        <v>4540000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20">
-        <v>30699181665</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>41841806894</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>44318854365</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>7122843938</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>5591579336</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>8025839545</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>9772863736</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>5681903898</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>14260090631</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F21">
-        <v>1920000</v>
+        <v>900000</v>
       </c>
       <c r="G21">
-        <v>1920000</v>
+        <v>900000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11500</v>
+        <v>16700</v>
       </c>
       <c r="J21">
-        <v>13600</v>
+        <v>20500</v>
       </c>
       <c r="K21">
-        <v>10869600</v>
+        <v>8489671</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P21">
-        <v>-1450079427</v>
+        <v>30699181665</v>
       </c>
       <c r="Q21">
-        <v>-4660285609</v>
+        <v>41841806894</v>
       </c>
       <c r="R21">
-        <v>-14142263265</v>
+        <v>44318854365</v>
       </c>
       <c r="S21">
-        <v>-1532952507</v>
+        <v>7122843938</v>
       </c>
       <c r="T21">
-        <v>-8976354818</v>
+        <v>5591579336</v>
       </c>
       <c r="U21">
-        <v>-8481198407</v>
+        <v>8025839545</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>9772863736</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>5681903898</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>14260090631</v>
       </c>
       <c r="Y21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F22">
-        <v>440000</v>
+        <v>1920000</v>
       </c>
       <c r="G22">
-        <v>440000</v>
+        <v>1920000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="J22">
-        <v>24000</v>
+        <v>13600</v>
       </c>
       <c r="K22">
-        <v>3534040</v>
+        <v>10869600</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>-1450079427</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-4660285609</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-14142263265</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>-1532952507</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-8976354818</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>-8481198407</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2798,54 +2810,54 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F23">
-        <v>4000000</v>
+        <v>440000</v>
       </c>
       <c r="G23">
-        <v>4000000</v>
+        <v>440000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K23">
-        <v>5020000</v>
+        <v>3534040</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2875,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2883,153 +2895,153 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F24">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="G24">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="J24">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
-        <v>15831354</v>
+        <v>5020000</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P24">
-        <v>5371307160</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>21656372098</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>29780532001</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-3379753305</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>-1074375321</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>-435498328</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>-1091111641</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>453696676</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-572434054</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
       <c r="G25">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="J25">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="K25">
-        <v>25937910</v>
+        <v>15831354</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>5371307160</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>21656372098</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>29780532001</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>-3379753305</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>-1074375321</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>-435498328</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>-1091111641</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>453696676</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>-572434054</v>
       </c>
       <c r="Y25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3047,379 +3059,379 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>10920</v>
+        <v>50353</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E3">
-        <v>3724</v>
+        <v>10920</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>47680</v>
+        <v>3724</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E5">
-        <v>275795</v>
+        <v>47680</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E6">
-        <v>23400</v>
+        <v>275795</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E7">
-        <v>41818</v>
+        <v>13433</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E8">
-        <v>20000</v>
+        <v>23400</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E9">
-        <v>44000</v>
+        <v>41818</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E10">
-        <v>36405</v>
+        <v>20000</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E11">
-        <v>8000</v>
+        <v>44000</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E12">
-        <v>6314</v>
+        <v>36405</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E13">
-        <v>36000</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E14">
-        <v>25760</v>
+        <v>6314</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E15">
-        <v>340200</v>
+        <v>36000</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E16">
-        <v>13350</v>
+        <v>25760</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E17">
-        <v>30000</v>
+        <v>340200</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="E18">
-        <v>22000</v>
+        <v>13350</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="E19">
-        <v>16590</v>
+        <v>30000</v>
       </c>
       <c r="F19" t="s">
         <v>240</v>
@@ -3427,42 +3439,42 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E20">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E21">
-        <v>9500</v>
+        <v>16590</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -131,9 +131,6 @@
     <t>2023-08-02</t>
   </si>
   <si>
-    <t>2023-07-26</t>
-  </si>
-  <si>
     <t>2023-09-15</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>2023-08-03</t>
   </si>
   <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
     <t>2023-10-05</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>2023-08-21</t>
   </si>
   <si>
-    <t>2023-08-11</t>
-  </si>
-  <si>
     <t>한국, 미래</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>하나</t>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>두산로보틱스</t>
   </si>
   <si>
@@ -284,9 +272,6 @@
     <t>넥스틸</t>
   </si>
   <si>
-    <t>SK증권제10호스팩</t>
-  </si>
-  <si>
     <t>272.03:1</t>
   </si>
   <si>
@@ -335,9 +320,6 @@
     <t>235.56:1</t>
   </si>
   <si>
-    <t>1205.00:1</t>
-  </si>
-  <si>
     <t>51.60%</t>
   </si>
   <si>
@@ -384,9 +366,6 @@
   </si>
   <si>
     <t>0.60%</t>
-  </si>
-  <si>
-    <t>0.66%</t>
   </si>
   <si>
     <t>협동로봇</t>
@@ -999,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,16 +1066,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>16200000</v>
@@ -1123,10 +1102,10 @@
         <v>26000</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P2">
         <v>36980</v>
@@ -1156,7 +1135,7 @@
         <v>-9333</v>
       </c>
       <c r="Y2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1164,16 +1143,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>18000000</v>
@@ -1200,10 +1179,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1233,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1244,13 +1223,13 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>1500000</v>
@@ -1277,10 +1256,10 @@
         <v>12500</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P4">
         <v>18408761227</v>
@@ -1310,7 +1289,7 @@
         <v>592903151</v>
       </c>
       <c r="Y4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1318,16 +1297,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>2240000</v>
@@ -1354,10 +1333,10 @@
         <v>15000</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P5">
         <v>22818451349</v>
@@ -1387,7 +1366,7 @@
         <v>1929682988</v>
       </c>
       <c r="Y5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1395,16 +1374,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>1580000</v>
@@ -1431,10 +1410,10 @@
         <v>14000</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="P6">
         <v>7327878427</v>
@@ -1464,7 +1443,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1472,16 +1451,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>1500000</v>
@@ -1508,10 +1487,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P7">
         <v>28857</v>
@@ -1541,7 +1520,7 @@
         <v>5128</v>
       </c>
       <c r="Y7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1549,16 +1528,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>1100000</v>
@@ -1585,10 +1564,10 @@
         <v>24000</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P8">
         <v>32608351</v>
@@ -1618,7 +1597,7 @@
         <v>180579</v>
       </c>
       <c r="Y8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1626,16 +1605,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>4500000</v>
@@ -1662,10 +1641,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1695,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1703,16 +1682,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>4750000</v>
@@ -1739,10 +1718,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1772,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1780,16 +1759,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>6500000</v>
@@ -1816,10 +1795,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1849,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1860,13 +1839,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>5000000</v>
@@ -1893,10 +1872,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1926,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1937,13 +1916,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <v>4000000</v>
@@ -1970,10 +1949,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2003,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2014,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>6500000</v>
@@ -2047,10 +2026,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2080,7 +2059,7 @@
         <v>-25255133</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2088,16 +2067,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>1333885</v>
@@ -2124,10 +2103,10 @@
         <v>12000</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P15">
         <v>1188142585</v>
@@ -2157,7 +2136,7 @@
         <v>-5441928110</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2168,13 +2147,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>2220000</v>
@@ -2201,10 +2180,10 @@
         <v>8000</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P16">
         <v>4679062361</v>
@@ -2234,7 +2213,7 @@
         <v>-7737792622</v>
       </c>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2242,16 +2221,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>7000000</v>
@@ -2278,10 +2257,10 @@
         <v>11500</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P17">
         <v>214793831184</v>
@@ -2311,84 +2290,7 @@
         <v>144193113559</v>
       </c>
       <c r="Y17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>3000000</v>
-      </c>
-      <c r="G18">
-        <v>3000000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
-        <v>2000</v>
-      </c>
-      <c r="K18">
-        <v>3310000</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>2000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>106</v>
-      </c>
-      <c r="O18" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2406,422 +2308,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E2">
         <v>13500</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>26800</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E4">
         <v>524031</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>5107</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E6">
         <v>14950</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>8000</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>18040</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>50353</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E10">
         <v>8400</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>41818</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>47680</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>18200</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E14">
         <v>10920</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>25000</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>3724</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>18000</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>275795</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>13433</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>23400</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -539,7 +539,7 @@
     <t>8,000~9,500</t>
   </si>
   <si>
-    <t>36,200~46,000</t>
+    <t>36,200~44,000</t>
   </si>
   <si>
     <t>3,200~3,600</t>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="203">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>3,300~3,900</t>
+  </si>
+  <si>
+    <t>5,000~7,000</t>
   </si>
   <si>
     <t>39,500~51,800</t>
@@ -2343,7 +2346,7 @@
         <v>13500</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2363,7 +2366,7 @@
         <v>26800</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2383,7 +2386,7 @@
         <v>524031</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2403,7 +2406,7 @@
         <v>5107</v>
       </c>
       <c r="F5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2423,7 +2426,7 @@
         <v>14950</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2443,7 +2446,7 @@
         <v>8000</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2463,7 +2466,7 @@
         <v>18040</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2483,7 +2486,7 @@
         <v>50353</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2503,7 +2506,7 @@
         <v>8400</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2523,7 +2526,7 @@
         <v>41818</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2543,7 +2546,7 @@
         <v>47680</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2563,7 +2566,7 @@
         <v>18200</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2583,7 +2586,7 @@
         <v>10920</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2603,7 +2606,7 @@
         <v>25000</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2623,7 +2626,7 @@
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2643,7 +2646,7 @@
         <v>3724</v>
       </c>
       <c r="F17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2654,7 +2657,7 @@
         <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
         <v>108</v>
@@ -2663,7 +2666,7 @@
         <v>18000</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2674,7 +2677,7 @@
         <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
@@ -2683,7 +2686,7 @@
         <v>275795</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2694,7 +2697,7 @@
         <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
         <v>108</v>
@@ -2703,7 +2706,7 @@
         <v>13433</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2714,7 +2717,7 @@
         <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
         <v>108</v>
@@ -2723,7 +2726,7 @@
         <v>23400</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -431,9 +431,21 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>한선엔지니어링</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>동인기연(유가)</t>
+  </si>
+  <si>
     <t>스톰테크</t>
   </si>
   <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
     <t>에코프로머티리얼즈</t>
   </si>
   <si>
@@ -470,27 +482,21 @@
     <t>KB스팩27호</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
     <t>유투바이오</t>
   </si>
   <si>
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>서울보증보험</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
     <t>2023.11.10~11.16</t>
   </si>
   <si>
+    <t>2023.11.02~11.08</t>
+  </si>
+  <si>
+    <t>2023.11.01~11.07</t>
+  </si>
+  <si>
     <t>2023.10.31~11.06</t>
   </si>
   <si>
@@ -524,21 +530,24 @@
     <t>2023.10.17~10.23</t>
   </si>
   <si>
-    <t>2023.10.13~10.19</t>
-  </si>
-  <si>
-    <t>2023.10.11~10.17</t>
-  </si>
-  <si>
-    <t>2023.10.06~10.13</t>
-  </si>
-  <si>
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>5,200~6,000</t>
+  </si>
+  <si>
+    <t>28,500~34,700</t>
+  </si>
+  <si>
+    <t>33,000~37,000</t>
+  </si>
+  <si>
     <t>8,000~9,500</t>
   </si>
   <si>
+    <t>15,000~19,000</t>
+  </si>
+  <si>
     <t>36,200~44,000</t>
   </si>
   <si>
@@ -572,36 +581,33 @@
     <t>9,100~11,000</t>
   </si>
   <si>
-    <t>28,500~34,700</t>
-  </si>
-  <si>
     <t>3,300~3,900</t>
   </si>
   <si>
     <t>5,000~7,000</t>
   </si>
   <si>
-    <t>39,500~51,800</t>
-  </si>
-  <si>
-    <t>12,800~14,500</t>
-  </si>
-  <si>
-    <t>13,000~15,000</t>
-  </si>
-  <si>
     <t>유안타증권</t>
   </si>
   <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>KB증권</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>하이투자증권</t>
   </si>
   <si>
+    <t>하나증권,키움증권</t>
+  </si>
+  <si>
     <t>미래에셋증권,NH투자증권,하이투자증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -609,12 +615,6 @@
   </si>
   <si>
     <t>삼성증권</t>
-  </si>
-  <si>
-    <t>KB증권</t>
-  </si>
-  <si>
-    <t>대신증권</t>
   </si>
   <si>
     <t>미래에셋증권,삼성증권</t>
@@ -2337,7 +2337,7 @@
         <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -2346,7 +2346,7 @@
         <v>13500</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2357,16 +2357,16 @@
         <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>26800</v>
+        <v>22100</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2377,16 +2377,16 @@
         <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
       </c>
       <c r="E4">
-        <v>524031</v>
+        <v>59251</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
       </c>
       <c r="E5">
-        <v>5107</v>
+        <v>60654</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2417,16 +2417,16 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>14950</v>
+        <v>26800</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
       </c>
       <c r="E7">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>108</v>
       </c>
       <c r="E8">
-        <v>18040</v>
+        <v>524031</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
         <v>108</v>
       </c>
       <c r="E9">
-        <v>50353</v>
+        <v>5107</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
       </c>
       <c r="E10">
-        <v>8400</v>
+        <v>14950</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
       </c>
       <c r="E11">
-        <v>41818</v>
+        <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2537,16 +2537,16 @@
         <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
         <v>108</v>
       </c>
       <c r="E12">
-        <v>47680</v>
+        <v>18040</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
         <v>108</v>
       </c>
       <c r="E13">
-        <v>18200</v>
+        <v>50353</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2577,16 +2577,16 @@
         <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
         <v>108</v>
       </c>
       <c r="E14">
-        <v>10920</v>
+        <v>8400</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2597,16 +2597,16 @@
         <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
         <v>108</v>
       </c>
       <c r="E15">
-        <v>25000</v>
+        <v>41818</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
         <v>185</v>
@@ -2623,10 +2623,10 @@
         <v>108</v>
       </c>
       <c r="E16">
-        <v>59251</v>
+        <v>47680</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -2643,10 +2643,10 @@
         <v>108</v>
       </c>
       <c r="E17">
-        <v>3724</v>
+        <v>18200</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>187</v>
@@ -2663,10 +2663,10 @@
         <v>108</v>
       </c>
       <c r="E18">
-        <v>18000</v>
+        <v>10920</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
       </c>
       <c r="E19">
-        <v>275795</v>
+        <v>25000</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
         <v>108</v>
       </c>
       <c r="E20">
-        <v>13433</v>
+        <v>3724</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
         <v>108</v>
       </c>
       <c r="E21">
-        <v>23400</v>
+        <v>18000</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -431,6 +431,9 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
     <t>한선엔지니어링</t>
   </si>
   <si>
@@ -458,9 +461,6 @@
     <t>한국스팩13호</t>
   </si>
   <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
     <t>에이직랜드</t>
   </si>
   <si>
@@ -491,6 +491,9 @@
     <t>2023.11.10~11.16</t>
   </si>
   <si>
+    <t>2023.11.03~11.09</t>
+  </si>
+  <si>
     <t>2023.11.02~11.08</t>
   </si>
   <si>
@@ -509,9 +512,6 @@
     <t>2023.10.25~10.26</t>
   </si>
   <si>
-    <t>2023.10.25~10.31</t>
-  </si>
-  <si>
     <t>2023.10.23~10.27</t>
   </si>
   <si>
@@ -533,6 +533,9 @@
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>11,000~14,000</t>
+  </si>
+  <si>
     <t>5,200~6,000</t>
   </si>
   <si>
@@ -560,9 +563,6 @@
     <t>2,000~2,000</t>
   </si>
   <si>
-    <t>11,000~14,000</t>
-  </si>
-  <si>
     <t>19,100~21,400</t>
   </si>
   <si>
@@ -590,13 +590,13 @@
     <t>유안타증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>대신증권</t>
   </si>
   <si>
     <t>KB증권</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
   </si>
   <si>
     <t>하이투자증권</t>
@@ -2363,7 +2363,7 @@
         <v>108</v>
       </c>
       <c r="E3">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F3" t="s">
         <v>191</v>
@@ -2383,7 +2383,7 @@
         <v>108</v>
       </c>
       <c r="E4">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F4" t="s">
         <v>192</v>
@@ -2394,7 +2394,7 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>174</v>
@@ -2403,7 +2403,7 @@
         <v>108</v>
       </c>
       <c r="E5">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F5" t="s">
         <v>193</v>
@@ -2423,10 +2423,10 @@
         <v>108</v>
       </c>
       <c r="E6">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>176</v>
@@ -2443,10 +2443,10 @@
         <v>108</v>
       </c>
       <c r="E7">
-        <v>21000</v>
+        <v>26800</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>108</v>
       </c>
       <c r="E8">
-        <v>524031</v>
+        <v>21000</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>108</v>
       </c>
       <c r="E9">
-        <v>5107</v>
+        <v>524031</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
         <v>179</v>
@@ -2503,10 +2503,10 @@
         <v>108</v>
       </c>
       <c r="E10">
-        <v>14950</v>
+        <v>5107</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>108</v>
       </c>
       <c r="E11">
-        <v>8000</v>
+        <v>14950</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>108</v>
       </c>
       <c r="E12">
-        <v>18040</v>
+        <v>8000</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>8400</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>41818</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>18200</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>25000</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>18000</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="209">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
     <t>2023-09-11</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t>2023-08-02</t>
   </si>
   <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
     <t>2023-09-15</t>
   </si>
   <si>
@@ -155,12 +161,12 @@
     <t>2023-08-03</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>2023-10-06</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>한국, 미래</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>신영</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
     <t>하나</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>두산로보틱스</t>
   </si>
   <si>
@@ -272,6 +281,9 @@
     <t>넥스틸</t>
   </si>
   <si>
+    <t>583.50:1</t>
+  </si>
+  <si>
     <t>272.03:1</t>
   </si>
   <si>
@@ -320,6 +332,9 @@
     <t>235.56:1</t>
   </si>
   <si>
+    <t>13.57%</t>
+  </si>
+  <si>
     <t>51.60%</t>
   </si>
   <si>
@@ -366,6 +381,9 @@
   </si>
   <si>
     <t>0.60%</t>
+  </si>
+  <si>
+    <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
   </si>
   <si>
     <t>협동로봇</t>
@@ -981,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,34 +1087,34 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G2">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K2">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1105,40 +1123,40 @@
         <v>26000</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P2">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q2">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R2">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S2">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T2">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U2">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V2">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W2">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X2">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1146,76 +1164,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G3">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K3">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1223,230 +1241,230 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G4">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P4">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G5">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H5">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J5">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K5">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P5">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q5">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R5">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S5">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T5">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U5">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V5">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W5">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X5">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G6">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I6">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J6">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K6">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P6">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q6">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R6">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S6">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T6">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U6">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V6">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W6">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X6">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1454,230 +1472,230 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J7">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K7">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P7">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q7">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R7">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S7">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T7">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U7">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V7">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W7">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X7">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F8">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G8">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H8">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>20000</v>
       </c>
       <c r="J8">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K8">
-        <v>4901526</v>
+        <v>8110389</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P8">
-        <v>32608351</v>
+        <v>28857</v>
       </c>
       <c r="Q8">
-        <v>43629717</v>
+        <v>45830</v>
       </c>
       <c r="R8">
-        <v>14011366</v>
+        <v>25997</v>
       </c>
       <c r="S8">
-        <v>4301870</v>
+        <v>-14511</v>
       </c>
       <c r="T8">
-        <v>7039261</v>
+        <v>4169</v>
       </c>
       <c r="U8">
-        <v>316611</v>
+        <v>4958</v>
       </c>
       <c r="V8">
-        <v>4422483</v>
+        <v>-34842</v>
       </c>
       <c r="W8">
-        <v>5391712</v>
+        <v>13350</v>
       </c>
       <c r="X8">
-        <v>180579</v>
+        <v>5128</v>
       </c>
       <c r="Y8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="G9">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K9">
-        <v>5220000</v>
+        <v>4901526</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1685,22 +1703,22 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="G10">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1712,7 +1730,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>5060000</v>
+        <v>5220000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1721,10 +1739,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1754,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1762,22 +1780,22 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="G11">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1789,7 +1807,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>7310000</v>
+        <v>5060000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1798,10 +1816,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1831,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1839,22 +1857,22 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="G12">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1866,7 +1884,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>5240000</v>
+        <v>7310000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1875,28 +1893,28 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>-13847740</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>-27857800</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-26031573</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>-26619749</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1908,30 +1926,30 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1943,7 +1961,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>4230000</v>
+        <v>5240000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1952,28 +1970,28 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-13847740</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-27857800</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-26031573</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-26619749</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1985,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1996,19 +2014,19 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="G14">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2020,7 +2038,7 @@
         <v>2000</v>
       </c>
       <c r="K14">
-        <v>7035000</v>
+        <v>4230000</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2029,10 +2047,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2050,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>-12707400</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2059,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-25255133</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2070,76 +2088,76 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="G15">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>7911521</v>
+        <v>7035000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P15">
-        <v>1188142585</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1918848238</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>2770382559</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>-1725238656</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>-3229064780</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>-5537591447</v>
+        <v>-12707400</v>
       </c>
       <c r="V15">
-        <v>-6204320195</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>-4650355117</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-5441928110</v>
+        <v>-25255133</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2147,76 +2165,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="G16">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J16">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K16">
-        <v>14836340</v>
+        <v>7911521</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P16">
-        <v>4679062361</v>
+        <v>1188142585</v>
       </c>
       <c r="Q16">
-        <v>3485357820</v>
+        <v>1918848238</v>
       </c>
       <c r="R16">
-        <v>4024884536</v>
+        <v>2770382559</v>
       </c>
       <c r="S16">
-        <v>-2507179686</v>
+        <v>-1725238656</v>
       </c>
       <c r="T16">
-        <v>-4556221312</v>
+        <v>-3229064780</v>
       </c>
       <c r="U16">
-        <v>-5515471027</v>
+        <v>-5537591447</v>
       </c>
       <c r="V16">
-        <v>-6337199541</v>
+        <v>-6204320195</v>
       </c>
       <c r="W16">
-        <v>-5219381024</v>
+        <v>-4650355117</v>
       </c>
       <c r="X16">
-        <v>-7737792622</v>
+        <v>-5441928110</v>
       </c>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2224,76 +2242,153 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17">
+        <v>2220000</v>
+      </c>
+      <c r="G17">
+        <v>2220000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5800</v>
+      </c>
+      <c r="J17">
+        <v>6800</v>
+      </c>
+      <c r="K17">
+        <v>14836340</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>8000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17">
+        <v>4679062361</v>
+      </c>
+      <c r="Q17">
+        <v>3485357820</v>
+      </c>
+      <c r="R17">
+        <v>4024884536</v>
+      </c>
+      <c r="S17">
+        <v>-2507179686</v>
+      </c>
+      <c r="T17">
+        <v>-4556221312</v>
+      </c>
+      <c r="U17">
+        <v>-5515471027</v>
+      </c>
+      <c r="V17">
+        <v>-6337199541</v>
+      </c>
+      <c r="W17">
+        <v>-5219381024</v>
+      </c>
+      <c r="X17">
+        <v>-7737792622</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
         <v>7000000</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>3650000</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>3350000</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>11500</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>12500</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>26002000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>11500</v>
       </c>
-      <c r="N17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17">
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18">
         <v>214793831184</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>424718548060</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>668403649813</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1549962921</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>16977488102</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>181300504021</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>-6243008019</v>
       </c>
-      <c r="W17">
+      <c r="W18">
         <v>-1128019547</v>
       </c>
-      <c r="X17">
+      <c r="X18">
         <v>144193113559</v>
       </c>
-      <c r="Y17" t="s">
-        <v>130</v>
+      <c r="Y18" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2311,422 +2406,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E2">
         <v>13500</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>18040</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E4">
         <v>22100</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>59251</v>
       </c>
       <c r="F5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E6">
         <v>60654</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>26800</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E8">
         <v>21000</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E9">
         <v>524031</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>5107</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>14950</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>8000</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>50353</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>8400</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>41818</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E16">
         <v>47680</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E17">
         <v>18200</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>10920</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E19">
         <v>25000</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>3724</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>18000</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
     <t>2023-09-22</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t>2023-08-03</t>
   </si>
   <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -194,6 +200,9 @@
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
@@ -227,7 +236,7 @@
     <t>한국</t>
   </si>
   <si>
-    <t>하나</t>
+    <t>에스엘에스바이오</t>
   </si>
   <si>
     <t>신성에스티</t>
@@ -281,6 +290,9 @@
     <t>넥스틸</t>
   </si>
   <si>
+    <t>235.14:1</t>
+  </si>
+  <si>
     <t>583.50:1</t>
   </si>
   <si>
@@ -332,6 +344,9 @@
     <t>235.56:1</t>
   </si>
   <si>
+    <t>16.63%</t>
+  </si>
+  <si>
     <t>13.57%</t>
   </si>
   <si>
@@ -381,6 +396,9 @@
   </si>
   <si>
     <t>0.60%</t>
+  </si>
+  <si>
+    <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
   <si>
     <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
@@ -999,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,76 +1105,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K2">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P2">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q2">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R2">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S2">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T2">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U2">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V2">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W2">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X2">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1167,31 +1185,31 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G3">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K3">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1200,40 +1218,40 @@
         <v>26000</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P3">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q3">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R3">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S3">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T3">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U3">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V3">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W3">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X3">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1241,76 +1259,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G4">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K4">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1318,230 +1336,230 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G5">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P5">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G6">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H6">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J6">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K6">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P6">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q6">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R6">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S6">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T6">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U6">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V6">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W6">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X6">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G7">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I7">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J7">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K7">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P7">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q7">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R7">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S7">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T7">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U7">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V7">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W7">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X7">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1552,227 +1570,227 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G8">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J8">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K8">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P8">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q8">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R8">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S8">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T8">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U8">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V8">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W8">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X8">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G9">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H9">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>20000</v>
       </c>
       <c r="J9">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K9">
-        <v>4901526</v>
+        <v>8110389</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P9">
-        <v>32608351</v>
+        <v>28857</v>
       </c>
       <c r="Q9">
-        <v>43629717</v>
+        <v>45830</v>
       </c>
       <c r="R9">
-        <v>14011366</v>
+        <v>25997</v>
       </c>
       <c r="S9">
-        <v>4301870</v>
+        <v>-14511</v>
       </c>
       <c r="T9">
-        <v>7039261</v>
+        <v>4169</v>
       </c>
       <c r="U9">
-        <v>316611</v>
+        <v>4958</v>
       </c>
       <c r="V9">
-        <v>4422483</v>
+        <v>-34842</v>
       </c>
       <c r="W9">
-        <v>5391712</v>
+        <v>13350</v>
       </c>
       <c r="X9">
-        <v>180579</v>
+        <v>5128</v>
       </c>
       <c r="Y9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="G10">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K10">
-        <v>5220000</v>
+        <v>4901526</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1783,19 +1801,19 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="G11">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1807,7 +1825,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>5060000</v>
+        <v>5220000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1816,10 +1834,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1849,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1860,19 +1878,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="G12">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1884,7 +1902,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>7310000</v>
+        <v>5060000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1893,10 +1911,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1926,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1934,22 +1952,22 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="G13">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1961,7 +1979,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>5240000</v>
+        <v>7310000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1970,28 +1988,28 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>-13847740</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>-27857800</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>-26031573</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>-26619749</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2003,30 +2021,30 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2038,7 +2056,7 @@
         <v>2000</v>
       </c>
       <c r="K14">
-        <v>4230000</v>
+        <v>5240000</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2047,28 +2065,28 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-13847740</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-27857800</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>-26031573</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>-26619749</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2080,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2091,19 +2109,19 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2115,7 +2133,7 @@
         <v>2000</v>
       </c>
       <c r="K15">
-        <v>7035000</v>
+        <v>4230000</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2124,10 +2142,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2145,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>-12707400</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2154,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-25255133</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2165,76 +2183,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="G16">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>7911521</v>
+        <v>7035000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P16">
-        <v>1188142585</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1918848238</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2770382559</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-1725238656</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-3229064780</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>-5537591447</v>
+        <v>-12707400</v>
       </c>
       <c r="V16">
-        <v>-6204320195</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-4650355117</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-5441928110</v>
+        <v>-25255133</v>
       </c>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2242,76 +2260,76 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="G17">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J17">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K17">
-        <v>14836340</v>
+        <v>7911521</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P17">
-        <v>4679062361</v>
+        <v>1188142585</v>
       </c>
       <c r="Q17">
-        <v>3485357820</v>
+        <v>1918848238</v>
       </c>
       <c r="R17">
-        <v>4024884536</v>
+        <v>2770382559</v>
       </c>
       <c r="S17">
-        <v>-2507179686</v>
+        <v>-1725238656</v>
       </c>
       <c r="T17">
-        <v>-4556221312</v>
+        <v>-3229064780</v>
       </c>
       <c r="U17">
-        <v>-5515471027</v>
+        <v>-5537591447</v>
       </c>
       <c r="V17">
-        <v>-6337199541</v>
+        <v>-6204320195</v>
       </c>
       <c r="W17">
-        <v>-5219381024</v>
+        <v>-4650355117</v>
       </c>
       <c r="X17">
-        <v>-7737792622</v>
+        <v>-5441928110</v>
       </c>
       <c r="Y17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2319,76 +2337,153 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18">
+        <v>2220000</v>
+      </c>
+      <c r="G18">
+        <v>2220000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5800</v>
+      </c>
+      <c r="J18">
+        <v>6800</v>
+      </c>
+      <c r="K18">
+        <v>14836340</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>8000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18">
+        <v>4679062361</v>
+      </c>
+      <c r="Q18">
+        <v>3485357820</v>
+      </c>
+      <c r="R18">
+        <v>4024884536</v>
+      </c>
+      <c r="S18">
+        <v>-2507179686</v>
+      </c>
+      <c r="T18">
+        <v>-4556221312</v>
+      </c>
+      <c r="U18">
+        <v>-5515471027</v>
+      </c>
+      <c r="V18">
+        <v>-6337199541</v>
+      </c>
+      <c r="W18">
+        <v>-5219381024</v>
+      </c>
+      <c r="X18">
+        <v>-7737792622</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
         <v>7000000</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>3650000</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>3350000</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>11500</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>12500</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>26002000</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>11500</v>
       </c>
-      <c r="N18" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18">
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19">
         <v>214793831184</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <v>424718548060</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>668403649813</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>1549962921</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <v>16977488102</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>181300504021</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <v>-6243008019</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>-1128019547</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <v>144193113559</v>
       </c>
-      <c r="Y18" t="s">
-        <v>136</v>
+      <c r="Y19" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2406,422 +2501,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>13500</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>18040</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>22100</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>59251</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>60654</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>26800</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>21000</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>524031</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>5107</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E11">
         <v>14950</v>
       </c>
       <c r="F11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>8000</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>50353</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E14">
         <v>8400</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E15">
         <v>41818</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E16">
         <v>47680</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>18200</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E18">
         <v>10920</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <v>25000</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E20">
         <v>3724</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E21">
         <v>18000</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="203">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -131,12 +131,6 @@
     <t>2023-08-08</t>
   </si>
   <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>2023-08-02</t>
-  </si>
-  <si>
     <t>2023-10-04</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>2023-08-09</t>
   </si>
   <si>
-    <t>2023-08-03</t>
-  </si>
-  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -194,12 +185,6 @@
     <t>2023-08-30</t>
   </si>
   <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -284,12 +269,6 @@
     <t>시큐레터</t>
   </si>
   <si>
-    <t>스마트레이더시스템</t>
-  </si>
-  <si>
-    <t>넥스틸</t>
-  </si>
-  <si>
     <t>235.14:1</t>
   </si>
   <si>
@@ -338,12 +317,6 @@
     <t>1,544.73:1</t>
   </si>
   <si>
-    <t>1,813.42:1</t>
-  </si>
-  <si>
-    <t>235.56:1</t>
-  </si>
-  <si>
     <t>16.63%</t>
   </si>
   <si>
@@ -392,12 +365,6 @@
     <t>3.14%</t>
   </si>
   <si>
-    <t>6.98%</t>
-  </si>
-  <si>
-    <t>0.60%</t>
-  </si>
-  <si>
     <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
   <si>
@@ -440,12 +407,6 @@
     <t>SLE(이메일 보안), SLF(파일 보안)</t>
   </si>
   <si>
-    <t>모빌리티 및 비모빌리티용 4D이미징레이다</t>
-  </si>
-  <si>
-    <t>OCTG Pipe, Line Pipe, Standard Pipe, 일반관</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -467,6 +428,9 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>그린리소스</t>
   </si>
   <si>
@@ -521,12 +485,12 @@
     <t>유투바이오</t>
   </si>
   <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
     <t>2023.11.10~11.16</t>
   </si>
   <si>
+    <t>2023.11.07~11.13</t>
+  </si>
+  <si>
     <t>2023.11.03~11.09</t>
   </si>
   <si>
@@ -563,12 +527,12 @@
     <t>2023.10.18~10.19</t>
   </si>
   <si>
-    <t>2023.10.17~10.23</t>
-  </si>
-  <si>
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>21,000~25,000</t>
+  </si>
+  <si>
     <t>11,000~14,000</t>
   </si>
   <si>
@@ -620,10 +584,10 @@
     <t>3,300~3,900</t>
   </si>
   <si>
-    <t>5,000~7,000</t>
-  </si>
-  <si>
     <t>유안타증권</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
@@ -1017,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,13 +1072,13 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>770000</v>
@@ -1141,10 +1105,10 @@
         <v>7000</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <v>8242508010</v>
@@ -1174,7 +1138,7 @@
         <v>990121873</v>
       </c>
       <c r="Y2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1182,16 +1146,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>2000000</v>
@@ -1218,10 +1182,10 @@
         <v>26000</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P3">
         <v>104225113285</v>
@@ -1251,7 +1215,7 @@
         <v>7334816490</v>
       </c>
       <c r="Y3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1259,16 +1223,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>16200000</v>
@@ -1295,10 +1259,10 @@
         <v>26000</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P4">
         <v>36980</v>
@@ -1328,7 +1292,7 @@
         <v>-9333</v>
       </c>
       <c r="Y4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1336,16 +1300,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>18000000</v>
@@ -1372,10 +1336,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1405,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1416,13 +1380,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1449,10 +1413,10 @@
         <v>12500</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P6">
         <v>18408761227</v>
@@ -1482,7 +1446,7 @@
         <v>592903151</v>
       </c>
       <c r="Y6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1490,16 +1454,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>2240000</v>
@@ -1526,10 +1490,10 @@
         <v>15000</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P7">
         <v>22818451349</v>
@@ -1559,7 +1523,7 @@
         <v>1929682988</v>
       </c>
       <c r="Y7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1567,16 +1531,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>1580000</v>
@@ -1603,10 +1567,10 @@
         <v>14000</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P8">
         <v>7327878427</v>
@@ -1636,7 +1600,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1644,16 +1608,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>1500000</v>
@@ -1680,10 +1644,10 @@
         <v>23000</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P9">
         <v>28857</v>
@@ -1713,7 +1677,7 @@
         <v>5128</v>
       </c>
       <c r="Y9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1721,16 +1685,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>1100000</v>
@@ -1757,10 +1721,10 @@
         <v>24000</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="P10">
         <v>32608351</v>
@@ -1790,7 +1754,7 @@
         <v>180579</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1798,16 +1762,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>4500000</v>
@@ -1834,10 +1798,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1867,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1875,16 +1839,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>4750000</v>
@@ -1911,10 +1875,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1944,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1952,16 +1916,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13">
         <v>6500000</v>
@@ -1988,10 +1952,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2021,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2032,13 +1996,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>5000000</v>
@@ -2065,10 +2029,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2098,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2109,13 +2073,13 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>4000000</v>
@@ -2142,10 +2106,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2175,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2186,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>6500000</v>
@@ -2219,10 +2183,10 @@
         <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2252,7 +2216,7 @@
         <v>-25255133</v>
       </c>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2260,16 +2224,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>1333885</v>
@@ -2296,10 +2260,10 @@
         <v>12000</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="P17">
         <v>1188142585</v>
@@ -2329,161 +2293,7 @@
         <v>-5441928110</v>
       </c>
       <c r="Y17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>2220000</v>
-      </c>
-      <c r="G18">
-        <v>2220000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>5800</v>
-      </c>
-      <c r="J18">
-        <v>6800</v>
-      </c>
-      <c r="K18">
-        <v>14836340</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>8000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" t="s">
-        <v>125</v>
-      </c>
-      <c r="P18">
-        <v>4679062361</v>
-      </c>
-      <c r="Q18">
-        <v>3485357820</v>
-      </c>
-      <c r="R18">
-        <v>4024884536</v>
-      </c>
-      <c r="S18">
-        <v>-2507179686</v>
-      </c>
-      <c r="T18">
-        <v>-4556221312</v>
-      </c>
-      <c r="U18">
-        <v>-5515471027</v>
-      </c>
-      <c r="V18">
-        <v>-6337199541</v>
-      </c>
-      <c r="W18">
-        <v>-5219381024</v>
-      </c>
-      <c r="X18">
-        <v>-7737792622</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19">
-        <v>7000000</v>
-      </c>
-      <c r="G19">
-        <v>3650000</v>
-      </c>
-      <c r="H19">
-        <v>3350000</v>
-      </c>
-      <c r="I19">
-        <v>11500</v>
-      </c>
-      <c r="J19">
-        <v>12500</v>
-      </c>
-      <c r="K19">
-        <v>26002000</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>11500</v>
-      </c>
-      <c r="N19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P19">
-        <v>214793831184</v>
-      </c>
-      <c r="Q19">
-        <v>424718548060</v>
-      </c>
-      <c r="R19">
-        <v>668403649813</v>
-      </c>
-      <c r="S19">
-        <v>1549962921</v>
-      </c>
-      <c r="T19">
-        <v>16977488102</v>
-      </c>
-      <c r="U19">
-        <v>181300504021</v>
-      </c>
-      <c r="V19">
-        <v>-6243008019</v>
-      </c>
-      <c r="W19">
-        <v>-1128019547</v>
-      </c>
-      <c r="X19">
-        <v>144193113559</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2501,422 +2311,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>13500</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E6">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E7">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E8">
-        <v>21000</v>
+        <v>26800</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E9">
-        <v>524031</v>
+        <v>21000</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E10">
-        <v>5107</v>
+        <v>524031</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E11">
-        <v>14950</v>
+        <v>5107</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E12">
-        <v>8000</v>
+        <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E13">
-        <v>50353</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E14">
-        <v>8400</v>
+        <v>50353</v>
       </c>
       <c r="F14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E15">
-        <v>41818</v>
+        <v>8400</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E16">
-        <v>47680</v>
+        <v>41818</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E17">
-        <v>18200</v>
+        <v>47680</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E18">
-        <v>10920</v>
+        <v>18200</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E19">
-        <v>25000</v>
+        <v>10920</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E20">
-        <v>3724</v>
+        <v>25000</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E21">
-        <v>18000</v>
+        <v>3724</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="198">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -128,9 +128,6 @@
     <t>2023-08-14</t>
   </si>
   <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
     <t>2023-10-04</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>2023-08-18</t>
   </si>
   <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>대신밸런스제15호스팩</t>
   </si>
   <si>
-    <t>시큐레터</t>
-  </si>
-  <si>
     <t>235.14:1</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>657.16:1</t>
   </si>
   <si>
-    <t>1,544.73:1</t>
-  </si>
-  <si>
     <t>16.63%</t>
   </si>
   <si>
@@ -362,9 +350,6 @@
     <t>0.45%</t>
   </si>
   <si>
-    <t>3.14%</t>
-  </si>
-  <si>
     <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
   <si>
@@ -404,9 +389,6 @@
     <t>기업인수합병</t>
   </si>
   <si>
-    <t>SLE(이메일 보안), SLF(파일 보안)</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -425,9 +407,18 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>NH스팩30호</t>
+  </si>
+  <si>
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -455,9 +446,6 @@
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>에이텀</t>
-  </si>
-  <si>
     <t>한국스팩13호</t>
   </si>
   <si>
@@ -479,15 +467,18 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
-    <t>KB스팩27호</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
+    <t>2023.11.15~11.16</t>
   </si>
   <si>
     <t>2023.11.10~11.16</t>
   </si>
   <si>
+    <t>2023.11.09~11.15</t>
+  </si>
+  <si>
+    <t>2023.11.08~11.14</t>
+  </si>
+  <si>
     <t>2023.11.07~11.13</t>
   </si>
   <si>
@@ -521,15 +512,18 @@
     <t>2023.10.19~10.25</t>
   </si>
   <si>
-    <t>2023.10.19~10.20</t>
-  </si>
-  <si>
-    <t>2023.10.18~10.19</t>
+    <t>2,000~2,000</t>
   </si>
   <si>
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>23,000~30,000</t>
+  </si>
+  <si>
+    <t>4,400~5,500</t>
+  </si>
+  <si>
     <t>21,000~25,000</t>
   </si>
   <si>
@@ -557,12 +551,6 @@
     <t>3,200~3,600</t>
   </si>
   <si>
-    <t>23,000~30,000</t>
-  </si>
-  <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>19,100~21,400</t>
   </si>
   <si>
@@ -581,18 +569,21 @@
     <t>9,100~11,000</t>
   </si>
   <si>
-    <t>3,300~3,900</t>
+    <t>NH투자증권</t>
   </si>
   <si>
     <t>유안타증권</t>
   </si>
   <si>
+    <t>하나증권</t>
+  </si>
+  <si>
+    <t>키움증권,KB증권,이베스트투자증권,하이투자증권,NH투자증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>대신증권</t>
   </si>
   <si>
@@ -608,9 +599,6 @@
     <t>미래에셋증권,NH투자증권,하이투자증권</t>
   </si>
   <si>
-    <t>하나증권</t>
-  </si>
-  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -621,9 +609,6 @@
   </si>
   <si>
     <t>IBK투자증권</t>
-  </si>
-  <si>
-    <t>신한투자증권</t>
   </si>
 </sst>
 </file>
@@ -981,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,13 +1057,13 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>770000</v>
@@ -1105,10 +1090,10 @@
         <v>7000</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P2">
         <v>8242508010</v>
@@ -1138,7 +1123,7 @@
         <v>990121873</v>
       </c>
       <c r="Y2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1146,16 +1131,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>2000000</v>
@@ -1182,10 +1167,10 @@
         <v>26000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P3">
         <v>104225113285</v>
@@ -1215,7 +1200,7 @@
         <v>7334816490</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1223,16 +1208,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>16200000</v>
@@ -1259,10 +1244,10 @@
         <v>26000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P4">
         <v>36980</v>
@@ -1292,7 +1277,7 @@
         <v>-9333</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1300,16 +1285,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>18000000</v>
@@ -1336,10 +1321,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1369,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1380,13 +1365,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1413,10 +1398,10 @@
         <v>12500</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P6">
         <v>18408761227</v>
@@ -1446,7 +1431,7 @@
         <v>592903151</v>
       </c>
       <c r="Y6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1454,16 +1439,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>2240000</v>
@@ -1490,10 +1475,10 @@
         <v>15000</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P7">
         <v>22818451349</v>
@@ -1523,7 +1508,7 @@
         <v>1929682988</v>
       </c>
       <c r="Y7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1531,16 +1516,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>1580000</v>
@@ -1567,10 +1552,10 @@
         <v>14000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P8">
         <v>7327878427</v>
@@ -1600,7 +1585,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1608,16 +1593,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>1500000</v>
@@ -1644,10 +1629,10 @@
         <v>23000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P9">
         <v>28857</v>
@@ -1677,7 +1662,7 @@
         <v>5128</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1685,16 +1670,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>1100000</v>
@@ -1721,10 +1706,10 @@
         <v>24000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P10">
         <v>32608351</v>
@@ -1754,7 +1739,7 @@
         <v>180579</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1762,16 +1747,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>4500000</v>
@@ -1798,10 +1783,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1831,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1839,16 +1824,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <v>4750000</v>
@@ -1875,10 +1860,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1908,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1916,16 +1901,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>6500000</v>
@@ -1952,10 +1937,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1985,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1996,13 +1981,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>5000000</v>
@@ -2029,10 +2014,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2062,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2073,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>4000000</v>
@@ -2106,10 +2091,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2139,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2150,13 +2135,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16">
         <v>6500000</v>
@@ -2183,10 +2168,10 @@
         <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2216,84 +2201,7 @@
         <v>-25255133</v>
       </c>
       <c r="Y16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17">
-        <v>1333885</v>
-      </c>
-      <c r="G17">
-        <v>1333885</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>9200</v>
-      </c>
-      <c r="J17">
-        <v>10600</v>
-      </c>
-      <c r="K17">
-        <v>7911521</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>12000</v>
-      </c>
-      <c r="N17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>115</v>
-      </c>
-      <c r="P17">
-        <v>1188142585</v>
-      </c>
-      <c r="Q17">
-        <v>1918848238</v>
-      </c>
-      <c r="R17">
-        <v>2770382559</v>
-      </c>
-      <c r="S17">
-        <v>-1725238656</v>
-      </c>
-      <c r="T17">
-        <v>-3229064780</v>
-      </c>
-      <c r="U17">
-        <v>-5537591447</v>
-      </c>
-      <c r="V17">
-        <v>-6204320195</v>
-      </c>
-      <c r="W17">
-        <v>-4650355117</v>
-      </c>
-      <c r="X17">
-        <v>-5441928110</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2311,219 +2219,219 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>29547</v>
+        <v>13500</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>18040</v>
+        <v>14950</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>22100</v>
+        <v>64350</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>59251</v>
+        <v>29547</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7">
-        <v>60654</v>
+        <v>18040</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E8">
-        <v>26800</v>
+        <v>22100</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>21000</v>
+        <v>59251</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>524031</v>
+        <v>60654</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E11">
-        <v>5107</v>
+        <v>26800</v>
       </c>
       <c r="F11" t="s">
         <v>191</v>
@@ -2531,202 +2439,202 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>14950</v>
+        <v>21000</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13">
-        <v>8000</v>
+        <v>524031</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E14">
-        <v>50353</v>
+        <v>5107</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" t="s">
-        <v>183</v>
-      </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E16">
-        <v>41818</v>
+        <v>50353</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>47680</v>
+        <v>8400</v>
       </c>
       <c r="F17" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>18200</v>
+        <v>41818</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19">
-        <v>10920</v>
+        <v>47680</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E20">
-        <v>25000</v>
+        <v>18200</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E21">
-        <v>3724</v>
+        <v>10920</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="208">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,21 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-09-18</t>
   </si>
   <si>
@@ -119,13 +134,13 @@
     <t>2023-08-24</t>
   </si>
   <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>2023-08-14</t>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
   </si>
   <si>
     <t>2023-10-04</t>
@@ -146,19 +161,16 @@
     <t>2023-08-25</t>
   </si>
   <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
   </si>
   <si>
     <t>2023-10-10</t>
@@ -170,13 +182,19 @@
     <t>2023-09-25</t>
   </si>
   <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>키움</t>
   </si>
   <si>
     <t>하나</t>
@@ -188,12 +206,6 @@
     <t>한국, 미래</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -209,10 +221,19 @@
     <t>한화</t>
   </si>
   <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>한국</t>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
   </si>
   <si>
     <t>에스엘에스바이오</t>
@@ -248,16 +269,19 @@
     <t>한화플러스제4호스팩</t>
   </si>
   <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제15호스팩</t>
+    <t>10.14:1</t>
+  </si>
+  <si>
+    <t>914.02:1</t>
+  </si>
+  <si>
+    <t>1,276.73:1</t>
+  </si>
+  <si>
+    <t>818.52:1</t>
+  </si>
+  <si>
+    <t>793.26:1</t>
   </si>
   <si>
     <t>235.14:1</t>
@@ -293,16 +317,19 @@
     <t>739.65:1</t>
   </si>
   <si>
-    <t>662.57:1</t>
-  </si>
-  <si>
-    <t>752.21:1</t>
-  </si>
-  <si>
-    <t>828.73:1</t>
-  </si>
-  <si>
-    <t>657.16:1</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>17.63%</t>
+  </si>
+  <si>
+    <t>2.35%</t>
+  </si>
+  <si>
+    <t>22.25%</t>
+  </si>
+  <si>
+    <t>10.06%</t>
   </si>
   <si>
     <t>16.63%</t>
@@ -332,22 +359,22 @@
     <t>7.46%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0.13%</t>
   </si>
   <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>0.26%</t>
-  </si>
-  <si>
-    <t>0.24%</t>
-  </si>
-  <si>
-    <t>0.45%</t>
+    <t>기업인수합병</t>
+  </si>
+  <si>
+    <t>이차전지 정밀금형 외</t>
+  </si>
+  <si>
+    <t>체외진단검사서비스, 의료IT솔루션</t>
+  </si>
+  <si>
+    <t>초고속 통신용 반도체 IP</t>
+  </si>
+  <si>
+    <t>초정밀 온습도 제어장비</t>
   </si>
   <si>
     <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
@@ -380,15 +407,6 @@
     <t>합병</t>
   </si>
   <si>
-    <t>기타 금융서비스업</t>
-  </si>
-  <si>
-    <t>금융 지원 서비스업</t>
-  </si>
-  <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -407,6 +425,18 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
+    <t>삼성스팩9호</t>
+  </si>
+  <si>
+    <t>교보스팩15호</t>
+  </si>
+  <si>
+    <t>케이엔에스</t>
+  </si>
+  <si>
     <t>NH스팩30호</t>
   </si>
   <si>
@@ -437,10 +467,7 @@
     <t>스톰테크</t>
   </si>
   <si>
-    <t>블루엠텍</t>
-  </si>
-  <si>
-    <t>에코프로머티리얼즈</t>
+    <t>에코프로머티리얼즈(유가)</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
@@ -458,13 +485,13 @@
     <t>컨텍</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
+    <t>2023.11.22~11.28</t>
+  </si>
+  <si>
+    <t>2023.11.20~11.21</t>
+  </si>
+  <si>
+    <t>2023.11.16~11.22</t>
   </si>
   <si>
     <t>2023.11.15~11.16</t>
@@ -509,12 +536,15 @@
     <t>2023.10.20~10.26</t>
   </si>
   <si>
-    <t>2023.10.19~10.25</t>
+    <t>15,000~19,000</t>
   </si>
   <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>19,000~22,000</t>
+  </si>
+  <si>
     <t>9,000~11,000</t>
   </si>
   <si>
@@ -542,9 +572,6 @@
     <t>8,000~9,500</t>
   </si>
   <si>
-    <t>15,000~19,000</t>
-  </si>
-  <si>
     <t>36,200~44,000</t>
   </si>
   <si>
@@ -560,13 +587,28 @@
     <t>20,300~22,500</t>
   </si>
   <si>
-    <t>29,800~33,500</t>
-  </si>
-  <si>
-    <t>3,500~4,000</t>
-  </si>
-  <si>
-    <t>9,100~11,000</t>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>22500</t>
+  </si>
+  <si>
+    <t>하나증권,키움증권</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>교보증권</t>
+  </si>
+  <si>
+    <t>신영증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
@@ -593,22 +635,10 @@
     <t>하이투자증권</t>
   </si>
   <si>
-    <t>하나증권,키움증권</t>
-  </si>
-  <si>
     <t>미래에셋증권,NH투자증권,하이투자증권</t>
   </si>
   <si>
     <t>한국투자증권</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권,삼성증권</t>
-  </si>
-  <si>
-    <t>IBK투자증권</t>
   </si>
 </sst>
 </file>
@@ -966,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,76 +1084,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>770000</v>
+        <v>12500000</v>
       </c>
       <c r="G2">
-        <v>770000</v>
+        <v>12500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8200</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>9400</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>7674103</v>
+        <v>12905000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>8242508010</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>10751900430</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4416778965</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>426234451</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2423749751</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>677048172</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>57890953</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2826043673</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>990121873</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1131,76 +1161,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>2000000</v>
+        <v>1049482</v>
       </c>
       <c r="G3">
-        <v>2000000</v>
+        <v>944534</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I3">
-        <v>22000</v>
+        <v>12800</v>
       </c>
       <c r="J3">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="K3">
-        <v>9039778</v>
+        <v>6261485</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P3">
-        <v>104225113285</v>
+        <v>34557425427</v>
       </c>
       <c r="Q3">
-        <v>106505634411</v>
+        <v>39824841246</v>
       </c>
       <c r="R3">
-        <v>66424930568</v>
+        <v>23231897516</v>
       </c>
       <c r="S3">
-        <v>6291020806</v>
+        <v>3011651602</v>
       </c>
       <c r="T3">
-        <v>7893242769</v>
+        <v>2384643399</v>
       </c>
       <c r="U3">
-        <v>7661497240</v>
+        <v>4436005255</v>
       </c>
       <c r="V3">
-        <v>7319368873</v>
+        <v>2755379556</v>
       </c>
       <c r="W3">
-        <v>9286891982</v>
+        <v>1176755354</v>
       </c>
       <c r="X3">
-        <v>7334816490</v>
+        <v>4046949430</v>
       </c>
       <c r="Y3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1208,76 +1238,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="G4">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21000</v>
+        <v>3300</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>3900</v>
       </c>
       <c r="K4">
-        <v>64819980</v>
+        <v>11287196</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P4">
-        <v>36980</v>
+        <v>50552623684</v>
       </c>
       <c r="Q4">
-        <v>44954</v>
+        <v>69013134090</v>
       </c>
       <c r="R4">
-        <v>23652</v>
+        <v>16887814423</v>
       </c>
       <c r="S4">
-        <v>-7085</v>
+        <v>9027232647</v>
       </c>
       <c r="T4">
-        <v>-13228</v>
+        <v>15707796256</v>
       </c>
       <c r="U4">
-        <v>-9932</v>
+        <v>555562560</v>
       </c>
       <c r="V4">
-        <v>-7417</v>
+        <v>9236341465</v>
       </c>
       <c r="W4">
-        <v>-12548</v>
+        <v>13159994846</v>
       </c>
       <c r="X4">
-        <v>-9333</v>
+        <v>1236029732</v>
       </c>
       <c r="Y4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1285,76 +1315,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
       <c r="G5">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K5">
-        <v>18905000</v>
+        <v>10193520</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>3952070068</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>10789274729</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>6040367765</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-4741577598</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-3671026788</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-3292521363</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-3654889267</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-2281074471</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1362,692 +1392,692 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8900</v>
+        <v>5000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>5600</v>
       </c>
       <c r="K6">
-        <v>5447675</v>
+        <v>16120000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P6">
-        <v>18408761227</v>
+        <v>26691070764</v>
       </c>
       <c r="Q6">
-        <v>21902816604</v>
+        <v>22835113396</v>
       </c>
       <c r="R6">
-        <v>8176918465</v>
+        <v>7519073723</v>
       </c>
       <c r="S6">
-        <v>3669182465</v>
+        <v>6041270235</v>
       </c>
       <c r="T6">
-        <v>1851925471</v>
+        <v>6705120210</v>
       </c>
       <c r="U6">
-        <v>590566592</v>
+        <v>982044017</v>
       </c>
       <c r="V6">
-        <v>3633973594</v>
+        <v>5119066139</v>
       </c>
       <c r="W6">
-        <v>2205418963</v>
+        <v>5870093710</v>
       </c>
       <c r="X6">
-        <v>592903151</v>
+        <v>1198587470</v>
       </c>
       <c r="Y6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>2240000</v>
+        <v>770000</v>
       </c>
       <c r="G7">
-        <v>1640000</v>
+        <v>770000</v>
       </c>
       <c r="H7">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11500</v>
+        <v>8200</v>
       </c>
       <c r="J7">
-        <v>13200</v>
+        <v>9400</v>
       </c>
       <c r="K7">
-        <v>10969386</v>
+        <v>7674103</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P7">
-        <v>22818451349</v>
+        <v>8242508010</v>
       </c>
       <c r="Q7">
-        <v>30491967755</v>
+        <v>10751900430</v>
       </c>
       <c r="R7">
-        <v>18040053709</v>
+        <v>4416778965</v>
       </c>
       <c r="S7">
-        <v>2313787613</v>
+        <v>426234451</v>
       </c>
       <c r="T7">
-        <v>4014101926</v>
+        <v>2423749751</v>
       </c>
       <c r="U7">
-        <v>1878997667</v>
+        <v>677048172</v>
       </c>
       <c r="V7">
-        <v>559427078</v>
+        <v>57890953</v>
       </c>
       <c r="W7">
-        <v>-711183147</v>
+        <v>2826043673</v>
       </c>
       <c r="X7">
-        <v>1929682988</v>
+        <v>990121873</v>
       </c>
       <c r="Y7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>1580000</v>
+        <v>2000000</v>
       </c>
       <c r="G8">
-        <v>1580000</v>
+        <v>2000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="J8">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="K8">
-        <v>7874611</v>
+        <v>9039778</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P8">
-        <v>7327878427</v>
+        <v>104225113285</v>
       </c>
       <c r="Q8">
-        <v>10756717708</v>
+        <v>106505634411</v>
       </c>
       <c r="R8">
-        <v>4113702647</v>
+        <v>66424930568</v>
       </c>
       <c r="S8">
-        <v>-588932080</v>
+        <v>6291020806</v>
       </c>
       <c r="T8">
-        <v>254042570</v>
+        <v>7893242769</v>
       </c>
       <c r="U8">
-        <v>-738698858</v>
+        <v>7661497240</v>
       </c>
       <c r="V8">
-        <v>-569358529</v>
+        <v>7319368873</v>
       </c>
       <c r="W8">
-        <v>-429546963</v>
+        <v>9286891982</v>
       </c>
       <c r="X8">
-        <v>-550600734</v>
+        <v>7334816490</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="G9">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="J9">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K9">
-        <v>8110389</v>
+        <v>64819980</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P9">
-        <v>28857</v>
+        <v>36980</v>
       </c>
       <c r="Q9">
-        <v>45830</v>
+        <v>44954</v>
       </c>
       <c r="R9">
-        <v>25997</v>
+        <v>23652</v>
       </c>
       <c r="S9">
-        <v>-14511</v>
+        <v>-7085</v>
       </c>
       <c r="T9">
-        <v>4169</v>
+        <v>-13228</v>
       </c>
       <c r="U9">
-        <v>4958</v>
+        <v>-9932</v>
       </c>
       <c r="V9">
-        <v>-34842</v>
+        <v>-7417</v>
       </c>
       <c r="W9">
-        <v>13350</v>
+        <v>-12548</v>
       </c>
       <c r="X9">
-        <v>5128</v>
+        <v>-9333</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10">
-        <v>1100000</v>
+        <v>18000000</v>
       </c>
       <c r="G10">
-        <v>900000</v>
+        <v>18000000</v>
       </c>
       <c r="H10">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>4901526</v>
+        <v>18905000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P10">
-        <v>32608351</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>43629717</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>14011366</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>4301870</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>7039261</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>316611</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>4422483</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>5391712</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>180579</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>4500000</v>
+        <v>1500000</v>
       </c>
       <c r="G11">
-        <v>4500000</v>
+        <v>1500000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>8900</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K11">
-        <v>5220000</v>
+        <v>5447675</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>18408761227</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>21902816604</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>8176918465</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3669182465</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1851925471</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>590566592</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>3633973594</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>2205418963</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>592903151</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>4750000</v>
+        <v>2240000</v>
       </c>
       <c r="G12">
-        <v>4750000</v>
+        <v>1640000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>13200</v>
       </c>
       <c r="K12">
-        <v>5060000</v>
+        <v>10969386</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>22818451349</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>30491967755</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>18040053709</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2313787613</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>4014101926</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1878997667</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>559427078</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-711183147</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1929682988</v>
       </c>
       <c r="Y12" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>6500000</v>
+        <v>1580000</v>
       </c>
       <c r="G13">
-        <v>6500000</v>
+        <v>1580000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K13">
-        <v>7310000</v>
+        <v>7874611</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7327878427</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>10756717708</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>4113702647</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-588932080</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>254042570</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-738698858</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-569358529</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-429546963</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-550600734</v>
       </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="G14">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K14">
-        <v>5240000</v>
+        <v>8110389</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>28857</v>
       </c>
       <c r="Q14">
-        <v>-13847740</v>
+        <v>45830</v>
       </c>
       <c r="R14">
-        <v>-27857800</v>
+        <v>25997</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>-14511</v>
       </c>
       <c r="T14">
-        <v>-26031573</v>
+        <v>4169</v>
       </c>
       <c r="U14">
-        <v>-26619749</v>
+        <v>4958</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>-34842</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>13350</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>5128</v>
       </c>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2055,99 +2085,99 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15">
-        <v>4000000</v>
+        <v>1100000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>900000</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K15">
-        <v>4230000</v>
+        <v>4901526</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>6500000</v>
+        <v>4500000</v>
       </c>
       <c r="G16">
-        <v>6500000</v>
+        <v>4500000</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2159,7 +2189,7 @@
         <v>2000</v>
       </c>
       <c r="K16">
-        <v>7035000</v>
+        <v>5220000</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2168,10 +2198,10 @@
         <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2189,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>-12707400</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2198,10 +2228,87 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-25255133</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <v>4750000</v>
+      </c>
+      <c r="G17">
+        <v>4750000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17">
+        <v>5060000</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2219,422 +2326,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>14950</v>
+        <v>7000</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>64350</v>
+        <v>14250</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>29547</v>
+        <v>16000</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>18040</v>
+        <v>13500</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>22100</v>
+        <v>14950</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>59251</v>
+        <v>64350</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>60654</v>
+        <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>26800</v>
+        <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>21000</v>
+        <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>524031</v>
+        <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>5107</v>
+        <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>8000</v>
+        <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>50353</v>
+        <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>8400</v>
+        <v>5107</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="E18">
-        <v>41818</v>
+        <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="E19">
-        <v>47680</v>
+        <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="E20">
-        <v>18200</v>
+        <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="E21">
-        <v>10920</v>
+        <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -131,15 +134,12 @@
     <t>2023-08-28</t>
   </si>
   <si>
-    <t>2023-08-24</t>
+    <t>2023-10-23</t>
   </si>
   <si>
     <t>2023-10-20</t>
   </si>
   <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -158,7 +158,7 @@
     <t>2023-08-29</t>
   </si>
   <si>
-    <t>2023-08-25</t>
+    <t>2023-11-07</t>
   </si>
   <si>
     <t>2023-11-03</t>
@@ -218,7 +218,7 @@
     <t>상상인</t>
   </si>
   <si>
-    <t>한화</t>
+    <t>쏘닉스</t>
   </si>
   <si>
     <t>KB제27호스팩</t>
@@ -266,7 +266,7 @@
     <t>상상인제4호스팩</t>
   </si>
   <si>
-    <t>한화플러스제4호스팩</t>
+    <t>716.50:1</t>
   </si>
   <si>
     <t>10.14:1</t>
@@ -314,7 +314,7 @@
     <t>655.64:1</t>
   </si>
   <si>
-    <t>739.65:1</t>
+    <t>1.39%</t>
   </si>
   <si>
     <t>-</t>
@@ -341,9 +341,6 @@
     <t>51.60%</t>
   </si>
   <si>
-    <t>1.39%</t>
-  </si>
-  <si>
     <t>13.27%</t>
   </si>
   <si>
@@ -359,7 +356,7 @@
     <t>7.46%</t>
   </si>
   <si>
-    <t>0.13%</t>
+    <t>RF필터 파운드리</t>
   </si>
   <si>
     <t>기업인수합병</t>
@@ -585,6 +582,9 @@
   </si>
   <si>
     <t>20,300~22,500</t>
+  </si>
+  <si>
+    <t>4000</t>
   </si>
   <si>
     <t>2000</t>
@@ -1087,73 +1087,73 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G2">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K2">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1164,73 +1164,73 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G3">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H3">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1244,70 +1244,70 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G4">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I4">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J4">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K4">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q4">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R4">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S4">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T4">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U4">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V4">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W4">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X4">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1315,76 +1315,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G5">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K5">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P5">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q5">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R5">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S5">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T5">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U5">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V5">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W5">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X5">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1392,76 +1392,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K6">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P6">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q6">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R6">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S6">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T6">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U6">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V6">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W6">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X6">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1469,76 +1469,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G7">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J7">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K7">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P7">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q7">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R7">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S7">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T7">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U7">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V7">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W7">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X7">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1546,76 +1546,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J8">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K8">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P8">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q8">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R8">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S8">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T8">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U8">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V8">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W8">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X8">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1623,34 +1623,34 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G9">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K9">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1659,40 +1659,40 @@
         <v>26000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P9">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q9">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R9">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S9">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T9">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U9">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V9">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W9">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X9">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1703,73 +1703,73 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G10">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K10">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1777,230 +1777,230 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G11">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="P11">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G12">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H12">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J12">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K12">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P12">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q12">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R12">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S12">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T12">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U12">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V12">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W12">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X12">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G13">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I13">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J13">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K13">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P13">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q13">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R13">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S13">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T13">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U13">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V13">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W13">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X13">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2008,230 +2008,230 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G14">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J14">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K14">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P14">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q14">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R14">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S14">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T14">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U14">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V14">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W14">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X14">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G15">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H15">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>20000</v>
       </c>
       <c r="J15">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K15">
-        <v>4901526</v>
+        <v>8110389</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P15">
-        <v>32608351</v>
+        <v>28857</v>
       </c>
       <c r="Q15">
-        <v>43629717</v>
+        <v>45830</v>
       </c>
       <c r="R15">
-        <v>14011366</v>
+        <v>25997</v>
       </c>
       <c r="S15">
-        <v>4301870</v>
+        <v>-14511</v>
       </c>
       <c r="T15">
-        <v>7039261</v>
+        <v>4169</v>
       </c>
       <c r="U15">
-        <v>316611</v>
+        <v>4958</v>
       </c>
       <c r="V15">
-        <v>4422483</v>
+        <v>-34842</v>
       </c>
       <c r="W15">
-        <v>5391712</v>
+        <v>13350</v>
       </c>
       <c r="X15">
-        <v>180579</v>
+        <v>5128</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="G16">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K16">
-        <v>5220000</v>
+        <v>4901526</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2239,22 +2239,22 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="G17">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>2000</v>
       </c>
       <c r="K17">
-        <v>5060000</v>
+        <v>5220000</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2326,33 +2326,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
         <v>100</v>
@@ -2406,13 +2406,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
         <v>100</v>
@@ -2426,13 +2426,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
         <v>100</v>
@@ -2446,13 +2446,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
         <v>100</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
         <v>100</v>
@@ -2526,13 +2526,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
@@ -2546,13 +2546,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
         <v>100</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
         <v>100</v>
@@ -2586,13 +2586,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
         <v>100</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
         <v>100</v>
@@ -2646,19 +2646,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="E17">
-        <v>5107</v>
+        <v>6384</v>
       </c>
       <c r="F17" t="s">
         <v>198</v>
@@ -2666,13 +2666,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
         <v>190</v>
@@ -2686,13 +2686,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
         <v>191</v>
@@ -2706,13 +2706,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
         <v>192</v>
@@ -2726,13 +2726,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
         <v>193</v>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="207">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -425,6 +425,9 @@
     <t>블루엠텍</t>
   </si>
   <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
@@ -443,9 +446,6 @@
     <t>에이텀</t>
   </si>
   <si>
-    <t>LS머트리얼즈</t>
-  </si>
-  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -500,9 +500,6 @@
     <t>2023.11.09~11.15</t>
   </si>
   <si>
-    <t>2023.11.08~11.14</t>
-  </si>
-  <si>
     <t>2023.11.07~11.13</t>
   </si>
   <si>
@@ -536,6 +533,9 @@
     <t>15,000~19,000</t>
   </si>
   <si>
+    <t>4,400~5,500</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -548,9 +548,6 @@
     <t>23,000~30,000</t>
   </si>
   <si>
-    <t>4,400~5,500</t>
-  </si>
-  <si>
     <t>21,000~25,000</t>
   </si>
   <si>
@@ -602,6 +599,9 @@
     <t>하나증권,키움증권</t>
   </si>
   <si>
+    <t>키움증권,KB증권,이베스트투자증권,하이투자증권,NH투자증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -618,9 +618,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>키움증권,KB증권,이베스트투자증권,하이투자증권,NH투자증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
@@ -2352,7 +2349,7 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -2361,7 +2358,7 @@
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2369,19 +2366,19 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2398,10 +2395,10 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2409,19 +2406,19 @@
         <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
         <v>100</v>
       </c>
       <c r="E5">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2429,19 +2426,19 @@
         <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2449,19 +2446,19 @@
         <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>100</v>
       </c>
       <c r="E7">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2469,19 +2466,19 @@
         <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2489,19 +2486,19 @@
         <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>64350</v>
+        <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2509,10 +2506,10 @@
         <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>100</v>
@@ -2521,7 +2518,7 @@
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2529,10 +2526,10 @@
         <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
@@ -2549,10 +2546,10 @@
         <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
         <v>100</v>
@@ -2561,7 +2558,7 @@
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2569,10 +2566,10 @@
         <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
         <v>100</v>
@@ -2581,7 +2578,7 @@
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2589,10 +2586,10 @@
         <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
         <v>100</v>
@@ -2609,10 +2606,10 @@
         <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -2621,7 +2618,7 @@
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2629,10 +2626,10 @@
         <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
         <v>100</v>
@@ -2641,7 +2638,7 @@
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2649,13 +2646,13 @@
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17">
         <v>6384</v>
@@ -2669,19 +2666,19 @@
         <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
         <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2689,13 +2686,13 @@
         <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19">
         <v>50353</v>
@@ -2709,19 +2706,19 @@
         <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2729,19 +2726,19 @@
         <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="232">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,12 +92,15 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
     <t>2023-10-17</t>
   </si>
   <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -134,12 +137,15 @@
     <t>2023-08-28</t>
   </si>
   <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
     <t>2023-10-23</t>
   </si>
   <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -158,6 +164,12 @@
     <t>2023-08-29</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -170,9 +182,6 @@
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
@@ -182,12 +191,21 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>미래, 삼성</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -218,6 +236,18 @@
     <t>상상인</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
     <t>쏘닉스</t>
   </si>
   <si>
@@ -266,6 +296,18 @@
     <t>상상인제4호스팩</t>
   </si>
   <si>
+    <t>20.88:1</t>
+  </si>
+  <si>
+    <t>765.86:1</t>
+  </si>
+  <si>
+    <t>198.93:1</t>
+  </si>
+  <si>
+    <t>981.09:1</t>
+  </si>
+  <si>
     <t>716.50:1</t>
   </si>
   <si>
@@ -314,6 +356,18 @@
     <t>655.64:1</t>
   </si>
   <si>
+    <t>4.74%</t>
+  </si>
+  <si>
+    <t>9.25%</t>
+  </si>
+  <si>
+    <t>1.24%</t>
+  </si>
+  <si>
+    <t>4.20%</t>
+  </si>
+  <si>
     <t>1.39%</t>
   </si>
   <si>
@@ -356,6 +410,18 @@
     <t>7.46%</t>
   </si>
   <si>
+    <t>CAR-T 세포치료제</t>
+  </si>
+  <si>
+    <t>배터리 핀, 반도체 핀</t>
+  </si>
+  <si>
+    <t>지상국 시스템 엔지니어링 솔루션, 위성영상 생성을 위한 데이터처리 솔루션</t>
+  </si>
+  <si>
+    <t>로우코드 기반 코딩 자동화 솔루션 등</t>
+  </si>
+  <si>
     <t>RF필터 파운드리</t>
   </si>
   <si>
@@ -479,9 +545,6 @@
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>컨텍</t>
-  </si>
-  <si>
     <t>2023.11.22~11.28</t>
   </si>
   <si>
@@ -579,6 +642,18 @@
   </si>
   <si>
     <t>20,300~22,500</t>
+  </si>
+  <si>
+    <t>34700</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>36200</t>
   </si>
   <si>
     <t>4000</t>
@@ -993,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,846 +1156,846 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>3600000</v>
+        <v>1600000</v>
       </c>
       <c r="G2">
-        <v>3600000</v>
+        <v>1600000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>29800</v>
       </c>
       <c r="J2">
-        <v>7000</v>
+        <v>33500</v>
       </c>
       <c r="K2">
-        <v>17306490</v>
+        <v>13612736</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="P2">
-        <v>21976760922</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15839004968</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6887755932</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-2217897363</v>
+        <v>-15286512079</v>
       </c>
       <c r="T2">
-        <v>-3403228196</v>
+        <v>-21424611321</v>
       </c>
       <c r="U2">
-        <v>-2758864194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V2">
-        <v>-5110677395</v>
+        <v>-53575668634</v>
       </c>
       <c r="W2">
-        <v>-29510193610</v>
+        <v>-38885125426</v>
       </c>
       <c r="X2">
-        <v>-2514471056</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>12500000</v>
+        <v>5200000</v>
       </c>
       <c r="G3">
-        <v>12500000</v>
+        <v>5200000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K3">
-        <v>12905000</v>
+        <v>20771000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>39450601</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>49044883</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>21826468</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2477559</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8094900</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>215154</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>3427734</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>6575528</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>349843</v>
       </c>
       <c r="Y3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>1049482</v>
+        <v>2060000</v>
       </c>
       <c r="G4">
-        <v>944534</v>
+        <v>2000000</v>
       </c>
       <c r="H4">
-        <v>104948</v>
+        <v>60000</v>
       </c>
       <c r="I4">
-        <v>12800</v>
+        <v>20300</v>
       </c>
       <c r="J4">
-        <v>14500</v>
+        <v>22500</v>
       </c>
       <c r="K4">
-        <v>6261485</v>
+        <v>14384224</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="P4">
-        <v>34557425427</v>
+        <v>5787300240</v>
       </c>
       <c r="Q4">
-        <v>39824841246</v>
+        <v>1914633847</v>
       </c>
       <c r="R4">
-        <v>23231897516</v>
+        <v>3156092272</v>
       </c>
       <c r="S4">
-        <v>3011651602</v>
+        <v>-1798278694</v>
       </c>
       <c r="T4">
-        <v>2384643399</v>
+        <v>-1453689952</v>
       </c>
       <c r="U4">
-        <v>4436005255</v>
+        <v>-4067648306</v>
       </c>
       <c r="V4">
-        <v>2755379556</v>
+        <v>-12449932055</v>
       </c>
       <c r="W4">
-        <v>1176755354</v>
+        <v>-7426231074</v>
       </c>
       <c r="X4">
-        <v>4046949430</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>1128720</v>
+        <v>1200000</v>
       </c>
       <c r="G5">
-        <v>1128720</v>
+        <v>1200000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3300</v>
+        <v>9100</v>
       </c>
       <c r="J5">
-        <v>3900</v>
+        <v>11000</v>
       </c>
       <c r="K5">
-        <v>11287196</v>
+        <v>7206940</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4400</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="P5">
-        <v>50552623684</v>
+        <v>20924</v>
       </c>
       <c r="Q5">
-        <v>69013134090</v>
+        <v>27659</v>
       </c>
       <c r="R5">
-        <v>16887814423</v>
+        <v>11818</v>
       </c>
       <c r="S5">
-        <v>9027232647</v>
+        <v>2838</v>
       </c>
       <c r="T5">
-        <v>15707796256</v>
+        <v>4563</v>
       </c>
       <c r="U5">
-        <v>555562560</v>
+        <v>-1222</v>
       </c>
       <c r="V5">
-        <v>9236341465</v>
+        <v>2413</v>
       </c>
       <c r="W5">
-        <v>13159994846</v>
+        <v>3190</v>
       </c>
       <c r="X5">
-        <v>1236029732</v>
+        <v>-862</v>
       </c>
       <c r="Y5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="G6">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="J6">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="K6">
-        <v>10193520</v>
+        <v>17306490</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="P6">
-        <v>3952070068</v>
+        <v>21976760922</v>
       </c>
       <c r="Q6">
-        <v>10789274729</v>
+        <v>15839004968</v>
       </c>
       <c r="R6">
-        <v>6040367765</v>
+        <v>6887755932</v>
       </c>
       <c r="S6">
-        <v>-4741577598</v>
+        <v>-2217897363</v>
       </c>
       <c r="T6">
-        <v>-3671026788</v>
+        <v>-3403228196</v>
       </c>
       <c r="U6">
-        <v>-3292521363</v>
+        <v>-2758864194</v>
       </c>
       <c r="V6">
-        <v>-3654889267</v>
+        <v>-5110677395</v>
       </c>
       <c r="W6">
-        <v>-2281074471</v>
+        <v>-29510193610</v>
       </c>
       <c r="X6">
-        <v>-2539505707</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>4000000</v>
+        <v>12500000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>12500000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>5600</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>16120000</v>
+        <v>12905000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="P7">
-        <v>26691070764</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>22835113396</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>7519073723</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>6041270235</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>6705120210</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>982044017</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>5119066139</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>5870093710</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1198587470</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F8">
-        <v>770000</v>
+        <v>1049482</v>
       </c>
       <c r="G8">
-        <v>770000</v>
+        <v>944534</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I8">
-        <v>8200</v>
+        <v>12800</v>
       </c>
       <c r="J8">
-        <v>9400</v>
+        <v>14500</v>
       </c>
       <c r="K8">
-        <v>7674103</v>
+        <v>6261485</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="P8">
-        <v>8242508010</v>
+        <v>34557425427</v>
       </c>
       <c r="Q8">
-        <v>10751900430</v>
+        <v>39824841246</v>
       </c>
       <c r="R8">
-        <v>4416778965</v>
+        <v>23231897516</v>
       </c>
       <c r="S8">
-        <v>426234451</v>
+        <v>3011651602</v>
       </c>
       <c r="T8">
-        <v>2423749751</v>
+        <v>2384643399</v>
       </c>
       <c r="U8">
-        <v>677048172</v>
+        <v>4436005255</v>
       </c>
       <c r="V8">
-        <v>57890953</v>
+        <v>2755379556</v>
       </c>
       <c r="W8">
-        <v>2826043673</v>
+        <v>1176755354</v>
       </c>
       <c r="X8">
-        <v>990121873</v>
+        <v>4046949430</v>
       </c>
       <c r="Y8" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>2000000</v>
+        <v>1128720</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>1128720</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22000</v>
+        <v>3300</v>
       </c>
       <c r="J9">
-        <v>25000</v>
+        <v>3900</v>
       </c>
       <c r="K9">
-        <v>9039778</v>
+        <v>11287196</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="P9">
-        <v>104225113285</v>
+        <v>50552623684</v>
       </c>
       <c r="Q9">
-        <v>106505634411</v>
+        <v>69013134090</v>
       </c>
       <c r="R9">
-        <v>66424930568</v>
+        <v>16887814423</v>
       </c>
       <c r="S9">
-        <v>6291020806</v>
+        <v>9027232647</v>
       </c>
       <c r="T9">
-        <v>7893242769</v>
+        <v>15707796256</v>
       </c>
       <c r="U9">
-        <v>7661497240</v>
+        <v>555562560</v>
       </c>
       <c r="V9">
-        <v>7319368873</v>
+        <v>9236341465</v>
       </c>
       <c r="W9">
-        <v>9286891982</v>
+        <v>13159994846</v>
       </c>
       <c r="X9">
-        <v>7334816490</v>
+        <v>1236029732</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F10">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="G10">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="K10">
-        <v>64819980</v>
+        <v>10193520</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="P10">
-        <v>36980</v>
+        <v>3952070068</v>
       </c>
       <c r="Q10">
-        <v>44954</v>
+        <v>10789274729</v>
       </c>
       <c r="R10">
-        <v>23652</v>
+        <v>6040367765</v>
       </c>
       <c r="S10">
-        <v>-7085</v>
+        <v>-4741577598</v>
       </c>
       <c r="T10">
-        <v>-13228</v>
+        <v>-3671026788</v>
       </c>
       <c r="U10">
-        <v>-9932</v>
+        <v>-3292521363</v>
       </c>
       <c r="V10">
-        <v>-7417</v>
+        <v>-3654889267</v>
       </c>
       <c r="W10">
-        <v>-12548</v>
+        <v>-2281074471</v>
       </c>
       <c r="X10">
-        <v>-9333</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="G11">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="K11">
-        <v>18905000</v>
+        <v>16120000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>26691070764</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>22835113396</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>7519073723</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>6041270235</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>6705120210</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>982044017</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>5119066139</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>5870093710</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1198587470</v>
       </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>1500000</v>
+        <v>770000</v>
       </c>
       <c r="G12">
-        <v>1500000</v>
+        <v>770000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8900</v>
+        <v>8200</v>
       </c>
       <c r="J12">
-        <v>11000</v>
+        <v>9400</v>
       </c>
       <c r="K12">
-        <v>5447675</v>
+        <v>7674103</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="P12">
-        <v>18408761227</v>
+        <v>8242508010</v>
       </c>
       <c r="Q12">
-        <v>21902816604</v>
+        <v>10751900430</v>
       </c>
       <c r="R12">
-        <v>8176918465</v>
+        <v>4416778965</v>
       </c>
       <c r="S12">
-        <v>3669182465</v>
+        <v>426234451</v>
       </c>
       <c r="T12">
-        <v>1851925471</v>
+        <v>2423749751</v>
       </c>
       <c r="U12">
-        <v>590566592</v>
+        <v>677048172</v>
       </c>
       <c r="V12">
-        <v>3633973594</v>
+        <v>57890953</v>
       </c>
       <c r="W12">
-        <v>2205418963</v>
+        <v>2826043673</v>
       </c>
       <c r="X12">
-        <v>592903151</v>
+        <v>990121873</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1928,230 +2003,230 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>2240000</v>
+        <v>2000000</v>
       </c>
       <c r="G13">
-        <v>1640000</v>
+        <v>2000000</v>
       </c>
       <c r="H13">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="J13">
-        <v>13200</v>
+        <v>25000</v>
       </c>
       <c r="K13">
-        <v>10969386</v>
+        <v>9039778</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="P13">
-        <v>22818451349</v>
+        <v>104225113285</v>
       </c>
       <c r="Q13">
-        <v>30491967755</v>
+        <v>106505634411</v>
       </c>
       <c r="R13">
-        <v>18040053709</v>
+        <v>66424930568</v>
       </c>
       <c r="S13">
-        <v>2313787613</v>
+        <v>6291020806</v>
       </c>
       <c r="T13">
-        <v>4014101926</v>
+        <v>7893242769</v>
       </c>
       <c r="U13">
-        <v>1878997667</v>
+        <v>7661497240</v>
       </c>
       <c r="V13">
-        <v>559427078</v>
+        <v>7319368873</v>
       </c>
       <c r="W13">
-        <v>-711183147</v>
+        <v>9286891982</v>
       </c>
       <c r="X13">
-        <v>1929682988</v>
+        <v>7334816490</v>
       </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F14">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="G14">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="J14">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
-        <v>7874611</v>
+        <v>64819980</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="P14">
-        <v>7327878427</v>
+        <v>36980</v>
       </c>
       <c r="Q14">
-        <v>10756717708</v>
+        <v>44954</v>
       </c>
       <c r="R14">
-        <v>4113702647</v>
+        <v>23652</v>
       </c>
       <c r="S14">
-        <v>-588932080</v>
+        <v>-7085</v>
       </c>
       <c r="T14">
-        <v>254042570</v>
+        <v>-13228</v>
       </c>
       <c r="U14">
-        <v>-738698858</v>
+        <v>-9932</v>
       </c>
       <c r="V14">
-        <v>-569358529</v>
+        <v>-7417</v>
       </c>
       <c r="W14">
-        <v>-429546963</v>
+        <v>-12548</v>
       </c>
       <c r="X14">
-        <v>-550600734</v>
+        <v>-9333</v>
       </c>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G15">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>8110389</v>
+        <v>18905000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P15">
-        <v>28857</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>45830</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>25997</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>-14511</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>4169</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>4958</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>-34842</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>13350</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>5128</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2159,153 +2234,461 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G16">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H16">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>20000</v>
+        <v>8900</v>
       </c>
       <c r="J16">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="K16">
-        <v>4901526</v>
+        <v>5447675</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="P16">
-        <v>32608351</v>
+        <v>18408761227</v>
       </c>
       <c r="Q16">
-        <v>43629717</v>
+        <v>21902816604</v>
       </c>
       <c r="R16">
-        <v>14011366</v>
+        <v>8176918465</v>
       </c>
       <c r="S16">
-        <v>4301870</v>
+        <v>3669182465</v>
       </c>
       <c r="T16">
-        <v>7039261</v>
+        <v>1851925471</v>
       </c>
       <c r="U16">
-        <v>316611</v>
+        <v>590566592</v>
       </c>
       <c r="V16">
-        <v>4422483</v>
+        <v>3633973594</v>
       </c>
       <c r="W16">
-        <v>5391712</v>
+        <v>2205418963</v>
       </c>
       <c r="X16">
-        <v>180579</v>
+        <v>592903151</v>
       </c>
       <c r="Y16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17">
+        <v>2240000</v>
+      </c>
+      <c r="G17">
+        <v>1640000</v>
+      </c>
+      <c r="H17">
+        <v>600000</v>
+      </c>
+      <c r="I17">
+        <v>11500</v>
+      </c>
+      <c r="J17">
+        <v>13200</v>
+      </c>
+      <c r="K17">
+        <v>10969386</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17">
+        <v>22818451349</v>
+      </c>
+      <c r="Q17">
+        <v>30491967755</v>
+      </c>
+      <c r="R17">
+        <v>18040053709</v>
+      </c>
+      <c r="S17">
+        <v>2313787613</v>
+      </c>
+      <c r="T17">
+        <v>4014101926</v>
+      </c>
+      <c r="U17">
+        <v>1878997667</v>
+      </c>
+      <c r="V17">
+        <v>559427078</v>
+      </c>
+      <c r="W17">
+        <v>-711183147</v>
+      </c>
+      <c r="X17">
+        <v>1929682988</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18">
+        <v>1580000</v>
+      </c>
+      <c r="G18">
+        <v>1580000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10500</v>
+      </c>
+      <c r="J18">
+        <v>12000</v>
+      </c>
+      <c r="K18">
+        <v>7874611</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>14000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18">
+        <v>7327878427</v>
+      </c>
+      <c r="Q18">
+        <v>10756717708</v>
+      </c>
+      <c r="R18">
+        <v>4113702647</v>
+      </c>
+      <c r="S18">
+        <v>-588932080</v>
+      </c>
+      <c r="T18">
+        <v>254042570</v>
+      </c>
+      <c r="U18">
+        <v>-738698858</v>
+      </c>
+      <c r="V18">
+        <v>-569358529</v>
+      </c>
+      <c r="W18">
+        <v>-429546963</v>
+      </c>
+      <c r="X18">
+        <v>-550600734</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>1500000</v>
+      </c>
+      <c r="G19">
+        <v>1500000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>20000</v>
+      </c>
+      <c r="J19">
+        <v>23000</v>
+      </c>
+      <c r="K19">
+        <v>8110389</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>23000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19">
+        <v>28857</v>
+      </c>
+      <c r="Q19">
+        <v>45830</v>
+      </c>
+      <c r="R19">
+        <v>25997</v>
+      </c>
+      <c r="S19">
+        <v>-14511</v>
+      </c>
+      <c r="T19">
+        <v>4169</v>
+      </c>
+      <c r="U19">
+        <v>4958</v>
+      </c>
+      <c r="V19">
+        <v>-34842</v>
+      </c>
+      <c r="W19">
+        <v>13350</v>
+      </c>
+      <c r="X19">
+        <v>5128</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <v>1100000</v>
+      </c>
+      <c r="G20">
+        <v>900000</v>
+      </c>
+      <c r="H20">
+        <v>200000</v>
+      </c>
+      <c r="I20">
+        <v>20000</v>
+      </c>
+      <c r="J20">
+        <v>24000</v>
+      </c>
+      <c r="K20">
+        <v>4901526</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>24000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20">
+        <v>32608351</v>
+      </c>
+      <c r="Q20">
+        <v>43629717</v>
+      </c>
+      <c r="R20">
+        <v>14011366</v>
+      </c>
+      <c r="S20">
+        <v>4301870</v>
+      </c>
+      <c r="T20">
+        <v>7039261</v>
+      </c>
+      <c r="U20">
+        <v>316611</v>
+      </c>
+      <c r="V20">
+        <v>4422483</v>
+      </c>
+      <c r="W20">
+        <v>5391712</v>
+      </c>
+      <c r="X20">
+        <v>180579</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21">
         <v>4500000</v>
       </c>
-      <c r="G17">
+      <c r="G21">
         <v>4500000</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>2000</v>
       </c>
-      <c r="J17">
+      <c r="J21">
         <v>2000</v>
       </c>
-      <c r="K17">
+      <c r="K21">
         <v>5220000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>2000</v>
       </c>
-      <c r="N17" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>128</v>
+      <c r="N21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2323,422 +2706,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E11">
         <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="E13">
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="E14">
         <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="E15">
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="E16">
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E17">
         <v>6384</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E19">
         <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="234">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -642,6 +642,12 @@
   </si>
   <si>
     <t>20,300~22,500</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>7000</t>
   </si>
   <si>
     <t>34700</t>
@@ -2741,7 +2747,7 @@
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2761,7 +2767,7 @@
         <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2781,7 +2787,7 @@
         <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2801,7 +2807,7 @@
         <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2821,7 +2827,7 @@
         <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2841,7 +2847,7 @@
         <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2861,7 +2867,7 @@
         <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2881,7 +2887,7 @@
         <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2901,7 +2907,7 @@
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2915,13 +2921,13 @@
         <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="E11">
         <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2935,13 +2941,13 @@
         <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="E12">
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2955,13 +2961,13 @@
         <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E13">
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2975,13 +2981,13 @@
         <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E14">
         <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2995,13 +3001,13 @@
         <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E15">
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3015,13 +3021,13 @@
         <v>204</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E16">
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3035,13 +3041,13 @@
         <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E17">
         <v>6384</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3055,13 +3061,13 @@
         <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3075,13 +3081,13 @@
         <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E19">
         <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3095,13 +3101,13 @@
         <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3115,13 +3121,13 @@
         <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="240">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -95,6 +95,12 @@
     <t>2023-10-20</t>
   </si>
   <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -140,10 +146,7 @@
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-10-25</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
+    <t>2023-10-27</t>
   </si>
   <si>
     <t>2023-10-13</t>
@@ -167,6 +170,9 @@
     <t>2023-11-09</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
@@ -179,9 +185,6 @@
     <t>2023-11-02</t>
   </si>
   <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
@@ -194,6 +197,12 @@
     <t>미래, 삼성</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -209,9 +218,6 @@
     <t>신한</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>키움</t>
   </si>
   <si>
@@ -224,9 +230,6 @@
     <t>한국, 미래</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -239,6 +242,12 @@
     <t>큐로셀</t>
   </si>
   <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -299,6 +308,12 @@
     <t>20.88:1</t>
   </si>
   <si>
+    <t>490.02:1</t>
+  </si>
+  <si>
+    <t>745.80:1</t>
+  </si>
+  <si>
     <t>765.86:1</t>
   </si>
   <si>
@@ -359,6 +374,12 @@
     <t>4.74%</t>
   </si>
   <si>
+    <t>22.38%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>9.25%</t>
   </si>
   <si>
@@ -371,9 +392,6 @@
     <t>1.39%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>17.63%</t>
   </si>
   <si>
@@ -413,6 +431,12 @@
     <t>CAR-T 세포치료제</t>
   </si>
   <si>
+    <t>비메모리 반도체 설계및 제조, 전자회로 연구, 설계, 레이아웃 등</t>
+  </si>
+  <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
     <t>배터리 핀, 반도체 핀</t>
   </si>
   <si>
@@ -425,9 +449,6 @@
     <t>RF필터 파운드리</t>
   </si>
   <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>이차전지 정밀금형 외</t>
   </si>
   <si>
@@ -537,9 +558,6 @@
   </si>
   <si>
     <t>한국스팩13호</t>
-  </si>
-  <si>
-    <t>에이직랜드</t>
   </si>
   <si>
     <t>에스와이스틸텍</t>
@@ -1074,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,16 +1180,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>1600000</v>
@@ -1198,10 +1216,10 @@
         <v>20000</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1231,546 +1249,546 @@
         <v>-12610702106</v>
       </c>
       <c r="Y2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>5200000</v>
+        <v>2636330</v>
       </c>
       <c r="G3">
-        <v>5200000</v>
+        <v>2636330</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3500</v>
+        <v>19100</v>
       </c>
       <c r="J3">
-        <v>4000</v>
+        <v>21400</v>
       </c>
       <c r="K3">
-        <v>20771000</v>
+        <v>10585320</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4800</v>
+        <v>25000</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P3">
-        <v>39450601</v>
+        <v>45195788</v>
       </c>
       <c r="Q3">
-        <v>49044883</v>
+        <v>69629209</v>
       </c>
       <c r="R3">
-        <v>21826468</v>
+        <v>35634471</v>
       </c>
       <c r="S3">
-        <v>2477559</v>
+        <v>2751277</v>
       </c>
       <c r="T3">
-        <v>8094900</v>
+        <v>11449731</v>
       </c>
       <c r="U3">
-        <v>215154</v>
+        <v>2482194</v>
       </c>
       <c r="V3">
-        <v>3427734</v>
+        <v>2092692</v>
       </c>
       <c r="W3">
-        <v>6575528</v>
+        <v>5149538</v>
       </c>
       <c r="X3">
-        <v>349843</v>
+        <v>2327401</v>
       </c>
       <c r="Y3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>2060000</v>
+        <v>4000000</v>
       </c>
       <c r="G4">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H4">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20300</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>14384224</v>
+        <v>4320000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P4">
-        <v>5787300240</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1914633847</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3156092272</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-1798278694</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>-1453689952</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>-4067648306</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-12449932055</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-7426231074</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-52132058866</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G5">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K5">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P5">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q5">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R5">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S5">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T5">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U5">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V5">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W5">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X5">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G6">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I6">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J6">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K6">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P6">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q6">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R6">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S6">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T6">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U6">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V6">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W6">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X6">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G7">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K7">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G8">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H8">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J8">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K8">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P8">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q8">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R8">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S8">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T8">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U8">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V8">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W8">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X8">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G9">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
         <v>120</v>
       </c>
       <c r="P9">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1778,34 +1796,34 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G10">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I10">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K10">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1814,40 +1832,40 @@
         <v>17000</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P10">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q10">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R10">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S10">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T10">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U10">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V10">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W10">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X10">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1858,73 +1876,73 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G11">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J11">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K11">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P11">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q11">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R11">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S11">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T11">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U11">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V11">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W11">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X11">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1932,76 +1950,76 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G12">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J12">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K12">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P12">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q12">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R12">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S12">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T12">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U12">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V12">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W12">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X12">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2009,76 +2027,76 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="G13">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J13">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K13">
-        <v>9039778</v>
+        <v>16120000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P13">
-        <v>104225113285</v>
+        <v>26691070764</v>
       </c>
       <c r="Q13">
-        <v>106505634411</v>
+        <v>22835113396</v>
       </c>
       <c r="R13">
-        <v>66424930568</v>
+        <v>7519073723</v>
       </c>
       <c r="S13">
-        <v>6291020806</v>
+        <v>6041270235</v>
       </c>
       <c r="T13">
-        <v>7893242769</v>
+        <v>6705120210</v>
       </c>
       <c r="U13">
-        <v>7661497240</v>
+        <v>982044017</v>
       </c>
       <c r="V13">
-        <v>7319368873</v>
+        <v>5119066139</v>
       </c>
       <c r="W13">
-        <v>9286891982</v>
+        <v>5870093710</v>
       </c>
       <c r="X13">
-        <v>7334816490</v>
+        <v>1198587470</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2086,76 +2104,76 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="G14">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K14">
-        <v>64819980</v>
+        <v>7674103</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P14">
-        <v>36980</v>
+        <v>8242508010</v>
       </c>
       <c r="Q14">
-        <v>44954</v>
+        <v>10751900430</v>
       </c>
       <c r="R14">
-        <v>23652</v>
+        <v>4416778965</v>
       </c>
       <c r="S14">
-        <v>-7085</v>
+        <v>426234451</v>
       </c>
       <c r="T14">
-        <v>-13228</v>
+        <v>2423749751</v>
       </c>
       <c r="U14">
-        <v>-9932</v>
+        <v>677048172</v>
       </c>
       <c r="V14">
-        <v>-7417</v>
+        <v>57890953</v>
       </c>
       <c r="W14">
-        <v>-12548</v>
+        <v>2826043673</v>
       </c>
       <c r="X14">
-        <v>-9333</v>
+        <v>990121873</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2166,73 +2184,73 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="G15">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K15">
-        <v>18905000</v>
+        <v>9039778</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>104225113285</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>106505634411</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>66424930568</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>6291020806</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>7893242769</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>7661497240</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>7319368873</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>9286891982</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>7334816490</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2240,461 +2258,615 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="G16">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8900</v>
+        <v>21000</v>
       </c>
       <c r="J16">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
-        <v>5447675</v>
+        <v>64819980</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P16">
-        <v>18408761227</v>
+        <v>36980</v>
       </c>
       <c r="Q16">
-        <v>21902816604</v>
+        <v>44954</v>
       </c>
       <c r="R16">
-        <v>8176918465</v>
+        <v>23652</v>
       </c>
       <c r="S16">
-        <v>3669182465</v>
+        <v>-7085</v>
       </c>
       <c r="T16">
-        <v>1851925471</v>
+        <v>-13228</v>
       </c>
       <c r="U16">
-        <v>590566592</v>
+        <v>-9932</v>
       </c>
       <c r="V16">
-        <v>3633973594</v>
+        <v>-7417</v>
       </c>
       <c r="W16">
-        <v>2205418963</v>
+        <v>-12548</v>
       </c>
       <c r="X16">
-        <v>592903151</v>
+        <v>-9333</v>
       </c>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17">
-        <v>2240000</v>
+        <v>18000000</v>
       </c>
       <c r="G17">
-        <v>1640000</v>
+        <v>18000000</v>
       </c>
       <c r="H17">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K17">
-        <v>10969386</v>
+        <v>18905000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P17">
-        <v>22818451349</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>30491967755</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>18040053709</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>2313787613</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>4014101926</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1878997667</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>559427078</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>-711183147</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1929682988</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="G18">
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10500</v>
+        <v>8900</v>
       </c>
       <c r="J18">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K18">
-        <v>7874611</v>
+        <v>5447675</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P18">
-        <v>7327878427</v>
+        <v>18408761227</v>
       </c>
       <c r="Q18">
-        <v>10756717708</v>
+        <v>21902816604</v>
       </c>
       <c r="R18">
-        <v>4113702647</v>
+        <v>8176918465</v>
       </c>
       <c r="S18">
-        <v>-588932080</v>
+        <v>3669182465</v>
       </c>
       <c r="T18">
-        <v>254042570</v>
+        <v>1851925471</v>
       </c>
       <c r="U18">
-        <v>-738698858</v>
+        <v>590566592</v>
       </c>
       <c r="V18">
-        <v>-569358529</v>
+        <v>3633973594</v>
       </c>
       <c r="W18">
-        <v>-429546963</v>
+        <v>2205418963</v>
       </c>
       <c r="X18">
-        <v>-550600734</v>
+        <v>592903151</v>
       </c>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="G19">
-        <v>1500000</v>
+        <v>1640000</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I19">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="J19">
-        <v>23000</v>
+        <v>13200</v>
       </c>
       <c r="K19">
-        <v>8110389</v>
+        <v>10969386</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P19">
-        <v>28857</v>
+        <v>22818451349</v>
       </c>
       <c r="Q19">
-        <v>45830</v>
+        <v>30491967755</v>
       </c>
       <c r="R19">
-        <v>25997</v>
+        <v>18040053709</v>
       </c>
       <c r="S19">
-        <v>-14511</v>
+        <v>2313787613</v>
       </c>
       <c r="T19">
-        <v>4169</v>
+        <v>4014101926</v>
       </c>
       <c r="U19">
-        <v>4958</v>
+        <v>1878997667</v>
       </c>
       <c r="V19">
-        <v>-34842</v>
+        <v>559427078</v>
       </c>
       <c r="W19">
-        <v>13350</v>
+        <v>-711183147</v>
       </c>
       <c r="X19">
-        <v>5128</v>
+        <v>1929682988</v>
       </c>
       <c r="Y19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>1100000</v>
+        <v>1580000</v>
       </c>
       <c r="G20">
-        <v>900000</v>
+        <v>1580000</v>
       </c>
       <c r="H20">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J20">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="K20">
-        <v>4901526</v>
+        <v>7874611</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P20">
-        <v>32608351</v>
+        <v>7327878427</v>
       </c>
       <c r="Q20">
-        <v>43629717</v>
+        <v>10756717708</v>
       </c>
       <c r="R20">
-        <v>14011366</v>
+        <v>4113702647</v>
       </c>
       <c r="S20">
-        <v>4301870</v>
+        <v>-588932080</v>
       </c>
       <c r="T20">
-        <v>7039261</v>
+        <v>254042570</v>
       </c>
       <c r="U20">
-        <v>316611</v>
+        <v>-738698858</v>
       </c>
       <c r="V20">
-        <v>4422483</v>
+        <v>-569358529</v>
       </c>
       <c r="W20">
-        <v>5391712</v>
+        <v>-429546963</v>
       </c>
       <c r="X20">
-        <v>180579</v>
+        <v>-550600734</v>
       </c>
       <c r="Y20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21">
+        <v>1500000</v>
+      </c>
+      <c r="G21">
+        <v>1500000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>20000</v>
+      </c>
+      <c r="J21">
+        <v>23000</v>
+      </c>
+      <c r="K21">
+        <v>8110389</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21">
+        <v>28857</v>
+      </c>
+      <c r="Q21">
+        <v>45830</v>
+      </c>
+      <c r="R21">
+        <v>25997</v>
+      </c>
+      <c r="S21">
+        <v>-14511</v>
+      </c>
+      <c r="T21">
+        <v>4169</v>
+      </c>
+      <c r="U21">
+        <v>4958</v>
+      </c>
+      <c r="V21">
+        <v>-34842</v>
+      </c>
+      <c r="W21">
+        <v>13350</v>
+      </c>
+      <c r="X21">
+        <v>5128</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21">
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22">
+        <v>1100000</v>
+      </c>
+      <c r="G22">
+        <v>900000</v>
+      </c>
+      <c r="H22">
+        <v>200000</v>
+      </c>
+      <c r="I22">
+        <v>20000</v>
+      </c>
+      <c r="J22">
+        <v>24000</v>
+      </c>
+      <c r="K22">
+        <v>4901526</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22">
+        <v>32608351</v>
+      </c>
+      <c r="Q22">
+        <v>43629717</v>
+      </c>
+      <c r="R22">
+        <v>14011366</v>
+      </c>
+      <c r="S22">
+        <v>4301870</v>
+      </c>
+      <c r="T22">
+        <v>7039261</v>
+      </c>
+      <c r="U22">
+        <v>316611</v>
+      </c>
+      <c r="V22">
+        <v>4422483</v>
+      </c>
+      <c r="W22">
+        <v>5391712</v>
+      </c>
+      <c r="X22">
+        <v>180579</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23">
         <v>4500000</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>4500000</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>2000</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <v>2000</v>
       </c>
-      <c r="K21">
+      <c r="K23">
         <v>5220000</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>2000</v>
       </c>
-      <c r="N21" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>150</v>
+      <c r="N23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2712,422 +2884,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2">
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3">
         <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5">
         <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E11">
         <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E12">
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E13">
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E14">
         <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E15">
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E16">
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E17">
         <v>6384</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E19">
         <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="238">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -140,9 +140,6 @@
     <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -164,15 +161,15 @@
     <t>2023-09-13</t>
   </si>
   <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
     <t>2023-11-09</t>
   </si>
   <si>
     <t>2023-11-13</t>
   </si>
   <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
     <t>한국</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -212,9 +212,6 @@
     <t>IBK</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>신영</t>
   </si>
   <si>
-    <t>상상인</t>
-  </si>
-  <si>
     <t>큐로셀</t>
   </si>
   <si>
@@ -248,6 +242,9 @@
     <t>한국제13호스팩</t>
   </si>
   <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
     <t>20.88:1</t>
   </si>
   <si>
@@ -314,6 +308,9 @@
     <t>745.80:1</t>
   </si>
   <si>
+    <t>1,113.85:1</t>
+  </si>
+  <si>
     <t>765.86:1</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>672.42:1</t>
   </si>
   <si>
-    <t>655.64:1</t>
-  </si>
-  <si>
     <t>4.74%</t>
   </si>
   <si>
@@ -380,6 +374,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>6.69%</t>
+  </si>
+  <si>
     <t>9.25%</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
     <t>기업인수합병</t>
   </si>
   <si>
+    <t>데크플레이트</t>
+  </si>
+  <si>
     <t>배터리 핀, 반도체 핀</t>
   </si>
   <si>
@@ -488,9 +488,6 @@
     <t>UI/UX 개발 솔루션, 엔터프라이즈 DX 솔루션, 금융 단말 솔루션 등</t>
   </si>
   <si>
-    <t>합병</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -558,9 +555,6 @@
   </si>
   <si>
     <t>한국스팩13호</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
   </si>
   <si>
     <t>2023.11.22~11.28</t>
@@ -1180,16 +1174,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>1600000</v>
@@ -1216,10 +1210,10 @@
         <v>20000</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1249,7 +1243,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1257,16 +1251,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>2636330</v>
@@ -1293,10 +1287,10 @@
         <v>25000</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P3">
         <v>45195788</v>
@@ -1326,7 +1320,7 @@
         <v>2327401</v>
       </c>
       <c r="Y3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1334,16 +1328,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>4000000</v>
@@ -1370,10 +1364,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1403,84 +1397,84 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G5">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J5">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K5">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P5">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q5">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R5">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S5">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T5">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U5">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V5">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W5">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X5">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1488,804 +1482,804 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G6">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H6">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J6">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K6">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P6">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q6">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R6">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S6">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T6">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U6">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V6">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W6">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X6">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G7">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I7">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J7">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K7">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P7">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q7">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R7">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S7">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T7">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U7">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V7">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W7">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X7">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G8">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J8">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K8">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P8">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q8">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R8">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S8">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T8">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U8">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V8">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W8">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X8">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G9">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K9">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G10">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H10">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="P10">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F11">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G11">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I11">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J11">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K11">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P11">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q11">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R11">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S11">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T11">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U11">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V11">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W11">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X11">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G12">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K12">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P12">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q12">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R12">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S12">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T12">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U12">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V12">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W12">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X12">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J13">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K13">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P13">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q13">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R13">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S13">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T13">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U13">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V13">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W13">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X13">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G14">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J14">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K14">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P14">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q14">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R14">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S14">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T14">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U14">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V14">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W14">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X14">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G15">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J15">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K15">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P15">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q15">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R15">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S15">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T15">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U15">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V15">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W15">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X15">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G16">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K16">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2294,579 +2288,579 @@
         <v>26000</v>
       </c>
       <c r="N16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P16">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q16">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R16">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S16">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T16">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U16">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V16">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W16">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X16">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G17">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K17">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G18">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P18">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G19">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H19">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J19">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K19">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P19">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q19">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R19">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S19">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T19">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U19">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V19">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W19">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X19">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G20">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I20">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J20">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K20">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P20">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q20">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R20">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S20">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T20">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U20">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V20">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W20">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X20">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G21">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J21">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K21">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P21">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q21">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R21">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S21">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T21">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U21">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V21">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W21">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X21">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G22">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H22">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>20000</v>
       </c>
       <c r="J22">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K22">
-        <v>4901526</v>
+        <v>8110389</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P22">
-        <v>32608351</v>
+        <v>28857</v>
       </c>
       <c r="Q22">
-        <v>43629717</v>
+        <v>45830</v>
       </c>
       <c r="R22">
-        <v>14011366</v>
+        <v>25997</v>
       </c>
       <c r="S22">
-        <v>4301870</v>
+        <v>-14511</v>
       </c>
       <c r="T22">
-        <v>7039261</v>
+        <v>4169</v>
       </c>
       <c r="U22">
-        <v>316611</v>
+        <v>4958</v>
       </c>
       <c r="V22">
-        <v>4422483</v>
+        <v>-34842</v>
       </c>
       <c r="W22">
-        <v>5391712</v>
+        <v>13350</v>
       </c>
       <c r="X22">
-        <v>180579</v>
+        <v>5128</v>
       </c>
       <c r="Y22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="G23">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K23">
-        <v>5220000</v>
+        <v>4901526</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O23" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2884,422 +2878,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E11">
         <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E12">
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E13">
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E14">
         <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E15">
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E16">
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E17">
         <v>6384</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E19">
         <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="243">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -140,7 +143,7 @@
     <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-10-26</t>
+    <t>2023-11-01</t>
   </si>
   <si>
     <t>2023-10-27</t>
@@ -161,6 +164,9 @@
     <t>2023-09-13</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -233,6 +239,9 @@
     <t>신영</t>
   </si>
   <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
@@ -299,6 +308,9 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>952.78</t>
+  </si>
+  <si>
     <t>20.88:1</t>
   </si>
   <si>
@@ -365,6 +377,9 @@
     <t>672.42:1</t>
   </si>
   <si>
+    <t>0.19%</t>
+  </si>
+  <si>
     <t>4.74%</t>
   </si>
   <si>
@@ -425,6 +440,9 @@
     <t>7.46%</t>
   </si>
   <si>
+    <t>벤처투자조합 등 조합 결성 및 운영</t>
+  </si>
+  <si>
     <t>CAR-T 세포치료제</t>
   </si>
   <si>
@@ -549,9 +567,6 @@
   </si>
   <si>
     <t>에코프로머티리얼즈(유가)</t>
-  </si>
-  <si>
-    <t>캡스톤파트너스</t>
   </si>
   <si>
     <t>한국스팩13호</t>
@@ -1086,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,76 +1189,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G2">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J2">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K2">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S2">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T2">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U2">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V2">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1251,76 +1266,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G3">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J3">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K3">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P3">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T3">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U3">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V3">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W3">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X3">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1328,384 +1343,384 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G4">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K4">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G5">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P5">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G6">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J6">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K6">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P6">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q6">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R6">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S6">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T6">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U6">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V6">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W6">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X6">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G7">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H7">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J7">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K7">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P7">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q7">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R7">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S7">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T7">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U7">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V7">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W7">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X7">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G8">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I8">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J8">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K8">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P8">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q8">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R8">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S8">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T8">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U8">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V8">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W8">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X8">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1713,227 +1728,227 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G9">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J9">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K9">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P9">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q9">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R9">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S9">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T9">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U9">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V9">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W9">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X9">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G10">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K10">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F11">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G11">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H11">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P11">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
         <v>144</v>
@@ -1944,76 +1959,76 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G12">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I12">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J12">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K12">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P12">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q12">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R12">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S12">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T12">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U12">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V12">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W12">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X12">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2021,76 +2036,76 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G13">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K13">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P13">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q13">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R13">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S13">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T13">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U13">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V13">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W13">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X13">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2098,76 +2113,76 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J14">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K14">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P14">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q14">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R14">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S14">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T14">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U14">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V14">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W14">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X14">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2175,76 +2190,76 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F15">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J15">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K15">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P15">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q15">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R15">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S15">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T15">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U15">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V15">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W15">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X15">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2252,76 +2267,76 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G16">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J16">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K16">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P16">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q16">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R16">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S16">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T16">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U16">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V16">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W16">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X16">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2332,31 +2347,31 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G17">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K17">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2365,40 +2380,40 @@
         <v>26000</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P17">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q17">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R17">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S17">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T17">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U17">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V17">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W17">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X17">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2406,76 +2421,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G18">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2483,230 +2498,230 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G19">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P19">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G20">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H20">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J20">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K20">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P20">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q20">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R20">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S20">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T20">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U20">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V20">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W20">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X20">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G21">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I21">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J21">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K21">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P21">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q21">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R21">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S21">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T21">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U21">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V21">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W21">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X21">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y21" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2717,150 +2732,227 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F22">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G22">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J22">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K22">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P22">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q22">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R22">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S22">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T22">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U22">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V22">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W22">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X22">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G23">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H23">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>20000</v>
       </c>
       <c r="J23">
+        <v>23000</v>
+      </c>
+      <c r="K23">
+        <v>8110389</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23">
+        <v>28857</v>
+      </c>
+      <c r="Q23">
+        <v>45830</v>
+      </c>
+      <c r="R23">
+        <v>25997</v>
+      </c>
+      <c r="S23">
+        <v>-14511</v>
+      </c>
+      <c r="T23">
+        <v>4169</v>
+      </c>
+      <c r="U23">
+        <v>4958</v>
+      </c>
+      <c r="V23">
+        <v>-34842</v>
+      </c>
+      <c r="W23">
+        <v>13350</v>
+      </c>
+      <c r="X23">
+        <v>5128</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>1100000</v>
+      </c>
+      <c r="G24">
+        <v>900000</v>
+      </c>
+      <c r="H24">
+        <v>200000</v>
+      </c>
+      <c r="I24">
+        <v>20000</v>
+      </c>
+      <c r="J24">
         <v>24000</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>4901526</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>24000</v>
       </c>
-      <c r="N23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O23" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23">
+      <c r="N24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24">
         <v>32608351</v>
       </c>
-      <c r="Q23">
+      <c r="Q24">
         <v>43629717</v>
       </c>
-      <c r="R23">
+      <c r="R24">
         <v>14011366</v>
       </c>
-      <c r="S23">
+      <c r="S24">
         <v>4301870</v>
       </c>
-      <c r="T23">
+      <c r="T24">
         <v>7039261</v>
       </c>
-      <c r="U23">
+      <c r="U24">
         <v>316611</v>
       </c>
-      <c r="V23">
+      <c r="V24">
         <v>4422483</v>
       </c>
-      <c r="W23">
+      <c r="W24">
         <v>5391712</v>
       </c>
-      <c r="X23">
+      <c r="X24">
         <v>180579</v>
       </c>
-      <c r="Y23" t="s">
-        <v>156</v>
+      <c r="Y24" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2878,422 +2970,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E2">
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E4">
         <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E5">
         <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E11">
         <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E12">
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E13">
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E14">
         <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E15">
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E16">
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E17">
         <v>6384</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E19">
         <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="244">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -524,6 +524,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>키움스팩9호</t>
+  </si>
+  <si>
     <t>블루엠텍</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
     <t>한국스팩13호</t>
   </si>
   <si>
+    <t>2023.12.07~12.08</t>
+  </si>
+  <si>
     <t>2023.11.22~11.28</t>
   </si>
   <si>
@@ -617,7 +623,7 @@
     <t>2023.10.23~10.27</t>
   </si>
   <si>
-    <t>2023.10.20~10.26</t>
+    <t>2,000~2,000</t>
   </si>
   <si>
     <t>15,000~19,000</t>
@@ -626,9 +632,6 @@
     <t>4,400~5,500</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>19,000~22,000</t>
   </si>
   <si>
@@ -668,7 +671,7 @@
     <t>1,200~1,500</t>
   </si>
   <si>
-    <t>20,300~22,500</t>
+    <t>28000</t>
   </si>
   <si>
     <t>17000</t>
@@ -701,7 +704,7 @@
     <t>1800</t>
   </si>
   <si>
-    <t>22500</t>
+    <t>키움증권</t>
   </si>
   <si>
     <t>하나증권,키움증권</t>
@@ -2993,16 +2996,16 @@
         <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
         <v>123</v>
       </c>
       <c r="E2">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="F2" t="s">
         <v>229</v>
@@ -3013,16 +3016,16 @@
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F3" t="s">
         <v>230</v>
@@ -3033,16 +3036,16 @@
         <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
         <v>123</v>
       </c>
       <c r="E4">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F4" t="s">
         <v>231</v>
@@ -3053,16 +3056,16 @@
         <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F5" t="s">
         <v>232</v>
@@ -3073,16 +3076,16 @@
         <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
         <v>123</v>
       </c>
       <c r="E6">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F6" t="s">
         <v>233</v>
@@ -3093,16 +3096,16 @@
         <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
         <v>123</v>
       </c>
       <c r="E7">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F7" t="s">
         <v>234</v>
@@ -3113,16 +3116,16 @@
         <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
         <v>123</v>
       </c>
       <c r="E8">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F8" t="s">
         <v>235</v>
@@ -3133,7 +3136,7 @@
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
         <v>206</v>
@@ -3142,7 +3145,7 @@
         <v>123</v>
       </c>
       <c r="E9">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F9" t="s">
         <v>236</v>
@@ -3153,7 +3156,7 @@
         <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
         <v>207</v>
@@ -3162,7 +3165,7 @@
         <v>123</v>
       </c>
       <c r="E10">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F10" t="s">
         <v>237</v>
@@ -3173,7 +3176,7 @@
         <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
         <v>208</v>
@@ -3182,10 +3185,10 @@
         <v>218</v>
       </c>
       <c r="E11">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3193,7 +3196,7 @@
         <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
         <v>209</v>
@@ -3202,10 +3205,10 @@
         <v>219</v>
       </c>
       <c r="E12">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3213,7 +3216,7 @@
         <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
         <v>210</v>
@@ -3222,7 +3225,7 @@
         <v>220</v>
       </c>
       <c r="E13">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F13" t="s">
         <v>239</v>
@@ -3233,7 +3236,7 @@
         <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
         <v>211</v>
@@ -3242,10 +3245,10 @@
         <v>221</v>
       </c>
       <c r="E14">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3253,7 +3256,7 @@
         <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
         <v>212</v>
@@ -3262,10 +3265,10 @@
         <v>222</v>
       </c>
       <c r="E15">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3273,7 +3276,7 @@
         <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
         <v>213</v>
@@ -3282,7 +3285,7 @@
         <v>223</v>
       </c>
       <c r="E16">
-        <v>524031</v>
+        <v>26800</v>
       </c>
       <c r="F16" t="s">
         <v>241</v>
@@ -3290,10 +3293,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>214</v>
@@ -3302,58 +3305,58 @@
         <v>224</v>
       </c>
       <c r="E17">
-        <v>6384</v>
+        <v>524031</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
         <v>225</v>
       </c>
       <c r="E18">
-        <v>8000</v>
+        <v>6384</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
         <v>226</v>
       </c>
       <c r="E19">
-        <v>50353</v>
+        <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
         <v>216</v>
@@ -3362,18 +3365,18 @@
         <v>227</v>
       </c>
       <c r="E20">
-        <v>8400</v>
+        <v>50353</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
         <v>217</v>
@@ -3382,10 +3385,10 @@
         <v>228</v>
       </c>
       <c r="E21">
-        <v>41818</v>
+        <v>8400</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="246">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -524,9 +524,15 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>하나스팩30호</t>
+  </si>
+  <si>
     <t>키움스팩9호</t>
   </si>
   <si>
+    <t>디에스단석(구,단석산업)</t>
+  </si>
+  <si>
     <t>블루엠텍</t>
   </si>
   <si>
@@ -575,9 +581,15 @@
     <t>한국스팩13호</t>
   </si>
   <si>
+    <t>2023.12.08~12.11</t>
+  </si>
+  <si>
     <t>2023.12.07~12.08</t>
   </si>
   <si>
+    <t>2023.12.05~12.11</t>
+  </si>
+  <si>
     <t>2023.11.22~11.28</t>
   </si>
   <si>
@@ -620,12 +632,12 @@
     <t>2023.10.25~10.26</t>
   </si>
   <si>
-    <t>2023.10.23~10.27</t>
-  </si>
-  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>79,000~89,000</t>
+  </si>
+  <si>
     <t>15,000~19,000</t>
   </si>
   <si>
@@ -665,10 +677,7 @@
     <t>3,200~3,600</t>
   </si>
   <si>
-    <t>19,100~21,400</t>
-  </si>
-  <si>
-    <t>1,200~1,500</t>
+    <t>18000</t>
   </si>
   <si>
     <t>28000</t>
@@ -698,15 +707,15 @@
     <t>2000</t>
   </si>
   <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>1800</t>
+    <t>하나증권</t>
   </si>
   <si>
     <t>키움증권</t>
   </si>
   <si>
+    <t>KB증권,NH투자증권</t>
+  </si>
+  <si>
     <t>하나증권,키움증권</t>
   </si>
   <si>
@@ -726,9 +735,6 @@
   </si>
   <si>
     <t>유안타증권</t>
-  </si>
-  <si>
-    <t>하나증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
@@ -2996,19 +3002,19 @@
         <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
         <v>123</v>
       </c>
       <c r="E2">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3016,19 +3022,19 @@
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3036,19 +3042,19 @@
         <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
         <v>123</v>
       </c>
       <c r="E4">
-        <v>64350</v>
+        <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3056,19 +3062,19 @@
         <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3076,19 +3082,19 @@
         <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
         <v>123</v>
       </c>
       <c r="E6">
-        <v>7000</v>
+        <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3096,7 +3102,7 @@
         <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
         <v>205</v>
@@ -3105,10 +3111,10 @@
         <v>123</v>
       </c>
       <c r="E7">
-        <v>14250</v>
+        <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3116,19 +3122,19 @@
         <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
         <v>123</v>
       </c>
       <c r="E8">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3136,19 +3142,19 @@
         <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
         <v>123</v>
       </c>
       <c r="E9">
-        <v>13500</v>
+        <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3156,19 +3162,19 @@
         <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
         <v>123</v>
       </c>
       <c r="E10">
-        <v>14950</v>
+        <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3176,19 +3182,19 @@
         <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="E11">
-        <v>29547</v>
+        <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3196,19 +3202,19 @@
         <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E12">
-        <v>18040</v>
+        <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3216,19 +3222,19 @@
         <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E13">
-        <v>22100</v>
+        <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3236,19 +3242,19 @@
         <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14">
-        <v>59251</v>
+        <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3256,19 +3262,19 @@
         <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E15">
-        <v>60654</v>
+        <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3276,19 +3282,19 @@
         <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E16">
-        <v>26800</v>
+        <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3296,99 +3302,99 @@
         <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E17">
-        <v>524031</v>
+        <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E18">
-        <v>6384</v>
+        <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E19">
-        <v>8000</v>
+        <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E20">
-        <v>50353</v>
+        <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="253">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>2023-09-07</t>
   </si>
   <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
     <t>2023-09-13</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
@@ -197,6 +206,9 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>하이</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -239,6 +251,9 @@
     <t>신영</t>
   </si>
   <si>
+    <t>스톰테크</t>
+  </si>
+  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
@@ -308,6 +323,9 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>573.97:1</t>
+  </si>
+  <si>
     <t>952.78</t>
   </si>
   <si>
@@ -377,6 +395,9 @@
     <t>672.42:1</t>
   </si>
   <si>
+    <t>3.24%</t>
+  </si>
+  <si>
     <t>0.19%</t>
   </si>
   <si>
@@ -440,6 +461,9 @@
     <t>7.46%</t>
   </si>
   <si>
+    <t>정수기 피팅, 밸브, 파우셋 등 부품</t>
+  </si>
+  <si>
     <t>벤처투자조합 등 조합 결성 및 운영</t>
   </si>
   <si>
@@ -570,9 +594,6 @@
   </si>
   <si>
     <t>동인기연(유가)</t>
-  </si>
-  <si>
-    <t>스톰테크</t>
   </si>
   <si>
     <t>에코프로머티리얼즈(유가)</t>
@@ -1110,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,76 +1219,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>1596000</v>
+        <v>3350000</v>
       </c>
       <c r="G2">
-        <v>1596000</v>
+        <v>3350000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="J2">
-        <v>3600</v>
+        <v>9500</v>
       </c>
       <c r="K2">
-        <v>13346380</v>
+        <v>13436499</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2">
-        <v>7668281979</v>
+        <v>47984</v>
       </c>
       <c r="Q2">
-        <v>7100921456</v>
+        <v>51031</v>
       </c>
       <c r="R2">
-        <v>1207846478</v>
+        <v>29425</v>
       </c>
       <c r="S2">
-        <v>5659403971</v>
+        <v>10526</v>
       </c>
       <c r="T2">
-        <v>6124121466</v>
+        <v>11804</v>
       </c>
       <c r="U2">
-        <v>940668827</v>
+        <v>7008</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>8661</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>9582</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>5612</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1275,76 +1296,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G3">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J3">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K3">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S3">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T3">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U3">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V3">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1352,76 +1373,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G4">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J4">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K4">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P4">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T4">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U4">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V4">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W4">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X4">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1429,384 +1450,384 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F5">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K5">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F6">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G6">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P6">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F7">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G7">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J7">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K7">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P7">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q7">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R7">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S7">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T7">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U7">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V7">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W7">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X7">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H8">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J8">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K8">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P8">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q8">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R8">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S8">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T8">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U8">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V8">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W8">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X8">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F9">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G9">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I9">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J9">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K9">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P9">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q9">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R9">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S9">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T9">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U9">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V9">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W9">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X9">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1814,230 +1835,230 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G10">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J10">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K10">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P10">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q10">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R10">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S10">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T10">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U10">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V10">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W10">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X10">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F11">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G11">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K11">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F12">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G12">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H12">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2045,76 +2066,76 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F13">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G13">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I13">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J13">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K13">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P13">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q13">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R13">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S13">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T13">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U13">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V13">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W13">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X13">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2122,76 +2143,76 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G14">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J14">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K14">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P14">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q14">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R14">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S14">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T14">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U14">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V14">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W14">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X14">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2199,76 +2220,76 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F15">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J15">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K15">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P15">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q15">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R15">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S15">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T15">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U15">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V15">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W15">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X15">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2276,76 +2297,76 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G16">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K16">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P16">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q16">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R16">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S16">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T16">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U16">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V16">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W16">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X16">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2353,76 +2374,76 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F17">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G17">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J17">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K17">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P17">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q17">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R17">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S17">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T17">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U17">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V17">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W17">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X17">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2430,34 +2451,34 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F18">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G18">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K18">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2466,40 +2487,40 @@
         <v>26000</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P18">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q18">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R18">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S18">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T18">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U18">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V18">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W18">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X18">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2507,76 +2528,76 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F19">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G19">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2584,230 +2605,230 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F20">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G20">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K20">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P20">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G21">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H21">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J21">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K21">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P21">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q21">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R21">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S21">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T21">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U21">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V21">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W21">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X21">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y21" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F22">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G22">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I22">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J22">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K22">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P22">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q22">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R22">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S22">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T22">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U22">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V22">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W22">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X22">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y22" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2815,153 +2836,230 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F23">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G23">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J23">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K23">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P23">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q23">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R23">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S23">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T23">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U23">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V23">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W23">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X23">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y23" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G24">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H24">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>20000</v>
       </c>
       <c r="J24">
+        <v>23000</v>
+      </c>
+      <c r="K24">
+        <v>8110389</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24">
+        <v>28857</v>
+      </c>
+      <c r="Q24">
+        <v>45830</v>
+      </c>
+      <c r="R24">
+        <v>25997</v>
+      </c>
+      <c r="S24">
+        <v>-14511</v>
+      </c>
+      <c r="T24">
+        <v>4169</v>
+      </c>
+      <c r="U24">
+        <v>4958</v>
+      </c>
+      <c r="V24">
+        <v>-34842</v>
+      </c>
+      <c r="W24">
+        <v>13350</v>
+      </c>
+      <c r="X24">
+        <v>5128</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25">
+        <v>1100000</v>
+      </c>
+      <c r="G25">
+        <v>900000</v>
+      </c>
+      <c r="H25">
+        <v>200000</v>
+      </c>
+      <c r="I25">
+        <v>20000</v>
+      </c>
+      <c r="J25">
         <v>24000</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>4901526</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>24000</v>
       </c>
-      <c r="N24" t="s">
-        <v>119</v>
-      </c>
-      <c r="O24" t="s">
-        <v>140</v>
-      </c>
-      <c r="P24">
+      <c r="N25" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25">
         <v>32608351</v>
       </c>
-      <c r="Q24">
+      <c r="Q25">
         <v>43629717</v>
       </c>
-      <c r="R24">
+      <c r="R25">
         <v>14011366</v>
       </c>
-      <c r="S24">
+      <c r="S25">
         <v>4301870</v>
       </c>
-      <c r="T24">
+      <c r="T25">
         <v>7039261</v>
       </c>
-      <c r="U24">
+      <c r="U25">
         <v>316611</v>
       </c>
-      <c r="V24">
+      <c r="V25">
         <v>4422483</v>
       </c>
-      <c r="W24">
+      <c r="W25">
         <v>5391712</v>
       </c>
-      <c r="X24">
+      <c r="X25">
         <v>180579</v>
       </c>
-      <c r="Y24" t="s">
-        <v>162</v>
+      <c r="Y25" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2979,422 +3077,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="257">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -95,6 +95,9 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -149,7 +152,7 @@
     <t>2023-11-06</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-07</t>
   </si>
   <si>
     <t>2023-10-27</t>
@@ -173,6 +176,9 @@
     <t>2023-11-20</t>
   </si>
   <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
@@ -188,9 +194,6 @@
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
     <t>하이</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -221,9 +227,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -254,6 +257,9 @@
     <t>스톰테크</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
@@ -326,6 +332,9 @@
     <t>573.97:1</t>
   </si>
   <si>
+    <t>75.14:1</t>
+  </si>
+  <si>
     <t>952.78</t>
   </si>
   <si>
@@ -398,6 +407,9 @@
     <t>3.24%</t>
   </si>
   <si>
+    <t>3.99%</t>
+  </si>
+  <si>
     <t>0.19%</t>
   </si>
   <si>
@@ -464,6 +476,9 @@
     <t>정수기 피팅, 밸브, 파우셋 등 부품</t>
   </si>
   <si>
+    <t>탄소배출권 및 탄소배출권 관련 컨설팅</t>
+  </si>
+  <si>
     <t>벤처투자조합 등 조합 결성 및 운영</t>
   </si>
   <si>
@@ -590,9 +605,6 @@
     <t>한선엔지니어링</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
     <t>동인기연(유가)</t>
   </si>
   <si>
@@ -698,6 +710,9 @@
     <t>3,200~3,600</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>18000</t>
   </si>
   <si>
@@ -723,9 +738,6 @@
   </si>
   <si>
     <t>4000</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>하나증권</t>
@@ -1131,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,16 +1231,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>3350000</v>
@@ -1255,10 +1267,10 @@
         <v>11000</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P2">
         <v>47984</v>
@@ -1288,7 +1300,7 @@
         <v>5612</v>
       </c>
       <c r="Y2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1296,76 +1308,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G3">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J3">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K3">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P3">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q3">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R3">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S3">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T3">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U3">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1376,73 +1388,73 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G4">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J4">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K4">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S4">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T4">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U4">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V4">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1450,76 +1462,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G5">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J5">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K5">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P5">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T5">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U5">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V5">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W5">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X5">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1527,384 +1539,384 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K6">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G7">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P7">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G8">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J8">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K8">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P8">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q8">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R8">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S8">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T8">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U8">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V8">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W8">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X8">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H9">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J9">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K9">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P9">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q9">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R9">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S9">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T9">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U9">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V9">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W9">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X9">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G10">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I10">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J10">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K10">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P10">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q10">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R10">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S10">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T10">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U10">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V10">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W10">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X10">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1912,230 +1924,230 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G11">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J11">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K11">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P11">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q11">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R11">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S11">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T11">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U11">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V11">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W11">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X11">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G12">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K12">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G13">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H13">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P13">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2143,76 +2155,76 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G14">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I14">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J14">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K14">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P14">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q14">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R14">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S14">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T14">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U14">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V14">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W14">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X14">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2220,76 +2232,76 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G15">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J15">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K15">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P15">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q15">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R15">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S15">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T15">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U15">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V15">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W15">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X15">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2297,76 +2309,76 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J16">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K16">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P16">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q16">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R16">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S16">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T16">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U16">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V16">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W16">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X16">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2374,7 +2386,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2383,67 +2395,67 @@
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G17">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K17">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P17">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q17">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R17">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S17">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T17">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U17">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V17">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W17">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X17">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2451,76 +2463,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G18">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J18">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K18">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P18">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q18">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R18">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S18">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T18">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U18">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V18">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W18">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X18">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2531,31 +2543,31 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G19">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K19">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2564,40 +2576,40 @@
         <v>26000</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P19">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q19">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R19">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S19">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T19">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U19">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V19">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W19">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X19">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2605,76 +2617,76 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G20">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K20">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O20" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2682,230 +2694,230 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G21">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K21">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P21">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G22">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H22">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J22">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K22">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P22">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q22">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R22">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S22">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T22">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U22">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V22">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W22">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X22">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G23">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I23">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J23">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K23">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P23">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q23">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R23">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S23">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T23">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U23">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V23">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W23">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X23">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2919,147 +2931,224 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G24">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J24">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K24">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P24">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q24">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R24">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S24">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T24">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U24">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V24">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W24">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X24">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G25">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H25">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>20000</v>
       </c>
       <c r="J25">
+        <v>23000</v>
+      </c>
+      <c r="K25">
+        <v>8110389</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>23000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25">
+        <v>28857</v>
+      </c>
+      <c r="Q25">
+        <v>45830</v>
+      </c>
+      <c r="R25">
+        <v>25997</v>
+      </c>
+      <c r="S25">
+        <v>-14511</v>
+      </c>
+      <c r="T25">
+        <v>4169</v>
+      </c>
+      <c r="U25">
+        <v>4958</v>
+      </c>
+      <c r="V25">
+        <v>-34842</v>
+      </c>
+      <c r="W25">
+        <v>13350</v>
+      </c>
+      <c r="X25">
+        <v>5128</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26">
+        <v>1100000</v>
+      </c>
+      <c r="G26">
+        <v>900000</v>
+      </c>
+      <c r="H26">
+        <v>200000</v>
+      </c>
+      <c r="I26">
+        <v>20000</v>
+      </c>
+      <c r="J26">
         <v>24000</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>4901526</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>24000</v>
       </c>
-      <c r="N25" t="s">
-        <v>125</v>
-      </c>
-      <c r="O25" t="s">
-        <v>147</v>
-      </c>
-      <c r="P25">
+      <c r="N26" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26">
         <v>32608351</v>
       </c>
-      <c r="Q25">
+      <c r="Q26">
         <v>43629717</v>
       </c>
-      <c r="R25">
+      <c r="R26">
         <v>14011366</v>
       </c>
-      <c r="S25">
+      <c r="S26">
         <v>4301870</v>
       </c>
-      <c r="T25">
+      <c r="T26">
         <v>7039261</v>
       </c>
-      <c r="U25">
+      <c r="U26">
         <v>316611</v>
       </c>
-      <c r="V25">
+      <c r="V26">
         <v>4422483</v>
       </c>
-      <c r="W25">
+      <c r="W26">
         <v>5391712</v>
       </c>
-      <c r="X25">
+      <c r="X26">
         <v>180579</v>
       </c>
-      <c r="Y25" t="s">
-        <v>170</v>
+      <c r="Y26" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3077,422 +3166,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E2">
         <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="258">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>9000</t>
   </si>
   <si>
     <t>18000</t>
@@ -3201,7 +3204,7 @@
         <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3221,7 +3224,7 @@
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3241,7 +3244,7 @@
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3261,7 +3264,7 @@
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3281,7 +3284,7 @@
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3301,7 +3304,7 @@
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3321,7 +3324,7 @@
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3341,7 +3344,7 @@
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3361,7 +3364,7 @@
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3375,13 +3378,13 @@
         <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3395,13 +3398,13 @@
         <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3415,13 +3418,13 @@
         <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3435,13 +3438,13 @@
         <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3455,13 +3458,13 @@
         <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3475,13 +3478,13 @@
         <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3495,13 +3498,13 @@
         <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3515,13 +3518,13 @@
         <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3535,13 +3538,13 @@
         <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3555,13 +3558,13 @@
         <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3581,7 +3584,7 @@
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -3298,7 +3298,7 @@
         <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <v>20000</v>
@@ -3318,7 +3318,7 @@
         <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="E8">
         <v>7000</v>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="261">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,9 +92,15 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
@@ -149,9 +155,15 @@
     <t>2023-09-07</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-11-06</t>
   </si>
   <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -173,6 +185,9 @@
     <t>2023-09-13</t>
   </si>
   <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -182,9 +197,6 @@
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -194,30 +206,24 @@
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-03</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
     <t>2023-09-27</t>
   </si>
   <si>
-    <t>2023-09-25</t>
+    <t>NH</t>
   </si>
   <si>
     <t>하이</t>
   </si>
   <si>
+    <t>대신</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -227,9 +233,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>대신</t>
-  </si>
-  <si>
     <t>IBK</t>
   </si>
   <si>
@@ -251,12 +254,15 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>신영</t>
+    <t>그린리소스</t>
   </si>
   <si>
     <t>스톰테크</t>
   </si>
   <si>
+    <t>한선엔지니어링</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
@@ -326,12 +332,15 @@
     <t>밀리의서재</t>
   </si>
   <si>
-    <t>인스웨이브시스템즈</t>
+    <t>753.19:1</t>
   </si>
   <si>
     <t>573.97:1</t>
   </si>
   <si>
+    <t>709.55:1</t>
+  </si>
+  <si>
     <t>75.14:1</t>
   </si>
   <si>
@@ -401,12 +410,15 @@
     <t>619.24:1</t>
   </si>
   <si>
-    <t>672.42:1</t>
+    <t>5.39%</t>
   </si>
   <si>
     <t>3.24%</t>
   </si>
   <si>
+    <t>3.89%</t>
+  </si>
+  <si>
     <t>3.99%</t>
   </si>
   <si>
@@ -470,12 +482,15 @@
     <t>5.76%</t>
   </si>
   <si>
-    <t>7.46%</t>
+    <t>반도체 및 디스플레이 장비 보호코팅 및 소재</t>
   </si>
   <si>
     <t>정수기 피팅, 밸브, 파우셋 등 부품</t>
   </si>
   <si>
+    <t>계장용 피팅 및 밸브, 모듈</t>
+  </si>
+  <si>
     <t>탄소배출권 및 탄소배출권 관련 컨설팅</t>
   </si>
   <si>
@@ -542,9 +557,6 @@
     <t>전자책 정기구독 서비스</t>
   </si>
   <si>
-    <t>UI/UX 개발 솔루션, 엔터프라이즈 DX 솔루션, 금융 단말 솔루션 등</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -599,12 +611,6 @@
     <t>에이에스텍</t>
   </si>
   <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
-    <t>한선엔지니어링</t>
-  </si>
-  <si>
     <t>동인기연(유가)</t>
   </si>
   <si>
@@ -711,6 +717,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>23000</t>
   </si>
   <si>
     <t>9000</t>
@@ -1146,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,76 +1243,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
       </c>
       <c r="F2">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G2">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J2">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K2">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P2">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q2">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R2">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S2">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T2">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U2">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V2">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W2">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X2">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1311,76 +1320,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>80</v>
       </c>
       <c r="F3">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="G3">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J3">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K3">
-        <v>9877043</v>
+        <v>13436499</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P3">
-        <v>26994234332</v>
+        <v>47984</v>
       </c>
       <c r="Q3">
-        <v>60121142197</v>
+        <v>51031</v>
       </c>
       <c r="R3">
-        <v>53305665235</v>
+        <v>29425</v>
       </c>
       <c r="S3">
-        <v>10162848799</v>
+        <v>10526</v>
       </c>
       <c r="T3">
-        <v>20033029594</v>
+        <v>11804</v>
       </c>
       <c r="U3">
-        <v>19806683734</v>
+        <v>7008</v>
       </c>
       <c r="V3">
-        <v>7996520497</v>
+        <v>8661</v>
       </c>
       <c r="W3">
-        <v>15559454518</v>
+        <v>9582</v>
       </c>
       <c r="X3">
-        <v>15932218050</v>
+        <v>5612</v>
       </c>
       <c r="Y3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1388,76 +1397,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
       </c>
       <c r="F4">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="G4">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="J4">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K4">
-        <v>13346380</v>
+        <v>17002500</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4">
-        <v>7668281979</v>
+        <v>27199897007</v>
       </c>
       <c r="Q4">
-        <v>7100921456</v>
+        <v>40971122327</v>
       </c>
       <c r="R4">
-        <v>1207846478</v>
+        <v>25300714406</v>
       </c>
       <c r="S4">
-        <v>5659403971</v>
+        <v>2887034102</v>
       </c>
       <c r="T4">
-        <v>6124121466</v>
+        <v>7167697077</v>
       </c>
       <c r="U4">
-        <v>940668827</v>
+        <v>4740280453</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2399514033</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5498221693</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3402334635</v>
       </c>
       <c r="Y4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1465,76 +1474,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>82</v>
       </c>
       <c r="F5">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="G5">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="J5">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="K5">
-        <v>13612736</v>
+        <v>9877043</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20000</v>
+        <v>34700</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>26994234332</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>60121142197</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>53305665235</v>
       </c>
       <c r="S5">
-        <v>-15286512079</v>
+        <v>10162848799</v>
       </c>
       <c r="T5">
-        <v>-21424611321</v>
+        <v>20033029594</v>
       </c>
       <c r="U5">
-        <v>-139745251263</v>
+        <v>19806683734</v>
       </c>
       <c r="V5">
-        <v>-53575668634</v>
+        <v>7996520497</v>
       </c>
       <c r="W5">
-        <v>-38885125426</v>
+        <v>15559454518</v>
       </c>
       <c r="X5">
-        <v>-12610702106</v>
+        <v>15932218050</v>
       </c>
       <c r="Y5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1542,76 +1551,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
       </c>
       <c r="F6">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="G6">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J6">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K6">
-        <v>10585320</v>
+        <v>13346380</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P6">
-        <v>45195788</v>
+        <v>7668281979</v>
       </c>
       <c r="Q6">
-        <v>69629209</v>
+        <v>7100921456</v>
       </c>
       <c r="R6">
-        <v>35634471</v>
+        <v>1207846478</v>
       </c>
       <c r="S6">
-        <v>2751277</v>
+        <v>5659403971</v>
       </c>
       <c r="T6">
-        <v>11449731</v>
+        <v>6124121466</v>
       </c>
       <c r="U6">
-        <v>2482194</v>
+        <v>940668827</v>
       </c>
       <c r="V6">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1619,10 +1628,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
@@ -1631,34 +1640,34 @@
         <v>84</v>
       </c>
       <c r="F7">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K7">
-        <v>4320000</v>
+        <v>13612736</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1670,641 +1679,641 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-15286512079</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>-21424611321</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>-139745251263</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-53575668634</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-38885125426</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
       </c>
       <c r="F8">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="G8">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J8">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K8">
-        <v>30610000</v>
+        <v>10585320</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P8">
-        <v>67332006578</v>
+        <v>45195788</v>
       </c>
       <c r="Q8">
-        <v>100050838794</v>
+        <v>69629209</v>
       </c>
       <c r="R8">
-        <v>63366010569</v>
+        <v>35634471</v>
       </c>
       <c r="S8">
-        <v>1140243099</v>
+        <v>2751277</v>
       </c>
       <c r="T8">
-        <v>8333440685</v>
+        <v>11449731</v>
       </c>
       <c r="U8">
-        <v>7415958936</v>
+        <v>2482194</v>
       </c>
       <c r="V8">
-        <v>668088159</v>
+        <v>2092692</v>
       </c>
       <c r="W8">
-        <v>5930478364</v>
+        <v>5149538</v>
       </c>
       <c r="X8">
-        <v>5666583221</v>
+        <v>2327401</v>
       </c>
       <c r="Y8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>86</v>
       </c>
       <c r="F9">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="G9">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>20771000</v>
+        <v>4320000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P9">
-        <v>39450601</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>49044883</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>21826468</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>2477559</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>8094900</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>215154</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>3427734</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>6575528</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>349843</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="G10">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="H10">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J10">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K10">
-        <v>14384224</v>
+        <v>30610000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P10">
-        <v>5787300240</v>
+        <v>67332006578</v>
       </c>
       <c r="Q10">
-        <v>1914633847</v>
+        <v>100050838794</v>
       </c>
       <c r="R10">
-        <v>3156092272</v>
+        <v>63366010569</v>
       </c>
       <c r="S10">
-        <v>-1798278694</v>
+        <v>1140243099</v>
       </c>
       <c r="T10">
-        <v>-1453689952</v>
+        <v>8333440685</v>
       </c>
       <c r="U10">
-        <v>-4067648306</v>
+        <v>7415958936</v>
       </c>
       <c r="V10">
-        <v>-12449932055</v>
+        <v>668088159</v>
       </c>
       <c r="W10">
-        <v>-7426231074</v>
+        <v>5930478364</v>
       </c>
       <c r="X10">
-        <v>-52132058866</v>
+        <v>5666583221</v>
       </c>
       <c r="Y10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G11">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J11">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K11">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q11">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R11">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S11">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T11">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U11">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V11">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W11">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X11">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>89</v>
       </c>
       <c r="F12">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G12">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I12">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J12">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K12">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P12">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q12">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R12">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S12">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T12">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U12">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V12">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W12">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X12">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
       <c r="F13">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G13">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K13">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
       </c>
       <c r="F14">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G14">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H14">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J14">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K14">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P14">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q14">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R14">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S14">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T14">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U14">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V14">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W14">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X14">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
       </c>
       <c r="F15">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G15">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P15">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2312,34 +2321,34 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>93</v>
       </c>
       <c r="F16">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G16">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I16">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J16">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K16">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2348,40 +2357,40 @@
         <v>17000</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P16">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q16">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R16">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S16">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T16">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U16">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V16">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W16">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X16">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2401,64 +2410,64 @@
         <v>94</v>
       </c>
       <c r="F17">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G17">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J17">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K17">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P17">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q17">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R17">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S17">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T17">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U17">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V17">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W17">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X17">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2466,76 +2475,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
       </c>
       <c r="F18">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G18">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J18">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K18">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P18">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q18">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R18">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S18">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T18">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U18">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V18">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W18">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X18">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2543,76 +2552,76 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>96</v>
       </c>
       <c r="F19">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="G19">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J19">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K19">
-        <v>9039778</v>
+        <v>16120000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P19">
-        <v>104225113285</v>
+        <v>26691070764</v>
       </c>
       <c r="Q19">
-        <v>106505634411</v>
+        <v>22835113396</v>
       </c>
       <c r="R19">
-        <v>66424930568</v>
+        <v>7519073723</v>
       </c>
       <c r="S19">
-        <v>6291020806</v>
+        <v>6041270235</v>
       </c>
       <c r="T19">
-        <v>7893242769</v>
+        <v>6705120210</v>
       </c>
       <c r="U19">
-        <v>7661497240</v>
+        <v>982044017</v>
       </c>
       <c r="V19">
-        <v>7319368873</v>
+        <v>5119066139</v>
       </c>
       <c r="W19">
-        <v>9286891982</v>
+        <v>5870093710</v>
       </c>
       <c r="X19">
-        <v>7334816490</v>
+        <v>1198587470</v>
       </c>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2620,76 +2629,76 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>97</v>
       </c>
       <c r="F20">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="G20">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K20">
-        <v>64819980</v>
+        <v>7674103</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20">
-        <v>36980</v>
+        <v>8242508010</v>
       </c>
       <c r="Q20">
-        <v>44954</v>
+        <v>10751900430</v>
       </c>
       <c r="R20">
-        <v>23652</v>
+        <v>4416778965</v>
       </c>
       <c r="S20">
-        <v>-7085</v>
+        <v>426234451</v>
       </c>
       <c r="T20">
-        <v>-13228</v>
+        <v>2423749751</v>
       </c>
       <c r="U20">
-        <v>-9932</v>
+        <v>677048172</v>
       </c>
       <c r="V20">
-        <v>-7417</v>
+        <v>57890953</v>
       </c>
       <c r="W20">
-        <v>-12548</v>
+        <v>2826043673</v>
       </c>
       <c r="X20">
-        <v>-9333</v>
+        <v>990121873</v>
       </c>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2697,76 +2706,76 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
         <v>98</v>
       </c>
       <c r="F21">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="G21">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K21">
-        <v>18905000</v>
+        <v>9039778</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>104225113285</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>106505634411</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>66424930568</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>6291020806</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>7893242769</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>7661497240</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>7319368873</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>9286891982</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>7334816490</v>
       </c>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2774,315 +2783,315 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
       </c>
       <c r="F22">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="G22">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8900</v>
+        <v>21000</v>
       </c>
       <c r="J22">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="K22">
-        <v>5447675</v>
+        <v>64819980</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P22">
-        <v>18408761227</v>
+        <v>36980</v>
       </c>
       <c r="Q22">
-        <v>21902816604</v>
+        <v>44954</v>
       </c>
       <c r="R22">
-        <v>8176918465</v>
+        <v>23652</v>
       </c>
       <c r="S22">
-        <v>3669182465</v>
+        <v>-7085</v>
       </c>
       <c r="T22">
-        <v>1851925471</v>
+        <v>-13228</v>
       </c>
       <c r="U22">
-        <v>590566592</v>
+        <v>-9932</v>
       </c>
       <c r="V22">
-        <v>3633973594</v>
+        <v>-7417</v>
       </c>
       <c r="W22">
-        <v>2205418963</v>
+        <v>-12548</v>
       </c>
       <c r="X22">
-        <v>592903151</v>
+        <v>-9333</v>
       </c>
       <c r="Y22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
         <v>100</v>
       </c>
       <c r="F23">
-        <v>2240000</v>
+        <v>18000000</v>
       </c>
       <c r="G23">
-        <v>1640000</v>
+        <v>18000000</v>
       </c>
       <c r="H23">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J23">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K23">
-        <v>10969386</v>
+        <v>18905000</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P23">
-        <v>22818451349</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>30491967755</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>18040053709</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>2313787613</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>4014101926</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1878997667</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>559427078</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>-711183147</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>1929682988</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>101</v>
       </c>
       <c r="F24">
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="G24">
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10500</v>
+        <v>8900</v>
       </c>
       <c r="J24">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K24">
-        <v>7874611</v>
+        <v>5447675</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P24">
-        <v>7327878427</v>
+        <v>18408761227</v>
       </c>
       <c r="Q24">
-        <v>10756717708</v>
+        <v>21902816604</v>
       </c>
       <c r="R24">
-        <v>4113702647</v>
+        <v>8176918465</v>
       </c>
       <c r="S24">
-        <v>-588932080</v>
+        <v>3669182465</v>
       </c>
       <c r="T24">
-        <v>254042570</v>
+        <v>1851925471</v>
       </c>
       <c r="U24">
-        <v>-738698858</v>
+        <v>590566592</v>
       </c>
       <c r="V24">
-        <v>-569358529</v>
+        <v>3633973594</v>
       </c>
       <c r="W24">
-        <v>-429546963</v>
+        <v>2205418963</v>
       </c>
       <c r="X24">
-        <v>-550600734</v>
+        <v>592903151</v>
       </c>
       <c r="Y24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>102</v>
       </c>
       <c r="F25">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="G25">
-        <v>1500000</v>
+        <v>1640000</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I25">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="J25">
-        <v>23000</v>
+        <v>13200</v>
       </c>
       <c r="K25">
-        <v>8110389</v>
+        <v>10969386</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25">
-        <v>28857</v>
+        <v>22818451349</v>
       </c>
       <c r="Q25">
-        <v>45830</v>
+        <v>30491967755</v>
       </c>
       <c r="R25">
-        <v>25997</v>
+        <v>18040053709</v>
       </c>
       <c r="S25">
-        <v>-14511</v>
+        <v>2313787613</v>
       </c>
       <c r="T25">
-        <v>4169</v>
+        <v>4014101926</v>
       </c>
       <c r="U25">
-        <v>4958</v>
+        <v>1878997667</v>
       </c>
       <c r="V25">
-        <v>-34842</v>
+        <v>559427078</v>
       </c>
       <c r="W25">
-        <v>13350</v>
+        <v>-711183147</v>
       </c>
       <c r="X25">
-        <v>5128</v>
+        <v>1929682988</v>
       </c>
       <c r="Y25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -3094,64 +3103,141 @@
         <v>103</v>
       </c>
       <c r="F26">
-        <v>1100000</v>
+        <v>1580000</v>
       </c>
       <c r="G26">
-        <v>900000</v>
+        <v>1580000</v>
       </c>
       <c r="H26">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I26">
+        <v>10500</v>
+      </c>
+      <c r="J26">
+        <v>12000</v>
+      </c>
+      <c r="K26">
+        <v>7874611</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>14000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26">
+        <v>7327878427</v>
+      </c>
+      <c r="Q26">
+        <v>10756717708</v>
+      </c>
+      <c r="R26">
+        <v>4113702647</v>
+      </c>
+      <c r="S26">
+        <v>-588932080</v>
+      </c>
+      <c r="T26">
+        <v>254042570</v>
+      </c>
+      <c r="U26">
+        <v>-738698858</v>
+      </c>
+      <c r="V26">
+        <v>-569358529</v>
+      </c>
+      <c r="W26">
+        <v>-429546963</v>
+      </c>
+      <c r="X26">
+        <v>-550600734</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27">
+        <v>1500000</v>
+      </c>
+      <c r="G27">
+        <v>1500000</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>20000</v>
       </c>
-      <c r="J26">
-        <v>24000</v>
-      </c>
-      <c r="K26">
-        <v>4901526</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>24000</v>
-      </c>
-      <c r="N26" t="s">
-        <v>128</v>
-      </c>
-      <c r="O26" t="s">
-        <v>151</v>
-      </c>
-      <c r="P26">
-        <v>32608351</v>
-      </c>
-      <c r="Q26">
-        <v>43629717</v>
-      </c>
-      <c r="R26">
-        <v>14011366</v>
-      </c>
-      <c r="S26">
-        <v>4301870</v>
-      </c>
-      <c r="T26">
-        <v>7039261</v>
-      </c>
-      <c r="U26">
-        <v>316611</v>
-      </c>
-      <c r="V26">
-        <v>4422483</v>
-      </c>
-      <c r="W26">
-        <v>5391712</v>
-      </c>
-      <c r="X26">
-        <v>180579</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>175</v>
+      <c r="J27">
+        <v>23000</v>
+      </c>
+      <c r="K27">
+        <v>8110389</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>23000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27">
+        <v>28857</v>
+      </c>
+      <c r="Q27">
+        <v>45830</v>
+      </c>
+      <c r="R27">
+        <v>25997</v>
+      </c>
+      <c r="S27">
+        <v>-14511</v>
+      </c>
+      <c r="T27">
+        <v>4169</v>
+      </c>
+      <c r="U27">
+        <v>4958</v>
+      </c>
+      <c r="V27">
+        <v>-34842</v>
+      </c>
+      <c r="W27">
+        <v>13350</v>
+      </c>
+      <c r="X27">
+        <v>5128</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3169,422 +3255,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E3">
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E4">
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="254">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -152,9 +152,6 @@
     <t>2023-09-06</t>
   </si>
   <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>2023-09-12</t>
   </si>
   <si>
-    <t>2023-09-13</t>
-  </si>
-  <si>
     <t>2023-11-24</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
     <t>아이엠티</t>
   </si>
   <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
     <t>753.19:1</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
     <t>753.50:1</t>
   </si>
   <si>
-    <t>619.24:1</t>
-  </si>
-  <si>
     <t>5.39%</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>22.20%</t>
   </si>
   <si>
-    <t>5.76%</t>
-  </si>
-  <si>
     <t>반도체 및 디스플레이 장비 보호코팅 및 소재</t>
   </si>
   <si>
@@ -552,9 +534,6 @@
   </si>
   <si>
     <t>건식세정 장비 및 EUV Mask Baking Laser</t>
-  </si>
-  <si>
-    <t>전자책 정기구독 서비스</t>
   </si>
   <si>
     <t>종목명</t>
@@ -1155,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,16 +1222,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>1640000</v>
@@ -1279,10 +1258,10 @@
         <v>17000</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P2">
         <v>13660</v>
@@ -1312,7 +1291,7 @@
         <v>1666</v>
       </c>
       <c r="Y2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1320,16 +1299,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>3350000</v>
@@ -1356,10 +1335,10 @@
         <v>11000</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P3">
         <v>47984</v>
@@ -1389,7 +1368,7 @@
         <v>5612</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1397,16 +1376,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>4250000</v>
@@ -1433,10 +1412,10 @@
         <v>7000</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P4">
         <v>27199897007</v>
@@ -1466,7 +1445,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1474,16 +1453,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>2079000</v>
@@ -1510,10 +1489,10 @@
         <v>34700</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P5">
         <v>26994234332</v>
@@ -1543,7 +1522,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1554,13 +1533,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>1596000</v>
@@ -1587,10 +1566,10 @@
         <v>4000</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P6">
         <v>7668281979</v>
@@ -1620,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1631,13 +1610,13 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>1600000</v>
@@ -1664,10 +1643,10 @@
         <v>20000</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1697,7 +1676,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1705,16 +1684,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>2636330</v>
@@ -1741,10 +1720,10 @@
         <v>25000</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P8">
         <v>45195788</v>
@@ -1774,7 +1753,7 @@
         <v>2327401</v>
       </c>
       <c r="Y8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1785,13 +1764,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1818,10 +1797,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1851,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1859,16 +1838,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>7000000</v>
@@ -1895,10 +1874,10 @@
         <v>1800</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P10">
         <v>67332006578</v>
@@ -1928,7 +1907,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1939,13 +1918,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>5200000</v>
@@ -1972,10 +1951,10 @@
         <v>4800</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P11">
         <v>39450601</v>
@@ -2005,7 +1984,7 @@
         <v>349843</v>
       </c>
       <c r="Y11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2016,13 +1995,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>2060000</v>
@@ -2049,10 +2028,10 @@
         <v>22500</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P12">
         <v>5787300240</v>
@@ -2082,7 +2061,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2093,13 +2072,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>1200000</v>
@@ -2126,10 +2105,10 @@
         <v>13000</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P13">
         <v>20924</v>
@@ -2159,7 +2138,7 @@
         <v>-862</v>
       </c>
       <c r="Y13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2170,13 +2149,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14">
         <v>3600000</v>
@@ -2203,10 +2182,10 @@
         <v>7500</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P14">
         <v>21976760922</v>
@@ -2236,7 +2215,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2250,10 +2229,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>12500000</v>
@@ -2280,10 +2259,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2313,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2327,10 +2306,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>1049482</v>
@@ -2357,10 +2336,10 @@
         <v>17000</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P16">
         <v>34557425427</v>
@@ -2390,7 +2369,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2404,10 +2383,10 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>1128720</v>
@@ -2434,10 +2413,10 @@
         <v>4400</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P17">
         <v>50552623684</v>
@@ -2467,7 +2446,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2475,16 +2454,16 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>1800000</v>
@@ -2511,10 +2490,10 @@
         <v>17000</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P18">
         <v>3952070068</v>
@@ -2544,7 +2523,7 @@
         <v>-2539505707</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2558,10 +2537,10 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>4000000</v>
@@ -2588,10 +2567,10 @@
         <v>6500</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P19">
         <v>26691070764</v>
@@ -2621,7 +2600,7 @@
         <v>1198587470</v>
       </c>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2635,10 +2614,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <v>770000</v>
@@ -2665,10 +2644,10 @@
         <v>7000</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P20">
         <v>8242508010</v>
@@ -2698,7 +2677,7 @@
         <v>990121873</v>
       </c>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2706,16 +2685,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <v>2000000</v>
@@ -2742,10 +2721,10 @@
         <v>26000</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P21">
         <v>104225113285</v>
@@ -2775,7 +2754,7 @@
         <v>7334816490</v>
       </c>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2783,16 +2762,16 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22">
         <v>16200000</v>
@@ -2819,10 +2798,10 @@
         <v>26000</v>
       </c>
       <c r="N22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P22">
         <v>36980</v>
@@ -2852,7 +2831,7 @@
         <v>-9333</v>
       </c>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2860,16 +2839,16 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <v>18000000</v>
@@ -2896,10 +2875,10 @@
         <v>2000</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2929,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2940,13 +2919,13 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>1500000</v>
@@ -2973,10 +2952,10 @@
         <v>12500</v>
       </c>
       <c r="N24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P24">
         <v>18408761227</v>
@@ -3006,7 +2985,7 @@
         <v>592903151</v>
       </c>
       <c r="Y24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3014,16 +2993,16 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F25">
         <v>2240000</v>
@@ -3050,10 +3029,10 @@
         <v>15000</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P25">
         <v>22818451349</v>
@@ -3083,7 +3062,7 @@
         <v>1929682988</v>
       </c>
       <c r="Y25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3091,16 +3070,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>1580000</v>
@@ -3127,10 +3106,10 @@
         <v>14000</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P26">
         <v>7327878427</v>
@@ -3160,84 +3139,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27">
-        <v>1500000</v>
-      </c>
-      <c r="G27">
-        <v>1500000</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>20000</v>
-      </c>
-      <c r="J27">
-        <v>23000</v>
-      </c>
-      <c r="K27">
-        <v>8110389</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>23000</v>
-      </c>
-      <c r="N27" t="s">
-        <v>130</v>
-      </c>
-      <c r="O27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P27">
-        <v>28857</v>
-      </c>
-      <c r="Q27">
-        <v>45830</v>
-      </c>
-      <c r="R27">
-        <v>25997</v>
-      </c>
-      <c r="S27">
-        <v>-14511</v>
-      </c>
-      <c r="T27">
-        <v>4169</v>
-      </c>
-      <c r="U27">
-        <v>4958</v>
-      </c>
-      <c r="V27">
-        <v>-34842</v>
-      </c>
-      <c r="W27">
-        <v>13350</v>
-      </c>
-      <c r="X27">
-        <v>5128</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3255,422 +3157,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E3">
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E4">
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="258">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t>2023-09-06</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -161,9 +167,6 @@
     <t>2023-11-08</t>
   </si>
   <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
     <t>2023-10-27</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
     <t>2023-09-12</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
     <t>2023-11-24</t>
   </si>
   <si>
@@ -191,9 +197,6 @@
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -236,15 +242,15 @@
     <t>하나</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>한국, 미래</t>
   </si>
   <si>
     <t>유안타</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>그린리소스</t>
   </si>
   <si>
@@ -320,6 +326,9 @@
     <t>아이엠티</t>
   </si>
   <si>
+    <t>629.95:1</t>
+  </si>
+  <si>
     <t>753.19:1</t>
   </si>
   <si>
@@ -395,6 +404,9 @@
     <t>753.50:1</t>
   </si>
   <si>
+    <t>8.66%</t>
+  </si>
+  <si>
     <t>5.39%</t>
   </si>
   <si>
@@ -464,6 +476,9 @@
     <t>22.20%</t>
   </si>
   <si>
+    <t>자외선 차단제 유기 원료</t>
+  </si>
+  <si>
     <t>반도체 및 디스플레이 장비 보호코팅 및 소재</t>
   </si>
   <si>
@@ -585,9 +600,6 @@
   </si>
   <si>
     <t>에이텀</t>
-  </si>
-  <si>
-    <t>에이에스텍</t>
   </si>
   <si>
     <t>동인기연(유가)</t>
@@ -1134,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,76 +1234,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G2">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J2">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K2">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P2">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1299,76 +1311,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G3">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J3">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K3">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P3">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q3">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R3">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S3">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T3">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U3">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V3">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W3">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X3">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1376,76 +1388,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G4">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J4">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K4">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P4">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q4">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R4">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S4">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T4">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U4">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V4">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W4">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X4">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1453,76 +1465,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G5">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K5">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P5">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q5">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R5">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S5">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T5">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U5">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V5">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W5">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X5">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1530,76 +1542,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G6">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J6">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K6">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P6">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q6">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R6">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S6">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T6">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U6">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1610,73 +1622,73 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G7">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J7">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K7">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S7">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T7">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U7">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V7">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1684,76 +1696,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G8">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J8">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K8">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P8">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T8">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U8">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V8">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W8">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X8">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1761,384 +1773,384 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G9">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K9">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G10">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P10">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G11">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J11">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K11">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P11">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q11">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R11">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S11">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T11">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U11">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V11">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W11">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X11">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G12">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H12">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J12">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K12">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P12">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q12">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R12">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S12">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T12">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U12">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V12">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W12">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X12">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G13">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I13">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J13">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K13">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P13">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q13">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R13">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S13">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T13">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U13">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V13">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W13">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X13">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2146,230 +2158,230 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G14">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J14">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K14">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P14">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q14">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R14">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S14">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T14">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U14">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V14">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W14">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X14">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G15">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K15">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G16">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H16">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P16">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2377,76 +2389,76 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G17">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I17">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J17">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K17">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P17">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q17">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R17">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S17">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T17">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U17">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V17">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W17">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X17">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2454,76 +2466,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G18">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J18">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K18">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P18">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q18">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R18">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S18">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T18">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U18">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V18">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W18">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X18">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2531,76 +2543,76 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J19">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K19">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P19">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q19">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R19">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S19">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T19">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U19">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V19">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W19">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X19">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2608,76 +2620,76 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G20">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J20">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K20">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q20">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R20">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S20">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T20">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U20">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V20">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W20">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X20">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2685,76 +2697,76 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F21">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G21">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K21">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q21">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R21">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S21">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T21">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U21">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V21">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W21">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X21">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2765,31 +2777,31 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G22">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2798,40 +2810,40 @@
         <v>26000</v>
       </c>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P22">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q22">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R22">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S22">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T22">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U22">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V22">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W22">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X22">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2839,76 +2851,76 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F23">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G23">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O23" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2916,230 +2928,307 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G24">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J24">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P24">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G25">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H25">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J25">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K25">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q25">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R25">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S25">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T25">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U25">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V25">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W25">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X25">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F26">
+        <v>2240000</v>
+      </c>
+      <c r="G26">
+        <v>1640000</v>
+      </c>
+      <c r="H26">
+        <v>600000</v>
+      </c>
+      <c r="I26">
+        <v>11500</v>
+      </c>
+      <c r="J26">
+        <v>13200</v>
+      </c>
+      <c r="K26">
+        <v>10969386</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>15000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>127</v>
+      </c>
+      <c r="O26" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26">
+        <v>22818451349</v>
+      </c>
+      <c r="Q26">
+        <v>30491967755</v>
+      </c>
+      <c r="R26">
+        <v>18040053709</v>
+      </c>
+      <c r="S26">
+        <v>2313787613</v>
+      </c>
+      <c r="T26">
+        <v>4014101926</v>
+      </c>
+      <c r="U26">
+        <v>1878997667</v>
+      </c>
+      <c r="V26">
+        <v>559427078</v>
+      </c>
+      <c r="W26">
+        <v>-711183147</v>
+      </c>
+      <c r="X26">
+        <v>1929682988</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27">
         <v>1580000</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>1580000</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>10500</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>12000</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>7874611</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>14000</v>
       </c>
-      <c r="N26" t="s">
-        <v>125</v>
-      </c>
-      <c r="O26" t="s">
-        <v>148</v>
-      </c>
-      <c r="P26">
+      <c r="N27" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27">
         <v>7327878427</v>
       </c>
-      <c r="Q26">
+      <c r="Q27">
         <v>10756717708</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <v>4113702647</v>
       </c>
-      <c r="S26">
+      <c r="S27">
         <v>-588932080</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <v>254042570</v>
       </c>
-      <c r="U26">
+      <c r="U27">
         <v>-738698858</v>
       </c>
-      <c r="V26">
+      <c r="V27">
         <v>-569358529</v>
       </c>
-      <c r="W26">
+      <c r="W27">
         <v>-429546963</v>
       </c>
-      <c r="X26">
+      <c r="X27">
         <v>-550600734</v>
       </c>
-      <c r="Y26" t="s">
-        <v>172</v>
+      <c r="Y27" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3157,422 +3246,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E2">
         <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="266">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,12 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -155,12 +161,12 @@
     <t>2023-09-06</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-06</t>
   </si>
   <si>
@@ -182,6 +188,9 @@
     <t>2023-09-12</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -194,9 +203,6 @@
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -206,12 +212,15 @@
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>하이</t>
   </si>
   <si>
@@ -239,15 +248,18 @@
     <t>키움</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>한국, 미래</t>
   </si>
   <si>
     <t>유안타</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -326,6 +338,12 @@
     <t>아이엠티</t>
   </si>
   <si>
+    <t>136.4:1</t>
+  </si>
+  <si>
+    <t>52.70:1</t>
+  </si>
+  <si>
     <t>629.95:1</t>
   </si>
   <si>
@@ -404,6 +422,12 @@
     <t>753.50:1</t>
   </si>
   <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>8.66%</t>
   </si>
   <si>
@@ -428,9 +452,6 @@
     <t>22.38%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>6.69%</t>
   </si>
   <si>
@@ -476,6 +497,12 @@
     <t>22.20%</t>
   </si>
   <si>
+    <t>평판형 트랜스</t>
+  </si>
+  <si>
+    <t>금융지원서비스업</t>
+  </si>
+  <si>
     <t>자외선 차단제 유기 원료</t>
   </si>
   <si>
@@ -569,12 +596,12 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>포스뱅크</t>
+  </si>
+  <si>
     <t>하나스팩30호</t>
   </si>
   <si>
-    <t>키움스팩9호</t>
-  </si>
-  <si>
     <t>디에스단석(구,단석산업)</t>
   </si>
   <si>
@@ -599,9 +626,6 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
-    <t>에이텀</t>
-  </si>
-  <si>
     <t>동인기연(유가)</t>
   </si>
   <si>
@@ -611,12 +635,12 @@
     <t>한국스팩13호</t>
   </si>
   <si>
+    <t>2024.01.05~01.11</t>
+  </si>
+  <si>
     <t>2023.12.08~12.11</t>
   </si>
   <si>
-    <t>2023.12.07~12.08</t>
-  </si>
-  <si>
     <t>2023.12.05~12.11</t>
   </si>
   <si>
@@ -662,6 +686,9 @@
     <t>2023.10.25~10.26</t>
   </si>
   <si>
+    <t>13,000~15,000</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -744,9 +771,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>키움증권</t>
   </si>
   <si>
     <t>KB증권,NH투자증권</t>
@@ -1146,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,76 +1258,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="G2">
-        <v>844000</v>
+        <v>650000</v>
       </c>
       <c r="H2">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K2">
-        <v>5657215</v>
+        <v>5345180</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1311,76 +1335,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="G3">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>8183944</v>
+        <v>9100000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P3">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1388,76 +1412,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="G4">
-        <v>3350000</v>
+        <v>844000</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I4">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J4">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K4">
-        <v>13436499</v>
+        <v>5657215</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P4">
-        <v>47984</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>51031</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>29425</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>10526</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>11804</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>7008</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>8661</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>9582</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>5612</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1465,76 +1489,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="G5">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J5">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K5">
-        <v>17002500</v>
+        <v>8183944</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P5">
-        <v>27199897007</v>
+        <v>13660</v>
       </c>
       <c r="Q5">
-        <v>40971122327</v>
+        <v>25085</v>
       </c>
       <c r="R5">
-        <v>25300714406</v>
+        <v>8905</v>
       </c>
       <c r="S5">
-        <v>2887034102</v>
+        <v>3108</v>
       </c>
       <c r="T5">
-        <v>7167697077</v>
+        <v>3731</v>
       </c>
       <c r="U5">
-        <v>4740280453</v>
+        <v>2219</v>
       </c>
       <c r="V5">
-        <v>2399514033</v>
+        <v>1157</v>
       </c>
       <c r="W5">
-        <v>5498221693</v>
+        <v>3465</v>
       </c>
       <c r="X5">
-        <v>3402334635</v>
+        <v>1666</v>
       </c>
       <c r="Y5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1542,76 +1566,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="G6">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J6">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K6">
-        <v>9877043</v>
+        <v>13436499</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P6">
-        <v>26994234332</v>
+        <v>47984</v>
       </c>
       <c r="Q6">
-        <v>60121142197</v>
+        <v>51031</v>
       </c>
       <c r="R6">
-        <v>53305665235</v>
+        <v>29425</v>
       </c>
       <c r="S6">
-        <v>10162848799</v>
+        <v>10526</v>
       </c>
       <c r="T6">
-        <v>20033029594</v>
+        <v>11804</v>
       </c>
       <c r="U6">
-        <v>19806683734</v>
+        <v>7008</v>
       </c>
       <c r="V6">
-        <v>7996520497</v>
+        <v>8661</v>
       </c>
       <c r="W6">
-        <v>15559454518</v>
+        <v>9582</v>
       </c>
       <c r="X6">
-        <v>15932218050</v>
+        <v>5612</v>
       </c>
       <c r="Y6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1619,76 +1643,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="G7">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="J7">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K7">
-        <v>13346380</v>
+        <v>17002500</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P7">
-        <v>7668281979</v>
+        <v>27199897007</v>
       </c>
       <c r="Q7">
-        <v>7100921456</v>
+        <v>40971122327</v>
       </c>
       <c r="R7">
-        <v>1207846478</v>
+        <v>25300714406</v>
       </c>
       <c r="S7">
-        <v>5659403971</v>
+        <v>2887034102</v>
       </c>
       <c r="T7">
-        <v>6124121466</v>
+        <v>7167697077</v>
       </c>
       <c r="U7">
-        <v>940668827</v>
+        <v>4740280453</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2399514033</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>5498221693</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>3402334635</v>
       </c>
       <c r="Y7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1696,76 +1720,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="G8">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="J8">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="K8">
-        <v>13612736</v>
+        <v>9877043</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20000</v>
+        <v>34700</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>26994234332</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>60121142197</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>53305665235</v>
       </c>
       <c r="S8">
-        <v>-15286512079</v>
+        <v>10162848799</v>
       </c>
       <c r="T8">
-        <v>-21424611321</v>
+        <v>20033029594</v>
       </c>
       <c r="U8">
-        <v>-139745251263</v>
+        <v>19806683734</v>
       </c>
       <c r="V8">
-        <v>-53575668634</v>
+        <v>7996520497</v>
       </c>
       <c r="W8">
-        <v>-38885125426</v>
+        <v>15559454518</v>
       </c>
       <c r="X8">
-        <v>-12610702106</v>
+        <v>15932218050</v>
       </c>
       <c r="Y8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1773,76 +1797,76 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="G9">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J9">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K9">
-        <v>10585320</v>
+        <v>13346380</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P9">
-        <v>45195788</v>
+        <v>7668281979</v>
       </c>
       <c r="Q9">
-        <v>69629209</v>
+        <v>7100921456</v>
       </c>
       <c r="R9">
-        <v>35634471</v>
+        <v>1207846478</v>
       </c>
       <c r="S9">
-        <v>2751277</v>
+        <v>5659403971</v>
       </c>
       <c r="T9">
-        <v>11449731</v>
+        <v>6124121466</v>
       </c>
       <c r="U9">
-        <v>2482194</v>
+        <v>940668827</v>
       </c>
       <c r="V9">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1850,46 +1874,46 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="G10">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K10">
-        <v>4320000</v>
+        <v>13612736</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1901,338 +1925,338 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-15286512079</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-21424611321</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-139745251263</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-53575668634</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-38885125426</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="G11">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J11">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K11">
-        <v>30610000</v>
+        <v>10585320</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P11">
-        <v>67332006578</v>
+        <v>45195788</v>
       </c>
       <c r="Q11">
-        <v>100050838794</v>
+        <v>69629209</v>
       </c>
       <c r="R11">
-        <v>63366010569</v>
+        <v>35634471</v>
       </c>
       <c r="S11">
-        <v>1140243099</v>
+        <v>2751277</v>
       </c>
       <c r="T11">
-        <v>8333440685</v>
+        <v>11449731</v>
       </c>
       <c r="U11">
-        <v>7415958936</v>
+        <v>2482194</v>
       </c>
       <c r="V11">
-        <v>668088159</v>
+        <v>2092692</v>
       </c>
       <c r="W11">
-        <v>5930478364</v>
+        <v>5149538</v>
       </c>
       <c r="X11">
-        <v>5666583221</v>
+        <v>2327401</v>
       </c>
       <c r="Y11" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="G12">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>20771000</v>
+        <v>4320000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P12">
-        <v>39450601</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>49044883</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>21826468</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>2477559</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>8094900</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>215154</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>3427734</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>6575528</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>349843</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="G13">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="H13">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J13">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K13">
-        <v>14384224</v>
+        <v>30610000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P13">
-        <v>5787300240</v>
+        <v>67332006578</v>
       </c>
       <c r="Q13">
-        <v>1914633847</v>
+        <v>100050838794</v>
       </c>
       <c r="R13">
-        <v>3156092272</v>
+        <v>63366010569</v>
       </c>
       <c r="S13">
-        <v>-1798278694</v>
+        <v>1140243099</v>
       </c>
       <c r="T13">
-        <v>-1453689952</v>
+        <v>8333440685</v>
       </c>
       <c r="U13">
-        <v>-4067648306</v>
+        <v>7415958936</v>
       </c>
       <c r="V13">
-        <v>-12449932055</v>
+        <v>668088159</v>
       </c>
       <c r="W13">
-        <v>-7426231074</v>
+        <v>5930478364</v>
       </c>
       <c r="X13">
-        <v>-52132058866</v>
+        <v>5666583221</v>
       </c>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G14">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J14">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K14">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P14">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q14">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R14">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S14">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T14">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U14">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V14">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W14">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X14">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -2241,301 +2265,301 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G15">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I15">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J15">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K15">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P15">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q15">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R15">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S15">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T15">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U15">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V15">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W15">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X15">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G16">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K16">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G17">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H17">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K17">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P17">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q17">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R17">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S17">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T17">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U17">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V17">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W17">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X17">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G18">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P18">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2543,34 +2567,34 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G19">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I19">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J19">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K19">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2579,40 +2603,40 @@
         <v>17000</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P19">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q19">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R19">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S19">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T19">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U19">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V19">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W19">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X19">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2626,70 +2650,70 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J20">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K20">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P20">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q20">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R20">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S20">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T20">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U20">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V20">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W20">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X20">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2697,76 +2721,76 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G21">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J21">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K21">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P21">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q21">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R21">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S21">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T21">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U21">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V21">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W21">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X21">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2774,76 +2798,76 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="G22">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K22">
-        <v>9039778</v>
+        <v>16120000</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P22">
-        <v>104225113285</v>
+        <v>26691070764</v>
       </c>
       <c r="Q22">
-        <v>106505634411</v>
+        <v>22835113396</v>
       </c>
       <c r="R22">
-        <v>66424930568</v>
+        <v>7519073723</v>
       </c>
       <c r="S22">
-        <v>6291020806</v>
+        <v>6041270235</v>
       </c>
       <c r="T22">
-        <v>7893242769</v>
+        <v>6705120210</v>
       </c>
       <c r="U22">
-        <v>7661497240</v>
+        <v>982044017</v>
       </c>
       <c r="V22">
-        <v>7319368873</v>
+        <v>5119066139</v>
       </c>
       <c r="W22">
-        <v>9286891982</v>
+        <v>5870093710</v>
       </c>
       <c r="X22">
-        <v>7334816490</v>
+        <v>1198587470</v>
       </c>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2851,76 +2875,76 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="G23">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K23">
-        <v>64819980</v>
+        <v>7674103</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P23">
-        <v>36980</v>
+        <v>8242508010</v>
       </c>
       <c r="Q23">
-        <v>44954</v>
+        <v>10751900430</v>
       </c>
       <c r="R23">
-        <v>23652</v>
+        <v>4416778965</v>
       </c>
       <c r="S23">
-        <v>-7085</v>
+        <v>426234451</v>
       </c>
       <c r="T23">
-        <v>-13228</v>
+        <v>2423749751</v>
       </c>
       <c r="U23">
-        <v>-9932</v>
+        <v>677048172</v>
       </c>
       <c r="V23">
-        <v>-7417</v>
+        <v>57890953</v>
       </c>
       <c r="W23">
-        <v>-12548</v>
+        <v>2826043673</v>
       </c>
       <c r="X23">
-        <v>-9333</v>
+        <v>990121873</v>
       </c>
       <c r="Y23" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2928,76 +2952,76 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="G24">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K24">
-        <v>18905000</v>
+        <v>9039778</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>104225113285</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>106505634411</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>66424930568</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>6291020806</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>7893242769</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>7661497240</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>7319368873</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>9286891982</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>7334816490</v>
       </c>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3005,230 +3029,384 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="G25">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8900</v>
+        <v>21000</v>
       </c>
       <c r="J25">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="K25">
-        <v>5447675</v>
+        <v>64819980</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P25">
-        <v>18408761227</v>
+        <v>36980</v>
       </c>
       <c r="Q25">
-        <v>21902816604</v>
+        <v>44954</v>
       </c>
       <c r="R25">
-        <v>8176918465</v>
+        <v>23652</v>
       </c>
       <c r="S25">
-        <v>3669182465</v>
+        <v>-7085</v>
       </c>
       <c r="T25">
-        <v>1851925471</v>
+        <v>-13228</v>
       </c>
       <c r="U25">
-        <v>590566592</v>
+        <v>-9932</v>
       </c>
       <c r="V25">
-        <v>3633973594</v>
+        <v>-7417</v>
       </c>
       <c r="W25">
-        <v>2205418963</v>
+        <v>-12548</v>
       </c>
       <c r="X25">
-        <v>592903151</v>
+        <v>-9333</v>
       </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26">
-        <v>2240000</v>
+        <v>18000000</v>
       </c>
       <c r="G26">
-        <v>1640000</v>
+        <v>18000000</v>
       </c>
       <c r="H26">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J26">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K26">
-        <v>10969386</v>
+        <v>18905000</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="N26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P26">
-        <v>22818451349</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>30491967755</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>18040053709</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>2313787613</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>4014101926</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1878997667</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>559427078</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-711183147</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1929682988</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27">
+        <v>1500000</v>
+      </c>
+      <c r="G27">
+        <v>1500000</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>8900</v>
+      </c>
+      <c r="J27">
+        <v>11000</v>
+      </c>
+      <c r="K27">
+        <v>5447675</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>12500</v>
+      </c>
+      <c r="N27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>157</v>
+      </c>
+      <c r="P27">
+        <v>18408761227</v>
+      </c>
+      <c r="Q27">
+        <v>21902816604</v>
+      </c>
+      <c r="R27">
+        <v>8176918465</v>
+      </c>
+      <c r="S27">
+        <v>3669182465</v>
+      </c>
+      <c r="T27">
+        <v>1851925471</v>
+      </c>
+      <c r="U27">
+        <v>590566592</v>
+      </c>
+      <c r="V27">
+        <v>3633973594</v>
+      </c>
+      <c r="W27">
+        <v>2205418963</v>
+      </c>
+      <c r="X27">
+        <v>592903151</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28">
+        <v>2240000</v>
+      </c>
+      <c r="G28">
+        <v>1640000</v>
+      </c>
+      <c r="H28">
+        <v>600000</v>
+      </c>
+      <c r="I28">
+        <v>11500</v>
+      </c>
+      <c r="J28">
+        <v>13200</v>
+      </c>
+      <c r="K28">
+        <v>10969386</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>15000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>133</v>
+      </c>
+      <c r="O28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28">
+        <v>22818451349</v>
+      </c>
+      <c r="Q28">
+        <v>30491967755</v>
+      </c>
+      <c r="R28">
+        <v>18040053709</v>
+      </c>
+      <c r="S28">
+        <v>2313787613</v>
+      </c>
+      <c r="T28">
+        <v>4014101926</v>
+      </c>
+      <c r="U28">
+        <v>1878997667</v>
+      </c>
+      <c r="V28">
+        <v>559427078</v>
+      </c>
+      <c r="W28">
+        <v>-711183147</v>
+      </c>
+      <c r="X28">
+        <v>1929682988</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29">
         <v>1580000</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <v>1580000</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>10500</v>
       </c>
-      <c r="J27">
+      <c r="J29">
         <v>12000</v>
       </c>
-      <c r="K27">
+      <c r="K29">
         <v>7874611</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>14000</v>
       </c>
-      <c r="N27" t="s">
-        <v>128</v>
-      </c>
-      <c r="O27" t="s">
-        <v>152</v>
-      </c>
-      <c r="P27">
+      <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29">
         <v>7327878427</v>
       </c>
-      <c r="Q27">
+      <c r="Q29">
         <v>10756717708</v>
       </c>
-      <c r="R27">
+      <c r="R29">
         <v>4113702647</v>
       </c>
-      <c r="S27">
+      <c r="S29">
         <v>-588932080</v>
       </c>
-      <c r="T27">
+      <c r="T29">
         <v>254042570</v>
       </c>
-      <c r="U27">
+      <c r="U29">
         <v>-738698858</v>
       </c>
-      <c r="V27">
+      <c r="V29">
         <v>-569358529</v>
       </c>
-      <c r="W27">
+      <c r="W29">
         <v>-429546963</v>
       </c>
-      <c r="X27">
+      <c r="X29">
         <v>-550600734</v>
       </c>
-      <c r="Y27" t="s">
-        <v>177</v>
+      <c r="Y29" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3246,422 +3424,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="268">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -732,6 +732,12 @@
   </si>
   <si>
     <t>3,200~3,600</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>6000</t>
   </si>
   <si>
     <t>2000</t>
@@ -3459,7 +3465,7 @@
         <v>19500</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3479,7 +3485,7 @@
         <v>14000</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3499,7 +3505,7 @@
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3513,13 +3519,13 @@
         <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3533,13 +3539,13 @@
         <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3553,13 +3559,13 @@
         <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3573,13 +3579,13 @@
         <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3593,13 +3599,13 @@
         <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3613,13 +3619,13 @@
         <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3633,13 +3639,13 @@
         <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3653,13 +3659,13 @@
         <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3673,13 +3679,13 @@
         <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3693,13 +3699,13 @@
         <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3713,13 +3719,13 @@
         <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3733,13 +3739,13 @@
         <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3753,13 +3759,13 @@
         <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3773,13 +3779,13 @@
         <v>236</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3793,13 +3799,13 @@
         <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3813,13 +3819,13 @@
         <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3833,13 +3839,13 @@
         <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="261">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -152,15 +155,12 @@
     <t>2023-09-11</t>
   </si>
   <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
-    <t>2023-09-08</t>
-  </si>
-  <si>
     <t>2023-09-06</t>
   </si>
   <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-16</t>
   </si>
   <si>
@@ -188,6 +188,9 @@
     <t>2023-09-12</t>
   </si>
   <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
     <t>2023-12-01</t>
   </si>
   <si>
@@ -197,12 +200,6 @@
     <t>2023-11-24</t>
   </si>
   <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -233,9 +233,6 @@
     <t>미래, 삼성</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>한국</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
     <t>유안타</t>
   </si>
   <si>
+    <t>삼성스팩9호</t>
+  </si>
+  <si>
     <t>에이텀</t>
   </si>
   <si>
@@ -326,18 +326,15 @@
     <t>두산로보틱스</t>
   </si>
   <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
     <t>아이엠티</t>
   </si>
   <si>
+    <t>54.61:1</t>
+  </si>
+  <si>
     <t>136.4:1</t>
   </si>
   <si>
@@ -410,24 +407,18 @@
     <t>272.03:1</t>
   </si>
   <si>
-    <t>71.91:1</t>
-  </si>
-  <si>
-    <t>840.74:1</t>
-  </si>
-  <si>
     <t>643.70:1</t>
   </si>
   <si>
     <t>753.50:1</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>0.43%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>8.66%</t>
   </si>
   <si>
@@ -488,15 +479,15 @@
     <t>51.60%</t>
   </si>
   <si>
-    <t>13.27%</t>
-  </si>
-  <si>
     <t>21.00%</t>
   </si>
   <si>
     <t>22.20%</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
     <t>평판형 트랜스</t>
   </si>
   <si>
@@ -527,9 +518,6 @@
     <t>비메모리 반도체 설계및 제조, 전자회로 연구, 설계, 레이아웃 등</t>
   </si>
   <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>데크플레이트</t>
   </si>
   <si>
@@ -566,12 +554,6 @@
     <t>협동로봇</t>
   </si>
   <si>
-    <t>금융서비스(기업인수목적 회사)</t>
-  </si>
-  <si>
-    <t>망간자료전송</t>
-  </si>
-  <si>
     <t>REVU 서비스(컨텐츠마케팅, 로컬, 에이전시)</t>
   </si>
   <si>
@@ -609,9 +591,6 @@
   </si>
   <si>
     <t>LS머트리얼즈</t>
-  </si>
-  <si>
-    <t>삼성스팩9호</t>
   </si>
   <si>
     <t>교보스팩15호</t>
@@ -1176,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,76 +1243,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="G2">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>5345180</v>
+        <v>11050000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P2">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1341,76 +1320,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="G3">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K3">
-        <v>9100000</v>
+        <v>5345180</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1418,46 +1397,46 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="G4">
-        <v>844000</v>
+        <v>8000000</v>
       </c>
       <c r="H4">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>5657215</v>
+        <v>9100000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1487,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1495,76 +1474,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G5">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I5">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J5">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K5">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P5">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1572,76 +1551,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G6">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J6">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K6">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P6">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q6">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R6">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S6">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T6">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U6">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V6">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W6">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X6">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1649,76 +1628,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G7">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J7">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K7">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P7">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q7">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R7">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S7">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T7">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U7">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V7">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W7">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X7">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1726,76 +1705,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G8">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J8">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K8">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P8">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q8">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R8">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S8">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T8">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U8">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V8">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W8">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X8">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1803,76 +1782,76 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G9">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J9">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K9">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P9">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q9">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R9">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S9">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T9">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U9">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1883,73 +1862,73 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G10">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J10">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K10">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S10">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T10">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U10">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V10">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1957,76 +1936,76 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G11">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J11">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K11">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P11">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T11">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U11">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V11">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W11">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X11">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2034,384 +2013,384 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G12">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K12">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G13">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P13">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G14">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J14">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K14">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P14">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q14">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R14">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S14">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T14">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U14">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V14">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W14">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X14">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G15">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H15">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J15">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K15">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P15">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q15">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R15">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S15">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T15">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U15">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V15">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W15">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X15">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G16">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I16">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J16">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K16">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P16">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q16">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R16">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S16">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T16">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U16">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V16">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W16">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X16">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2419,84 +2398,84 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G17">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J17">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K17">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P17">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q17">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R17">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S17">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T17">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U17">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V17">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W17">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X17">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2505,144 +2484,144 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G18">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K18">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G19">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H19">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="P19">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2650,76 +2629,76 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G20">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I20">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J20">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K20">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P20">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q20">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R20">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S20">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T20">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U20">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V20">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W20">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X20">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2727,76 +2706,76 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G21">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J21">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K21">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P21">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q21">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R21">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S21">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T21">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U21">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V21">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W21">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X21">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2804,76 +2783,76 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G22">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J22">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K22">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P22">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q22">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R22">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S22">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T22">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U22">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V22">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W22">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X22">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2881,76 +2860,76 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G23">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J23">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K23">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P23">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q23">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R23">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S23">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T23">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U23">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V23">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W23">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X23">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2958,76 +2937,76 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G24">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J24">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K24">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P24">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q24">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R24">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S24">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T24">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U24">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V24">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W24">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X24">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3035,34 +3014,34 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G25">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J25">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K25">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3071,40 +3050,40 @@
         <v>26000</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P25">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q25">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R25">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S25">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T25">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U25">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V25">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W25">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X25">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3115,304 +3094,227 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G26">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K26">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="G27">
-        <v>1500000</v>
+        <v>1640000</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I27">
-        <v>8900</v>
+        <v>11500</v>
       </c>
       <c r="J27">
-        <v>11000</v>
+        <v>13200</v>
       </c>
       <c r="K27">
-        <v>5447675</v>
+        <v>10969386</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P27">
-        <v>18408761227</v>
+        <v>22818451349</v>
       </c>
       <c r="Q27">
-        <v>21902816604</v>
+        <v>30491967755</v>
       </c>
       <c r="R27">
-        <v>8176918465</v>
+        <v>18040053709</v>
       </c>
       <c r="S27">
-        <v>3669182465</v>
+        <v>2313787613</v>
       </c>
       <c r="T27">
-        <v>1851925471</v>
+        <v>4014101926</v>
       </c>
       <c r="U27">
-        <v>590566592</v>
+        <v>1878997667</v>
       </c>
       <c r="V27">
-        <v>3633973594</v>
+        <v>559427078</v>
       </c>
       <c r="W27">
-        <v>2205418963</v>
+        <v>-711183147</v>
       </c>
       <c r="X27">
-        <v>592903151</v>
+        <v>1929682988</v>
       </c>
       <c r="Y27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28">
-        <v>2240000</v>
+        <v>1580000</v>
       </c>
       <c r="G28">
-        <v>1640000</v>
+        <v>1580000</v>
       </c>
       <c r="H28">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="J28">
-        <v>13200</v>
+        <v>12000</v>
       </c>
       <c r="K28">
-        <v>10969386</v>
+        <v>7874611</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P28">
-        <v>22818451349</v>
+        <v>7327878427</v>
       </c>
       <c r="Q28">
-        <v>30491967755</v>
+        <v>10756717708</v>
       </c>
       <c r="R28">
-        <v>18040053709</v>
+        <v>4113702647</v>
       </c>
       <c r="S28">
-        <v>2313787613</v>
+        <v>-588932080</v>
       </c>
       <c r="T28">
-        <v>4014101926</v>
+        <v>254042570</v>
       </c>
       <c r="U28">
-        <v>1878997667</v>
+        <v>-738698858</v>
       </c>
       <c r="V28">
-        <v>559427078</v>
+        <v>-569358529</v>
       </c>
       <c r="W28">
-        <v>-711183147</v>
+        <v>-429546963</v>
       </c>
       <c r="X28">
-        <v>1929682988</v>
+        <v>-550600734</v>
       </c>
       <c r="Y28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29">
-        <v>1580000</v>
-      </c>
-      <c r="G29">
-        <v>1580000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>10500</v>
-      </c>
-      <c r="J29">
-        <v>12000</v>
-      </c>
-      <c r="K29">
-        <v>7874611</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>14000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" t="s">
-        <v>159</v>
-      </c>
-      <c r="P29">
-        <v>7327878427</v>
-      </c>
-      <c r="Q29">
-        <v>10756717708</v>
-      </c>
-      <c r="R29">
-        <v>4113702647</v>
-      </c>
-      <c r="S29">
-        <v>-588932080</v>
-      </c>
-      <c r="T29">
-        <v>254042570</v>
-      </c>
-      <c r="U29">
-        <v>-738698858</v>
-      </c>
-      <c r="V29">
-        <v>-569358529</v>
-      </c>
-      <c r="W29">
-        <v>-429546963</v>
-      </c>
-      <c r="X29">
-        <v>-550600734</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3430,222 +3332,222 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E2">
         <v>19500</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E3">
         <v>14000</v>
       </c>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4">
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3653,19 +3555,19 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3673,19 +3575,19 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3693,19 +3595,19 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3713,19 +3615,19 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3733,39 +3635,39 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3773,39 +3675,39 @@
         <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3813,39 +3715,39 @@
         <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="264">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -158,12 +161,12 @@
     <t>2023-09-06</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
     <t>2023-09-12</t>
   </si>
   <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
     <t>2023-11-30</t>
   </si>
   <si>
@@ -203,12 +209,15 @@
     <t>2023-11-14</t>
   </si>
   <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>교보</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -245,10 +254,10 @@
     <t>키움</t>
   </si>
   <si>
-    <t>한국, 미래</t>
-  </si>
-  <si>
-    <t>유안타</t>
+    <t>와이바이오로직스</t>
+  </si>
+  <si>
+    <t>교보15호스팩</t>
   </si>
   <si>
     <t>삼성스팩9호</t>
@@ -323,15 +332,18 @@
     <t>신성에스티</t>
   </si>
   <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
     <t>아이엠티</t>
   </si>
   <si>
+    <t>226.9:1</t>
+  </si>
+  <si>
+    <t>819.05</t>
+  </si>
+  <si>
     <t>54.61:1</t>
   </si>
   <si>
@@ -404,15 +416,18 @@
     <t>583.50:1</t>
   </si>
   <si>
-    <t>272.03:1</t>
-  </si>
-  <si>
     <t>643.70:1</t>
   </si>
   <si>
     <t>753.50:1</t>
   </si>
   <si>
+    <t>14.47%</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -476,15 +491,15 @@
     <t>13.57%</t>
   </si>
   <si>
-    <t>51.60%</t>
-  </si>
-  <si>
     <t>21.00%</t>
   </si>
   <si>
     <t>22.20%</t>
   </si>
   <si>
+    <t>항체의약품 및 항체후보물질 연구개발</t>
+  </si>
+  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -551,9 +566,6 @@
     <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
   </si>
   <si>
-    <t>협동로봇</t>
-  </si>
-  <si>
     <t>REVU 서비스(컨텐츠마케팅, 로컬, 에이전시)</t>
   </si>
   <si>
@@ -578,6 +590,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>IBKS스팩23호</t>
+  </si>
+  <si>
     <t>포스뱅크</t>
   </si>
   <si>
@@ -602,16 +617,13 @@
     <t>NH스팩30호</t>
   </si>
   <si>
-    <t>와이바이오로직스</t>
-  </si>
-  <si>
     <t>동인기연(유가)</t>
   </si>
   <si>
     <t>에코프로머티리얼즈(유가)</t>
   </si>
   <si>
-    <t>한국스팩13호</t>
+    <t>2024.01.08~01.12</t>
   </si>
   <si>
     <t>2024.01.05~01.11</t>
@@ -662,7 +674,7 @@
     <t>2023.10.26~11.01</t>
   </si>
   <si>
-    <t>2023.10.25~10.26</t>
+    <t>2,400~2,800</t>
   </si>
   <si>
     <t>13,000~15,000</t>
@@ -755,6 +767,9 @@
     <t>4000</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -776,9 +791,6 @@
     <t>신영증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>유안타증권</t>
   </si>
   <si>
@@ -795,9 +807,6 @@
   </si>
   <si>
     <t>미래에셋증권,NH투자증권,하이투자증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,46 +1252,46 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="G2">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K2">
-        <v>11050000</v>
+        <v>13866898</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1312,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1320,99 +1329,99 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>650000</v>
+        <v>3500000</v>
       </c>
       <c r="G3">
-        <v>650000</v>
+        <v>3500000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>5345180</v>
+        <v>3810000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P3">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G4">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1424,7 +1433,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>9100000</v>
+        <v>11050000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1433,10 +1442,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1466,670 +1475,670 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="G5">
-        <v>844000</v>
+        <v>650000</v>
       </c>
       <c r="H5">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J5">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K5">
-        <v>5657215</v>
+        <v>5345180</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="G6">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>8183944</v>
+        <v>9100000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P6">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="G7">
-        <v>3350000</v>
+        <v>844000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I7">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J7">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K7">
-        <v>13436499</v>
+        <v>5657215</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P7">
-        <v>47984</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>51031</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>29425</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>10526</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>11804</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>7008</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>8661</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>9582</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>5612</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="G8">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J8">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K8">
-        <v>17002500</v>
+        <v>8183944</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P8">
-        <v>27199897007</v>
+        <v>13660</v>
       </c>
       <c r="Q8">
-        <v>40971122327</v>
+        <v>25085</v>
       </c>
       <c r="R8">
-        <v>25300714406</v>
+        <v>8905</v>
       </c>
       <c r="S8">
-        <v>2887034102</v>
+        <v>3108</v>
       </c>
       <c r="T8">
-        <v>7167697077</v>
+        <v>3731</v>
       </c>
       <c r="U8">
-        <v>4740280453</v>
+        <v>2219</v>
       </c>
       <c r="V8">
-        <v>2399514033</v>
+        <v>1157</v>
       </c>
       <c r="W8">
-        <v>5498221693</v>
+        <v>3465</v>
       </c>
       <c r="X8">
-        <v>3402334635</v>
+        <v>1666</v>
       </c>
       <c r="Y8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="G9">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J9">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K9">
-        <v>9877043</v>
+        <v>13436499</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P9">
-        <v>26994234332</v>
+        <v>47984</v>
       </c>
       <c r="Q9">
-        <v>60121142197</v>
+        <v>51031</v>
       </c>
       <c r="R9">
-        <v>53305665235</v>
+        <v>29425</v>
       </c>
       <c r="S9">
-        <v>10162848799</v>
+        <v>10526</v>
       </c>
       <c r="T9">
-        <v>20033029594</v>
+        <v>11804</v>
       </c>
       <c r="U9">
-        <v>19806683734</v>
+        <v>7008</v>
       </c>
       <c r="V9">
-        <v>7996520497</v>
+        <v>8661</v>
       </c>
       <c r="W9">
-        <v>15559454518</v>
+        <v>9582</v>
       </c>
       <c r="X9">
-        <v>15932218050</v>
+        <v>5612</v>
       </c>
       <c r="Y9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="G10">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="J10">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K10">
-        <v>13346380</v>
+        <v>17002500</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P10">
-        <v>7668281979</v>
+        <v>27199897007</v>
       </c>
       <c r="Q10">
-        <v>7100921456</v>
+        <v>40971122327</v>
       </c>
       <c r="R10">
-        <v>1207846478</v>
+        <v>25300714406</v>
       </c>
       <c r="S10">
-        <v>5659403971</v>
+        <v>2887034102</v>
       </c>
       <c r="T10">
-        <v>6124121466</v>
+        <v>7167697077</v>
       </c>
       <c r="U10">
-        <v>940668827</v>
+        <v>4740280453</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2399514033</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>5498221693</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>3402334635</v>
       </c>
       <c r="Y10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="G11">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="J11">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="K11">
-        <v>13612736</v>
+        <v>9877043</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20000</v>
+        <v>34700</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>26994234332</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>60121142197</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>53305665235</v>
       </c>
       <c r="S11">
-        <v>-15286512079</v>
+        <v>10162848799</v>
       </c>
       <c r="T11">
-        <v>-21424611321</v>
+        <v>20033029594</v>
       </c>
       <c r="U11">
-        <v>-139745251263</v>
+        <v>19806683734</v>
       </c>
       <c r="V11">
-        <v>-53575668634</v>
+        <v>7996520497</v>
       </c>
       <c r="W11">
-        <v>-38885125426</v>
+        <v>15559454518</v>
       </c>
       <c r="X11">
-        <v>-12610702106</v>
+        <v>15932218050</v>
       </c>
       <c r="Y11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="G12">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J12">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K12">
-        <v>10585320</v>
+        <v>13346380</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P12">
-        <v>45195788</v>
+        <v>7668281979</v>
       </c>
       <c r="Q12">
-        <v>69629209</v>
+        <v>7100921456</v>
       </c>
       <c r="R12">
-        <v>35634471</v>
+        <v>1207846478</v>
       </c>
       <c r="S12">
-        <v>2751277</v>
+        <v>5659403971</v>
       </c>
       <c r="T12">
-        <v>11449731</v>
+        <v>6124121466</v>
       </c>
       <c r="U12">
-        <v>2482194</v>
+        <v>940668827</v>
       </c>
       <c r="V12">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K13">
-        <v>4320000</v>
+        <v>13612736</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2141,487 +2150,487 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-15286512079</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-21424611321</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-139745251263</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-53575668634</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-38885125426</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="G14">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J14">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K14">
-        <v>30610000</v>
+        <v>10585320</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P14">
-        <v>67332006578</v>
+        <v>45195788</v>
       </c>
       <c r="Q14">
-        <v>100050838794</v>
+        <v>69629209</v>
       </c>
       <c r="R14">
-        <v>63366010569</v>
+        <v>35634471</v>
       </c>
       <c r="S14">
-        <v>1140243099</v>
+        <v>2751277</v>
       </c>
       <c r="T14">
-        <v>8333440685</v>
+        <v>11449731</v>
       </c>
       <c r="U14">
-        <v>7415958936</v>
+        <v>2482194</v>
       </c>
       <c r="V14">
-        <v>668088159</v>
+        <v>2092692</v>
       </c>
       <c r="W14">
-        <v>5930478364</v>
+        <v>5149538</v>
       </c>
       <c r="X14">
-        <v>5666583221</v>
+        <v>2327401</v>
       </c>
       <c r="Y14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>20771000</v>
+        <v>4320000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P15">
-        <v>39450601</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>49044883</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>21826468</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>2477559</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>8094900</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>215154</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>3427734</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>6575528</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>349843</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="G16">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="H16">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J16">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K16">
-        <v>14384224</v>
+        <v>30610000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P16">
-        <v>5787300240</v>
+        <v>67332006578</v>
       </c>
       <c r="Q16">
-        <v>1914633847</v>
+        <v>100050838794</v>
       </c>
       <c r="R16">
-        <v>3156092272</v>
+        <v>63366010569</v>
       </c>
       <c r="S16">
-        <v>-1798278694</v>
+        <v>1140243099</v>
       </c>
       <c r="T16">
-        <v>-1453689952</v>
+        <v>8333440685</v>
       </c>
       <c r="U16">
-        <v>-4067648306</v>
+        <v>7415958936</v>
       </c>
       <c r="V16">
-        <v>-12449932055</v>
+        <v>668088159</v>
       </c>
       <c r="W16">
-        <v>-7426231074</v>
+        <v>5930478364</v>
       </c>
       <c r="X16">
-        <v>-52132058866</v>
+        <v>5666583221</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G17">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J17">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K17">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P17">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q17">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R17">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S17">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T17">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U17">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V17">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W17">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X17">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G18">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I18">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J18">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K18">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P18">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q18">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R18">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S18">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T18">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U18">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V18">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W18">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X18">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G19">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K19">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2629,188 +2638,188 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G20">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H20">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J20">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K20">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P20">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q20">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R20">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S20">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T20">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U20">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V20">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W20">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X20">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G21">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K21">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="P21">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G22">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I22">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J22">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K22">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2819,348 +2828,348 @@
         <v>17000</v>
       </c>
       <c r="N22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P22">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q22">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R22">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S22">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T22">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U22">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V22">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W22">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X22">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G23">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J23">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K23">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P23">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q23">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R23">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S23">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T23">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U23">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V23">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W23">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X23">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G24">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J24">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K24">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P24">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q24">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R24">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S24">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T24">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U24">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V24">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W24">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X24">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="G25">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J25">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K25">
-        <v>9039778</v>
+        <v>16120000</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P25">
-        <v>104225113285</v>
+        <v>26691070764</v>
       </c>
       <c r="Q25">
-        <v>106505634411</v>
+        <v>22835113396</v>
       </c>
       <c r="R25">
-        <v>66424930568</v>
+        <v>7519073723</v>
       </c>
       <c r="S25">
-        <v>6291020806</v>
+        <v>6041270235</v>
       </c>
       <c r="T25">
-        <v>7893242769</v>
+        <v>6705120210</v>
       </c>
       <c r="U25">
-        <v>7661497240</v>
+        <v>982044017</v>
       </c>
       <c r="V25">
-        <v>7319368873</v>
+        <v>5119066139</v>
       </c>
       <c r="W25">
-        <v>9286891982</v>
+        <v>5870093710</v>
       </c>
       <c r="X25">
-        <v>7334816490</v>
+        <v>1198587470</v>
       </c>
       <c r="Y25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="G26">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K26">
-        <v>64819980</v>
+        <v>7674103</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P26">
-        <v>36980</v>
+        <v>8242508010</v>
       </c>
       <c r="Q26">
-        <v>44954</v>
+        <v>10751900430</v>
       </c>
       <c r="R26">
-        <v>23652</v>
+        <v>4416778965</v>
       </c>
       <c r="S26">
-        <v>-7085</v>
+        <v>426234451</v>
       </c>
       <c r="T26">
-        <v>-13228</v>
+        <v>2423749751</v>
       </c>
       <c r="U26">
-        <v>-9932</v>
+        <v>677048172</v>
       </c>
       <c r="V26">
-        <v>-7417</v>
+        <v>57890953</v>
       </c>
       <c r="W26">
-        <v>-12548</v>
+        <v>2826043673</v>
       </c>
       <c r="X26">
-        <v>-9333</v>
+        <v>990121873</v>
       </c>
       <c r="Y26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3171,73 +3180,73 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27">
-        <v>2240000</v>
+        <v>2000000</v>
       </c>
       <c r="G27">
-        <v>1640000</v>
+        <v>2000000</v>
       </c>
       <c r="H27">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="J27">
-        <v>13200</v>
+        <v>25000</v>
       </c>
       <c r="K27">
-        <v>10969386</v>
+        <v>9039778</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P27">
-        <v>22818451349</v>
+        <v>104225113285</v>
       </c>
       <c r="Q27">
-        <v>30491967755</v>
+        <v>106505634411</v>
       </c>
       <c r="R27">
-        <v>18040053709</v>
+        <v>66424930568</v>
       </c>
       <c r="S27">
-        <v>2313787613</v>
+        <v>6291020806</v>
       </c>
       <c r="T27">
-        <v>4014101926</v>
+        <v>7893242769</v>
       </c>
       <c r="U27">
-        <v>1878997667</v>
+        <v>7661497240</v>
       </c>
       <c r="V27">
-        <v>559427078</v>
+        <v>7319368873</v>
       </c>
       <c r="W27">
-        <v>-711183147</v>
+        <v>9286891982</v>
       </c>
       <c r="X27">
-        <v>1929682988</v>
+        <v>7334816490</v>
       </c>
       <c r="Y27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3248,73 +3257,150 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28">
+        <v>2240000</v>
+      </c>
+      <c r="G28">
+        <v>1640000</v>
+      </c>
+      <c r="H28">
+        <v>600000</v>
+      </c>
+      <c r="I28">
+        <v>11500</v>
+      </c>
+      <c r="J28">
+        <v>13200</v>
+      </c>
+      <c r="K28">
+        <v>10969386</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>15000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>133</v>
+      </c>
+      <c r="O28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28">
+        <v>22818451349</v>
+      </c>
+      <c r="Q28">
+        <v>30491967755</v>
+      </c>
+      <c r="R28">
+        <v>18040053709</v>
+      </c>
+      <c r="S28">
+        <v>2313787613</v>
+      </c>
+      <c r="T28">
+        <v>4014101926</v>
+      </c>
+      <c r="U28">
+        <v>1878997667</v>
+      </c>
+      <c r="V28">
+        <v>559427078</v>
+      </c>
+      <c r="W28">
+        <v>-711183147</v>
+      </c>
+      <c r="X28">
+        <v>1929682988</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29">
         <v>1580000</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>1580000</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>10500</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>12000</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>7874611</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>14000</v>
       </c>
-      <c r="N28" t="s">
-        <v>131</v>
-      </c>
-      <c r="O28" t="s">
-        <v>155</v>
-      </c>
-      <c r="P28">
+      <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29">
         <v>7327878427</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>10756717708</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>4113702647</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>-588932080</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>254042570</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>-738698858</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <v>-569358529</v>
       </c>
-      <c r="W28">
+      <c r="W29">
         <v>-429546963</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <v>-550600734</v>
       </c>
-      <c r="Y28" t="s">
-        <v>180</v>
+      <c r="Y29" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3332,222 +3418,222 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E2">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E3">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E4">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="E5">
-        <v>21000</v>
+        <v>96380</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E6">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E7">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E8">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E9">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E10">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E11">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3555,199 +3641,199 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E12">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E13">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E14">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E15">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E16">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E17">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F17" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E18">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E19">
-        <v>524031</v>
+        <v>26800</v>
       </c>
       <c r="F19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E20">
-        <v>6384</v>
+        <v>524031</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E21">
-        <v>8000</v>
+        <v>6384</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -92,12 +92,15 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -155,18 +158,15 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-09-11</t>
-  </si>
-  <si>
     <t>2023-09-06</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-11-21</t>
   </si>
   <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -185,15 +185,15 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
     <t>2023-09-12</t>
   </si>
   <si>
     <t>2023-12-05</t>
   </si>
   <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
     <t>2023-11-30</t>
   </si>
   <si>
@@ -212,12 +212,15 @@
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>교보</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
     <t>유안타</t>
   </si>
   <si>
-    <t>교보</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -254,12 +257,15 @@
     <t>키움</t>
   </si>
   <si>
+    <t>교보15호스팩</t>
+  </si>
+  <si>
+    <t>케이엔에스</t>
+  </si>
+  <si>
     <t>와이바이오로직스</t>
   </si>
   <si>
-    <t>교보15호스팩</t>
-  </si>
-  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
@@ -332,18 +338,18 @@
     <t>신성에스티</t>
   </si>
   <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
     <t>아이엠티</t>
   </si>
   <si>
+    <t>819.05</t>
+  </si>
+  <si>
+    <t>964.82</t>
+  </si>
+  <si>
     <t>226.9:1</t>
   </si>
   <si>
-    <t>819.05</t>
-  </si>
-  <si>
     <t>54.61:1</t>
   </si>
   <si>
@@ -416,18 +422,18 @@
     <t>583.50:1</t>
   </si>
   <si>
-    <t>643.70:1</t>
-  </si>
-  <si>
     <t>753.50:1</t>
   </si>
   <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>10.96%</t>
+  </si>
+  <si>
     <t>14.47%</t>
   </si>
   <si>
-    <t>0.18%</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -491,18 +497,18 @@
     <t>13.57%</t>
   </si>
   <si>
-    <t>21.00%</t>
-  </si>
-  <si>
     <t>22.20%</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
+    <t>이차전지 자동화 설비</t>
+  </si>
+  <si>
     <t>항체의약품 및 항체후보물질 연구개발</t>
   </si>
   <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>평판형 트랜스</t>
   </si>
   <si>
@@ -566,9 +572,6 @@
     <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
   </si>
   <si>
-    <t>REVU 서비스(컨텐츠마케팅, 로컬, 에이전시)</t>
-  </si>
-  <si>
     <t>건식세정 장비 및 EUV Mask Baking Laser</t>
   </si>
   <si>
@@ -590,18 +593,21 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>에이치비인베스트먼트</t>
+  </si>
+  <si>
+    <t>포스뱅크</t>
+  </si>
+  <si>
+    <t>하나스팩30호</t>
+  </si>
+  <si>
+    <t>디에스단석(구,단석산업)</t>
+  </si>
+  <si>
     <t>IBKS스팩23호</t>
   </si>
   <si>
-    <t>포스뱅크</t>
-  </si>
-  <si>
-    <t>하나스팩30호</t>
-  </si>
-  <si>
-    <t>디에스단석(구,단석산업)</t>
-  </si>
-  <si>
     <t>블루엠텍</t>
   </si>
   <si>
@@ -611,9 +617,6 @@
     <t>교보스팩15호</t>
   </si>
   <si>
-    <t>케이엔에스</t>
-  </si>
-  <si>
     <t>NH스팩30호</t>
   </si>
   <si>
@@ -635,6 +638,9 @@
     <t>2023.12.05~12.11</t>
   </si>
   <si>
+    <t>2023.12.04~12.08</t>
+  </si>
+  <si>
     <t>2023.11.22~11.28</t>
   </si>
   <si>
@@ -671,9 +677,6 @@
     <t>2023.10.30~11.03</t>
   </si>
   <si>
-    <t>2023.10.26~11.01</t>
-  </si>
-  <si>
     <t>2,400~2,800</t>
   </si>
   <si>
@@ -722,9 +725,6 @@
     <t>36,200~44,000</t>
   </si>
   <si>
-    <t>3,200~3,600</t>
-  </si>
-  <si>
     <t>19000</t>
   </si>
   <si>
@@ -764,9 +764,6 @@
     <t>36200</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -774,6 +771,9 @@
   </si>
   <si>
     <t>KB증권,NH투자증권</t>
+  </si>
+  <si>
+    <t>아이비케이투자증권</t>
   </si>
   <si>
     <t>하나증권,키움증권</t>
@@ -1255,43 +1255,43 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="G2">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>13866898</v>
+        <v>3810000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1338,114 +1338,114 @@
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>3500000</v>
+        <v>750000</v>
       </c>
       <c r="G3">
-        <v>3500000</v>
+        <v>750000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="K3">
-        <v>3810000</v>
+        <v>3883557</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>28564316</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>34734790</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>19566070</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>4032783</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>6075261</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>3863017</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>3909264</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>4830718</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>2876182</v>
       </c>
       <c r="Y3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="G4">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K4">
-        <v>11050000</v>
+        <v>13866898</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1475,84 +1475,84 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="G5">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>5345180</v>
+        <v>11050000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1560,7 +1560,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -1569,67 +1569,67 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="G6">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K6">
-        <v>9100000</v>
+        <v>5345180</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1637,43 +1637,43 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="G7">
-        <v>844000</v>
+        <v>8000000</v>
       </c>
       <c r="H7">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>5657215</v>
+        <v>9100000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>139</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1714,76 +1714,76 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G8">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I8">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K8">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P8">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1791,76 +1791,76 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G9">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J9">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K9">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P9">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q9">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R9">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S9">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T9">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U9">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V9">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W9">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X9">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1868,76 +1868,76 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G10">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J10">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K10">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q10">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R10">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S10">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T10">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U10">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V10">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W10">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X10">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1945,76 +1945,76 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G11">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J11">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K11">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P11">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q11">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R11">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S11">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T11">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U11">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V11">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W11">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X11">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2022,76 +2022,76 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G12">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J12">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K12">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P12">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q12">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R12">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S12">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T12">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U12">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2102,73 +2102,73 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G13">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J13">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K13">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S13">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T13">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U13">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V13">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2176,76 +2176,76 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G14">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J14">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K14">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P14">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T14">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U14">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V14">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W14">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X14">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2253,384 +2253,384 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K15">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G16">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P16">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G17">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J17">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K17">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P17">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q17">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R17">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S17">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T17">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U17">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V17">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W17">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X17">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G18">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H18">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J18">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K18">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P18">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q18">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R18">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S18">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T18">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U18">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V18">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W18">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X18">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G19">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I19">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J19">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K19">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P19">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q19">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R19">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S19">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T19">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U19">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V19">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W19">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X19">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2638,230 +2638,230 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G20">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J20">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K20">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P20">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q20">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R20">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S20">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T20">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U20">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V20">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W20">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X20">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G21">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K21">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y21" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G22">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H22">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J22">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K22">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="P22">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2869,76 +2869,76 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G23">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I23">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J23">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K23">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P23">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q23">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R23">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S23">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T23">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U23">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V23">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W23">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X23">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2946,76 +2946,76 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G24">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J24">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K24">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q24">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R24">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S24">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T24">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U24">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V24">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W24">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X24">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3023,76 +3023,76 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G25">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J25">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K25">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q25">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R25">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S25">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T25">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U25">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V25">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W25">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X25">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3100,76 +3100,76 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G26">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J26">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K26">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P26">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q26">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R26">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S26">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T26">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U26">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V26">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W26">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X26">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3177,76 +3177,76 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G27">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J27">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K27">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P27">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q27">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R27">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S27">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T27">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U27">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V27">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W27">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X27">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3254,76 +3254,76 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28">
-        <v>2240000</v>
+        <v>2000000</v>
       </c>
       <c r="G28">
-        <v>1640000</v>
+        <v>2000000</v>
       </c>
       <c r="H28">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="J28">
-        <v>13200</v>
+        <v>25000</v>
       </c>
       <c r="K28">
-        <v>10969386</v>
+        <v>9039778</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P28">
-        <v>22818451349</v>
+        <v>104225113285</v>
       </c>
       <c r="Q28">
-        <v>30491967755</v>
+        <v>106505634411</v>
       </c>
       <c r="R28">
-        <v>18040053709</v>
+        <v>66424930568</v>
       </c>
       <c r="S28">
-        <v>2313787613</v>
+        <v>6291020806</v>
       </c>
       <c r="T28">
-        <v>4014101926</v>
+        <v>7893242769</v>
       </c>
       <c r="U28">
-        <v>1878997667</v>
+        <v>7661497240</v>
       </c>
       <c r="V28">
-        <v>559427078</v>
+        <v>7319368873</v>
       </c>
       <c r="W28">
-        <v>-711183147</v>
+        <v>9286891982</v>
       </c>
       <c r="X28">
-        <v>1929682988</v>
+        <v>7334816490</v>
       </c>
       <c r="Y28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3331,16 +3331,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29">
         <v>1580000</v>
@@ -3367,10 +3367,10 @@
         <v>14000</v>
       </c>
       <c r="N29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P29">
         <v>7327878427</v>
@@ -3400,7 +3400,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3418,242 +3418,242 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E2">
         <v>16000</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>19500</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E4">
         <v>14000</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5">
         <v>96380</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="E6">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>238</v>
       </c>
       <c r="E9">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E11">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E12">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3661,19 +3661,19 @@
         <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E13">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3681,39 +3681,39 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E14">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F14" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
         <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E15">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F15" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3721,119 +3721,119 @@
         <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E16">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F16" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
         <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E17">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
         <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E18">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E19">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F19" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
         <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E20">
-        <v>524031</v>
+        <v>26800</v>
       </c>
       <c r="F20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E21">
-        <v>6384</v>
+        <v>524031</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="255">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -158,9 +158,6 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
     <t>2023-11-21</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-09-12</t>
-  </si>
-  <si>
     <t>2023-12-05</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>2023-11-14</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>교보</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
     <t>신성에스티</t>
   </si>
   <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
     <t>819.05</t>
   </si>
   <si>
@@ -422,9 +410,6 @@
     <t>583.50:1</t>
   </si>
   <si>
-    <t>753.50:1</t>
-  </si>
-  <si>
     <t>0.18%</t>
   </si>
   <si>
@@ -497,9 +482,6 @@
     <t>13.57%</t>
   </si>
   <si>
-    <t>22.20%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -572,9 +554,6 @@
     <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
   </si>
   <si>
-    <t>건식세정 장비 및 EUV Mask Baking Laser</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -593,6 +572,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>이닉스(구.이닉스정호)</t>
+  </si>
+  <si>
     <t>에이치비인베스트먼트</t>
   </si>
   <si>
@@ -623,7 +605,7 @@
     <t>동인기연(유가)</t>
   </si>
   <si>
-    <t>에코프로머티리얼즈(유가)</t>
+    <t>2024.01.11~01.17</t>
   </si>
   <si>
     <t>2024.01.08~01.12</t>
@@ -674,7 +656,7 @@
     <t>2023.10.31~11.06</t>
   </si>
   <si>
-    <t>2023.10.30~11.03</t>
+    <t>9,200~11,000</t>
   </si>
   <si>
     <t>2,400~2,800</t>
@@ -722,9 +704,6 @@
     <t>8,000~9,500</t>
   </si>
   <si>
-    <t>36,200~44,000</t>
-  </si>
-  <si>
     <t>19000</t>
   </si>
   <si>
@@ -761,7 +740,7 @@
     <t>11000</t>
   </si>
   <si>
-    <t>36200</t>
+    <t>삼성증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
@@ -782,9 +761,6 @@
     <t>키움증권,KB증권,이베스트투자증권,하이투자증권,NH투자증권</t>
   </si>
   <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
     <t>교보증권</t>
   </si>
   <si>
@@ -804,9 +780,6 @@
   </si>
   <si>
     <t>하이투자증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권,NH투자증권,하이투자증권</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,16 +1225,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>3500000</v>
@@ -1288,10 +1261,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1321,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1329,16 +1302,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>750000</v>
@@ -1365,10 +1338,10 @@
         <v>23000</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P3">
         <v>28564316</v>
@@ -1398,7 +1371,7 @@
         <v>2876182</v>
       </c>
       <c r="Y3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1409,13 +1382,13 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>1500000</v>
@@ -1442,10 +1415,10 @@
         <v>9000</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1475,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1483,16 +1456,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>10000000</v>
@@ -1519,10 +1492,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1552,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1563,13 +1536,13 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>650000</v>
@@ -1596,10 +1569,10 @@
         <v>18000</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P6">
         <v>55809022</v>
@@ -1629,7 +1602,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1640,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>8000000</v>
@@ -1673,10 +1646,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1706,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1714,16 +1687,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>1407000</v>
@@ -1750,10 +1723,10 @@
         <v>28000</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1783,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1794,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>1640000</v>
@@ -1827,10 +1800,10 @@
         <v>17000</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P9">
         <v>13660</v>
@@ -1860,7 +1833,7 @@
         <v>1666</v>
       </c>
       <c r="Y9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1868,16 +1841,16 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>3350000</v>
@@ -1904,10 +1877,10 @@
         <v>11000</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P10">
         <v>47984</v>
@@ -1937,7 +1910,7 @@
         <v>5612</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1945,16 +1918,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>4250000</v>
@@ -1981,10 +1954,10 @@
         <v>7000</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P11">
         <v>27199897007</v>
@@ -2014,7 +1987,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2025,13 +1998,13 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>2079000</v>
@@ -2058,10 +2031,10 @@
         <v>34700</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P12">
         <v>26994234332</v>
@@ -2091,7 +2064,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2105,10 +2078,10 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>1596000</v>
@@ -2135,10 +2108,10 @@
         <v>4000</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P13">
         <v>7668281979</v>
@@ -2168,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2182,10 +2155,10 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>1600000</v>
@@ -2212,10 +2185,10 @@
         <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2245,7 +2218,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2253,16 +2226,16 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <v>2636330</v>
@@ -2289,10 +2262,10 @@
         <v>25000</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P15">
         <v>45195788</v>
@@ -2322,7 +2295,7 @@
         <v>2327401</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2333,13 +2306,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>4000000</v>
@@ -2366,10 +2339,10 @@
         <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2399,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2407,16 +2380,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>7000000</v>
@@ -2443,10 +2416,10 @@
         <v>1800</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P17">
         <v>67332006578</v>
@@ -2476,7 +2449,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2490,10 +2463,10 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>5200000</v>
@@ -2520,10 +2493,10 @@
         <v>4800</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P18">
         <v>39450601</v>
@@ -2553,7 +2526,7 @@
         <v>349843</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2567,10 +2540,10 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>2060000</v>
@@ -2597,10 +2570,10 @@
         <v>22500</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P19">
         <v>5787300240</v>
@@ -2630,7 +2603,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2644,10 +2617,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>1200000</v>
@@ -2674,10 +2647,10 @@
         <v>13000</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P20">
         <v>20924</v>
@@ -2707,7 +2680,7 @@
         <v>-862</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2721,10 +2694,10 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>3600000</v>
@@ -2751,10 +2724,10 @@
         <v>7500</v>
       </c>
       <c r="N21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P21">
         <v>21976760922</v>
@@ -2784,7 +2757,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2798,10 +2771,10 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>12500000</v>
@@ -2828,10 +2801,10 @@
         <v>2000</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2861,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2875,10 +2848,10 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>1049482</v>
@@ -2905,10 +2878,10 @@
         <v>17000</v>
       </c>
       <c r="N23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P23">
         <v>34557425427</v>
@@ -2938,7 +2911,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2952,10 +2925,10 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24">
         <v>1128720</v>
@@ -2982,10 +2955,10 @@
         <v>4400</v>
       </c>
       <c r="N24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P24">
         <v>50552623684</v>
@@ -3015,7 +2988,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3023,16 +2996,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>1800000</v>
@@ -3059,10 +3032,10 @@
         <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P25">
         <v>3952070068</v>
@@ -3092,7 +3065,7 @@
         <v>-2539505707</v>
       </c>
       <c r="Y25" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3106,10 +3079,10 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>4000000</v>
@@ -3136,10 +3109,10 @@
         <v>6500</v>
       </c>
       <c r="N26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P26">
         <v>26691070764</v>
@@ -3169,7 +3142,7 @@
         <v>1198587470</v>
       </c>
       <c r="Y26" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3183,10 +3156,10 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>770000</v>
@@ -3213,10 +3186,10 @@
         <v>7000</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P27">
         <v>8242508010</v>
@@ -3246,7 +3219,7 @@
         <v>990121873</v>
       </c>
       <c r="Y27" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3254,16 +3227,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F28">
         <v>2000000</v>
@@ -3290,10 +3263,10 @@
         <v>26000</v>
       </c>
       <c r="N28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P28">
         <v>104225113285</v>
@@ -3323,84 +3296,7 @@
         <v>7334816490</v>
       </c>
       <c r="Y28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29">
-        <v>1580000</v>
-      </c>
-      <c r="G29">
-        <v>1580000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>10500</v>
-      </c>
-      <c r="J29">
-        <v>12000</v>
-      </c>
-      <c r="K29">
-        <v>7874611</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>14000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>135</v>
-      </c>
-      <c r="O29" t="s">
-        <v>160</v>
-      </c>
-      <c r="P29">
-        <v>7327878427</v>
-      </c>
-      <c r="Q29">
-        <v>10756717708</v>
-      </c>
-      <c r="R29">
-        <v>4113702647</v>
-      </c>
-      <c r="S29">
-        <v>-588932080</v>
-      </c>
-      <c r="T29">
-        <v>254042570</v>
-      </c>
-      <c r="U29">
-        <v>-738698858</v>
-      </c>
-      <c r="V29">
-        <v>-569358529</v>
-      </c>
-      <c r="W29">
-        <v>-429546963</v>
-      </c>
-      <c r="X29">
-        <v>-550600734</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3418,239 +3314,239 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E2">
-        <v>16000</v>
+        <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E3">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E4">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E5">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E6">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="E7">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E8">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E9">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E10">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E11">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E12">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F12" t="s">
         <v>249</v>
@@ -3658,39 +3554,39 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E13">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E14">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F14" t="s">
         <v>250</v>
@@ -3698,142 +3594,142 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E15">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E16">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E17">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E18">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E19">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E20">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F20" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E21">
-        <v>524031</v>
+        <v>26800</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="253">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -578,6 +578,9 @@
     <t>에이치비인베스트먼트</t>
   </si>
   <si>
+    <t>현대힘스</t>
+  </si>
+  <si>
     <t>포스뱅크</t>
   </si>
   <si>
@@ -653,15 +656,15 @@
     <t>2023.11.01~11.07</t>
   </si>
   <si>
-    <t>2023.10.31~11.06</t>
-  </si>
-  <si>
     <t>9,200~11,000</t>
   </si>
   <si>
     <t>2,400~2,800</t>
   </si>
   <si>
+    <t>5,000~6,300</t>
+  </si>
+  <si>
     <t>13,000~15,000</t>
   </si>
   <si>
@@ -701,7 +704,7 @@
     <t>33,000~37,000</t>
   </si>
   <si>
-    <t>8,000~9,500</t>
+    <t>2000</t>
   </si>
   <si>
     <t>19000</t>
@@ -710,9 +713,6 @@
     <t>6000</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>23000</t>
   </si>
   <si>
@@ -737,15 +737,15 @@
     <t>30000</t>
   </si>
   <si>
-    <t>11000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -770,16 +770,10 @@
     <t>유안타증권</t>
   </si>
   <si>
-    <t>미래에셋증권</t>
-  </si>
-  <si>
     <t>대신증권</t>
   </si>
   <si>
     <t>KB증권</t>
-  </si>
-  <si>
-    <t>하이투자증권</t>
   </si>
 </sst>
 </file>
@@ -3337,7 +3331,7 @@
         <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>213</v>
@@ -3349,7 +3343,7 @@
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3357,7 +3351,7 @@
         <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
         <v>214</v>
@@ -3369,7 +3363,7 @@
         <v>16000</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3386,10 +3380,10 @@
         <v>134</v>
       </c>
       <c r="E4">
-        <v>19500</v>
+        <v>43535</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3406,7 +3400,7 @@
         <v>134</v>
       </c>
       <c r="E5">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F5" t="s">
         <v>243</v>
@@ -3426,10 +3420,10 @@
         <v>134</v>
       </c>
       <c r="E6">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3440,16 +3434,16 @@
         <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>134</v>
       </c>
       <c r="E7">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3460,16 +3454,16 @@
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
         <v>229</v>
       </c>
       <c r="E8">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3477,7 +3471,7 @@
         <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
         <v>219</v>
@@ -3486,115 +3480,115 @@
         <v>230</v>
       </c>
       <c r="E9">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
         <v>231</v>
       </c>
       <c r="E10">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E11">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E12">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E13">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
         <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E14">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
         <v>207</v>
@@ -3603,18 +3597,18 @@
         <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F15" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>208</v>
@@ -3623,18 +3617,18 @@
         <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F16" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>209</v>
@@ -3643,10 +3637,10 @@
         <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F17" t="s">
         <v>242</v>
@@ -3654,7 +3648,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>210</v>
@@ -3663,18 +3657,18 @@
         <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>211</v>
@@ -3683,38 +3677,38 @@
         <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
         <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F20" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
         <v>212</v>
@@ -3723,13 +3717,13 @@
         <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E21">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="262">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -158,12 +161,12 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-22</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -182,6 +185,12 @@
     <t>2023-10-04</t>
   </si>
   <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
     <t>2023-12-05</t>
   </si>
   <si>
@@ -194,15 +203,18 @@
     <t>2023-12-01</t>
   </si>
   <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
     <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>키움, KB</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>교보</t>
   </si>
   <si>
@@ -215,9 +227,6 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -248,6 +257,12 @@
     <t>키움</t>
   </si>
   <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -329,6 +344,12 @@
     <t>신성에스티</t>
   </si>
   <si>
+    <t>396.84</t>
+  </si>
+  <si>
+    <t>582.24</t>
+  </si>
+  <si>
     <t>819.05</t>
   </si>
   <si>
@@ -410,6 +431,12 @@
     <t>583.50:1</t>
   </si>
   <si>
+    <t>12.02%</t>
+  </si>
+  <si>
+    <t>0.02%</t>
+  </si>
+  <si>
     <t>0.18%</t>
   </si>
   <si>
@@ -482,6 +509,12 @@
     <t>13.57%</t>
   </si>
   <si>
+    <t>울트라커패시터(셀 및 모듈)</t>
+  </si>
+  <si>
+    <t>의약품 유통업</t>
+  </si>
+  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -591,12 +624,6 @@
   </si>
   <si>
     <t>IBKS스팩23호</t>
-  </si>
-  <si>
-    <t>블루엠텍</t>
-  </si>
-  <si>
-    <t>LS머트리얼즈</t>
   </si>
   <si>
     <t>교보스팩15호</t>
@@ -1131,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,46 +1246,46 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>3500000</v>
+        <v>14625000</v>
       </c>
       <c r="G2">
-        <v>3500000</v>
+        <v>8775000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5850000</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="K2">
-        <v>3810000</v>
+        <v>67652659</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1288,131 +1315,131 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>750000</v>
+        <v>1400000</v>
       </c>
       <c r="G3">
-        <v>750000</v>
+        <v>1400000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <v>15000</v>
+      </c>
+      <c r="J3">
         <v>19000</v>
       </c>
-      <c r="J3">
-        <v>22000</v>
-      </c>
       <c r="K3">
-        <v>3883557</v>
+        <v>10650189</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P3">
-        <v>28564316</v>
+        <v>49637696375</v>
       </c>
       <c r="Q3">
-        <v>34734790</v>
+        <v>77146751918</v>
       </c>
       <c r="R3">
-        <v>19566070</v>
+        <v>41854695636</v>
       </c>
       <c r="S3">
-        <v>4032783</v>
+        <v>-2726643993</v>
       </c>
       <c r="T3">
-        <v>6075261</v>
+        <v>890609048</v>
       </c>
       <c r="U3">
-        <v>3863017</v>
+        <v>176442923</v>
       </c>
       <c r="V3">
-        <v>3909264</v>
+        <v>-7688787420</v>
       </c>
       <c r="W3">
-        <v>4830718</v>
+        <v>-14330655532</v>
       </c>
       <c r="X3">
-        <v>2876182</v>
+        <v>286239267</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="G4">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>13866898</v>
+        <v>3810000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1442,84 +1469,84 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="G5">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="K5">
-        <v>11050000</v>
+        <v>3883557</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>28564316</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>34734790</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>19566070</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>4032783</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>6075261</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>3863017</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3909264</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>4830718</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>2876182</v>
       </c>
       <c r="Y5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1527,99 +1554,99 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>650000</v>
+        <v>1500000</v>
       </c>
       <c r="G6">
-        <v>650000</v>
+        <v>1500000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="J6">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K6">
-        <v>5345180</v>
+        <v>13866898</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P6">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G7">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1631,7 +1658,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>9100000</v>
+        <v>11050000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1640,10 +1667,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1673,670 +1700,670 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="G8">
-        <v>844000</v>
+        <v>650000</v>
       </c>
       <c r="H8">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J8">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K8">
-        <v>5657215</v>
+        <v>5345180</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="G9">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>8183944</v>
+        <v>9100000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P9">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="G10">
-        <v>3350000</v>
+        <v>844000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I10">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J10">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K10">
-        <v>13436499</v>
+        <v>5657215</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P10">
-        <v>47984</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>51031</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>29425</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>10526</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>11804</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>7008</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>8661</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>9582</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>5612</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="G11">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J11">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K11">
-        <v>17002500</v>
+        <v>8183944</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P11">
-        <v>27199897007</v>
+        <v>13660</v>
       </c>
       <c r="Q11">
-        <v>40971122327</v>
+        <v>25085</v>
       </c>
       <c r="R11">
-        <v>25300714406</v>
+        <v>8905</v>
       </c>
       <c r="S11">
-        <v>2887034102</v>
+        <v>3108</v>
       </c>
       <c r="T11">
-        <v>7167697077</v>
+        <v>3731</v>
       </c>
       <c r="U11">
-        <v>4740280453</v>
+        <v>2219</v>
       </c>
       <c r="V11">
-        <v>2399514033</v>
+        <v>1157</v>
       </c>
       <c r="W11">
-        <v>5498221693</v>
+        <v>3465</v>
       </c>
       <c r="X11">
-        <v>3402334635</v>
+        <v>1666</v>
       </c>
       <c r="Y11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="G12">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J12">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K12">
-        <v>9877043</v>
+        <v>13436499</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P12">
-        <v>26994234332</v>
+        <v>47984</v>
       </c>
       <c r="Q12">
-        <v>60121142197</v>
+        <v>51031</v>
       </c>
       <c r="R12">
-        <v>53305665235</v>
+        <v>29425</v>
       </c>
       <c r="S12">
-        <v>10162848799</v>
+        <v>10526</v>
       </c>
       <c r="T12">
-        <v>20033029594</v>
+        <v>11804</v>
       </c>
       <c r="U12">
-        <v>19806683734</v>
+        <v>7008</v>
       </c>
       <c r="V12">
-        <v>7996520497</v>
+        <v>8661</v>
       </c>
       <c r="W12">
-        <v>15559454518</v>
+        <v>9582</v>
       </c>
       <c r="X12">
-        <v>15932218050</v>
+        <v>5612</v>
       </c>
       <c r="Y12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="G13">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="J13">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K13">
-        <v>13346380</v>
+        <v>17002500</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="P13">
-        <v>7668281979</v>
+        <v>27199897007</v>
       </c>
       <c r="Q13">
-        <v>7100921456</v>
+        <v>40971122327</v>
       </c>
       <c r="R13">
-        <v>1207846478</v>
+        <v>25300714406</v>
       </c>
       <c r="S13">
-        <v>5659403971</v>
+        <v>2887034102</v>
       </c>
       <c r="T13">
-        <v>6124121466</v>
+        <v>7167697077</v>
       </c>
       <c r="U13">
-        <v>940668827</v>
+        <v>4740280453</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2399514033</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>5498221693</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>3402334635</v>
       </c>
       <c r="Y13" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="G14">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="J14">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="K14">
-        <v>13612736</v>
+        <v>9877043</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20000</v>
+        <v>34700</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>26994234332</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>60121142197</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>53305665235</v>
       </c>
       <c r="S14">
-        <v>-15286512079</v>
+        <v>10162848799</v>
       </c>
       <c r="T14">
-        <v>-21424611321</v>
+        <v>20033029594</v>
       </c>
       <c r="U14">
-        <v>-139745251263</v>
+        <v>19806683734</v>
       </c>
       <c r="V14">
-        <v>-53575668634</v>
+        <v>7996520497</v>
       </c>
       <c r="W14">
-        <v>-38885125426</v>
+        <v>15559454518</v>
       </c>
       <c r="X14">
-        <v>-12610702106</v>
+        <v>15932218050</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="G15">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J15">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K15">
-        <v>10585320</v>
+        <v>13346380</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="P15">
-        <v>45195788</v>
+        <v>7668281979</v>
       </c>
       <c r="Q15">
-        <v>69629209</v>
+        <v>7100921456</v>
       </c>
       <c r="R15">
-        <v>35634471</v>
+        <v>1207846478</v>
       </c>
       <c r="S15">
-        <v>2751277</v>
+        <v>5659403971</v>
       </c>
       <c r="T15">
-        <v>11449731</v>
+        <v>6124121466</v>
       </c>
       <c r="U15">
-        <v>2482194</v>
+        <v>940668827</v>
       </c>
       <c r="V15">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F16">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K16">
-        <v>4320000</v>
+        <v>13612736</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2348,487 +2375,487 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>-15286512079</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>-21424611321</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>-139745251263</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>-53575668634</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-38885125426</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="G17">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J17">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K17">
-        <v>30610000</v>
+        <v>10585320</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P17">
-        <v>67332006578</v>
+        <v>45195788</v>
       </c>
       <c r="Q17">
-        <v>100050838794</v>
+        <v>69629209</v>
       </c>
       <c r="R17">
-        <v>63366010569</v>
+        <v>35634471</v>
       </c>
       <c r="S17">
-        <v>1140243099</v>
+        <v>2751277</v>
       </c>
       <c r="T17">
-        <v>8333440685</v>
+        <v>11449731</v>
       </c>
       <c r="U17">
-        <v>7415958936</v>
+        <v>2482194</v>
       </c>
       <c r="V17">
-        <v>668088159</v>
+        <v>2092692</v>
       </c>
       <c r="W17">
-        <v>5930478364</v>
+        <v>5149538</v>
       </c>
       <c r="X17">
-        <v>5666583221</v>
+        <v>2327401</v>
       </c>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F18">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="G18">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>20771000</v>
+        <v>4320000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P18">
-        <v>39450601</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>49044883</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>21826468</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2477559</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>8094900</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>215154</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>3427734</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>6575528</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>349843</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F19">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="G19">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="H19">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J19">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K19">
-        <v>14384224</v>
+        <v>30610000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P19">
-        <v>5787300240</v>
+        <v>67332006578</v>
       </c>
       <c r="Q19">
-        <v>1914633847</v>
+        <v>100050838794</v>
       </c>
       <c r="R19">
-        <v>3156092272</v>
+        <v>63366010569</v>
       </c>
       <c r="S19">
-        <v>-1798278694</v>
+        <v>1140243099</v>
       </c>
       <c r="T19">
-        <v>-1453689952</v>
+        <v>8333440685</v>
       </c>
       <c r="U19">
-        <v>-4067648306</v>
+        <v>7415958936</v>
       </c>
       <c r="V19">
-        <v>-12449932055</v>
+        <v>668088159</v>
       </c>
       <c r="W19">
-        <v>-7426231074</v>
+        <v>5930478364</v>
       </c>
       <c r="X19">
-        <v>-52132058866</v>
+        <v>5666583221</v>
       </c>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F20">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G20">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J20">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K20">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P20">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q20">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R20">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S20">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T20">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U20">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V20">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W20">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X20">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F21">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G21">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I21">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J21">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K21">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P21">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q21">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R21">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S21">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T21">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U21">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V21">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W21">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X21">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G22">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K22">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y22" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2836,188 +2863,188 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G23">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H23">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J23">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K23">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P23">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q23">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R23">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S23">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T23">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U23">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V23">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W23">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X23">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y23" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G24">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J24">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K24">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P24">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F25">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G25">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I25">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J25">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K25">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3026,271 +3053,425 @@
         <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="P25">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q25">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R25">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S25">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T25">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U25">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V25">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W25">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X25">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G26">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J26">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K26">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O26" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P26">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q26">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R26">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S26">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T26">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U26">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V26">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W26">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X26">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F27">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G27">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J27">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K27">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O27" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P27">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q27">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R27">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S27">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T27">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U27">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V27">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W27">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X27">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y27" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28">
+        <v>4000000</v>
+      </c>
+      <c r="G28">
+        <v>4000000</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>5000</v>
+      </c>
+      <c r="J28">
+        <v>5600</v>
+      </c>
+      <c r="K28">
+        <v>16120000</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>6500</v>
+      </c>
+      <c r="N28" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28">
+        <v>26691070764</v>
+      </c>
+      <c r="Q28">
+        <v>22835113396</v>
+      </c>
+      <c r="R28">
+        <v>7519073723</v>
+      </c>
+      <c r="S28">
+        <v>6041270235</v>
+      </c>
+      <c r="T28">
+        <v>6705120210</v>
+      </c>
+      <c r="U28">
+        <v>982044017</v>
+      </c>
+      <c r="V28">
+        <v>5119066139</v>
+      </c>
+      <c r="W28">
+        <v>5870093710</v>
+      </c>
+      <c r="X28">
+        <v>1198587470</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29">
+        <v>770000</v>
+      </c>
+      <c r="G29">
+        <v>770000</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>8200</v>
+      </c>
+      <c r="J29">
+        <v>9400</v>
+      </c>
+      <c r="K29">
+        <v>7674103</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>7000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29">
+        <v>8242508010</v>
+      </c>
+      <c r="Q29">
+        <v>10751900430</v>
+      </c>
+      <c r="R29">
+        <v>4416778965</v>
+      </c>
+      <c r="S29">
+        <v>426234451</v>
+      </c>
+      <c r="T29">
+        <v>2423749751</v>
+      </c>
+      <c r="U29">
+        <v>677048172</v>
+      </c>
+      <c r="V29">
+        <v>57890953</v>
+      </c>
+      <c r="W29">
+        <v>2826043673</v>
+      </c>
+      <c r="X29">
+        <v>990121873</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30">
         <v>2000000</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>2000000</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>22000</v>
       </c>
-      <c r="J28">
+      <c r="J30">
         <v>25000</v>
       </c>
-      <c r="K28">
+      <c r="K30">
         <v>9039778</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>26000</v>
       </c>
-      <c r="N28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28">
+      <c r="N30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30">
         <v>104225113285</v>
       </c>
-      <c r="Q28">
+      <c r="Q30">
         <v>106505634411</v>
       </c>
-      <c r="R28">
+      <c r="R30">
         <v>66424930568</v>
       </c>
-      <c r="S28">
+      <c r="S30">
         <v>6291020806</v>
       </c>
-      <c r="T28">
+      <c r="T30">
         <v>7893242769</v>
       </c>
-      <c r="U28">
+      <c r="U30">
         <v>7661497240</v>
       </c>
-      <c r="V28">
+      <c r="V30">
         <v>7319368873</v>
       </c>
-      <c r="W28">
+      <c r="W30">
         <v>9286891982</v>
       </c>
-      <c r="X28">
+      <c r="X30">
         <v>7334816490</v>
       </c>
-      <c r="Y28" t="s">
-        <v>178</v>
+      <c r="Y30" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3308,422 +3489,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>16000</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E4">
         <v>43535</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>19500</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E6">
         <v>14000</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>96380</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E8">
         <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E9">
         <v>21000</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E10">
         <v>64350</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E11">
         <v>20000</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E12">
         <v>7000</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E13">
         <v>14250</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E14">
         <v>16000</v>
       </c>
       <c r="F14" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E15">
         <v>13500</v>
       </c>
       <c r="F15" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E16">
         <v>14950</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E17">
         <v>29547</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E18">
         <v>18040</v>
       </c>
       <c r="F18" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E19">
         <v>22100</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E20">
         <v>59251</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E21">
         <v>60654</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="263">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
   <si>
     <t>19000</t>
@@ -3524,7 +3527,7 @@
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3544,7 +3547,7 @@
         <v>16000</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3564,7 +3567,7 @@
         <v>43535</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3584,7 +3587,7 @@
         <v>19500</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3598,13 +3601,13 @@
         <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="E6">
         <v>14000</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3618,13 +3621,13 @@
         <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="E7">
         <v>96380</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3644,7 +3647,7 @@
         <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3658,13 +3661,13 @@
         <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E9">
         <v>21000</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3678,13 +3681,13 @@
         <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E10">
         <v>64350</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3704,7 +3707,7 @@
         <v>20000</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3724,7 +3727,7 @@
         <v>7000</v>
       </c>
       <c r="F12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3738,13 +3741,13 @@
         <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E13">
         <v>14250</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3764,7 +3767,7 @@
         <v>16000</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3778,13 +3781,13 @@
         <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E15">
         <v>13500</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3798,13 +3801,13 @@
         <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E16">
         <v>14950</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3818,13 +3821,13 @@
         <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E17">
         <v>29547</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3838,13 +3841,13 @@
         <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E18">
         <v>18040</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3858,13 +3861,13 @@
         <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E19">
         <v>22100</v>
       </c>
       <c r="F19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3878,13 +3881,13 @@
         <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E20">
         <v>59251</v>
       </c>
       <c r="F20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3898,13 +3901,13 @@
         <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E21">
         <v>60654</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="261">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -608,6 +608,9 @@
     <t>이닉스(구.이닉스정호)</t>
   </si>
   <si>
+    <t>대신밸런스스팩17호</t>
+  </si>
+  <si>
     <t>에이치비인베스트먼트</t>
   </si>
   <si>
@@ -617,6 +620,9 @@
     <t>포스뱅크</t>
   </si>
   <si>
+    <t>스튜디오삼익</t>
+  </si>
+  <si>
     <t>하나스팩30호</t>
   </si>
   <si>
@@ -632,12 +638,12 @@
     <t>NH스팩30호</t>
   </si>
   <si>
-    <t>동인기연(유가)</t>
-  </si>
-  <si>
     <t>2024.01.11~01.17</t>
   </si>
   <si>
+    <t>2024.01.09~01.10</t>
+  </si>
+  <si>
     <t>2024.01.08~01.12</t>
   </si>
   <si>
@@ -680,12 +686,12 @@
     <t>2023.11.02~11.08</t>
   </si>
   <si>
-    <t>2023.11.01~11.07</t>
-  </si>
-  <si>
     <t>9,200~11,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>2,400~2,800</t>
   </si>
   <si>
@@ -695,7 +701,7 @@
     <t>13,000~15,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
+    <t>14,500~16,500</t>
   </si>
   <si>
     <t>79,000~89,000</t>
@@ -725,12 +731,6 @@
     <t>5,200~6,000</t>
   </si>
   <si>
-    <t>28,500~34,700</t>
-  </si>
-  <si>
-    <t>33,000~37,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -761,15 +761,12 @@
     <t>7000</t>
   </si>
   <si>
-    <t>34700</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>대신증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
     <t>하나증권</t>
   </si>
   <si>
+    <t>DB금융투자</t>
+  </si>
+  <si>
     <t>KB증권,NH투자증권</t>
   </si>
   <si>
@@ -798,12 +798,6 @@
   </si>
   <si>
     <t>유안타증권</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>KB증권</t>
   </si>
 </sst>
 </file>
@@ -3515,10 +3509,10 @@
         <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
         <v>143</v>
@@ -3527,7 +3521,7 @@
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3535,19 +3529,19 @@
         <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
         <v>143</v>
       </c>
       <c r="E3">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3555,19 +3549,19 @@
         <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
         <v>143</v>
       </c>
       <c r="E4">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3575,19 +3569,19 @@
         <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
         <v>143</v>
       </c>
       <c r="E5">
-        <v>19500</v>
+        <v>43535</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3595,19 +3589,19 @@
         <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="E6">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3618,16 +3612,16 @@
         <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="E7">
-        <v>96380</v>
+        <v>12325</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3638,181 +3632,181 @@
         <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
         <v>238</v>
       </c>
       <c r="E8">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9">
-        <v>21000</v>
+        <v>96380</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E10">
-        <v>64350</v>
+        <v>8000</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E11">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E12">
-        <v>7000</v>
+        <v>64350</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E13">
-        <v>14250</v>
+        <v>20000</v>
       </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
         <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
         <v>238</v>
       </c>
       <c r="E14">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="F14" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E15">
-        <v>13500</v>
+        <v>14250</v>
       </c>
       <c r="F15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
         <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E16">
-        <v>14950</v>
+        <v>16000</v>
       </c>
       <c r="F16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
         <v>218</v>
@@ -3821,18 +3815,18 @@
         <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E17">
-        <v>29547</v>
+        <v>13500</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>219</v>
@@ -3841,18 +3835,18 @@
         <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E18">
-        <v>18040</v>
+        <v>14950</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>220</v>
@@ -3861,18 +3855,18 @@
         <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E19">
-        <v>22100</v>
+        <v>29547</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>221</v>
@@ -3881,33 +3875,33 @@
         <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E20">
-        <v>59251</v>
+        <v>18040</v>
       </c>
       <c r="F20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
         <v>237</v>
       </c>
       <c r="D21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21">
+        <v>22100</v>
+      </c>
+      <c r="F21" t="s">
         <v>249</v>
-      </c>
-      <c r="E21">
-        <v>60654</v>
-      </c>
-      <c r="F21" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="256">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -158,33 +158,30 @@
     <t>2023-09-18</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>에스엘에스바이오</t>
   </si>
   <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
     <t>396.84</t>
   </si>
   <si>
@@ -428,9 +422,6 @@
     <t>235.14:1</t>
   </si>
   <si>
-    <t>583.50:1</t>
-  </si>
-  <si>
     <t>12.02%</t>
   </si>
   <si>
@@ -506,9 +497,6 @@
     <t>16.63%</t>
   </si>
   <si>
-    <t>13.57%</t>
-  </si>
-  <si>
     <t>울트라커패시터(셀 및 모듈)</t>
   </si>
   <si>
@@ -584,9 +572,6 @@
     <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
   <si>
-    <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -617,6 +602,9 @@
     <t>현대힘스</t>
   </si>
   <si>
+    <t>우진엔텍</t>
+  </si>
+  <si>
     <t>포스뱅크</t>
   </si>
   <si>
@@ -683,9 +671,6 @@
     <t>2023.11.03~11.09</t>
   </si>
   <si>
-    <t>2023.11.02~11.08</t>
-  </si>
-  <si>
     <t>9,200~11,000</t>
   </si>
   <si>
@@ -698,6 +683,9 @@
     <t>5,000~6,300</t>
   </si>
   <si>
+    <t>4,300~4,900</t>
+  </si>
+  <si>
     <t>13,000~15,000</t>
   </si>
   <si>
@@ -728,9 +716,6 @@
     <t>11,000~14,000</t>
   </si>
   <si>
-    <t>5,200~6,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -758,9 +743,6 @@
     <t>17000</t>
   </si>
   <si>
-    <t>7000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -771,6 +753,9 @@
   </si>
   <si>
     <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>케이비증권</t>
   </si>
   <si>
     <t>하나증권</t>
@@ -1155,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,16 +1228,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>14625000</v>
@@ -1279,10 +1264,10 @@
         <v>6000</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1312,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1320,16 +1305,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>1400000</v>
@@ -1356,10 +1341,10 @@
         <v>19000</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P3">
         <v>49637696375</v>
@@ -1389,7 +1374,7 @@
         <v>286239267</v>
       </c>
       <c r="Y3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1397,16 +1382,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>3500000</v>
@@ -1433,10 +1418,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1466,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1477,13 +1462,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <v>750000</v>
@@ -1510,10 +1495,10 @@
         <v>23000</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P5">
         <v>28564316</v>
@@ -1543,7 +1528,7 @@
         <v>2876182</v>
       </c>
       <c r="Y5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1554,13 +1539,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1587,10 +1572,10 @@
         <v>9000</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1620,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1628,16 +1613,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <v>10000000</v>
@@ -1664,10 +1649,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1697,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1708,13 +1693,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <v>650000</v>
@@ -1741,10 +1726,10 @@
         <v>18000</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P8">
         <v>55809022</v>
@@ -1774,7 +1759,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1785,13 +1770,13 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9">
         <v>8000000</v>
@@ -1818,10 +1803,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1851,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1859,16 +1844,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10">
         <v>1407000</v>
@@ -1895,10 +1880,10 @@
         <v>28000</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1928,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1939,13 +1924,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11">
         <v>1640000</v>
@@ -1972,10 +1957,10 @@
         <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P11">
         <v>13660</v>
@@ -2005,7 +1990,7 @@
         <v>1666</v>
       </c>
       <c r="Y11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2013,16 +1998,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>3350000</v>
@@ -2049,10 +2034,10 @@
         <v>11000</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P12">
         <v>47984</v>
@@ -2082,7 +2067,7 @@
         <v>5612</v>
       </c>
       <c r="Y12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2090,16 +2075,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>4250000</v>
@@ -2126,10 +2111,10 @@
         <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13">
         <v>27199897007</v>
@@ -2159,7 +2144,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2170,13 +2155,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>2079000</v>
@@ -2203,10 +2188,10 @@
         <v>34700</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P14">
         <v>26994234332</v>
@@ -2236,7 +2221,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2250,10 +2235,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>1596000</v>
@@ -2280,10 +2265,10 @@
         <v>4000</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P15">
         <v>7668281979</v>
@@ -2313,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2327,10 +2312,10 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>1600000</v>
@@ -2357,10 +2342,10 @@
         <v>20000</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2390,7 +2375,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2398,16 +2383,16 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <v>2636330</v>
@@ -2434,10 +2419,10 @@
         <v>25000</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P17">
         <v>45195788</v>
@@ -2467,7 +2452,7 @@
         <v>2327401</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2478,13 +2463,13 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18">
         <v>4000000</v>
@@ -2511,10 +2496,10 @@
         <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2544,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2552,16 +2537,16 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19">
         <v>7000000</v>
@@ -2588,10 +2573,10 @@
         <v>1800</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P19">
         <v>67332006578</v>
@@ -2621,7 +2606,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2635,10 +2620,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>5200000</v>
@@ -2665,10 +2650,10 @@
         <v>4800</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P20">
         <v>39450601</v>
@@ -2698,7 +2683,7 @@
         <v>349843</v>
       </c>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2712,10 +2697,10 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <v>2060000</v>
@@ -2742,10 +2727,10 @@
         <v>22500</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P21">
         <v>5787300240</v>
@@ -2775,7 +2760,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2789,10 +2774,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <v>1200000</v>
@@ -2819,10 +2804,10 @@
         <v>13000</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22">
         <v>20924</v>
@@ -2852,7 +2837,7 @@
         <v>-862</v>
       </c>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2866,10 +2851,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>3600000</v>
@@ -2896,10 +2881,10 @@
         <v>7500</v>
       </c>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P23">
         <v>21976760922</v>
@@ -2929,7 +2914,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2943,10 +2928,10 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24">
         <v>12500000</v>
@@ -2973,10 +2958,10 @@
         <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3006,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3020,10 +3005,10 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>1049482</v>
@@ -3050,10 +3035,10 @@
         <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P25">
         <v>34557425427</v>
@@ -3083,7 +3068,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3097,10 +3082,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26">
         <v>1128720</v>
@@ -3127,10 +3112,10 @@
         <v>4400</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P26">
         <v>50552623684</v>
@@ -3160,7 +3145,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3168,16 +3153,16 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27">
         <v>1800000</v>
@@ -3204,10 +3189,10 @@
         <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P27">
         <v>3952070068</v>
@@ -3237,7 +3222,7 @@
         <v>-2539505707</v>
       </c>
       <c r="Y27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3251,10 +3236,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28">
         <v>4000000</v>
@@ -3281,10 +3266,10 @@
         <v>6500</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P28">
         <v>26691070764</v>
@@ -3314,7 +3299,7 @@
         <v>1198587470</v>
       </c>
       <c r="Y28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3322,16 +3307,16 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>770000</v>
@@ -3358,10 +3343,10 @@
         <v>7000</v>
       </c>
       <c r="N29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P29">
         <v>8242508010</v>
@@ -3391,84 +3376,7 @@
         <v>990121873</v>
       </c>
       <c r="Y29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30">
-        <v>2000000</v>
-      </c>
-      <c r="G30">
-        <v>2000000</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>22000</v>
-      </c>
-      <c r="J30">
-        <v>25000</v>
-      </c>
-      <c r="K30">
-        <v>9039778</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>26000</v>
-      </c>
-      <c r="N30" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" t="s">
-        <v>163</v>
-      </c>
-      <c r="P30">
-        <v>104225113285</v>
-      </c>
-      <c r="Q30">
-        <v>106505634411</v>
-      </c>
-      <c r="R30">
-        <v>66424930568</v>
-      </c>
-      <c r="S30">
-        <v>6291020806</v>
-      </c>
-      <c r="T30">
-        <v>7893242769</v>
-      </c>
-      <c r="U30">
-        <v>7661497240</v>
-      </c>
-      <c r="V30">
-        <v>7319368873</v>
-      </c>
-      <c r="W30">
-        <v>9286891982</v>
-      </c>
-      <c r="X30">
-        <v>7334816490</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3486,222 +3394,222 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E2">
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E3">
         <v>11000</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>16000</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>43535</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E7">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
         <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="E8">
-        <v>14000</v>
+        <v>12325</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E9">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E10">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E11">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3709,199 +3617,199 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E12">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E14">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E15">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" t="s">
         <v>233</v>
       </c>
-      <c r="D17" t="s">
-        <v>243</v>
-      </c>
       <c r="E17">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E18">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E19">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E20">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E21">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="250">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -155,9 +155,6 @@
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>워트</t>
   </si>
   <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
     <t>396.84</t>
   </si>
   <si>
@@ -419,9 +410,6 @@
     <t>793.26:1</t>
   </si>
   <si>
-    <t>235.14:1</t>
-  </si>
-  <si>
     <t>12.02%</t>
   </si>
   <si>
@@ -494,9 +482,6 @@
     <t>10.06%</t>
   </si>
   <si>
-    <t>16.63%</t>
-  </si>
-  <si>
     <t>울트라커패시터(셀 및 모듈)</t>
   </si>
   <si>
@@ -567,9 +552,6 @@
   </si>
   <si>
     <t>초정밀 온습도 제어장비</t>
-  </si>
-  <si>
-    <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
   <si>
     <t>종목명</t>
@@ -1140,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,16 +1210,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>14625000</v>
@@ -1264,10 +1246,10 @@
         <v>6000</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1297,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1305,16 +1287,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>1400000</v>
@@ -1341,10 +1323,10 @@
         <v>19000</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P3">
         <v>49637696375</v>
@@ -1374,7 +1356,7 @@
         <v>286239267</v>
       </c>
       <c r="Y3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1382,16 +1364,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>3500000</v>
@@ -1418,10 +1400,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1451,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1462,13 +1444,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>750000</v>
@@ -1495,10 +1477,10 @@
         <v>23000</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P5">
         <v>28564316</v>
@@ -1528,7 +1510,7 @@
         <v>2876182</v>
       </c>
       <c r="Y5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1539,13 +1521,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1572,10 +1554,10 @@
         <v>9000</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1605,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1613,16 +1595,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>10000000</v>
@@ -1649,10 +1631,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1682,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1693,13 +1675,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>650000</v>
@@ -1726,10 +1708,10 @@
         <v>18000</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P8">
         <v>55809022</v>
@@ -1759,7 +1741,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1770,13 +1752,13 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>8000000</v>
@@ -1803,10 +1785,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1836,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1844,16 +1826,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>1407000</v>
@@ -1880,10 +1862,10 @@
         <v>28000</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1913,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1924,13 +1906,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>1640000</v>
@@ -1957,10 +1939,10 @@
         <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P11">
         <v>13660</v>
@@ -1990,7 +1972,7 @@
         <v>1666</v>
       </c>
       <c r="Y11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1998,16 +1980,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>3350000</v>
@@ -2034,10 +2016,10 @@
         <v>11000</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P12">
         <v>47984</v>
@@ -2067,7 +2049,7 @@
         <v>5612</v>
       </c>
       <c r="Y12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2075,16 +2057,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>4250000</v>
@@ -2111,10 +2093,10 @@
         <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P13">
         <v>27199897007</v>
@@ -2144,7 +2126,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2155,13 +2137,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>2079000</v>
@@ -2188,10 +2170,10 @@
         <v>34700</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P14">
         <v>26994234332</v>
@@ -2221,7 +2203,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2235,10 +2217,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <v>1596000</v>
@@ -2265,10 +2247,10 @@
         <v>4000</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P15">
         <v>7668281979</v>
@@ -2298,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2312,10 +2294,10 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>1600000</v>
@@ -2342,10 +2324,10 @@
         <v>20000</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2375,7 +2357,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2383,16 +2365,16 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>2636330</v>
@@ -2419,10 +2401,10 @@
         <v>25000</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P17">
         <v>45195788</v>
@@ -2452,7 +2434,7 @@
         <v>2327401</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2463,13 +2445,13 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>4000000</v>
@@ -2496,10 +2478,10 @@
         <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2529,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2537,16 +2519,16 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>7000000</v>
@@ -2573,10 +2555,10 @@
         <v>1800</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P19">
         <v>67332006578</v>
@@ -2606,7 +2588,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2620,10 +2602,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>5200000</v>
@@ -2650,10 +2632,10 @@
         <v>4800</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P20">
         <v>39450601</v>
@@ -2683,7 +2665,7 @@
         <v>349843</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2697,10 +2679,10 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>2060000</v>
@@ -2727,10 +2709,10 @@
         <v>22500</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P21">
         <v>5787300240</v>
@@ -2760,7 +2742,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2774,10 +2756,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>1200000</v>
@@ -2804,10 +2786,10 @@
         <v>13000</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P22">
         <v>20924</v>
@@ -2837,7 +2819,7 @@
         <v>-862</v>
       </c>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2851,10 +2833,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>3600000</v>
@@ -2881,10 +2863,10 @@
         <v>7500</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P23">
         <v>21976760922</v>
@@ -2914,7 +2896,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2928,10 +2910,10 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F24">
         <v>12500000</v>
@@ -2958,10 +2940,10 @@
         <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2991,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3005,10 +2987,10 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>1049482</v>
@@ -3035,10 +3017,10 @@
         <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P25">
         <v>34557425427</v>
@@ -3068,7 +3050,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3082,10 +3064,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>1128720</v>
@@ -3112,10 +3094,10 @@
         <v>4400</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P26">
         <v>50552623684</v>
@@ -3145,7 +3127,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3153,16 +3135,16 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>1800000</v>
@@ -3189,10 +3171,10 @@
         <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P27">
         <v>3952070068</v>
@@ -3222,7 +3204,7 @@
         <v>-2539505707</v>
       </c>
       <c r="Y27" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3236,10 +3218,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F28">
         <v>4000000</v>
@@ -3266,10 +3248,10 @@
         <v>6500</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P28">
         <v>26691070764</v>
@@ -3299,84 +3281,7 @@
         <v>1198587470</v>
       </c>
       <c r="Y28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29">
-        <v>770000</v>
-      </c>
-      <c r="G29">
-        <v>770000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>8200</v>
-      </c>
-      <c r="J29">
-        <v>9400</v>
-      </c>
-      <c r="K29">
-        <v>7674103</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>7000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" t="s">
-        <v>159</v>
-      </c>
-      <c r="P29">
-        <v>8242508010</v>
-      </c>
-      <c r="Q29">
-        <v>10751900430</v>
-      </c>
-      <c r="R29">
-        <v>4416778965</v>
-      </c>
-      <c r="S29">
-        <v>426234451</v>
-      </c>
-      <c r="T29">
-        <v>2423749751</v>
-      </c>
-      <c r="U29">
-        <v>677048172</v>
-      </c>
-      <c r="V29">
-        <v>57890953</v>
-      </c>
-      <c r="W29">
-        <v>2826043673</v>
-      </c>
-      <c r="X29">
-        <v>990121873</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3394,422 +3299,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E2">
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E3">
         <v>11000</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>16000</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>43535</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>8858</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>19500</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>12325</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E9">
         <v>14000</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E10">
         <v>96380</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E11">
         <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E12">
         <v>21000</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E13">
         <v>64350</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E14">
         <v>20000</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E15">
         <v>7000</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E16">
         <v>14250</v>
       </c>
       <c r="F16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
         <v>213</v>
       </c>
-      <c r="C17" t="s">
-        <v>219</v>
-      </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E17">
         <v>16000</v>
       </c>
       <c r="F17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E18">
         <v>13500</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E19">
         <v>14950</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E20">
         <v>29547</v>
       </c>
       <c r="F20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E21">
         <v>18040</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="254">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
     <t>2023-10-05</t>
   </si>
   <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -176,7 +182,7 @@
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-12-12</t>
+    <t>2023-12-22</t>
   </si>
   <si>
     <t>2023-12-13</t>
@@ -200,12 +206,12 @@
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>키움, KB</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>교보</t>
   </si>
   <si>
@@ -248,6 +254,9 @@
     <t>키움</t>
   </si>
   <si>
+    <t>하나30호스팩</t>
+  </si>
+  <si>
     <t>LS머트리얼즈</t>
   </si>
   <si>
@@ -329,6 +338,9 @@
     <t>워트</t>
   </si>
   <si>
+    <t>708.35:1</t>
+  </si>
+  <si>
     <t>396.84</t>
   </si>
   <si>
@@ -410,6 +422,9 @@
     <t>793.26:1</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>12.02%</t>
   </si>
   <si>
@@ -425,9 +440,6 @@
     <t>14.47%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0.43%</t>
   </si>
   <si>
@@ -482,13 +494,13 @@
     <t>10.06%</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
     <t>울트라커패시터(셀 및 모듈)</t>
   </si>
   <si>
     <t>의약품 유통업</t>
-  </si>
-  <si>
-    <t>기업인수합병</t>
   </si>
   <si>
     <t>이차전지 자동화 설비</t>
@@ -1122,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,46 +1222,46 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>14625000</v>
+        <v>7000000</v>
       </c>
       <c r="G2">
-        <v>8775000</v>
+        <v>7000000</v>
       </c>
       <c r="H2">
-        <v>5850000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>67652659</v>
+        <v>7305000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1279,84 +1291,84 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>1400000</v>
+        <v>14625000</v>
       </c>
       <c r="G3">
-        <v>1400000</v>
+        <v>8775000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5850000</v>
       </c>
       <c r="I3">
-        <v>15000</v>
+        <v>4400</v>
       </c>
       <c r="J3">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="K3">
-        <v>10650189</v>
+        <v>67652659</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P3">
-        <v>49637696375</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77146751918</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>41854695636</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-2726643993</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>890609048</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>176442923</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-7688787420</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-14330655532</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>286239267</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1364,76 +1376,76 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="G4">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="K4">
-        <v>3810000</v>
+        <v>10650189</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>49637696375</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>77146751918</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>41854695636</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2726643993</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>890609048</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>176442923</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-7688787420</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-14330655532</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>286239267</v>
       </c>
       <c r="Y4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1441,76 +1453,76 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="G5">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>3883557</v>
+        <v>3810000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P5">
-        <v>28564316</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>34734790</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>19566070</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4032783</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6075261</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3863017</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3909264</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>4830718</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2876182</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1518,123 +1530,123 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K6">
-        <v>13866898</v>
+        <v>3883557</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>28564316</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>34734790</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>19566070</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>4032783</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>6075261</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>3863017</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3909264</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>4830718</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2876182</v>
       </c>
       <c r="Y6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="G7">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K7">
-        <v>11050000</v>
+        <v>13866898</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1664,84 +1676,84 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="G8">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>5345180</v>
+        <v>11050000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P8">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1749,76 +1761,76 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="G9">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K9">
-        <v>9100000</v>
+        <v>5345180</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1826,46 +1838,46 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="G10">
-        <v>844000</v>
+        <v>8000000</v>
       </c>
       <c r="H10">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>5657215</v>
+        <v>9100000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1895,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1903,76 +1915,76 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G11">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I11">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J11">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K11">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P11">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1980,76 +1992,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G12">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J12">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K12">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P12">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q12">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R12">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S12">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T12">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U12">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V12">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W12">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X12">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2057,76 +2069,76 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G13">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J13">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K13">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P13">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q13">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R13">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S13">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T13">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U13">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V13">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W13">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X13">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2134,76 +2146,76 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G14">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J14">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K14">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P14">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q14">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R14">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S14">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T14">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U14">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V14">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W14">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X14">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2211,76 +2223,76 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G15">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J15">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K15">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P15">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q15">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R15">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S15">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T15">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U15">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2291,73 +2303,73 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G16">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J16">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K16">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S16">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T16">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U16">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V16">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2365,76 +2377,76 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G17">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J17">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K17">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P17">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T17">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U17">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V17">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W17">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X17">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2442,384 +2454,384 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G18">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K18">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G19">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="P19">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G20">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J20">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K20">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q20">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R20">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S20">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T20">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U20">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V20">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W20">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X20">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G21">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H21">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J21">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K21">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P21">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q21">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R21">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S21">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T21">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U21">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V21">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W21">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X21">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G22">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I22">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J22">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K22">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P22">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q22">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R22">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S22">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T22">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U22">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V22">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W22">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X22">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2827,230 +2839,230 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G23">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K23">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P23">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q23">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R23">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S23">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T23">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U23">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V23">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W23">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X23">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G24">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K24">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y24" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G25">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H25">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J25">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K25">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="P25">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3058,76 +3070,76 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G26">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I26">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J26">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K26">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P26">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q26">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R26">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S26">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T26">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U26">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V26">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W26">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X26">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3135,76 +3147,76 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G27">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J27">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K27">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P27">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q27">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R27">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S27">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T27">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U27">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V27">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W27">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X27">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3212,76 +3224,153 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28">
+        <v>1800000</v>
+      </c>
+      <c r="G28">
+        <v>1800000</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>13000</v>
+      </c>
+      <c r="J28">
+        <v>15000</v>
+      </c>
+      <c r="K28">
+        <v>10193520</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>17000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>133</v>
+      </c>
+      <c r="O28" t="s">
+        <v>157</v>
+      </c>
+      <c r="P28">
+        <v>3952070068</v>
+      </c>
+      <c r="Q28">
+        <v>10789274729</v>
+      </c>
+      <c r="R28">
+        <v>6040367765</v>
+      </c>
+      <c r="S28">
+        <v>-4741577598</v>
+      </c>
+      <c r="T28">
+        <v>-3671026788</v>
+      </c>
+      <c r="U28">
+        <v>-3292521363</v>
+      </c>
+      <c r="V28">
+        <v>-3654889267</v>
+      </c>
+      <c r="W28">
+        <v>-2281074471</v>
+      </c>
+      <c r="X28">
+        <v>-2539505707</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29">
         <v>4000000</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>4000000</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>5000</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>5600</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>16120000</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>6500</v>
       </c>
-      <c r="N28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28">
+      <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>158</v>
+      </c>
+      <c r="P29">
         <v>26691070764</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>22835113396</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>7519073723</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>6041270235</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>6705120210</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>982044017</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <v>5119066139</v>
       </c>
-      <c r="W28">
+      <c r="W29">
         <v>5870093710</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <v>1198587470</v>
       </c>
-      <c r="Y28" t="s">
-        <v>178</v>
+      <c r="Y29" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3299,422 +3388,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2">
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>11000</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>16000</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>43535</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6">
         <v>8858</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>19500</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>12325</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E9">
         <v>14000</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E10">
         <v>96380</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E11">
         <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E12">
         <v>21000</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E13">
         <v>64350</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E14">
         <v>20000</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E15">
         <v>7000</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E16">
         <v>14250</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E17">
         <v>16000</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E18">
         <v>13500</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E19">
         <v>14950</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E20">
         <v>29547</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E21">
         <v>18040</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="258">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -95,6 +95,9 @@
     <t>2023-12-08</t>
   </si>
   <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
     <t>하나</t>
   </si>
   <si>
+    <t>IBK</t>
+  </si>
+  <si>
     <t>키움, KB</t>
   </si>
   <si>
@@ -245,9 +251,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>IBK</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -257,6 +260,9 @@
     <t>하나30호스팩</t>
   </si>
   <si>
+    <t>IBKS제23호스팩</t>
+  </si>
+  <si>
     <t>LS머트리얼즈</t>
   </si>
   <si>
@@ -341,6 +347,9 @@
     <t>708.35:1</t>
   </si>
   <si>
+    <t>855.86</t>
+  </si>
+  <si>
     <t>396.84</t>
   </si>
   <si>
@@ -497,6 +506,9 @@
     <t>기업인수합병</t>
   </si>
   <si>
+    <t>기업인수 및 합병</t>
+  </si>
+  <si>
     <t>울트라커패시터(셀 및 모듈)</t>
   </si>
   <si>
@@ -584,6 +596,12 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>케이웨더</t>
+  </si>
+  <si>
+    <t>코셈</t>
+  </si>
+  <si>
     <t>이닉스(구.이닉스정호)</t>
   </si>
   <si>
@@ -620,6 +638,9 @@
     <t>NH스팩30호</t>
   </si>
   <si>
+    <t>2024.01.12~01.18</t>
+  </si>
+  <si>
     <t>2024.01.11~01.17</t>
   </si>
   <si>
@@ -659,10 +680,10 @@
     <t>2023.11.09~11.15</t>
   </si>
   <si>
-    <t>2023.11.07~11.13</t>
-  </si>
-  <si>
-    <t>2023.11.03~11.09</t>
+    <t>4,800~5,800</t>
+  </si>
+  <si>
+    <t>12,000~14,000</t>
   </si>
   <si>
     <t>9,200~11,000</t>
@@ -704,12 +725,6 @@
     <t>23,000~30,000</t>
   </si>
   <si>
-    <t>21,000~25,000</t>
-  </si>
-  <si>
-    <t>11,000~14,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -731,19 +746,16 @@
     <t>18000</t>
   </si>
   <si>
-    <t>28000</t>
-  </si>
-  <si>
-    <t>17000</t>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>키움증권</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
     <t>대신증권</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
@@ -1134,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,16 +1234,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -1258,10 +1270,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1291,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1299,46 +1311,46 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>14625000</v>
+        <v>4000000</v>
       </c>
       <c r="G3">
-        <v>8775000</v>
+        <v>4000000</v>
       </c>
       <c r="H3">
-        <v>5850000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>67652659</v>
+        <v>4230000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1368,84 +1380,84 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>1400000</v>
+        <v>14625000</v>
       </c>
       <c r="G4">
-        <v>1400000</v>
+        <v>8775000</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5850000</v>
       </c>
       <c r="I4">
-        <v>15000</v>
+        <v>4400</v>
       </c>
       <c r="J4">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="K4">
-        <v>10650189</v>
+        <v>67652659</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P4">
-        <v>49637696375</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77146751918</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>41854695636</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-2726643993</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>890609048</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>176442923</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-7688787420</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-14330655532</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>286239267</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1459,70 +1471,70 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="G5">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="K5">
-        <v>3810000</v>
+        <v>10650189</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>49637696375</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>77146751918</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>41854695636</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-2726643993</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>890609048</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>176442923</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-7688787420</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-14330655532</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1530,73 +1542,73 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="G6">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>3883557</v>
+        <v>3810000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P6">
-        <v>28564316</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>34734790</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>19566070</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>4032783</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6075261</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3863017</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>3909264</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>4830718</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2876182</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
         <v>162</v>
@@ -1607,123 +1619,123 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="J7">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K7">
-        <v>13866898</v>
+        <v>3883557</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>28564316</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>34734790</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>19566070</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>4032783</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>6075261</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>3863017</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3909264</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>4830718</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="G8">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K8">
-        <v>11050000</v>
+        <v>13866898</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1753,84 +1765,84 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="G9">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>5345180</v>
+        <v>11050000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P9">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1838,76 +1850,76 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="G10">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K10">
-        <v>9100000</v>
+        <v>5345180</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1915,46 +1927,46 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="G11">
-        <v>844000</v>
+        <v>8000000</v>
       </c>
       <c r="H11">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>5657215</v>
+        <v>9100000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1984,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1992,76 +2004,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G12">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I12">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J12">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K12">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P12">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2069,76 +2081,76 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G13">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J13">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K13">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P13">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q13">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R13">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S13">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T13">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U13">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V13">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W13">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X13">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2149,73 +2161,73 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G14">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J14">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K14">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q14">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R14">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S14">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T14">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U14">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V14">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W14">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X14">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2223,76 +2235,76 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G15">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J15">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K15">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P15">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q15">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R15">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S15">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T15">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U15">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V15">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W15">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X15">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2300,76 +2312,76 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G16">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J16">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K16">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P16">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q16">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R16">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S16">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T16">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U16">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2380,73 +2392,73 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G17">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J17">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K17">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S17">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T17">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U17">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V17">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2454,76 +2466,76 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G18">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J18">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K18">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P18">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T18">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U18">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V18">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W18">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X18">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2531,384 +2543,384 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K19">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G20">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K20">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="P20">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G21">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J21">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K21">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P21">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q21">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R21">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S21">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T21">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U21">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V21">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W21">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X21">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G22">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H22">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J22">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K22">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q22">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R22">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S22">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T22">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U22">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V22">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W22">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X22">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G23">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I23">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J23">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K23">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P23">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q23">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R23">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S23">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T23">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U23">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V23">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W23">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X23">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2916,230 +2928,230 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G24">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K24">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q24">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R24">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S24">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T24">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U24">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V24">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W24">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X24">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G25">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K25">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y25" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G26">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H26">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J26">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K26">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O26" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="P26">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3147,76 +3159,76 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G27">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I27">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J27">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K27">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P27">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q27">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R27">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S27">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T27">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U27">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V27">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W27">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X27">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3224,76 +3236,76 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G28">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J28">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K28">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P28">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q28">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R28">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S28">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T28">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U28">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V28">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W28">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X28">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3301,76 +3313,153 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29">
+        <v>1800000</v>
+      </c>
+      <c r="G29">
+        <v>1800000</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>13000</v>
+      </c>
+      <c r="J29">
+        <v>15000</v>
+      </c>
+      <c r="K29">
+        <v>10193520</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>17000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29">
+        <v>3952070068</v>
+      </c>
+      <c r="Q29">
+        <v>10789274729</v>
+      </c>
+      <c r="R29">
+        <v>6040367765</v>
+      </c>
+      <c r="S29">
+        <v>-4741577598</v>
+      </c>
+      <c r="T29">
+        <v>-3671026788</v>
+      </c>
+      <c r="U29">
+        <v>-3292521363</v>
+      </c>
+      <c r="V29">
+        <v>-3654889267</v>
+      </c>
+      <c r="W29">
+        <v>-2281074471</v>
+      </c>
+      <c r="X29">
+        <v>-2539505707</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30">
         <v>4000000</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>4000000</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>5000</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>5600</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>16120000</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>6500</v>
       </c>
-      <c r="N29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" t="s">
-        <v>158</v>
-      </c>
-      <c r="P29">
+      <c r="N30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30">
         <v>26691070764</v>
       </c>
-      <c r="Q29">
+      <c r="Q30">
         <v>22835113396</v>
       </c>
-      <c r="R29">
+      <c r="R30">
         <v>7519073723</v>
       </c>
-      <c r="S29">
+      <c r="S30">
         <v>6041270235</v>
       </c>
-      <c r="T29">
+      <c r="T30">
         <v>6705120210</v>
       </c>
-      <c r="U29">
+      <c r="U30">
         <v>982044017</v>
       </c>
-      <c r="V29">
+      <c r="V30">
         <v>5119066139</v>
       </c>
-      <c r="W29">
+      <c r="W30">
         <v>5870093710</v>
       </c>
-      <c r="X29">
+      <c r="X30">
         <v>1198587470</v>
       </c>
-      <c r="Y29" t="s">
-        <v>182</v>
+      <c r="Y30" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3388,422 +3477,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E2">
-        <v>27600</v>
+        <v>4800</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E3">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E4">
-        <v>16000</v>
+        <v>27600</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E5">
-        <v>43535</v>
+        <v>11000</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E6">
-        <v>8858</v>
+        <v>16000</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E7">
-        <v>19500</v>
+        <v>43535</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E8">
-        <v>12325</v>
+        <v>8858</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>138</v>
       </c>
       <c r="E9">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="E10">
-        <v>96380</v>
+        <v>12325</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E11">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E12">
-        <v>21000</v>
+        <v>96380</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E13">
-        <v>64350</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E14">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E15">
-        <v>7000</v>
+        <v>64350</v>
       </c>
       <c r="F15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E16">
-        <v>14250</v>
+        <v>20000</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E17">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E18">
-        <v>13500</v>
+        <v>14250</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19">
-        <v>14950</v>
+        <v>16000</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E20">
-        <v>29547</v>
+        <v>13500</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E21">
-        <v>18040</v>
+        <v>14950</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="247">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -155,12 +155,6 @@
     <t>2023-10-18</t>
   </si>
   <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
     <t>2023-12-22</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
     <t>신한</t>
   </si>
   <si>
-    <t>키움</t>
-  </si>
-  <si>
     <t>하나30호스팩</t>
   </si>
   <si>
@@ -338,12 +326,6 @@
     <t>유투바이오</t>
   </si>
   <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
-    <t>워트</t>
-  </si>
-  <si>
     <t>708.35:1</t>
   </si>
   <si>
@@ -425,12 +407,6 @@
     <t>1,276.73:1</t>
   </si>
   <si>
-    <t>818.52:1</t>
-  </si>
-  <si>
-    <t>793.26:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -497,12 +473,6 @@
     <t>2.35%</t>
   </si>
   <si>
-    <t>22.25%</t>
-  </si>
-  <si>
-    <t>10.06%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -572,12 +542,6 @@
     <t>체외진단검사서비스, 의료IT솔루션</t>
   </si>
   <si>
-    <t>초고속 통신용 반도체 IP</t>
-  </si>
-  <si>
-    <t>초정밀 온습도 제어장비</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -596,6 +560,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>에이피알</t>
+  </si>
+  <si>
     <t>케이웨더</t>
   </si>
   <si>
@@ -638,6 +605,9 @@
     <t>NH스팩30호</t>
   </si>
   <si>
+    <t>2024.01.22~01.26</t>
+  </si>
+  <si>
     <t>2024.01.12~01.18</t>
   </si>
   <si>
@@ -677,7 +647,7 @@
     <t>2023.11.10~11.16</t>
   </si>
   <si>
-    <t>2023.11.09~11.15</t>
+    <t>147,000~200,000</t>
   </si>
   <si>
     <t>4,800~5,800</t>
@@ -722,9 +692,6 @@
     <t>9,000~11,000</t>
   </si>
   <si>
-    <t>23,000~30,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -743,7 +710,7 @@
     <t>9000</t>
   </si>
   <si>
-    <t>18000</t>
+    <t>신한투자증권,하나증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
@@ -1146,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,16 +1201,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -1270,10 +1237,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1303,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1314,13 +1281,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>4000000</v>
@@ -1347,10 +1314,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1380,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1388,16 +1355,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>14625000</v>
@@ -1424,10 +1391,10 @@
         <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1457,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1465,16 +1432,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>1400000</v>
@@ -1501,10 +1468,10 @@
         <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P5">
         <v>49637696375</v>
@@ -1534,7 +1501,7 @@
         <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1542,16 +1509,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>3500000</v>
@@ -1578,10 +1545,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1611,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1622,13 +1589,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1655,10 +1622,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P7">
         <v>28564316</v>
@@ -1688,7 +1655,7 @@
         <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1699,13 +1666,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>1500000</v>
@@ -1732,10 +1699,10 @@
         <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1765,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1773,16 +1740,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1809,10 +1776,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1842,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1853,13 +1820,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1886,10 +1853,10 @@
         <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P10">
         <v>55809022</v>
@@ -1919,7 +1886,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1930,13 +1897,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1963,10 +1930,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1996,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2004,16 +1971,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>1407000</v>
@@ -2040,10 +2007,10 @@
         <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2073,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2084,13 +2051,13 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>1640000</v>
@@ -2117,10 +2084,10 @@
         <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="P13">
         <v>13660</v>
@@ -2150,7 +2117,7 @@
         <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2158,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F14">
         <v>3350000</v>
@@ -2194,10 +2161,10 @@
         <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P14">
         <v>47984</v>
@@ -2227,7 +2194,7 @@
         <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2235,16 +2202,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>4250000</v>
@@ -2271,10 +2238,10 @@
         <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P15">
         <v>27199897007</v>
@@ -2304,7 +2271,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2315,13 +2282,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>2079000</v>
@@ -2348,10 +2315,10 @@
         <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P16">
         <v>26994234332</v>
@@ -2381,7 +2348,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2395,10 +2362,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>1596000</v>
@@ -2425,10 +2392,10 @@
         <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P17">
         <v>7668281979</v>
@@ -2458,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2472,10 +2439,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>1600000</v>
@@ -2502,10 +2469,10 @@
         <v>20000</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2535,7 +2502,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2543,16 +2510,16 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>2636330</v>
@@ -2579,10 +2546,10 @@
         <v>25000</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P19">
         <v>45195788</v>
@@ -2612,7 +2579,7 @@
         <v>2327401</v>
       </c>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2623,13 +2590,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <v>4000000</v>
@@ -2656,10 +2623,10 @@
         <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2689,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2697,16 +2664,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -2733,10 +2700,10 @@
         <v>1800</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P21">
         <v>67332006578</v>
@@ -2766,7 +2733,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2780,10 +2747,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F22">
         <v>5200000</v>
@@ -2810,10 +2777,10 @@
         <v>4800</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P22">
         <v>39450601</v>
@@ -2843,7 +2810,7 @@
         <v>349843</v>
       </c>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2857,10 +2824,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <v>2060000</v>
@@ -2887,10 +2854,10 @@
         <v>22500</v>
       </c>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="P23">
         <v>5787300240</v>
@@ -2920,7 +2887,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2934,10 +2901,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>1200000</v>
@@ -2964,10 +2931,10 @@
         <v>13000</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P24">
         <v>20924</v>
@@ -2997,7 +2964,7 @@
         <v>-862</v>
       </c>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -3011,10 +2978,10 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25">
         <v>3600000</v>
@@ -3041,10 +3008,10 @@
         <v>7500</v>
       </c>
       <c r="N25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P25">
         <v>21976760922</v>
@@ -3074,7 +3041,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -3088,10 +3055,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>12500000</v>
@@ -3118,10 +3085,10 @@
         <v>2000</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3151,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3165,10 +3132,10 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27">
         <v>1049482</v>
@@ -3195,10 +3162,10 @@
         <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="P27">
         <v>34557425427</v>
@@ -3228,7 +3195,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y27" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3242,10 +3209,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F28">
         <v>1128720</v>
@@ -3272,10 +3239,10 @@
         <v>4400</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P28">
         <v>50552623684</v>
@@ -3305,161 +3272,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29">
-        <v>1800000</v>
-      </c>
-      <c r="G29">
-        <v>1800000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>13000</v>
-      </c>
-      <c r="J29">
-        <v>15000</v>
-      </c>
-      <c r="K29">
-        <v>10193520</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>17000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>136</v>
-      </c>
-      <c r="O29" t="s">
-        <v>160</v>
-      </c>
-      <c r="P29">
-        <v>3952070068</v>
-      </c>
-      <c r="Q29">
-        <v>10789274729</v>
-      </c>
-      <c r="R29">
-        <v>6040367765</v>
-      </c>
-      <c r="S29">
-        <v>-4741577598</v>
-      </c>
-      <c r="T29">
-        <v>-3671026788</v>
-      </c>
-      <c r="U29">
-        <v>-3292521363</v>
-      </c>
-      <c r="V29">
-        <v>-3654889267</v>
-      </c>
-      <c r="W29">
-        <v>-2281074471</v>
-      </c>
-      <c r="X29">
-        <v>-2539505707</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30">
-        <v>4000000</v>
-      </c>
-      <c r="G30">
-        <v>4000000</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>5000</v>
-      </c>
-      <c r="J30">
-        <v>5600</v>
-      </c>
-      <c r="K30">
-        <v>16120000</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>6500</v>
-      </c>
-      <c r="N30" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" t="s">
-        <v>161</v>
-      </c>
-      <c r="P30">
-        <v>26691070764</v>
-      </c>
-      <c r="Q30">
-        <v>22835113396</v>
-      </c>
-      <c r="R30">
-        <v>7519073723</v>
-      </c>
-      <c r="S30">
-        <v>6041270235</v>
-      </c>
-      <c r="T30">
-        <v>6705120210</v>
-      </c>
-      <c r="U30">
-        <v>982044017</v>
-      </c>
-      <c r="V30">
-        <v>5119066139</v>
-      </c>
-      <c r="W30">
-        <v>5870093710</v>
-      </c>
-      <c r="X30">
-        <v>1198587470</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3477,422 +3290,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>4800</v>
+        <v>55713</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>27600</v>
+        <v>7200</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E8">
-        <v>8858</v>
+        <v>43535</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
         <v>200</v>
       </c>
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E9">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
         <v>201</v>
       </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>14000</v>
+        <v>12325</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E12">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E13">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E14">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E15">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E16">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E17">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E18">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E19">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E20">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E21">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="245">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -563,6 +563,9 @@
     <t>에이피알</t>
   </si>
   <si>
+    <t>IBKS스팩24호</t>
+  </si>
+  <si>
     <t>케이웨더</t>
   </si>
   <si>
@@ -608,6 +611,9 @@
     <t>2024.01.22~01.26</t>
   </si>
   <si>
+    <t>2024.01.17~01.18</t>
+  </si>
+  <si>
     <t>2024.01.12~01.18</t>
   </si>
   <si>
@@ -644,12 +650,12 @@
     <t>2023.11.15~11.16</t>
   </si>
   <si>
-    <t>2023.11.10~11.16</t>
-  </si>
-  <si>
     <t>147,000~200,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>4,800~5,800</t>
   </si>
   <si>
@@ -659,9 +665,6 @@
     <t>9,200~11,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>2,400~2,800</t>
   </si>
   <si>
@@ -689,9 +692,6 @@
     <t>19,000~22,000</t>
   </si>
   <si>
-    <t>9,000~11,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -707,12 +707,12 @@
     <t>23000</t>
   </si>
   <si>
-    <t>9000</t>
-  </si>
-  <si>
     <t>신한투자증권,하나증권</t>
   </si>
   <si>
+    <t>아이비케이투자증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -740,9 +740,6 @@
     <t>KB증권,NH투자증권</t>
   </si>
   <si>
-    <t>아이비케이투자증권</t>
-  </si>
-  <si>
     <t>하나증권,키움증권</t>
   </si>
   <si>
@@ -753,9 +750,6 @@
   </si>
   <si>
     <t>신영증권</t>
-  </si>
-  <si>
-    <t>유안타증권</t>
   </si>
 </sst>
 </file>
@@ -3313,10 +3307,10 @@
         <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
         <v>130</v>
@@ -3325,7 +3319,7 @@
         <v>55713</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3333,19 +3327,19 @@
         <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>4800</v>
+        <v>2147483647</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3353,19 +3347,19 @@
         <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3373,19 +3367,19 @@
         <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>27600</v>
+        <v>7200</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3393,19 +3387,19 @@
         <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3413,19 +3407,19 @@
         <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
         <v>130</v>
       </c>
       <c r="E7">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3433,7 +3427,7 @@
         <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
         <v>216</v>
@@ -3442,10 +3436,10 @@
         <v>130</v>
       </c>
       <c r="E8">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3453,7 +3447,7 @@
         <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
         <v>217</v>
@@ -3462,10 +3456,10 @@
         <v>130</v>
       </c>
       <c r="E9">
-        <v>8858</v>
+        <v>43535</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3473,7 +3467,7 @@
         <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
         <v>218</v>
@@ -3482,10 +3476,10 @@
         <v>130</v>
       </c>
       <c r="E10">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3493,7 +3487,7 @@
         <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
         <v>219</v>
@@ -3502,10 +3496,10 @@
         <v>130</v>
       </c>
       <c r="E11">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3513,19 +3507,19 @@
         <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>14000</v>
+        <v>12325</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3533,19 +3527,19 @@
         <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3553,159 +3547,159 @@
         <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E15">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E17">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
         <v>225</v>
       </c>
       <c r="E18">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E19">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E20">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E21">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -563,6 +563,9 @@
     <t>에이피알</t>
   </si>
   <si>
+    <t>신영스팩10호</t>
+  </si>
+  <si>
     <t>IBKS스팩24호</t>
   </si>
   <si>
@@ -605,12 +608,12 @@
     <t>교보스팩15호</t>
   </si>
   <si>
-    <t>NH스팩30호</t>
-  </si>
-  <si>
     <t>2024.01.22~01.26</t>
   </si>
   <si>
+    <t>2024.01.22~01.23</t>
+  </si>
+  <si>
     <t>2024.01.17~01.18</t>
   </si>
   <si>
@@ -647,9 +650,6 @@
     <t>2023.11.16~11.22</t>
   </si>
   <si>
-    <t>2023.11.15~11.16</t>
-  </si>
-  <si>
     <t>147,000~200,000</t>
   </si>
   <si>
@@ -710,6 +710,9 @@
     <t>신한투자증권,하나증권</t>
   </si>
   <si>
+    <t>신영증권</t>
+  </si>
+  <si>
     <t>아이비케이투자증권</t>
   </si>
   <si>
@@ -747,9 +750,6 @@
   </si>
   <si>
     <t>교보증권</t>
-  </si>
-  <si>
-    <t>신영증권</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3336,7 @@
         <v>130</v>
       </c>
       <c r="E3">
-        <v>2147483647</v>
+        <v>9150</v>
       </c>
       <c r="F3" t="s">
         <v>231</v>
@@ -3350,13 +3350,13 @@
         <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>4800</v>
+        <v>2147483647</v>
       </c>
       <c r="F4" t="s">
         <v>232</v>
@@ -3367,16 +3367,16 @@
         <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F5" t="s">
         <v>233</v>
@@ -3390,13 +3390,13 @@
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>27600</v>
+        <v>7200</v>
       </c>
       <c r="F6" t="s">
         <v>234</v>
@@ -3410,13 +3410,13 @@
         <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
         <v>130</v>
       </c>
       <c r="E7">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="F7" t="s">
         <v>235</v>
@@ -3430,16 +3430,16 @@
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
         <v>130</v>
       </c>
       <c r="E8">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3447,19 +3447,19 @@
         <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
         <v>130</v>
       </c>
       <c r="E9">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3467,16 +3467,16 @@
         <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
         <v>130</v>
       </c>
       <c r="E10">
-        <v>8858</v>
+        <v>43535</v>
       </c>
       <c r="F10" t="s">
         <v>237</v>
@@ -3490,13 +3490,13 @@
         <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
         <v>130</v>
       </c>
       <c r="E11">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F11" t="s">
         <v>238</v>
@@ -3507,16 +3507,16 @@
         <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>130</v>
       </c>
       <c r="E12">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F12" t="s">
         <v>239</v>
@@ -3530,16 +3530,16 @@
         <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>14000</v>
+        <v>12325</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3550,16 +3550,16 @@
         <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3570,53 +3570,53 @@
         <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E15">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
         <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E16">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F17" t="s">
         <v>242</v>
@@ -3624,30 +3624,30 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E18">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -3656,27 +3656,27 @@
         <v>225</v>
       </c>
       <c r="E19">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
         <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E20">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F20" t="s">
         <v>244</v>
@@ -3684,22 +3684,22 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E21">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="233">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -149,12 +149,6 @@
     <t>2023-10-17</t>
   </si>
   <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
     <t>하나30호스팩</t>
   </si>
   <si>
@@ -317,15 +308,6 @@
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
     <t>708.35:1</t>
   </si>
   <si>
@@ -398,15 +380,6 @@
     <t>716.50:1</t>
   </si>
   <si>
-    <t>10.14:1</t>
-  </si>
-  <si>
-    <t>914.02:1</t>
-  </si>
-  <si>
-    <t>1,276.73:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -467,12 +440,6 @@
     <t>1.39%</t>
   </si>
   <si>
-    <t>17.63%</t>
-  </si>
-  <si>
-    <t>2.35%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -536,12 +503,6 @@
     <t>RF필터 파운드리</t>
   </si>
   <si>
-    <t>이차전지 정밀금형 외</t>
-  </si>
-  <si>
-    <t>체외진단검사서비스, 의료IT솔루션</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -566,6 +527,9 @@
     <t>신영스팩10호</t>
   </si>
   <si>
+    <t>스튜디오삼익</t>
+  </si>
+  <si>
     <t>IBKS스팩24호</t>
   </si>
   <si>
@@ -593,9 +557,6 @@
     <t>포스뱅크</t>
   </si>
   <si>
-    <t>스튜디오삼익</t>
-  </si>
-  <si>
     <t>하나스팩30호</t>
   </si>
   <si>
@@ -614,6 +575,9 @@
     <t>2024.01.22~01.23</t>
   </si>
   <si>
+    <t>2024.01.17~01.23</t>
+  </si>
+  <si>
     <t>2024.01.17~01.18</t>
   </si>
   <si>
@@ -656,6 +620,9 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>14,500~16,500</t>
+  </si>
+  <si>
     <t>4,800~5,800</t>
   </si>
   <si>
@@ -677,9 +644,6 @@
     <t>13,000~15,000</t>
   </si>
   <si>
-    <t>14,500~16,500</t>
-  </si>
-  <si>
     <t>79,000~89,000</t>
   </si>
   <si>
@@ -713,6 +677,9 @@
     <t>신영증권</t>
   </si>
   <si>
+    <t>DB금융투자</t>
+  </si>
+  <si>
     <t>아이비케이투자증권</t>
   </si>
   <si>
@@ -735,9 +702,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>DB금융투자</t>
   </si>
   <si>
     <t>KB증권,NH투자증권</t>
@@ -1107,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,16 +1159,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -1231,10 +1195,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1264,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1275,13 +1239,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>4000000</v>
@@ -1308,10 +1272,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1341,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1349,16 +1313,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>14625000</v>
@@ -1385,10 +1349,10 @@
         <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1418,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1426,16 +1390,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>1400000</v>
@@ -1462,10 +1426,10 @@
         <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P5">
         <v>49637696375</v>
@@ -1495,7 +1459,7 @@
         <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1503,16 +1467,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>3500000</v>
@@ -1539,10 +1503,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1572,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1583,13 +1547,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1616,10 +1580,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P7">
         <v>28564316</v>
@@ -1649,7 +1613,7 @@
         <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1660,13 +1624,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>1500000</v>
@@ -1693,10 +1657,10 @@
         <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1726,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1734,16 +1698,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1770,10 +1734,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1803,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1814,13 +1778,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1847,10 +1811,10 @@
         <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P10">
         <v>55809022</v>
@@ -1880,7 +1844,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1891,13 +1855,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1924,10 +1888,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1957,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1965,16 +1929,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>1407000</v>
@@ -2001,10 +1965,10 @@
         <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2034,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2045,13 +2009,13 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>1640000</v>
@@ -2078,10 +2042,10 @@
         <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P13">
         <v>13660</v>
@@ -2111,7 +2075,7 @@
         <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2119,16 +2083,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <v>3350000</v>
@@ -2155,10 +2119,10 @@
         <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P14">
         <v>47984</v>
@@ -2188,7 +2152,7 @@
         <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2196,16 +2160,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <v>4250000</v>
@@ -2232,10 +2196,10 @@
         <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P15">
         <v>27199897007</v>
@@ -2265,7 +2229,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2276,13 +2240,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F16">
         <v>2079000</v>
@@ -2309,10 +2273,10 @@
         <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P16">
         <v>26994234332</v>
@@ -2342,7 +2306,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2356,10 +2320,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <v>1596000</v>
@@ -2386,10 +2350,10 @@
         <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="P17">
         <v>7668281979</v>
@@ -2419,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2433,10 +2397,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18">
         <v>1600000</v>
@@ -2463,10 +2427,10 @@
         <v>20000</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2496,7 +2460,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2504,16 +2468,16 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <v>2636330</v>
@@ -2540,10 +2504,10 @@
         <v>25000</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P19">
         <v>45195788</v>
@@ -2573,7 +2537,7 @@
         <v>2327401</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2584,13 +2548,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <v>4000000</v>
@@ -2617,11 +2581,11 @@
         <v>2000</v>
       </c>
       <c r="N20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" t="s">
         <v>121</v>
       </c>
-      <c r="O20" t="s">
-        <v>130</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -2650,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2658,16 +2622,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -2694,10 +2658,10 @@
         <v>1800</v>
       </c>
       <c r="N21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P21">
         <v>67332006578</v>
@@ -2727,7 +2691,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2741,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22">
         <v>5200000</v>
@@ -2771,10 +2735,10 @@
         <v>4800</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P22">
         <v>39450601</v>
@@ -2804,7 +2768,7 @@
         <v>349843</v>
       </c>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2818,10 +2782,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <v>2060000</v>
@@ -2848,10 +2812,10 @@
         <v>22500</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="P23">
         <v>5787300240</v>
@@ -2881,7 +2845,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y23" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2895,10 +2859,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <v>1200000</v>
@@ -2925,10 +2889,10 @@
         <v>13000</v>
       </c>
       <c r="N24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O24" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P24">
         <v>20924</v>
@@ -2958,7 +2922,7 @@
         <v>-862</v>
       </c>
       <c r="Y24" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2972,10 +2936,10 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F25">
         <v>3600000</v>
@@ -3002,10 +2966,10 @@
         <v>7500</v>
       </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P25">
         <v>21976760922</v>
@@ -3035,238 +2999,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>12500000</v>
-      </c>
-      <c r="G26">
-        <v>12500000</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>2000</v>
-      </c>
-      <c r="J26">
-        <v>2000</v>
-      </c>
-      <c r="K26">
-        <v>12905000</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>2000</v>
-      </c>
-      <c r="N26" t="s">
-        <v>127</v>
-      </c>
-      <c r="O26" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27">
-        <v>1049482</v>
-      </c>
-      <c r="G27">
-        <v>944534</v>
-      </c>
-      <c r="H27">
-        <v>104948</v>
-      </c>
-      <c r="I27">
-        <v>12800</v>
-      </c>
-      <c r="J27">
-        <v>14500</v>
-      </c>
-      <c r="K27">
-        <v>6261485</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>17000</v>
-      </c>
-      <c r="N27" t="s">
-        <v>128</v>
-      </c>
-      <c r="O27" t="s">
-        <v>150</v>
-      </c>
-      <c r="P27">
-        <v>34557425427</v>
-      </c>
-      <c r="Q27">
-        <v>39824841246</v>
-      </c>
-      <c r="R27">
-        <v>23231897516</v>
-      </c>
-      <c r="S27">
-        <v>3011651602</v>
-      </c>
-      <c r="T27">
-        <v>2384643399</v>
-      </c>
-      <c r="U27">
-        <v>4436005255</v>
-      </c>
-      <c r="V27">
-        <v>2755379556</v>
-      </c>
-      <c r="W27">
-        <v>1176755354</v>
-      </c>
-      <c r="X27">
-        <v>4046949430</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28">
-        <v>1128720</v>
-      </c>
-      <c r="G28">
-        <v>1128720</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>3300</v>
-      </c>
-      <c r="J28">
-        <v>3900</v>
-      </c>
-      <c r="K28">
-        <v>11287196</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>4400</v>
-      </c>
-      <c r="N28" t="s">
-        <v>129</v>
-      </c>
-      <c r="O28" t="s">
-        <v>151</v>
-      </c>
-      <c r="P28">
-        <v>50552623684</v>
-      </c>
-      <c r="Q28">
-        <v>69013134090</v>
-      </c>
-      <c r="R28">
-        <v>16887814423</v>
-      </c>
-      <c r="S28">
-        <v>9027232647</v>
-      </c>
-      <c r="T28">
-        <v>15707796256</v>
-      </c>
-      <c r="U28">
-        <v>555562560</v>
-      </c>
-      <c r="V28">
-        <v>9236341465</v>
-      </c>
-      <c r="W28">
-        <v>13159994846</v>
-      </c>
-      <c r="X28">
-        <v>1236029732</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3284,422 +3017,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>55713</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E3">
         <v>9150</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E4">
-        <v>2147483647</v>
+        <v>12325</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
         <v>200</v>
       </c>
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E5">
-        <v>4800</v>
+        <v>2147483647</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E7">
-        <v>27600</v>
+        <v>7200</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E8">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E9">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E10">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E11">
-        <v>8858</v>
+        <v>43535</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
         <v>191</v>
       </c>
-      <c r="B12" t="s">
-        <v>204</v>
-      </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E12">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
         <v>192</v>
       </c>
-      <c r="B13" t="s">
-        <v>204</v>
-      </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E13">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
         <v>193</v>
       </c>
-      <c r="B14" t="s">
-        <v>205</v>
-      </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E14">
         <v>14000</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
         <v>194</v>
       </c>
-      <c r="B15" t="s">
-        <v>206</v>
-      </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E15">
         <v>96380</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
         <v>195</v>
       </c>
-      <c r="B16" t="s">
-        <v>207</v>
-      </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E16">
         <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E17">
         <v>21000</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E18">
         <v>64350</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E19">
         <v>20000</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E20">
         <v>7000</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E21">
         <v>14250</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="228">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -146,9 +146,6 @@
     <t>2023-10-19</t>
   </si>
   <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
     <t>708.35:1</t>
   </si>
   <si>
@@ -377,9 +371,6 @@
     <t>981.09:1</t>
   </si>
   <si>
-    <t>716.50:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -437,9 +428,6 @@
     <t>4.20%</t>
   </si>
   <si>
-    <t>1.39%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -498,9 +486,6 @@
   </si>
   <si>
     <t>로우코드 기반 코딩 자동화 솔루션 등</t>
-  </si>
-  <si>
-    <t>RF필터 파운드리</t>
   </si>
   <si>
     <t>종목명</t>
@@ -1071,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,16 +1144,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -1195,10 +1180,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1228,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1239,13 +1224,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>4000000</v>
@@ -1272,10 +1257,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1305,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1313,16 +1298,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>14625000</v>
@@ -1349,10 +1334,10 @@
         <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1382,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1390,16 +1375,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>1400000</v>
@@ -1426,10 +1411,10 @@
         <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P5">
         <v>49637696375</v>
@@ -1459,7 +1444,7 @@
         <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1467,16 +1452,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>3500000</v>
@@ -1503,10 +1488,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1536,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1547,13 +1532,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1580,10 +1565,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P7">
         <v>28564316</v>
@@ -1613,7 +1598,7 @@
         <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1624,13 +1609,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>1500000</v>
@@ -1657,10 +1642,10 @@
         <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1690,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1698,16 +1683,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1734,10 +1719,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1767,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1778,13 +1763,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1811,10 +1796,10 @@
         <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P10">
         <v>55809022</v>
@@ -1844,7 +1829,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1855,13 +1840,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1888,10 +1873,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1921,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1929,16 +1914,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>1407000</v>
@@ -1965,10 +1950,10 @@
         <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1998,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2009,13 +1994,13 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>1640000</v>
@@ -2042,10 +2027,10 @@
         <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P13">
         <v>13660</v>
@@ -2075,7 +2060,7 @@
         <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2083,16 +2068,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <v>3350000</v>
@@ -2119,10 +2104,10 @@
         <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P14">
         <v>47984</v>
@@ -2152,7 +2137,7 @@
         <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2160,16 +2145,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15">
         <v>4250000</v>
@@ -2196,10 +2181,10 @@
         <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P15">
         <v>27199897007</v>
@@ -2229,7 +2214,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2240,13 +2225,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>2079000</v>
@@ -2273,10 +2258,10 @@
         <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P16">
         <v>26994234332</v>
@@ -2306,7 +2291,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2320,10 +2305,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17">
         <v>1596000</v>
@@ -2350,10 +2335,10 @@
         <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P17">
         <v>7668281979</v>
@@ -2383,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2397,10 +2382,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <v>1600000</v>
@@ -2427,10 +2412,10 @@
         <v>20000</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2460,7 +2445,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2468,16 +2453,16 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19">
         <v>2636330</v>
@@ -2504,10 +2489,10 @@
         <v>25000</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P19">
         <v>45195788</v>
@@ -2537,7 +2522,7 @@
         <v>2327401</v>
       </c>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2548,13 +2533,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <v>4000000</v>
@@ -2581,10 +2566,10 @@
         <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2614,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2622,16 +2607,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -2658,10 +2643,10 @@
         <v>1800</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P21">
         <v>67332006578</v>
@@ -2691,7 +2676,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2705,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22">
         <v>5200000</v>
@@ -2735,10 +2720,10 @@
         <v>4800</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P22">
         <v>39450601</v>
@@ -2768,7 +2753,7 @@
         <v>349843</v>
       </c>
       <c r="Y22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2782,10 +2767,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23">
         <v>2060000</v>
@@ -2812,10 +2797,10 @@
         <v>22500</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P23">
         <v>5787300240</v>
@@ -2845,7 +2830,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2859,10 +2844,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24">
         <v>1200000</v>
@@ -2889,10 +2874,10 @@
         <v>13000</v>
       </c>
       <c r="N24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P24">
         <v>20924</v>
@@ -2922,84 +2907,7 @@
         <v>-862</v>
       </c>
       <c r="Y24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25">
-        <v>3600000</v>
-      </c>
-      <c r="G25">
-        <v>3600000</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>5000</v>
-      </c>
-      <c r="J25">
-        <v>7000</v>
-      </c>
-      <c r="K25">
-        <v>17306490</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>7500</v>
-      </c>
-      <c r="N25" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" t="s">
-        <v>140</v>
-      </c>
-      <c r="P25">
-        <v>21976760922</v>
-      </c>
-      <c r="Q25">
-        <v>15839004968</v>
-      </c>
-      <c r="R25">
-        <v>6887755932</v>
-      </c>
-      <c r="S25">
-        <v>-2217897363</v>
-      </c>
-      <c r="T25">
-        <v>-3403228196</v>
-      </c>
-      <c r="U25">
-        <v>-2758864194</v>
-      </c>
-      <c r="V25">
-        <v>-5110677395</v>
-      </c>
-      <c r="W25">
-        <v>-29510193610</v>
-      </c>
-      <c r="X25">
-        <v>-2514471056</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3017,422 +2925,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>55713</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>9150</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>12325</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>2147483647</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>4800</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>7200</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>27600</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>11000</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11">
         <v>43535</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>8858</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>19500</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E14">
         <v>14000</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" t="s">
         <v>209</v>
-      </c>
-      <c r="D15" t="s">
-        <v>214</v>
       </c>
       <c r="E15">
         <v>96380</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
         <v>195</v>
       </c>
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E16">
         <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" t="s">
         <v>210</v>
-      </c>
-      <c r="D17" t="s">
-        <v>215</v>
       </c>
       <c r="E17">
         <v>21000</v>
       </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
         <v>211</v>
-      </c>
-      <c r="D18" t="s">
-        <v>216</v>
       </c>
       <c r="E18">
         <v>64350</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E19">
         <v>20000</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E20">
         <v>7000</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
         <v>212</v>
-      </c>
-      <c r="D21" t="s">
-        <v>217</v>
       </c>
       <c r="E21">
         <v>14250</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="209">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -134,18 +134,12 @@
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
     <t>2023-10-23</t>
   </si>
   <si>
     <t>2023-10-25</t>
   </si>
   <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>미래, 삼성</t>
-  </si>
-  <si>
     <t>한국</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
     <t>에이직랜드</t>
   </si>
   <si>
@@ -293,15 +281,6 @@
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>컨텍</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
-  </si>
-  <si>
     <t>708.35:1</t>
   </si>
   <si>
@@ -350,9 +329,6 @@
     <t>952.78</t>
   </si>
   <si>
-    <t>20.88:1</t>
-  </si>
-  <si>
     <t>490.02:1</t>
   </si>
   <si>
@@ -362,15 +338,6 @@
     <t>1,113.85:1</t>
   </si>
   <si>
-    <t>765.86:1</t>
-  </si>
-  <si>
-    <t>198.93:1</t>
-  </si>
-  <si>
-    <t>981.09:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -410,24 +377,12 @@
     <t>0.19%</t>
   </si>
   <si>
-    <t>4.74%</t>
-  </si>
-  <si>
     <t>22.38%</t>
   </si>
   <si>
     <t>6.69%</t>
   </si>
   <si>
-    <t>9.25%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>4.20%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -470,22 +425,10 @@
     <t>벤처투자조합 등 조합 결성 및 운영</t>
   </si>
   <si>
-    <t>CAR-T 세포치료제</t>
-  </si>
-  <si>
     <t>비메모리 반도체 설계및 제조, 전자회로 연구, 설계, 레이아웃 등</t>
   </si>
   <si>
     <t>데크플레이트</t>
-  </si>
-  <si>
-    <t>배터리 핀, 반도체 핀</t>
-  </si>
-  <si>
-    <t>지상국 시스템 엔지니어링 솔루션, 위성영상 생성을 위한 데이터처리 솔루션</t>
-  </si>
-  <si>
-    <t>로우코드 기반 코딩 자동화 솔루션 등</t>
   </si>
   <si>
     <t>종목명</t>
@@ -1056,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,16 +1087,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -1180,10 +1123,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1213,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1224,13 +1167,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>4000000</v>
@@ -1257,10 +1200,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1290,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1298,16 +1241,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>14625000</v>
@@ -1334,10 +1277,10 @@
         <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1367,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1375,16 +1318,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>1400000</v>
@@ -1411,10 +1354,10 @@
         <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="P5">
         <v>49637696375</v>
@@ -1444,7 +1387,7 @@
         <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1452,16 +1395,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>3500000</v>
@@ -1488,10 +1431,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1521,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1532,13 +1475,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1565,10 +1508,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="P7">
         <v>28564316</v>
@@ -1598,7 +1541,7 @@
         <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1609,13 +1552,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>1500000</v>
@@ -1642,10 +1585,10 @@
         <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1675,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1683,16 +1626,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1719,10 +1662,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1752,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1763,13 +1706,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1796,10 +1739,10 @@
         <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="P10">
         <v>55809022</v>
@@ -1829,7 +1772,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1840,13 +1783,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1873,10 +1816,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1906,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1914,16 +1857,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>1407000</v>
@@ -1950,10 +1893,10 @@
         <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1983,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1994,13 +1937,13 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <v>1640000</v>
@@ -2027,10 +1970,10 @@
         <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="P13">
         <v>13660</v>
@@ -2060,7 +2003,7 @@
         <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2068,16 +2011,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>3350000</v>
@@ -2104,10 +2047,10 @@
         <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="P14">
         <v>47984</v>
@@ -2137,7 +2080,7 @@
         <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2145,16 +2088,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>4250000</v>
@@ -2181,10 +2124,10 @@
         <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="P15">
         <v>27199897007</v>
@@ -2214,7 +2157,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2225,13 +2168,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>2079000</v>
@@ -2258,10 +2201,10 @@
         <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P16">
         <v>26994234332</v>
@@ -2291,7 +2234,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2305,10 +2248,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>1596000</v>
@@ -2335,10 +2278,10 @@
         <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P17">
         <v>7668281979</v>
@@ -2368,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2376,76 +2319,76 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="G18">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29800</v>
+        <v>19100</v>
       </c>
       <c r="J18">
-        <v>33500</v>
+        <v>21400</v>
       </c>
       <c r="K18">
-        <v>13612736</v>
+        <v>10585320</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S18">
-        <v>-15286512079</v>
+        <v>2751277</v>
       </c>
       <c r="T18">
-        <v>-21424611321</v>
+        <v>11449731</v>
       </c>
       <c r="U18">
-        <v>-139745251263</v>
+        <v>2482194</v>
       </c>
       <c r="V18">
-        <v>-53575668634</v>
+        <v>2092692</v>
       </c>
       <c r="W18">
-        <v>-38885125426</v>
+        <v>5149538</v>
       </c>
       <c r="X18">
-        <v>-12610702106</v>
+        <v>2327401</v>
       </c>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2453,461 +2396,153 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19">
-        <v>2636330</v>
+        <v>4000000</v>
       </c>
       <c r="G19">
-        <v>2636330</v>
+        <v>4000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19100</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>21400</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>10585320</v>
+        <v>4320000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O19" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="P19">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>2751277</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>11449731</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>2482194</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K20">
-        <v>4320000</v>
+        <v>30610000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>67332006578</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>100050838794</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>63366010569</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1140243099</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>8333440685</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>7415958936</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>668088159</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>5930478364</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>5666583221</v>
       </c>
       <c r="Y20" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21">
-        <v>7000000</v>
-      </c>
-      <c r="G21">
-        <v>7000000</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1200</v>
-      </c>
-      <c r="J21">
-        <v>1500</v>
-      </c>
-      <c r="K21">
-        <v>30610000</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1800</v>
-      </c>
-      <c r="N21" t="s">
-        <v>114</v>
-      </c>
-      <c r="O21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P21">
-        <v>67332006578</v>
-      </c>
-      <c r="Q21">
-        <v>100050838794</v>
-      </c>
-      <c r="R21">
-        <v>63366010569</v>
-      </c>
-      <c r="S21">
-        <v>1140243099</v>
-      </c>
-      <c r="T21">
-        <v>8333440685</v>
-      </c>
-      <c r="U21">
-        <v>7415958936</v>
-      </c>
-      <c r="V21">
-        <v>668088159</v>
-      </c>
-      <c r="W21">
-        <v>5930478364</v>
-      </c>
-      <c r="X21">
-        <v>5666583221</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22">
-        <v>5200000</v>
-      </c>
-      <c r="G22">
-        <v>5200000</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>3500</v>
-      </c>
-      <c r="J22">
-        <v>4000</v>
-      </c>
-      <c r="K22">
-        <v>20771000</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>4800</v>
-      </c>
-      <c r="N22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O22" t="s">
-        <v>134</v>
-      </c>
-      <c r="P22">
-        <v>39450601</v>
-      </c>
-      <c r="Q22">
-        <v>49044883</v>
-      </c>
-      <c r="R22">
-        <v>21826468</v>
-      </c>
-      <c r="S22">
-        <v>2477559</v>
-      </c>
-      <c r="T22">
-        <v>8094900</v>
-      </c>
-      <c r="U22">
-        <v>215154</v>
-      </c>
-      <c r="V22">
-        <v>3427734</v>
-      </c>
-      <c r="W22">
-        <v>6575528</v>
-      </c>
-      <c r="X22">
-        <v>349843</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23">
-        <v>2060000</v>
-      </c>
-      <c r="G23">
-        <v>2000000</v>
-      </c>
-      <c r="H23">
-        <v>60000</v>
-      </c>
-      <c r="I23">
-        <v>20300</v>
-      </c>
-      <c r="J23">
-        <v>22500</v>
-      </c>
-      <c r="K23">
-        <v>14384224</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>22500</v>
-      </c>
-      <c r="N23" t="s">
-        <v>116</v>
-      </c>
-      <c r="O23" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23">
-        <v>5787300240</v>
-      </c>
-      <c r="Q23">
-        <v>1914633847</v>
-      </c>
-      <c r="R23">
-        <v>3156092272</v>
-      </c>
-      <c r="S23">
-        <v>-1798278694</v>
-      </c>
-      <c r="T23">
-        <v>-1453689952</v>
-      </c>
-      <c r="U23">
-        <v>-4067648306</v>
-      </c>
-      <c r="V23">
-        <v>-12449932055</v>
-      </c>
-      <c r="W23">
-        <v>-7426231074</v>
-      </c>
-      <c r="X23">
-        <v>-52132058866</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24">
-        <v>1200000</v>
-      </c>
-      <c r="G24">
-        <v>1200000</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>9100</v>
-      </c>
-      <c r="J24">
-        <v>11000</v>
-      </c>
-      <c r="K24">
-        <v>7206940</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>13000</v>
-      </c>
-      <c r="N24" t="s">
-        <v>117</v>
-      </c>
-      <c r="O24" t="s">
-        <v>136</v>
-      </c>
-      <c r="P24">
-        <v>20924</v>
-      </c>
-      <c r="Q24">
-        <v>27659</v>
-      </c>
-      <c r="R24">
-        <v>11818</v>
-      </c>
-      <c r="S24">
-        <v>2838</v>
-      </c>
-      <c r="T24">
-        <v>4563</v>
-      </c>
-      <c r="U24">
-        <v>-1222</v>
-      </c>
-      <c r="V24">
-        <v>2413</v>
-      </c>
-      <c r="W24">
-        <v>3190</v>
-      </c>
-      <c r="X24">
-        <v>-862</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2925,422 +2560,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>55713</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>9150</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>12325</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E5">
         <v>2147483647</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>4800</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>7200</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>27600</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>11000</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>43535</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>8858</v>
       </c>
       <c r="F12" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>19500</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E14">
         <v>14000</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E15">
         <v>96380</v>
       </c>
       <c r="F15" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E16">
         <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" t="s">
         <v>191</v>
-      </c>
-      <c r="C17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" t="s">
-        <v>210</v>
       </c>
       <c r="E17">
         <v>21000</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E18">
         <v>64350</v>
       </c>
       <c r="F18" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E19">
         <v>20000</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E20">
         <v>7000</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
         <v>193</v>
-      </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" t="s">
-        <v>212</v>
       </c>
       <c r="E21">
         <v>14250</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="196">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>14,500~18,500</t>
+  </si>
+  <si>
+    <t>30000</t>
   </si>
   <si>
     <t>20000</t>
@@ -2322,7 +2325,7 @@
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2342,7 +2345,7 @@
         <v>16500</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2362,7 +2365,7 @@
         <v>19500</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2382,7 +2385,7 @@
         <v>10000</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,7 +2405,7 @@
         <v>19250</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2422,7 +2425,7 @@
         <v>6000</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2442,7 +2445,7 @@
         <v>17400</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2462,7 +2465,7 @@
         <v>17600</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2476,13 +2479,13 @@
         <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="E10">
         <v>40000</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2496,13 +2499,13 @@
         <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E11">
         <v>12870</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2516,13 +2519,13 @@
         <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12">
         <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2536,13 +2539,13 @@
         <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E13">
         <v>18936</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2556,13 +2559,13 @@
         <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E14">
         <v>8000</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2576,13 +2579,13 @@
         <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E15">
         <v>13000</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2596,13 +2599,13 @@
         <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E16">
         <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2616,13 +2619,13 @@
         <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2636,13 +2639,13 @@
         <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E18">
         <v>55713</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2656,13 +2659,13 @@
         <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E19">
         <v>4800</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2676,13 +2679,13 @@
         <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E20">
         <v>7200</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2696,13 +2699,13 @@
         <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E21">
         <v>16385</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="202">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
     <t>2024-02-16</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>2024-01-09</t>
   </si>
   <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
     <t>2024-02-22</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
     <t>2024-01-10</t>
   </si>
   <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
     <t>2024-01-24</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>DB, NH</t>
   </si>
   <si>
@@ -197,9 +209,6 @@
     <t>키움</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>한화</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
     <t>대신</t>
   </si>
   <si>
+    <t>오상헬스케어</t>
+  </si>
+  <si>
     <t>케이엔알시스템</t>
   </si>
   <si>
@@ -269,6 +281,9 @@
     <t>대신밸런스제17호스팩</t>
   </si>
   <si>
+    <t>993.21:1</t>
+  </si>
+  <si>
     <t>873.20:1</t>
   </si>
   <si>
@@ -317,6 +332,9 @@
     <t>892.06:1</t>
   </si>
   <si>
+    <t>2.85%</t>
+  </si>
+  <si>
     <t>31.86%</t>
   </si>
   <si>
@@ -344,6 +362,9 @@
     <t>17.01%</t>
   </si>
   <si>
+    <t>생화학 측정기 및 센서, 면역진단기기 및 마커, 분자진단기기 및 시약 등</t>
+  </si>
+  <si>
     <t>특수목적 시험장비, 산업용로봇</t>
   </si>
   <si>
@@ -407,6 +428,9 @@
     <t>민테크</t>
   </si>
   <si>
+    <t>신한스팩13호</t>
+  </si>
+  <si>
     <t>신한스팩12호</t>
   </si>
   <si>
@@ -425,9 +449,6 @@
     <t>삼현</t>
   </si>
   <si>
-    <t>오상헬스케어</t>
-  </si>
-  <si>
     <t>하나스팩31호</t>
   </si>
   <si>
@@ -452,6 +473,9 @@
     <t>2024.04.12~04.18</t>
   </si>
   <si>
+    <t>2024.04.04~04.05</t>
+  </si>
+  <si>
     <t>2024.03.27~03.28</t>
   </si>
   <si>
@@ -536,9 +560,6 @@
     <t>12,000~14,000</t>
   </si>
   <si>
-    <t>14,500~18,500</t>
-  </si>
-  <si>
     <t>30000</t>
   </si>
   <si>
@@ -600,9 +621,6 @@
   </si>
   <si>
     <t>키움증권</t>
-  </si>
-  <si>
-    <t>한화투자증권</t>
   </si>
 </sst>
 </file>
@@ -960,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,153 +1066,153 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G2">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J2">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K2">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P2">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q2">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R2">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S2">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T2">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U2">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V2">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W2">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X2">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G3">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K3">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1202,22 +1220,22 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G4">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1229,7 +1247,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1238,10 +1256,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1271,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1279,22 +1297,22 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1306,7 +1324,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1315,10 +1333,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1348,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1359,13 +1377,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>4000000</v>
@@ -1383,7 +1401,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1392,10 +1410,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1425,24 +1443,24 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>4000000</v>
@@ -1460,7 +1478,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1469,10 +1487,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1502,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1510,76 +1528,76 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G8">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P8">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1587,218 +1605,218 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G9">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J9">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K9">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P9">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q9">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R9">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S9">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T9">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U9">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V9">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W9">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X9">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G10">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J10">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K10">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P10">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q10">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R10">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S10">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T10">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U10">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G11">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K11">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1810,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1818,73 +1836,73 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="G12">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>4225498</v>
+        <v>4690000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P12">
-        <v>84448377049</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>86585909893</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>71141473670</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>4232543828</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>2396516104</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>2260522008</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>3768461107</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1925269107</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1937996182</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
         <v>117</v>
@@ -1892,79 +1910,79 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="K13">
-        <v>4230000</v>
+        <v>4225498</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>84448377049</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>86585909893</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>71141473670</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4232543828</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2396516104</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>2260522008</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3768461107</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1925269107</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1937996182</v>
       </c>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1972,76 +1990,76 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G14">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>9355485</v>
+        <v>4230000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P14">
-        <v>91496346476</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>91488384999</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>63460787949</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>9436568051</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>11992232752</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>8323875572</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>8609153489</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>6967992579</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>7769366120</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2049,153 +2067,153 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>8707000</v>
+        <v>1500000</v>
       </c>
       <c r="G15">
-        <v>5224000</v>
+        <v>1500000</v>
       </c>
       <c r="H15">
-        <v>3483000</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J15">
-        <v>6300</v>
+        <v>15000</v>
       </c>
       <c r="K15">
-        <v>34824000</v>
+        <v>9355485</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7300</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P15">
-        <v>120971135005</v>
+        <v>91496346476</v>
       </c>
       <c r="Q15">
-        <v>144752544468</v>
+        <v>91488384999</v>
       </c>
       <c r="R15">
-        <v>134349576051</v>
+        <v>63460787949</v>
       </c>
       <c r="S15">
-        <v>6228818073</v>
+        <v>9436568051</v>
       </c>
       <c r="T15">
-        <v>3756954475</v>
+        <v>11992232752</v>
       </c>
       <c r="U15">
-        <v>11092990558</v>
+        <v>8323875572</v>
       </c>
       <c r="V15">
-        <v>4708568182</v>
+        <v>8609153489</v>
       </c>
       <c r="W15">
-        <v>4366217534</v>
+        <v>6967992579</v>
       </c>
       <c r="X15">
-        <v>7277173431</v>
+        <v>7769366120</v>
       </c>
       <c r="Y15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16">
-        <v>2060000</v>
+        <v>8707000</v>
       </c>
       <c r="G16">
-        <v>2060000</v>
+        <v>5224000</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3483000</v>
       </c>
       <c r="I16">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K16">
-        <v>9271339</v>
+        <v>34824000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P16">
-        <v>31236794775</v>
+        <v>120971135005</v>
       </c>
       <c r="Q16">
-        <v>37364336431</v>
+        <v>144752544468</v>
       </c>
       <c r="R16">
-        <v>30398728955</v>
+        <v>134349576051</v>
       </c>
       <c r="S16">
-        <v>4950804374</v>
+        <v>6228818073</v>
       </c>
       <c r="T16">
-        <v>5673304262</v>
+        <v>3756954475</v>
       </c>
       <c r="U16">
-        <v>5874298651</v>
+        <v>11092990558</v>
       </c>
       <c r="V16">
-        <v>4470133667</v>
+        <v>4708568182</v>
       </c>
       <c r="W16">
-        <v>4761400117</v>
+        <v>4366217534</v>
       </c>
       <c r="X16">
-        <v>4532708708</v>
+        <v>7277173431</v>
       </c>
       <c r="Y16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2203,76 +2221,153 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F17">
+        <v>2060000</v>
+      </c>
+      <c r="G17">
+        <v>2060000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4300</v>
+      </c>
+      <c r="J17">
+        <v>4900</v>
+      </c>
+      <c r="K17">
+        <v>9271339</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>5300</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17">
+        <v>31236794775</v>
+      </c>
+      <c r="Q17">
+        <v>37364336431</v>
+      </c>
+      <c r="R17">
+        <v>30398728955</v>
+      </c>
+      <c r="S17">
+        <v>4950804374</v>
+      </c>
+      <c r="T17">
+        <v>5673304262</v>
+      </c>
+      <c r="U17">
+        <v>5874298651</v>
+      </c>
+      <c r="V17">
+        <v>4470133667</v>
+      </c>
+      <c r="W17">
+        <v>4761400117</v>
+      </c>
+      <c r="X17">
+        <v>4532708708</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
         <v>5500000</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>5500000</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>2000</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>2000</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>6060000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>2000</v>
       </c>
-      <c r="N17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>113</v>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2290,399 +2385,399 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>16500</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>19500</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E8">
-        <v>17400</v>
+        <v>6000</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E9">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="E10">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E11">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E12">
-        <v>10000</v>
+        <v>12870</v>
       </c>
       <c r="F12" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E13">
-        <v>18936</v>
+        <v>10000</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>18936</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E15">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E16">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E18">
-        <v>55713</v>
+        <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E19">
-        <v>4800</v>
+        <v>55713</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E20">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F20" t="s">
         <v>194</v>
@@ -2690,22 +2785,22 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E21">
-        <v>16385</v>
+        <v>7200</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -560,10 +560,10 @@
     <t>12,000~14,000</t>
   </si>
   <si>
+    <t>20000</t>
+  </si>
+  <si>
     <t>30000</t>
-  </si>
-  <si>
-    <t>20000</t>
   </si>
   <si>
     <t>2000</t>
@@ -2574,7 +2574,7 @@
         <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="E10">
         <v>17600</v>
@@ -2594,7 +2594,7 @@
         <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E11">
         <v>40000</v>
@@ -2614,7 +2614,7 @@
         <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>12870</v>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="200">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -428,6 +428,9 @@
     <t>민테크</t>
   </si>
   <si>
+    <t>하나스팩33호</t>
+  </si>
+  <si>
     <t>신한스팩13호</t>
   </si>
   <si>
@@ -473,6 +476,9 @@
     <t>2024.04.12~04.18</t>
   </si>
   <si>
+    <t>2024.04.08~04.09</t>
+  </si>
+  <si>
     <t>2024.04.04~04.05</t>
   </si>
   <si>
@@ -518,9 +524,6 @@
     <t>2024.02.01~02.07</t>
   </si>
   <si>
-    <t>2024.01.29~02.02</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
@@ -557,7 +560,7 @@
     <t>4,800~5,800</t>
   </si>
   <si>
-    <t>12,000~14,000</t>
+    <t>2000</t>
   </si>
   <si>
     <t>20000</t>
@@ -566,9 +569,6 @@
     <t>30000</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>13500</t>
   </si>
   <si>
@@ -578,9 +578,6 @@
     <t>7000</t>
   </si>
   <si>
-    <t>16000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -590,15 +587,15 @@
     <t>KB증권</t>
   </si>
   <si>
+    <t>하나증권</t>
+  </si>
+  <si>
     <t>신한투자증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>하나증권</t>
-  </si>
-  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -618,9 +615,6 @@
   </si>
   <si>
     <t>신한투자증권,하나증권</t>
-  </si>
-  <si>
-    <t>키움증권</t>
   </si>
 </sst>
 </file>
@@ -2408,10 +2402,10 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
         <v>107</v>
@@ -2420,7 +2414,7 @@
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2428,10 +2422,10 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
         <v>107</v>
@@ -2440,7 +2434,7 @@
         <v>16500</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2448,10 +2442,10 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -2460,7 +2454,7 @@
         <v>19500</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2468,19 +2462,19 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2488,16 +2482,16 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F6" t="s">
         <v>191</v>
@@ -2508,7 +2502,7 @@
         <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>172</v>
@@ -2517,10 +2511,10 @@
         <v>107</v>
       </c>
       <c r="E7">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2528,19 +2522,19 @@
         <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
         <v>107</v>
       </c>
       <c r="E8">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2548,19 +2542,19 @@
         <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="E9">
-        <v>17400</v>
+        <v>6000</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2568,19 +2562,19 @@
         <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
         <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="E10">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2588,7 +2582,7 @@
         <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>175</v>
@@ -2597,47 +2591,47 @@
         <v>182</v>
       </c>
       <c r="E11">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E12">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13">
-        <v>10000</v>
+        <v>12870</v>
       </c>
       <c r="F13" t="s">
         <v>193</v>
@@ -2645,42 +2639,42 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E14">
-        <v>18936</v>
+        <v>10000</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15">
-        <v>8000</v>
+        <v>18936</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2688,59 +2682,59 @@
         <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2748,59 +2742,59 @@
         <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E19">
-        <v>55713</v>
+        <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20">
-        <v>4800</v>
+        <v>55713</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
         <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -422,6 +422,9 @@
     <t>노브랜드</t>
   </si>
   <si>
+    <t>이노그리드</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -443,9 +446,6 @@
     <t>하나스팩32호</t>
   </si>
   <si>
-    <t>이노그리드</t>
-  </si>
-  <si>
     <t>엔젤로보틱스</t>
   </si>
   <si>
@@ -470,6 +470,9 @@
     <t>2024.04.30~05.08</t>
   </si>
   <si>
+    <t>2024.04.18~04.24</t>
+  </si>
+  <si>
     <t>2024.04.15~04.19</t>
   </si>
   <si>
@@ -491,9 +494,6 @@
     <t>2024.03.12~03.13</t>
   </si>
   <si>
-    <t>2024.03.12~03.18</t>
-  </si>
-  <si>
     <t>2024.03.06~03.12</t>
   </si>
   <si>
@@ -527,6 +527,9 @@
     <t>8,700~11,500</t>
   </si>
   <si>
+    <t>29,000~35,000</t>
+  </si>
+  <si>
     <t>11,000~14,000</t>
   </si>
   <si>
@@ -537,9 +540,6 @@
   </si>
   <si>
     <t>7,700~9,900</t>
-  </si>
-  <si>
-    <t>29,000~35,000</t>
   </si>
   <si>
     <t>11,000~15,000</t>
@@ -2431,7 +2431,7 @@
         <v>107</v>
       </c>
       <c r="E3">
-        <v>16500</v>
+        <v>17400</v>
       </c>
       <c r="F3" t="s">
         <v>188</v>
@@ -2451,10 +2451,10 @@
         <v>107</v>
       </c>
       <c r="E4">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2471,10 +2471,10 @@
         <v>107</v>
       </c>
       <c r="E5">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2485,16 +2485,16 @@
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2505,13 +2505,13 @@
         <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>107</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F7" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>107</v>
       </c>
       <c r="E8">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2545,16 +2545,16 @@
         <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="E9">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2565,16 +2565,16 @@
         <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="E10">
-        <v>17400</v>
+        <v>6000</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2645,7 +2645,7 @@
         <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
         <v>181</v>
@@ -2685,7 +2685,7 @@
         <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
         <v>181</v>
@@ -2705,7 +2705,7 @@
         <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
         <v>181</v>
@@ -2725,7 +2725,7 @@
         <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
         <v>181</v>
@@ -2745,7 +2745,7 @@
         <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
         <v>181</v>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="201">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -434,6 +434,9 @@
     <t>하나스팩33호</t>
   </si>
   <si>
+    <t>제일엠앤에스(구.제일기공)</t>
+  </si>
+  <si>
     <t>신한스팩13호</t>
   </si>
   <si>
@@ -482,6 +485,9 @@
     <t>2024.04.08~04.09</t>
   </si>
   <si>
+    <t>2024.04.05~04.12</t>
+  </si>
+  <si>
     <t>2024.04.04~04.05</t>
   </si>
   <si>
@@ -521,9 +527,6 @@
     <t>2024.02.02~02.08</t>
   </si>
   <si>
-    <t>2024.02.01~02.07</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
@@ -539,6 +542,9 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>15,000~18,000</t>
+  </si>
+  <si>
     <t>7,700~9,900</t>
   </si>
   <si>
@@ -557,9 +563,6 @@
     <t>147,000~200,000</t>
   </si>
   <si>
-    <t>4,800~5,800</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -575,9 +578,6 @@
     <t>250000</t>
   </si>
   <si>
-    <t>7000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>하나증권</t>
+  </si>
+  <si>
+    <t>케이비증권</t>
   </si>
   <si>
     <t>신한투자증권</t>
@@ -2402,10 +2405,10 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
         <v>107</v>
@@ -2422,10 +2425,10 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
         <v>107</v>
@@ -2442,10 +2445,10 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -2462,10 +2465,10 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
         <v>107</v>
@@ -2482,10 +2485,10 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
@@ -2502,16 +2505,16 @@
         <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
         <v>107</v>
       </c>
       <c r="E7">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="F7" t="s">
         <v>191</v>
@@ -2522,19 +2525,19 @@
         <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
         <v>107</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2542,7 +2545,7 @@
         <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
@@ -2551,7 +2554,7 @@
         <v>107</v>
       </c>
       <c r="E9">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F9" t="s">
         <v>192</v>
@@ -2562,19 +2565,19 @@
         <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2582,19 +2585,19 @@
         <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
         <v>182</v>
       </c>
       <c r="E11">
-        <v>17600</v>
+        <v>6000</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2602,96 +2605,96 @@
         <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
         <v>183</v>
       </c>
       <c r="E12">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E13">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E14">
-        <v>10000</v>
+        <v>12870</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15">
-        <v>18936</v>
+        <v>10000</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E16">
-        <v>8000</v>
+        <v>18936</v>
       </c>
       <c r="F16" t="s">
         <v>195</v>
@@ -2702,16 +2705,16 @@
         <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E17">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F17" t="s">
         <v>196</v>
@@ -2719,19 +2722,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E18">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F18" t="s">
         <v>197</v>
@@ -2739,16 +2742,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E19">
         <v>8000</v>
@@ -2762,16 +2765,16 @@
         <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E20">
-        <v>55713</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="s">
         <v>199</v>
@@ -2779,22 +2782,22 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
         <v>186</v>
       </c>
       <c r="E21">
-        <v>4800</v>
+        <v>55713</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="206">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
     <t>2024-02-21</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t>2024-01-09</t>
   </si>
   <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
     <t>2024-02-27</t>
   </si>
   <si>
@@ -158,18 +164,15 @@
     <t>2024-01-10</t>
   </si>
   <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
     <t>2024-03-13</t>
   </si>
   <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-03-05</t>
   </si>
   <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
     <t>2024-03-04</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
     <t>2024-01-24</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -230,6 +236,9 @@
     <t>대신</t>
   </si>
   <si>
+    <t>삼현</t>
+  </si>
+  <si>
     <t>오상헬스케어</t>
   </si>
   <si>
@@ -281,6 +290,9 @@
     <t>대신밸런스제17호스팩</t>
   </si>
   <si>
+    <t>649.11:1</t>
+  </si>
+  <si>
     <t>993.21:1</t>
   </si>
   <si>
@@ -332,6 +344,9 @@
     <t>892.06:1</t>
   </si>
   <si>
+    <t>10.64%</t>
+  </si>
+  <si>
     <t>2.85%</t>
   </si>
   <si>
@@ -362,6 +377,9 @@
     <t>17.01%</t>
   </si>
   <si>
+    <t>스마트 액추에이터, 스마트 파워유닛</t>
+  </si>
+  <si>
     <t>생화학 측정기 및 센서, 면역진단기기 및 마커, 분자진단기기 및 시약 등</t>
   </si>
   <si>
@@ -450,9 +468,6 @@
   </si>
   <si>
     <t>엔젤로보틱스</t>
-  </si>
-  <si>
-    <t>삼현</t>
   </si>
   <si>
     <t>하나스팩31호</t>
@@ -975,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,76 +1078,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G2">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K2">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P2">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q2">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R2">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S2">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T2">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U2">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V2">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W2">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X2">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1140,153 +1155,153 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G3">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J3">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K3">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P3">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q3">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R3">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S3">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T3">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U3">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V3">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W3">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X3">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K4">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1294,22 +1309,22 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G5">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1321,7 +1336,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1330,10 +1345,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1363,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1371,22 +1386,22 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1398,7 +1413,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1407,10 +1422,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1440,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1451,13 +1466,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>4000000</v>
@@ -1475,7 +1490,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1484,10 +1499,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1517,24 +1532,24 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>4000000</v>
@@ -1552,7 +1567,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1561,10 +1576,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1594,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1602,76 +1617,76 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G9">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P9">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1679,158 +1694,158 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G10">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J10">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K10">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P10">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q10">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R10">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S10">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T10">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U10">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V10">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W10">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X10">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G11">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J11">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K11">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P11">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q11">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R11">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S11">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T11">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U11">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -1839,58 +1854,58 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G12">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K12">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1902,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1910,153 +1925,153 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="G13">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>4225498</v>
+        <v>4690000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P13">
-        <v>84448377049</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>86585909893</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>71141473670</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>4232543828</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>2396516104</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>2260522008</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>3768461107</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1925269107</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1937996182</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="K14">
-        <v>4230000</v>
+        <v>4225498</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>84448377049</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>86585909893</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>71141473670</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>4232543828</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2396516104</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2260522008</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>3768461107</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1925269107</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1937996182</v>
       </c>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2064,76 +2079,76 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>9355485</v>
+        <v>4230000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O15" t="s">
         <v>112</v>
       </c>
       <c r="P15">
-        <v>91496346476</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>91488384999</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>63460787949</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>9436568051</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>11992232752</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>8323875572</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>8609153489</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>6967992579</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>7769366120</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2141,153 +2156,153 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>8707000</v>
+        <v>1500000</v>
       </c>
       <c r="G16">
-        <v>5224000</v>
+        <v>1500000</v>
       </c>
       <c r="H16">
-        <v>3483000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J16">
-        <v>6300</v>
+        <v>15000</v>
       </c>
       <c r="K16">
-        <v>34824000</v>
+        <v>9355485</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7300</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P16">
-        <v>120971135005</v>
+        <v>91496346476</v>
       </c>
       <c r="Q16">
-        <v>144752544468</v>
+        <v>91488384999</v>
       </c>
       <c r="R16">
-        <v>134349576051</v>
+        <v>63460787949</v>
       </c>
       <c r="S16">
-        <v>6228818073</v>
+        <v>9436568051</v>
       </c>
       <c r="T16">
-        <v>3756954475</v>
+        <v>11992232752</v>
       </c>
       <c r="U16">
-        <v>11092990558</v>
+        <v>8323875572</v>
       </c>
       <c r="V16">
-        <v>4708568182</v>
+        <v>8609153489</v>
       </c>
       <c r="W16">
-        <v>4366217534</v>
+        <v>6967992579</v>
       </c>
       <c r="X16">
-        <v>7277173431</v>
+        <v>7769366120</v>
       </c>
       <c r="Y16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>2060000</v>
+        <v>8707000</v>
       </c>
       <c r="G17">
-        <v>2060000</v>
+        <v>5224000</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3483000</v>
       </c>
       <c r="I17">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K17">
-        <v>9271339</v>
+        <v>34824000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P17">
-        <v>31236794775</v>
+        <v>120971135005</v>
       </c>
       <c r="Q17">
-        <v>37364336431</v>
+        <v>144752544468</v>
       </c>
       <c r="R17">
-        <v>30398728955</v>
+        <v>134349576051</v>
       </c>
       <c r="S17">
-        <v>4950804374</v>
+        <v>6228818073</v>
       </c>
       <c r="T17">
-        <v>5673304262</v>
+        <v>3756954475</v>
       </c>
       <c r="U17">
-        <v>5874298651</v>
+        <v>11092990558</v>
       </c>
       <c r="V17">
-        <v>4470133667</v>
+        <v>4708568182</v>
       </c>
       <c r="W17">
-        <v>4761400117</v>
+        <v>4366217534</v>
       </c>
       <c r="X17">
-        <v>4532708708</v>
+        <v>7277173431</v>
       </c>
       <c r="Y17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2295,76 +2310,153 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18">
+        <v>2060000</v>
+      </c>
+      <c r="G18">
+        <v>2060000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4300</v>
+      </c>
+      <c r="J18">
+        <v>4900</v>
+      </c>
+      <c r="K18">
+        <v>9271339</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5300</v>
+      </c>
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18">
+        <v>31236794775</v>
+      </c>
+      <c r="Q18">
+        <v>37364336431</v>
+      </c>
+      <c r="R18">
+        <v>30398728955</v>
+      </c>
+      <c r="S18">
+        <v>4950804374</v>
+      </c>
+      <c r="T18">
+        <v>5673304262</v>
+      </c>
+      <c r="U18">
+        <v>5874298651</v>
+      </c>
+      <c r="V18">
+        <v>4470133667</v>
+      </c>
+      <c r="W18">
+        <v>4761400117</v>
+      </c>
+      <c r="X18">
+        <v>4532708708</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
         <v>5500000</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>5500000</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>2000</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>2000</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>6060000</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>2000</v>
       </c>
-      <c r="N18" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>120</v>
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2382,422 +2474,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E3">
         <v>17400</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>16500</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>19500</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>7000</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>36000</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>6000</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>10000</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>19250</v>
       </c>
       <c r="F10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E11">
         <v>6000</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E12">
         <v>17600</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E13">
         <v>40000</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E14">
         <v>12870</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E15">
         <v>10000</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E16">
         <v>18936</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E17">
         <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E18">
         <v>13000</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E20">
         <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E21">
         <v>55713</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="204">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -440,12 +440,18 @@
     <t>노브랜드</t>
   </si>
   <si>
+    <t>아이씨티케이</t>
+  </si>
+  <si>
     <t>이노그리드</t>
   </si>
   <si>
     <t>코칩</t>
   </si>
   <si>
+    <t>유안타스팩16호</t>
+  </si>
+  <si>
     <t>민테크</t>
   </si>
   <si>
@@ -479,21 +485,21 @@
     <t>유안타스팩15호</t>
   </si>
   <si>
-    <t>비엔케이스팩2호</t>
-  </si>
-  <si>
-    <t>에이피알(유가)</t>
-  </si>
-  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
+    <t>2024.04.24~04.30</t>
+  </si>
+  <si>
     <t>2024.04.18~04.24</t>
   </si>
   <si>
     <t>2024.04.15~04.19</t>
   </si>
   <si>
+    <t>2024.04.15~04.16</t>
+  </si>
+  <si>
     <t>2024.04.12~04.18</t>
   </si>
   <si>
@@ -539,24 +545,24 @@
     <t>2024.02.13~02.14</t>
   </si>
   <si>
-    <t>2024.02.02~02.08</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
+    <t>13,000~16,000</t>
+  </si>
+  <si>
     <t>29,000~35,000</t>
   </si>
   <si>
     <t>11,000~14,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>6,500~8,500</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>15,000~18,000</t>
   </si>
   <si>
@@ -575,9 +581,6 @@
     <t>9,000~11,000</t>
   </si>
   <si>
-    <t>147,000~200,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -590,15 +593,18 @@
     <t>13500</t>
   </si>
   <si>
-    <t>250000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>유안타증권</t>
+  </si>
+  <si>
     <t>KB증권</t>
   </si>
   <si>
@@ -614,25 +620,13 @@
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>DB금융투자,NH투자증권</t>
   </si>
   <si>
     <t>SK증권</t>
   </si>
   <si>
-    <t>유안타증권</t>
-  </si>
-  <si>
     <t>유진증권</t>
-  </si>
-  <si>
-    <t>BNK투자증권</t>
-  </si>
-  <si>
-    <t>신한투자증권,하나증권</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2494,7 @@
         <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
@@ -2520,13 +2514,13 @@
         <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
       </c>
       <c r="E3">
-        <v>17400</v>
+        <v>25610</v>
       </c>
       <c r="F3" t="s">
         <v>193</v>
@@ -2540,16 +2534,16 @@
         <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
         <v>112</v>
       </c>
       <c r="E4">
-        <v>16500</v>
+        <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2560,13 +2554,13 @@
         <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
         <v>112</v>
       </c>
       <c r="E5">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="F5" t="s">
         <v>194</v>
@@ -2580,13 +2574,13 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
         <v>112</v>
       </c>
       <c r="E6">
-        <v>7000</v>
+        <v>10300</v>
       </c>
       <c r="F6" t="s">
         <v>195</v>
@@ -2600,13 +2594,13 @@
         <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
       </c>
       <c r="E7">
-        <v>36000</v>
+        <v>19500</v>
       </c>
       <c r="F7" t="s">
         <v>196</v>
@@ -2620,13 +2614,13 @@
         <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
         <v>112</v>
       </c>
       <c r="E8">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F8" t="s">
         <v>197</v>
@@ -2640,16 +2634,16 @@
         <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
         <v>112</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2660,16 +2654,16 @@
         <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
         <v>112</v>
       </c>
       <c r="E10">
-        <v>19250</v>
+        <v>6000</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2680,16 +2674,16 @@
         <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="E11">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2700,41 +2694,41 @@
         <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>17600</v>
+        <v>19250</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
         <v>168</v>
@@ -2743,153 +2737,153 @@
         <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E14">
-        <v>12870</v>
+        <v>17600</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E15">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16">
-        <v>18936</v>
+        <v>12870</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E18">
-        <v>13000</v>
+        <v>18936</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
         <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E20">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21">
-        <v>55713</v>
+        <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="193">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -128,9 +128,6 @@
     <t>2024-01-08</t>
   </si>
   <si>
-    <t>2024-01-09</t>
-  </si>
-  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>2024-01-12</t>
   </si>
   <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>2024-01-26</t>
   </si>
   <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
     <t>한국</t>
   </si>
   <si>
@@ -230,12 +221,6 @@
     <t>미래</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
     <t>삼현</t>
   </si>
   <si>
@@ -284,12 +269,6 @@
     <t>현대힘스</t>
   </si>
   <si>
-    <t>우진엔텍</t>
-  </si>
-  <si>
-    <t>대신밸런스제17호스팩</t>
-  </si>
-  <si>
     <t>649.11:1</t>
   </si>
   <si>
@@ -338,12 +317,6 @@
     <t>680.82:1</t>
   </si>
   <si>
-    <t>1,263.32:1</t>
-  </si>
-  <si>
-    <t>892.06:1</t>
-  </si>
-  <si>
     <t>10.64%</t>
   </si>
   <si>
@@ -374,9 +347,6 @@
     <t>11.98%</t>
   </si>
   <si>
-    <t>17.01%</t>
-  </si>
-  <si>
     <t>스마트 액추에이터, 스마트 파워유닛</t>
   </si>
   <si>
@@ -414,9 +384,6 @@
   </si>
   <si>
     <t>선박기자재 (선박 블록, 보강재, 도장 등)</t>
-  </si>
-  <si>
-    <t>발전소 계측제어설비 정비 서비스</t>
   </si>
   <si>
     <t>종목명</t>
@@ -984,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,16 +1039,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>2000000</v>
@@ -1108,10 +1075,10 @@
         <v>30000</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <v>59096247022</v>
@@ -1141,7 +1108,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1149,16 +1116,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>990000</v>
@@ -1185,10 +1152,10 @@
         <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P3">
         <v>132326879204</v>
@@ -1218,7 +1185,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1226,16 +1193,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>2104000</v>
@@ -1262,10 +1229,10 @@
         <v>13500</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P4">
         <v>13884202433</v>
@@ -1295,7 +1262,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1303,16 +1270,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>5000000</v>
@@ -1339,10 +1306,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1372,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1386,10 +1353,10 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>6500000</v>
@@ -1416,10 +1383,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1449,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1460,13 +1427,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>4000000</v>
@@ -1493,10 +1460,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1526,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1537,13 +1504,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>4000000</v>
@@ -1570,10 +1537,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1603,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1617,10 +1584,10 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1647,10 +1614,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1680,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1688,16 +1655,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>600000</v>
@@ -1724,10 +1691,10 @@
         <v>16000</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P10">
         <v>9490</v>
@@ -1757,7 +1724,7 @@
         <v>876</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1765,16 +1732,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -1801,10 +1768,10 @@
         <v>7000</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P11">
         <v>11728856090</v>
@@ -1834,7 +1801,7 @@
         <v>-2027030543</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1842,16 +1809,16 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>1130000</v>
@@ -1878,10 +1845,10 @@
         <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P12">
         <v>-7085110800</v>
@@ -1911,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1919,16 +1886,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13">
         <v>4575000</v>
@@ -1955,10 +1922,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1988,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1996,16 +1963,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>850000</v>
@@ -2032,10 +1999,10 @@
         <v>18000</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P14">
         <v>84448377049</v>
@@ -2065,7 +2032,7 @@
         <v>1937996182</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2073,16 +2040,16 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>4000000</v>
@@ -2109,10 +2076,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2142,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2150,16 +2117,16 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>1500000</v>
@@ -2186,10 +2153,10 @@
         <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="P16">
         <v>91496346476</v>
@@ -2219,7 +2186,7 @@
         <v>7769366120</v>
       </c>
       <c r="Y16" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2227,16 +2194,16 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>8707000</v>
@@ -2263,10 +2230,10 @@
         <v>7300</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="P17">
         <v>120971135005</v>
@@ -2296,161 +2263,7 @@
         <v>7277173431</v>
       </c>
       <c r="Y17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>2060000</v>
-      </c>
-      <c r="G18">
-        <v>2060000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>4300</v>
-      </c>
-      <c r="J18">
-        <v>4900</v>
-      </c>
-      <c r="K18">
-        <v>9271339</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>5300</v>
-      </c>
-      <c r="N18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" t="s">
-        <v>119</v>
-      </c>
-      <c r="P18">
-        <v>31236794775</v>
-      </c>
-      <c r="Q18">
-        <v>37364336431</v>
-      </c>
-      <c r="R18">
-        <v>30398728955</v>
-      </c>
-      <c r="S18">
-        <v>4950804374</v>
-      </c>
-      <c r="T18">
-        <v>5673304262</v>
-      </c>
-      <c r="U18">
-        <v>5874298651</v>
-      </c>
-      <c r="V18">
-        <v>4470133667</v>
-      </c>
-      <c r="W18">
-        <v>4761400117</v>
-      </c>
-      <c r="X18">
-        <v>4532708708</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19">
-        <v>5500000</v>
-      </c>
-      <c r="G19">
-        <v>5500000</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>2000</v>
-      </c>
-      <c r="J19">
-        <v>2000</v>
-      </c>
-      <c r="K19">
-        <v>6060000</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2000</v>
-      </c>
-      <c r="N19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2468,422 +2281,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>25610</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E4">
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>16500</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>10300</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>19500</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>36000</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>6000</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>10000</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>19250</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E13">
         <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E14">
         <v>17600</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E15">
         <v>40000</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E16">
         <v>12870</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E17">
         <v>10000</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E18">
         <v>18936</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E20">
         <v>13000</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
     <t>2024-02-29</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t>2024-01-08</t>
   </si>
   <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -158,6 +164,9 @@
     <t>2024-01-12</t>
   </si>
   <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -179,12 +188,12 @@
     <t>2024-01-26</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>DB, NH</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
     <t>미래</t>
   </si>
   <si>
+    <t>엔젤로보틱스</t>
+  </si>
+  <si>
     <t>삼현</t>
   </si>
   <si>
@@ -269,6 +281,9 @@
     <t>현대힘스</t>
   </si>
   <si>
+    <t>1,157.0:1</t>
+  </si>
+  <si>
     <t>649.11:1</t>
   </si>
   <si>
@@ -317,6 +332,9 @@
     <t>680.82:1</t>
   </si>
   <si>
+    <t>16.67%</t>
+  </si>
+  <si>
     <t>10.64%</t>
   </si>
   <si>
@@ -347,6 +365,9 @@
     <t>11.98%</t>
   </si>
   <si>
+    <t>재활 전문 웨어러블 로봇, 근력 보조 무동력 웨어러블 슈트, 일상생활 보조 웨어러블 로봇 등</t>
+  </si>
+  <si>
     <t>스마트 액추에이터, 스마트 파워유닛</t>
   </si>
   <si>
@@ -413,6 +434,9 @@
     <t>이노그리드</t>
   </si>
   <si>
+    <t>SK증권스팩12호</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -440,9 +464,6 @@
     <t>하나스팩32호</t>
   </si>
   <si>
-    <t>엔젤로보틱스</t>
-  </si>
-  <si>
     <t>하나스팩31호</t>
   </si>
   <si>
@@ -461,6 +482,9 @@
     <t>2024.04.18~04.24</t>
   </si>
   <si>
+    <t>2024.04.17~04.18</t>
+  </si>
+  <si>
     <t>2024.04.15~04.19</t>
   </si>
   <si>
@@ -509,9 +533,6 @@
     <t>2024.02.14~02.15</t>
   </si>
   <si>
-    <t>2024.02.13~02.14</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
@@ -521,12 +542,12 @@
     <t>29,000~35,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>11,000~14,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>6,500~8,500</t>
   </si>
   <si>
@@ -548,6 +569,9 @@
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>13000</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
@@ -569,6 +593,9 @@
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>SK증권</t>
+  </si>
+  <si>
     <t>유안타증권</t>
   </si>
   <si>
@@ -578,9 +605,6 @@
     <t>하나증권</t>
   </si>
   <si>
-    <t>케이비증권</t>
-  </si>
-  <si>
     <t>신한투자증권</t>
   </si>
   <si>
@@ -588,12 +612,6 @@
   </si>
   <si>
     <t>DB금융투자,NH투자증권</t>
-  </si>
-  <si>
-    <t>SK증권</t>
-  </si>
-  <si>
-    <t>유진증권</t>
   </si>
 </sst>
 </file>
@@ -951,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,76 +1057,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
+        <v>11000</v>
+      </c>
+      <c r="J2">
+        <v>15000</v>
+      </c>
+      <c r="K2">
+        <v>14014976</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>20000</v>
       </c>
-      <c r="J2">
-        <v>25000</v>
-      </c>
-      <c r="K2">
-        <v>10569189</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>30000</v>
-      </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P2">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q2">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R2">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S2">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T2">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U2">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V2">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W2">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X2">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1116,76 +1134,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G3">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K3">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P3">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q3">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R3">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S3">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T3">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U3">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V3">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W3">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X3">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1193,153 +1211,153 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G4">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K4">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P4">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q4">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R4">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S4">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T4">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U4">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V4">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W4">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X4">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G5">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K5">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1347,22 +1365,22 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G6">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1374,7 +1392,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1383,10 +1401,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1416,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1424,22 +1442,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1451,7 +1469,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1460,10 +1478,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1493,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1504,13 +1522,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>4000000</v>
@@ -1528,7 +1546,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1537,10 +1555,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1570,24 +1588,24 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1605,7 +1623,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1614,10 +1632,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1647,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1655,76 +1673,76 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G10">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P10">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1732,218 +1750,218 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G11">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J11">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K11">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P11">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q11">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R11">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S11">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T11">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U11">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V11">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W11">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X11">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G12">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J12">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K12">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P12">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q12">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R12">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S12">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T12">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U12">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G13">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K13">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1955,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1963,73 +1981,73 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="G14">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>4225498</v>
+        <v>4690000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P14">
-        <v>84448377049</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>86585909893</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>71141473670</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>4232543828</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2396516104</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>2260522008</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>3768461107</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1925269107</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1937996182</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
         <v>120</v>
@@ -2037,79 +2055,79 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="K15">
-        <v>4230000</v>
+        <v>4225498</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>84448377049</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>86585909893</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>71141473670</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>4232543828</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2396516104</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2260522008</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>3768461107</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1925269107</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1937996182</v>
       </c>
       <c r="Y15" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2117,76 +2135,76 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G16">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>9355485</v>
+        <v>4230000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16">
-        <v>91496346476</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>91488384999</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>63460787949</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>9436568051</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>11992232752</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>8323875572</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>8609153489</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>6967992579</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>7769366120</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2194,76 +2212,153 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F17">
+        <v>1500000</v>
+      </c>
+      <c r="G17">
+        <v>1500000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>13000</v>
+      </c>
+      <c r="J17">
+        <v>15000</v>
+      </c>
+      <c r="K17">
+        <v>9355485</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>18000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17">
+        <v>91496346476</v>
+      </c>
+      <c r="Q17">
+        <v>91488384999</v>
+      </c>
+      <c r="R17">
+        <v>63460787949</v>
+      </c>
+      <c r="S17">
+        <v>9436568051</v>
+      </c>
+      <c r="T17">
+        <v>11992232752</v>
+      </c>
+      <c r="U17">
+        <v>8323875572</v>
+      </c>
+      <c r="V17">
+        <v>8609153489</v>
+      </c>
+      <c r="W17">
+        <v>6967992579</v>
+      </c>
+      <c r="X17">
+        <v>7769366120</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
         <v>8707000</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>5224000</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>3483000</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>5000</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>6300</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>34824000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>7300</v>
       </c>
-      <c r="N17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17">
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18">
         <v>120971135005</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>144752544468</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>134349576051</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>6228818073</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>3756954475</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>11092990558</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>4708568182</v>
       </c>
-      <c r="W17">
+      <c r="W18">
         <v>4366217534</v>
       </c>
-      <c r="X17">
+      <c r="X18">
         <v>7277173431</v>
       </c>
-      <c r="Y17" t="s">
-        <v>122</v>
+      <c r="Y18" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2281,422 +2376,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>25610</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E4">
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E6">
-        <v>10300</v>
+        <v>16500</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E7">
-        <v>19500</v>
+        <v>10300</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E8">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E9">
-        <v>36000</v>
+        <v>7000</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E11">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E12">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E13">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F13" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E14">
-        <v>17600</v>
+        <v>6000</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E15">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E16">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E17">
-        <v>10000</v>
+        <v>12870</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E18">
-        <v>18936</v>
+        <v>10000</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E19">
-        <v>8000</v>
+        <v>18936</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E20">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E21">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="196">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
     <t>2024-03-06</t>
   </si>
   <si>
@@ -128,10 +131,7 @@
     <t>2024-01-05</t>
   </si>
   <si>
-    <t>2024-01-08</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
+    <t>2024-03-13</t>
   </si>
   <si>
     <t>2024-03-07</t>
@@ -161,7 +161,7 @@
     <t>2024-01-11</t>
   </si>
   <si>
-    <t>2024-01-12</t>
+    <t>2024-03-27</t>
   </si>
   <si>
     <t>2024-03-26</t>
@@ -170,9 +170,6 @@
     <t>2024-03-21</t>
   </si>
   <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
     <t>2024-03-05</t>
   </si>
   <si>
@@ -185,7 +182,7 @@
     <t>2024-02-06</t>
   </si>
   <si>
-    <t>2024-01-26</t>
+    <t>하나</t>
   </si>
   <si>
     <t>NH</t>
@@ -197,9 +194,6 @@
     <t>DB, NH</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -227,7 +221,7 @@
     <t>IBK</t>
   </si>
   <si>
-    <t>미래</t>
+    <t>하나32호스팩</t>
   </si>
   <si>
     <t>엔젤로보틱스</t>
@@ -278,7 +272,7 @@
     <t>포스뱅크</t>
   </si>
   <si>
-    <t>현대힘스</t>
+    <t>1247.72:1</t>
   </si>
   <si>
     <t>1,157.0:1</t>
@@ -329,7 +323,7 @@
     <t>839.03:1</t>
   </si>
   <si>
-    <t>680.82:1</t>
+    <t>-</t>
   </si>
   <si>
     <t>16.67%</t>
@@ -344,9 +338,6 @@
     <t>31.86%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>10.04%</t>
   </si>
   <si>
@@ -362,7 +353,7 @@
     <t>6.21%</t>
   </si>
   <si>
-    <t>11.98%</t>
+    <t>기업인수합병</t>
   </si>
   <si>
     <t>재활 전문 웨어러블 로봇, 근력 보조 무동력 웨어러블 슈트, 일상생활 보조 웨어러블 로봇 등</t>
@@ -377,9 +368,6 @@
     <t>특수목적 시험장비, 산업용로봇</t>
   </si>
   <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>금융 지원 서비스</t>
   </si>
   <si>
@@ -404,9 +392,6 @@
     <t>POS 단말기, KIOSK 단말기</t>
   </si>
   <si>
-    <t>선박기자재 (선박 블록, 보강재, 도장 등)</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -437,6 +422,9 @@
     <t>SK증권스팩12호</t>
   </si>
   <si>
+    <t>HD현대마린솔루션(구.HD현대글로벌서비스)(유가)</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -446,6 +434,9 @@
     <t>민테크</t>
   </si>
   <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
     <t>하나스팩33호</t>
   </si>
   <si>
@@ -467,12 +458,6 @@
     <t>하나스팩31호</t>
   </si>
   <si>
-    <t>SK증권스팩11호</t>
-  </si>
-  <si>
-    <t>유안타스팩15호</t>
-  </si>
-  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
@@ -485,6 +470,9 @@
     <t>2024.04.17~04.18</t>
   </si>
   <si>
+    <t>2024.04.16~04.22</t>
+  </si>
+  <si>
     <t>2024.04.15~04.19</t>
   </si>
   <si>
@@ -527,12 +515,6 @@
     <t>2024.02.16~02.22</t>
   </si>
   <si>
-    <t>2024.02.15~02.16</t>
-  </si>
-  <si>
-    <t>2024.02.14~02.15</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
@@ -545,12 +527,18 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>73,300~83,400</t>
+  </si>
+  <si>
     <t>11,000~14,000</t>
   </si>
   <si>
     <t>6,500~8,500</t>
   </si>
   <si>
+    <t>22,000~26,000</t>
+  </si>
+  <si>
     <t>15,000~18,000</t>
   </si>
   <si>
@@ -594,6 +582,9 @@
   </si>
   <si>
     <t>SK증권</t>
+  </si>
+  <si>
+    <t>KB증권,신한투자증권,하나증권,대신증권,삼성증권</t>
   </si>
   <si>
     <t>유안타증권</t>
@@ -1060,73 +1051,73 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G2">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P2">
-        <v>813929</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2184312</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3744252</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-4828658</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-7101029</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-4926381</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-24094044</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-6797310</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-7817567</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1134,76 +1125,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G3">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <v>11000</v>
+      </c>
+      <c r="J3">
+        <v>15000</v>
+      </c>
+      <c r="K3">
+        <v>14014976</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>20000</v>
       </c>
-      <c r="J3">
-        <v>25000</v>
-      </c>
-      <c r="K3">
-        <v>10569189</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>30000</v>
-      </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P3">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q3">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R3">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S3">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T3">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U3">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V3">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W3">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X3">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1211,76 +1202,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G4">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J4">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K4">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P4">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q4">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R4">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S4">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T4">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U4">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V4">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W4">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X4">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1288,153 +1279,153 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G5">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K5">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P5">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q5">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R5">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S5">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T5">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U5">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V5">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W5">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X5">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G6">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K6">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1442,22 +1433,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G7">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1469,7 +1460,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1478,10 +1469,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1511,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1519,22 +1510,22 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G8">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1546,7 +1537,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1555,10 +1546,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1588,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1602,10 +1593,10 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1623,7 +1614,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1632,10 +1623,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1665,24 +1656,24 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1700,7 +1691,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1709,10 +1700,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1742,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1750,76 +1741,76 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G11">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P11">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1827,218 +1818,218 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G12">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J12">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K12">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P12">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q12">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R12">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S12">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T12">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U12">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V12">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W12">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X12">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G13">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J13">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K13">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P13">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q13">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R13">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S13">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T13">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U13">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G14">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K14">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
         <v>109</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2050,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2061,147 +2052,147 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="G15">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>4225498</v>
+        <v>4690000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="P15">
-        <v>84448377049</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>86585909893</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>71141473670</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>4232543828</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>2396516104</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>2260522008</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>3768461107</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1925269107</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1937996182</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="K16">
-        <v>4230000</v>
+        <v>4225498</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>84448377049</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>86585909893</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>71141473670</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>4232543828</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>2396516104</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2260522008</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>3768461107</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1925269107</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1937996182</v>
       </c>
       <c r="Y16" t="s">
         <v>123</v>
@@ -2212,76 +2203,76 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F17">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G17">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
-        <v>9355485</v>
+        <v>4230000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="P17">
-        <v>91496346476</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>91488384999</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>63460787949</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>9436568051</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>11992232752</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>8323875572</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>8609153489</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>6967992579</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>7769366120</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2289,76 +2280,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18">
-        <v>8707000</v>
+        <v>1500000</v>
       </c>
       <c r="G18">
-        <v>5224000</v>
+        <v>1500000</v>
       </c>
       <c r="H18">
-        <v>3483000</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J18">
-        <v>6300</v>
+        <v>15000</v>
       </c>
       <c r="K18">
-        <v>34824000</v>
+        <v>9355485</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7300</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P18">
-        <v>120971135005</v>
+        <v>91496346476</v>
       </c>
       <c r="Q18">
-        <v>144752544468</v>
+        <v>91488384999</v>
       </c>
       <c r="R18">
-        <v>134349576051</v>
+        <v>63460787949</v>
       </c>
       <c r="S18">
-        <v>6228818073</v>
+        <v>9436568051</v>
       </c>
       <c r="T18">
-        <v>3756954475</v>
+        <v>11992232752</v>
       </c>
       <c r="U18">
-        <v>11092990558</v>
+        <v>8323875572</v>
       </c>
       <c r="V18">
-        <v>4708568182</v>
+        <v>8609153489</v>
       </c>
       <c r="W18">
-        <v>4366217534</v>
+        <v>6967992579</v>
       </c>
       <c r="X18">
-        <v>7277173431</v>
+        <v>7769366120</v>
       </c>
       <c r="Y18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2376,399 +2367,399 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>25610</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>16500</v>
+        <v>652370</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E7">
-        <v>10300</v>
+        <v>16500</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E8">
-        <v>19500</v>
+        <v>10300</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E9">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E10">
-        <v>36000</v>
+        <v>24200</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E12">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="E13">
-        <v>19250</v>
+        <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="E14">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
         <v>180</v>
       </c>
-      <c r="D15" t="s">
-        <v>186</v>
-      </c>
       <c r="E15">
-        <v>17600</v>
+        <v>19250</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
         <v>181</v>
       </c>
-      <c r="D16" t="s">
-        <v>187</v>
-      </c>
       <c r="E16">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
         <v>182</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>17600</v>
+      </c>
+      <c r="F17" t="s">
         <v>186</v>
-      </c>
-      <c r="E17">
-        <v>12870</v>
-      </c>
-      <c r="F17" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E19">
-        <v>18936</v>
+        <v>12870</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E20">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F20" t="s">
         <v>192</v>
@@ -2776,22 +2767,22 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21">
-        <v>13000</v>
+        <v>18936</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="190">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -128,9 +128,6 @@
     <t>2024-01-17</t>
   </si>
   <si>
-    <t>2024-01-05</t>
-  </si>
-  <si>
     <t>2024-03-13</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>2024-01-18</t>
   </si>
   <si>
-    <t>2024-01-11</t>
-  </si>
-  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>IBKS제24호스팩</t>
   </si>
   <si>
-    <t>포스뱅크</t>
-  </si>
-  <si>
     <t>1247.72:1</t>
   </si>
   <si>
@@ -320,9 +311,6 @@
     <t>955.19:1</t>
   </si>
   <si>
-    <t>839.03:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -350,9 +338,6 @@
     <t>5.55%</t>
   </si>
   <si>
-    <t>6.21%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -387,9 +372,6 @@
   </si>
   <si>
     <t>침실가구, 거실가구, 옷장/수납, 주방가구 등</t>
-  </si>
-  <si>
-    <t>POS 단말기, KIOSK 단말기</t>
   </si>
   <si>
     <t>종목명</t>
@@ -960,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,16 +1030,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>3000000</v>
@@ -1084,10 +1066,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1117,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1128,13 +1110,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>1600000</v>
@@ -1161,10 +1143,10 @@
         <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P3">
         <v>813929</v>
@@ -1194,7 +1176,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1202,16 +1184,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>2000000</v>
@@ -1238,10 +1220,10 @@
         <v>30000</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P4">
         <v>59096247022</v>
@@ -1271,7 +1253,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1279,16 +1261,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>990000</v>
@@ -1315,10 +1297,10 @@
         <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P5">
         <v>132326879204</v>
@@ -1348,7 +1330,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1356,16 +1338,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>2104000</v>
@@ -1392,10 +1374,10 @@
         <v>13500</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P6">
         <v>13884202433</v>
@@ -1425,7 +1407,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1433,16 +1415,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>5000000</v>
@@ -1469,10 +1451,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1502,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1516,10 +1498,10 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>6500000</v>
@@ -1546,10 +1528,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1579,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1590,13 +1572,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1623,10 +1605,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1656,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1667,13 +1649,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1700,10 +1682,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1733,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1747,10 +1729,10 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>4000000</v>
@@ -1777,10 +1759,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1810,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1818,16 +1800,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <v>600000</v>
@@ -1854,10 +1836,10 @@
         <v>16000</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P12">
         <v>9490</v>
@@ -1887,7 +1869,7 @@
         <v>876</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1895,16 +1877,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>1000000</v>
@@ -1931,10 +1913,10 @@
         <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P13">
         <v>11728856090</v>
@@ -1964,7 +1946,7 @@
         <v>-2027030543</v>
       </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1972,16 +1954,16 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>1130000</v>
@@ -2008,10 +1990,10 @@
         <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P14">
         <v>-7085110800</v>
@@ -2041,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2049,16 +2031,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>4575000</v>
@@ -2085,11 +2067,11 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" t="s">
         <v>98</v>
       </c>
-      <c r="O15" t="s">
-        <v>102</v>
-      </c>
       <c r="P15">
         <v>0</v>
       </c>
@@ -2118,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2126,16 +2108,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16">
         <v>850000</v>
@@ -2162,10 +2144,10 @@
         <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P16">
         <v>84448377049</v>
@@ -2195,7 +2177,7 @@
         <v>1937996182</v>
       </c>
       <c r="Y16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2203,16 +2185,16 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17">
         <v>4000000</v>
@@ -2239,10 +2221,10 @@
         <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2272,84 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18">
-        <v>1500000</v>
-      </c>
-      <c r="G18">
-        <v>1500000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>13000</v>
-      </c>
-      <c r="J18">
-        <v>15000</v>
-      </c>
-      <c r="K18">
-        <v>9355485</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>18000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18">
-        <v>91496346476</v>
-      </c>
-      <c r="Q18">
-        <v>91488384999</v>
-      </c>
-      <c r="R18">
-        <v>63460787949</v>
-      </c>
-      <c r="S18">
-        <v>9436568051</v>
-      </c>
-      <c r="T18">
-        <v>11992232752</v>
-      </c>
-      <c r="U18">
-        <v>8323875572</v>
-      </c>
-      <c r="V18">
-        <v>8609153489</v>
-      </c>
-      <c r="W18">
-        <v>6967992579</v>
-      </c>
-      <c r="X18">
-        <v>7769366120</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2367,422 +2272,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>25610</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>652370</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>16500</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>10300</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>19500</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>24200</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>7000</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>36000</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>10000</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E15">
         <v>19250</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E16">
         <v>6000</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
         <v>176</v>
-      </c>
-      <c r="D17" t="s">
-        <v>182</v>
       </c>
       <c r="E17">
         <v>17600</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
         <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>183</v>
       </c>
       <c r="E18">
         <v>40000</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E19">
         <v>12870</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E20">
         <v>10000</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E21">
         <v>18936</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="186">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -152,9 +152,6 @@
     <t>2024-01-23</t>
   </si>
   <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>DB</t>
   </si>
   <si>
-    <t>IBK</t>
-  </si>
-  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>스튜디오삼익</t>
   </si>
   <si>
-    <t>IBKS제24호스팩</t>
-  </si>
-  <si>
     <t>1247.72:1</t>
   </si>
   <si>
@@ -308,9 +299,6 @@
     <t>966.90:1</t>
   </si>
   <si>
-    <t>955.19:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -446,7 +434,7 @@
     <t>2024.04.24~04.30</t>
   </si>
   <si>
-    <t>2024.04.18~04.24</t>
+    <t>2024.04.22~04.26</t>
   </si>
   <si>
     <t>2024.04.17~04.18</t>
@@ -539,10 +527,10 @@
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>13000</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>20000</t>
@@ -942,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1033,13 +1021,13 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>3000000</v>
@@ -1066,10 +1054,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1099,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1110,13 +1098,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>1600000</v>
@@ -1143,10 +1131,10 @@
         <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P3">
         <v>813929</v>
@@ -1176,7 +1164,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1187,13 +1175,13 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>2000000</v>
@@ -1220,10 +1208,10 @@
         <v>30000</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P4">
         <v>59096247022</v>
@@ -1253,7 +1241,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1267,10 +1255,10 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>990000</v>
@@ -1297,10 +1285,10 @@
         <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P5">
         <v>132326879204</v>
@@ -1330,7 +1318,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1344,10 +1332,10 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>2104000</v>
@@ -1374,10 +1362,10 @@
         <v>13500</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P6">
         <v>13884202433</v>
@@ -1407,7 +1395,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1418,13 +1406,13 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>5000000</v>
@@ -1451,10 +1439,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1484,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1498,10 +1486,10 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>6500000</v>
@@ -1528,10 +1516,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1561,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1572,13 +1560,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1605,10 +1593,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1638,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1649,13 +1637,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1682,10 +1670,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1715,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1729,10 +1717,10 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>4000000</v>
@@ -1759,10 +1747,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1792,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1803,13 +1791,13 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>600000</v>
@@ -1836,10 +1824,10 @@
         <v>16000</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P12">
         <v>9490</v>
@@ -1869,7 +1857,7 @@
         <v>876</v>
       </c>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1883,10 +1871,10 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>1000000</v>
@@ -1913,10 +1901,10 @@
         <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P13">
         <v>11728856090</v>
@@ -1946,7 +1934,7 @@
         <v>-2027030543</v>
       </c>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1957,13 +1945,13 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>1130000</v>
@@ -1990,10 +1978,10 @@
         <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P14">
         <v>-7085110800</v>
@@ -2023,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2034,13 +2022,13 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>4575000</v>
@@ -2067,10 +2055,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2100,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2111,13 +2099,13 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>850000</v>
@@ -2144,10 +2132,10 @@
         <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P16">
         <v>84448377049</v>
@@ -2177,83 +2165,6 @@
         <v>1937996182</v>
       </c>
       <c r="Y16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17">
-        <v>4000000</v>
-      </c>
-      <c r="G17">
-        <v>4000000</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>2000</v>
-      </c>
-      <c r="J17">
-        <v>2000</v>
-      </c>
-      <c r="K17">
-        <v>4230000</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>2000</v>
-      </c>
-      <c r="N17" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2272,422 +2183,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>25610</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>652370</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>16500</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>10300</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>19500</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>24200</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>7000</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>36000</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="E14">
         <v>10000</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E15">
         <v>19250</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E16">
         <v>6000</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E17">
         <v>17600</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E18">
         <v>40000</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
         <v>172</v>
-      </c>
-      <c r="D19" t="s">
-        <v>176</v>
       </c>
       <c r="E19">
         <v>12870</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E20">
         <v>10000</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E21">
         <v>18936</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="192">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
     <t>2024-03-12</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
     <t>2024-01-17</t>
   </si>
   <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
     <t>2024-03-13</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
     <t>2024-01-23</t>
   </si>
   <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
     <t>2024-02-06</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -209,6 +221,9 @@
     <t>DB</t>
   </si>
   <si>
+    <t>아이엠비디엑스</t>
+  </si>
+  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -254,6 +269,9 @@
     <t>스튜디오삼익</t>
   </si>
   <si>
+    <t>865.73 :1</t>
+  </si>
+  <si>
     <t>1247.72:1</t>
   </si>
   <si>
@@ -326,6 +344,9 @@
     <t>5.55%</t>
   </si>
   <si>
+    <t>알파리퀴드ⓡ 100, 알파리퀴드ⓡ HRR, 알파리퀴드ⓡ 디텍트, 알파리퀴드ⓡ 스크리닝</t>
+  </si>
+  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -419,9 +440,6 @@
     <t>신한스팩12호</t>
   </si>
   <si>
-    <t>아이엠비디엑스</t>
-  </si>
-  <si>
     <t>하나스팩32호</t>
   </si>
   <si>
@@ -485,7 +503,7 @@
     <t>2024.02.16~02.22</t>
   </si>
   <si>
-    <t>8,700~11,500</t>
+    <t>8,700~11,000</t>
   </si>
   <si>
     <t>13,000~16,000</t>
@@ -930,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,76 +1036,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G2">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K2">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1230336508</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2624739502</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2926965114</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-5277789009</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-8667658271</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-4923399541</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-9788525741</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-10436419054</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1095,76 +1113,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G3">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>813929</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2184312</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3744252</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-4828658</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-7101029</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-4926381</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-24094044</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-6797310</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-7817567</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1172,76 +1190,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G4">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
+        <v>11000</v>
+      </c>
+      <c r="J4">
+        <v>15000</v>
+      </c>
+      <c r="K4">
+        <v>14014976</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>20000</v>
       </c>
-      <c r="J4">
-        <v>25000</v>
-      </c>
-      <c r="K4">
-        <v>10569189</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>30000</v>
-      </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P4">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q4">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R4">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S4">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T4">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U4">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V4">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W4">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X4">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1249,76 +1267,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G5">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K5">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P5">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q5">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R5">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S5">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T5">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U5">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V5">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W5">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X5">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1326,153 +1344,153 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G6">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K6">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P6">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q6">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R6">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S6">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T6">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U6">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V6">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W6">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X6">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G7">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K7">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1480,22 +1498,22 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G8">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1507,7 +1525,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1516,10 +1534,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1549,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1557,22 +1575,22 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G9">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1584,7 +1602,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1593,10 +1611,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1626,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1637,13 +1655,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1661,7 +1679,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1670,10 +1688,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1703,24 +1721,24 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>4000000</v>
@@ -1738,7 +1756,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1747,10 +1765,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1780,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1788,76 +1806,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G12">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P12">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1865,218 +1883,218 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G13">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J13">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K13">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P13">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q13">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R13">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S13">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T13">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U13">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V13">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W13">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X13">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G14">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J14">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K14">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P14">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q14">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R14">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S14">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T14">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U14">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F15">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G15">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K15">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2088,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2096,76 +2114,153 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F16">
+        <v>4575000</v>
+      </c>
+      <c r="G16">
+        <v>4575000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+      <c r="K16">
+        <v>4690000</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
         <v>850000</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>850000</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>14500</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>16500</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>4225498</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>18000</v>
       </c>
-      <c r="N16" t="s">
-        <v>93</v>
-      </c>
-      <c r="O16" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16">
+      <c r="N17" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17">
         <v>84448377049</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>86585909893</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>71141473670</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>4232543828</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>2396516104</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>2260522008</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>3768461107</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>1925269107</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <v>1937996182</v>
       </c>
-      <c r="Y16" t="s">
-        <v>114</v>
+      <c r="Y17" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2183,422 +2278,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>25610</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>652370</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>16500</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>10300</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>19500</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>24200</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>7000</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>36000</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E14">
         <v>10000</v>
       </c>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E15">
         <v>19250</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E16">
         <v>6000</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E17">
         <v>17600</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E18">
         <v>40000</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E19">
         <v>12870</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E20">
         <v>10000</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E21">
         <v>18936</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="179">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -125,12 +125,6 @@
     <t>2024-02-01</t>
   </si>
   <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
     <t>2024-03-20</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>2024-02-07</t>
   </si>
   <si>
-    <t>2024-01-23</t>
-  </si>
-  <si>
     <t>2024-04-03</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>2024-02-23</t>
   </si>
   <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
     <t>미래</t>
   </si>
   <si>
@@ -215,12 +203,6 @@
     <t>한화</t>
   </si>
   <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>아이엠비디엑스</t>
   </si>
   <si>
@@ -263,12 +245,6 @@
     <t>이에이트</t>
   </si>
   <si>
-    <t>신영스팩10호</t>
-  </si>
-  <si>
-    <t>스튜디오삼익</t>
-  </si>
-  <si>
     <t>865.73 :1</t>
   </si>
   <si>
@@ -311,12 +287,6 @@
     <t>630.64:1</t>
   </si>
   <si>
-    <t>949.18:1</t>
-  </si>
-  <si>
-    <t>966.90:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -341,9 +311,6 @@
     <t>2.35%</t>
   </si>
   <si>
-    <t>5.55%</t>
-  </si>
-  <si>
     <t>알파리퀴드ⓡ 100, 알파리퀴드ⓡ HRR, 알파리퀴드ⓡ 디텍트, 알파리퀴드ⓡ 스크리닝</t>
   </si>
   <si>
@@ -380,9 +347,6 @@
     <t>CFD 시뮬레이션 소프트웨어, 디지털트윈 플랫폼</t>
   </si>
   <si>
-    <t>침실가구, 거실가구, 옷장/수납, 주방가구 등</t>
-  </si>
-  <si>
     <t>종목명</t>
   </si>
   <si>
@@ -401,9 +365,15 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>하스</t>
+  </si>
+  <si>
     <t>노브랜드</t>
   </si>
   <si>
+    <t>KB스팩28호</t>
+  </si>
+  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
@@ -443,12 +413,15 @@
     <t>하나스팩32호</t>
   </si>
   <si>
-    <t>하나스팩31호</t>
+    <t>2024.05.16~05.22</t>
   </si>
   <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
+    <t>2024.04.29~04.30</t>
+  </si>
+  <si>
     <t>2024.04.24~04.30</t>
   </si>
   <si>
@@ -497,24 +470,21 @@
     <t>2024.02.21~02.27</t>
   </si>
   <si>
-    <t>2024.02.16~02.19</t>
-  </si>
-  <si>
-    <t>2024.02.16~02.22</t>
+    <t>9,000~12,000</t>
   </si>
   <si>
     <t>8,700~11,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>13,000~16,000</t>
   </si>
   <si>
     <t>29,000~35,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>73,300~83,400</t>
   </si>
   <si>
@@ -542,9 +512,6 @@
     <t>13,000~15,000</t>
   </si>
   <si>
-    <t>9,000~11,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -557,12 +524,12 @@
     <t>30000</t>
   </si>
   <si>
-    <t>13500</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>KB증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -578,9 +545,6 @@
     <t>유안타증권</t>
   </si>
   <si>
-    <t>KB증권</t>
-  </si>
-  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -588,9 +552,6 @@
   </si>
   <si>
     <t>미래에셋증권</t>
-  </si>
-  <si>
-    <t>DB금융투자,NH투자증권</t>
   </si>
 </sst>
 </file>
@@ -948,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,16 +997,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>2500000</v>
@@ -1072,10 +1033,10 @@
         <v>13000</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P2">
         <v>1230336508</v>
@@ -1105,7 +1066,7 @@
         <v>-7563224846</v>
       </c>
       <c r="Y2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1113,16 +1074,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>3000000</v>
@@ -1149,10 +1110,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1182,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1193,13 +1154,13 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>1600000</v>
@@ -1226,10 +1187,10 @@
         <v>20000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="P4">
         <v>813929</v>
@@ -1259,7 +1220,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1267,16 +1228,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>2000000</v>
@@ -1303,10 +1264,10 @@
         <v>30000</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="P5">
         <v>59096247022</v>
@@ -1336,7 +1297,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1344,16 +1305,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>990000</v>
@@ -1380,10 +1341,10 @@
         <v>20000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="P6">
         <v>132326879204</v>
@@ -1413,7 +1374,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1421,16 +1382,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>2104000</v>
@@ -1457,10 +1418,10 @@
         <v>13500</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P7">
         <v>13884202433</v>
@@ -1490,7 +1451,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1498,16 +1459,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>5000000</v>
@@ -1534,11 +1495,11 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
-        <v>100</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -1567,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1581,10 +1542,10 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>6500000</v>
@@ -1611,10 +1572,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1644,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1655,13 +1616,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1688,10 +1649,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1721,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1732,13 +1693,13 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>4000000</v>
@@ -1765,10 +1726,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1798,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1812,10 +1773,10 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>4000000</v>
@@ -1842,10 +1803,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1875,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1883,16 +1844,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>600000</v>
@@ -1919,10 +1880,10 @@
         <v>16000</v>
       </c>
       <c r="N13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" t="s">
         <v>95</v>
-      </c>
-      <c r="O13" t="s">
-        <v>105</v>
       </c>
       <c r="P13">
         <v>9490</v>
@@ -1952,7 +1913,7 @@
         <v>876</v>
       </c>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1960,16 +1921,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F14">
         <v>1000000</v>
@@ -1996,10 +1957,10 @@
         <v>7000</v>
       </c>
       <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
         <v>96</v>
-      </c>
-      <c r="O14" t="s">
-        <v>106</v>
       </c>
       <c r="P14">
         <v>11728856090</v>
@@ -2029,7 +1990,7 @@
         <v>-2027030543</v>
       </c>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2037,16 +1998,16 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>1130000</v>
@@ -2073,10 +2034,10 @@
         <v>20000</v>
       </c>
       <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
         <v>97</v>
-      </c>
-      <c r="O15" t="s">
-        <v>107</v>
       </c>
       <c r="P15">
         <v>-7085110800</v>
@@ -2106,161 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16">
-        <v>4575000</v>
-      </c>
-      <c r="G16">
-        <v>4575000</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>2000</v>
-      </c>
-      <c r="J16">
-        <v>2000</v>
-      </c>
-      <c r="K16">
-        <v>4690000</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>2000</v>
-      </c>
-      <c r="N16" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17">
-        <v>850000</v>
-      </c>
-      <c r="G17">
-        <v>850000</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>14500</v>
-      </c>
-      <c r="J17">
-        <v>16500</v>
-      </c>
-      <c r="K17">
-        <v>4225498</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>18000</v>
-      </c>
-      <c r="N17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17">
-        <v>84448377049</v>
-      </c>
-      <c r="Q17">
-        <v>86585909893</v>
-      </c>
-      <c r="R17">
-        <v>71141473670</v>
-      </c>
-      <c r="S17">
-        <v>4232543828</v>
-      </c>
-      <c r="T17">
-        <v>2396516104</v>
-      </c>
-      <c r="U17">
-        <v>2260522008</v>
-      </c>
-      <c r="V17">
-        <v>3768461107</v>
-      </c>
-      <c r="W17">
-        <v>1925269107</v>
-      </c>
-      <c r="X17">
-        <v>1937996182</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2278,422 +2085,422 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>10440</v>
+        <v>16290</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>25610</v>
+        <v>10440</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>17400</v>
+        <v>10000</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>6000</v>
+        <v>25610</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>652370</v>
+        <v>17400</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="F7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>10300</v>
+        <v>652370</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E10">
-        <v>24200</v>
+        <v>10300</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E11">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E12">
-        <v>36000</v>
+        <v>24200</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
         <v>153</v>
       </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E13">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>6000</v>
+      </c>
+      <c r="F15" t="s">
         <v>177</v>
-      </c>
-      <c r="E15">
-        <v>19250</v>
-      </c>
-      <c r="F15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
         <v>165</v>
       </c>
-      <c r="D16" t="s">
-        <v>176</v>
-      </c>
       <c r="E16">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17">
+        <v>19250</v>
+      </c>
+      <c r="F17" t="s">
         <v>178</v>
-      </c>
-      <c r="E17">
-        <v>17600</v>
-      </c>
-      <c r="F17" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E18">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E19">
-        <v>12870</v>
+        <v>17600</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E20">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E21">
-        <v>18936</v>
+        <v>12870</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -2374,7 +2374,7 @@
         <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="E15">
         <v>6000</v>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -371,6 +371,9 @@
     <t>노브랜드</t>
   </si>
   <si>
+    <t>에스오에스랩</t>
+  </si>
+  <si>
     <t>KB스팩28호</t>
   </si>
   <si>
@@ -467,15 +470,15 @@
     <t>2024.02.29~03.07</t>
   </si>
   <si>
-    <t>2024.02.21~02.27</t>
-  </si>
-  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
     <t>8,700~11,000</t>
   </si>
   <si>
+    <t>7,500~9,000</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -509,9 +512,6 @@
     <t>20,000~25,000</t>
   </si>
   <si>
-    <t>13,000~15,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -527,13 +527,13 @@
     <t>삼성증권</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>KB증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
   <si>
     <t>SK증권</t>
@@ -2108,7 +2108,7 @@
         <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>151</v>
@@ -2128,7 +2128,7 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>152</v>
@@ -2157,7 +2157,7 @@
         <v>90</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F4" t="s">
         <v>170</v>
@@ -2177,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="E5">
-        <v>25610</v>
+        <v>10000</v>
       </c>
       <c r="F5" t="s">
         <v>171</v>
@@ -2197,7 +2197,7 @@
         <v>90</v>
       </c>
       <c r="E6">
-        <v>17400</v>
+        <v>25610</v>
       </c>
       <c r="F6" t="s">
         <v>172</v>
@@ -2211,16 +2211,16 @@
         <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
         <v>90</v>
       </c>
       <c r="E7">
-        <v>6000</v>
+        <v>17400</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2231,16 +2231,16 @@
         <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
         <v>90</v>
       </c>
       <c r="E8">
-        <v>652370</v>
+        <v>6000</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2257,10 +2257,10 @@
         <v>90</v>
       </c>
       <c r="E9">
-        <v>16500</v>
+        <v>652370</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2271,16 +2271,16 @@
         <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
         <v>90</v>
       </c>
       <c r="E10">
-        <v>10300</v>
+        <v>16500</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2291,16 +2291,16 @@
         <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
         <v>90</v>
       </c>
       <c r="E11">
-        <v>19500</v>
+        <v>10300</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2308,7 +2308,7 @@
         <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>159</v>
@@ -2317,10 +2317,10 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>24200</v>
+        <v>19500</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2331,16 +2331,16 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
       </c>
       <c r="E13">
-        <v>7000</v>
+        <v>24200</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2351,16 +2351,16 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="E14">
-        <v>36000</v>
+        <v>7000</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2371,16 +2371,16 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="F15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2391,13 +2391,13 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
         <v>165</v>
       </c>
       <c r="E16">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F16" t="s">
         <v>177</v>
@@ -2405,67 +2405,67 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E18">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E19">
-        <v>17600</v>
+        <v>6000</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>149</v>
@@ -2474,10 +2474,10 @@
         <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F20" t="s">
         <v>172</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>150</v>
@@ -2494,13 +2494,13 @@
         <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E21">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="202">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -389,6 +389,9 @@
     <t>하스</t>
   </si>
   <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
     <t>노브랜드</t>
   </si>
   <si>
@@ -443,6 +446,9 @@
     <t>2024.05.16~05.22</t>
   </si>
   <si>
+    <t>2024.05.13~05.14</t>
+  </si>
+  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
@@ -488,21 +494,18 @@
     <t>2024.03.12~03.13</t>
   </si>
   <si>
-    <t>2024.03.06~03.12</t>
-  </si>
-  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>8,700~11,000</t>
   </si>
   <si>
     <t>7,500~9,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>13,000~16,000</t>
   </si>
   <si>
@@ -530,24 +533,72 @@
     <t>7,700~9,900</t>
   </si>
   <si>
-    <t>11,000~15,000</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
+    <t>33000</t>
+  </si>
+  <si>
     <t>22000</t>
   </si>
   <si>
     <t>13000</t>
   </si>
   <si>
-    <t>20000</t>
+    <t>16290</t>
+  </si>
+  <si>
+    <t>10440</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>25610</t>
+  </si>
+  <si>
+    <t>13650</t>
+  </si>
+  <si>
+    <t>17400</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>652370</t>
+  </si>
+  <si>
+    <t>16500</t>
+  </si>
+  <si>
+    <t>10300</t>
+  </si>
+  <si>
+    <t>19500</t>
+  </si>
+  <si>
+    <t>24200</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>19250</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -570,9 +621,6 @@
   </si>
   <si>
     <t>신한투자증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
   </si>
 </sst>
 </file>
@@ -2206,19 +2254,19 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="E2">
-        <v>16290</v>
+      <c r="E2" t="s">
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2226,19 +2274,19 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="E3">
-        <v>10440</v>
+      <c r="E3" t="s">
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2246,19 +2294,19 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="E4">
-        <v>15000</v>
+      <c r="E4" t="s">
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2266,19 +2314,19 @@
         <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="E5">
-        <v>10000</v>
+      <c r="E5" t="s">
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2286,19 +2334,19 @@
         <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
         <v>95</v>
       </c>
-      <c r="E6">
-        <v>25610</v>
+      <c r="E6" t="s">
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2306,7 +2354,7 @@
         <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>163</v>
@@ -2314,11 +2362,11 @@
       <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="E7">
-        <v>13650</v>
+      <c r="E7" t="s">
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2326,7 +2374,7 @@
         <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>164</v>
@@ -2334,11 +2382,11 @@
       <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="E8">
-        <v>17400</v>
+      <c r="E8" t="s">
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2346,19 +2394,19 @@
         <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="E9">
-        <v>6000</v>
+      <c r="E9" t="s">
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2366,19 +2414,19 @@
         <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="E10">
-        <v>652370</v>
+      <c r="E10" t="s">
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2386,7 +2434,7 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>166</v>
@@ -2394,11 +2442,11 @@
       <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="E11">
-        <v>16500</v>
+      <c r="E11" t="s">
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2406,19 +2454,19 @@
         <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
       </c>
-      <c r="E12">
-        <v>10300</v>
+      <c r="E12" t="s">
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2426,19 +2474,19 @@
         <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13">
-        <v>19500</v>
+        <v>172</v>
+      </c>
+      <c r="E13" t="s">
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2446,7 +2494,7 @@
         <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>168</v>
@@ -2454,11 +2502,11 @@
       <c r="D14" t="s">
         <v>95</v>
       </c>
-      <c r="E14">
-        <v>24200</v>
+      <c r="E14" t="s">
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2466,19 +2514,19 @@
         <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15">
-        <v>7000</v>
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2486,19 +2534,19 @@
         <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16">
-        <v>36000</v>
+        <v>172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2506,19 +2554,19 @@
         <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17">
-        <v>6000</v>
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2526,79 +2574,79 @@
         <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
         <v>172</v>
       </c>
-      <c r="E18">
-        <v>10000</v>
+      <c r="E18" t="s">
+        <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19">
-        <v>19250</v>
+        <v>172</v>
+      </c>
+      <c r="E19" t="s">
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20">
-        <v>6000</v>
+        <v>175</v>
+      </c>
+      <c r="E20" t="s">
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21">
-        <v>17600</v>
+        <v>172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/ib-strategy-data.xlsx
+++ b/datasets/ib-strategy-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="203">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -92,6 +92,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -125,7 +128,7 @@
     <t>2024-01-29</t>
   </si>
   <si>
-    <t>2024-02-01</t>
+    <t>2024-04-05</t>
   </si>
   <si>
     <t>2024-03-28</t>
@@ -152,7 +155,7 @@
     <t>2024-02-02</t>
   </si>
   <si>
-    <t>2024-02-07</t>
+    <t>2024-04-22</t>
   </si>
   <si>
     <t>2024-04-15</t>
@@ -212,6 +215,9 @@
     <t>한화</t>
   </si>
   <si>
+    <t>신한제13호스팩</t>
+  </si>
+  <si>
     <t>신한제12호스팩</t>
   </si>
   <si>
@@ -251,12 +257,12 @@
     <t>코셈</t>
   </si>
   <si>
-    <t>케이웨더</t>
-  </si>
-  <si>
     <t>이에이트</t>
   </si>
   <si>
+    <t>1337.88:1</t>
+  </si>
+  <si>
     <t>1,104.54:1</t>
   </si>
   <si>
@@ -296,9 +302,6 @@
     <t>1,267.60:1</t>
   </si>
   <si>
-    <t>1,362.5:1</t>
-  </si>
-  <si>
     <t>630.64:1</t>
   </si>
   <si>
@@ -323,12 +326,12 @@
     <t>10.04%</t>
   </si>
   <si>
-    <t>3.93%</t>
-  </si>
-  <si>
     <t>2.35%</t>
   </si>
   <si>
+    <t>기타금융서비스(기업합병)</t>
+  </si>
+  <si>
     <t>금융서비스(기업인수목적회사)</t>
   </si>
   <si>
@@ -362,9 +365,6 @@
     <t>주사전자현미경(SEM)</t>
   </si>
   <si>
-    <t>공기개선솔루션, 기상데이터, 공기측정솔루션 등</t>
-  </si>
-  <si>
     <t>CFD 시뮬레이션 소프트웨어, 디지털트윈 플랫폼</t>
   </si>
   <si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>10500</t>
   </si>
   <si>
     <t>33000</t>
@@ -1072,16 +1075,16 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G2">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1093,7 +1096,7 @@
         <v>2000</v>
       </c>
       <c r="K2">
-        <v>5520000</v>
+        <v>3620000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1102,10 +1105,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1152,64 +1155,64 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="G3">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>13992625</v>
+        <v>5520000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
         <v>96</v>
       </c>
       <c r="P3">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
         <v>105</v>
@@ -1223,70 +1226,70 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G4">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K4">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-     